--- a/Restored To Eden/Outputs/Formulation Sheets/monni hardstone-night cream.xlsx
+++ b/Restored To Eden/Outputs/Formulation Sheets/monni hardstone-night cream.xlsx
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB986"/>
+  <dimension ref="A1:AB985"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -536,7 +536,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>monni hardstone</t>
+          <t>Monni Hardstone</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>night cream</t>
+          <t>Night Cream</t>
         </is>
       </c>
       <c r="C2" s="16" t="inlineStr">
@@ -782,7 +782,7 @@
     <row r="7" ht="17.4" customHeight="1" s="17">
       <c r="A7" s="10" t="inlineStr">
         <is>
-          <t>lavandula angustifolia (lavender) floral water</t>
+          <t>Lavandula angustifolia (Lavender) floral water</t>
         </is>
       </c>
       <c r="B7" s="10" t="inlineStr">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="D7" s="7" t="n">
-        <v>66.7</v>
+        <v>74.2</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>66.7</v>
+        <v>74.2</v>
       </c>
       <c r="G7" s="5" t="n"/>
       <c r="H7" s="5" t="n"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="D8" s="7" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="5" t="n"/>
       <c r="H8" s="5" t="n"/>
@@ -909,12 +909,12 @@
     <row r="10" ht="17.4" customHeight="1" s="17">
       <c r="A10" s="9" t="inlineStr">
         <is>
-          <t>simmondsia chinensis seed oil</t>
+          <t>Macadamia integrifolia (Macadamia nut) refined oil (certified organic)</t>
         </is>
       </c>
       <c r="B10" s="10" t="inlineStr">
         <is>
-          <t>jojoba oil</t>
+          <t>macadamia</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
@@ -923,10 +923,10 @@
         </is>
       </c>
       <c r="D10" s="7" t="n">
-        <v>11.7</v>
+        <v>13</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>11.7</v>
+        <v>13</v>
       </c>
       <c r="G10" s="5" t="n"/>
       <c r="H10" s="5" t="n"/>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="D11" s="7" t="n">
-        <v>13.3</v>
+        <v>8</v>
       </c>
       <c r="E11" s="8" t="n">
-        <v>13.3</v>
+        <v>8</v>
       </c>
       <c r="G11" s="5" t="n"/>
       <c r="H11" s="5" t="n"/>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="D12" s="7" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="E12" s="8" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="G12" s="5" t="n"/>
       <c r="H12" s="5" t="n"/>
@@ -1036,7 +1036,7 @@
     <row r="13" ht="17.4" customHeight="1" s="17">
       <c r="A13" s="9" t="inlineStr">
         <is>
-          <t>citrus limonum (lemon) oil (cold pressed) 100% pure essential oil</t>
+          <t>Citrus limonum (Lemon) oil (Cold Pressed) 100% pure essential oil</t>
         </is>
       </c>
       <c r="B13" s="10" t="inlineStr">
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="D13" s="7" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E13" s="8" t="n">
-        <v>0.8</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="G13" s="5" t="n"/>
       <c r="H13" s="5" t="n"/>
@@ -1081,7 +1081,7 @@
     <row r="14" ht="17.4" customHeight="1" s="17">
       <c r="A14" s="9" t="inlineStr">
         <is>
-          <t>rosmarinus officinalis (rosemary) essential oil</t>
+          <t>Rosmarinus officinalis (Rosemary) essential oil</t>
         </is>
       </c>
       <c r="B14" s="10" t="inlineStr">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E14" s="8" t="n">
-        <v>0.8</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="G14" s="5" t="n"/>
       <c r="H14" s="5" t="n"/>
@@ -1124,14 +1124,10 @@
       <c r="AB14" s="5" t="n"/>
     </row>
     <row r="15" ht="17.4" customHeight="1" s="17">
-      <c r="A15" s="9" t="inlineStr">
-        <is>
-          <t>nardostachys jatamansi (spikenard) essential oil egypt</t>
-        </is>
-      </c>
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="10" t="inlineStr">
         <is>
-          <t>spikenard egypt</t>
+          <t>Antioxidant [this ingredient does not change]</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr">
@@ -1140,10 +1136,10 @@
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="8" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="5" t="n"/>
       <c r="H15" s="5" t="n"/>
@@ -1169,23 +1165,18 @@
       <c r="AB15" s="5" t="n"/>
     </row>
     <row r="16" ht="17.4" customHeight="1" s="17">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="10" t="inlineStr">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="15" t="inlineStr">
         <is>
-          <t>Antioxidant [this ingredient does not change]</t>
+          <t>TOTAL 100%</t>
         </is>
       </c>
-      <c r="C16" s="7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
+      <c r="C16" s="12" t="n"/>
+      <c r="D16" s="7">
+        <f>SUM(D7:D22)</f>
+        <v/>
       </c>
-      <c r="D16" s="7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E16" s="8" t="n">
-        <v>0.8</v>
-      </c>
+      <c r="E16" s="7" t="n"/>
       <c r="G16" s="5" t="n"/>
       <c r="H16" s="5" t="n"/>
       <c r="I16" s="5" t="n"/>
@@ -1210,18 +1201,14 @@
       <c r="AB16" s="5" t="n"/>
     </row>
     <row r="17" ht="17.4" customHeight="1" s="17">
-      <c r="A17" s="11" t="n"/>
-      <c r="B17" s="15" t="inlineStr">
+      <c r="A17" s="13" t="inlineStr">
         <is>
-          <t>TOTAL 100%</t>
+          <t>COPY DETAILS AND PASTE INTO FORMULATION CALCULATOR</t>
         </is>
       </c>
-      <c r="C17" s="12" t="n"/>
-      <c r="D17" s="7">
-        <f>SUM(D7:D22)</f>
-        <v/>
-      </c>
-      <c r="E17" s="7" t="n"/>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="5" t="n"/>
+      <c r="E17" s="5" t="n"/>
       <c r="G17" s="5" t="n"/>
       <c r="H17" s="5" t="n"/>
       <c r="I17" s="5" t="n"/>
@@ -1246,11 +1233,8 @@
       <c r="AB17" s="5" t="n"/>
     </row>
     <row r="18" ht="17.4" customHeight="1" s="17">
-      <c r="A18" s="13" t="inlineStr">
-        <is>
-          <t>COPY DETAILS AND PASTE INTO FORMULATION CALCULATOR</t>
-        </is>
-      </c>
+      <c r="A18" s="5" t="n"/>
+      <c r="B18" s="5" t="n"/>
       <c r="C18" s="5" t="n"/>
       <c r="D18" s="5" t="n"/>
       <c r="E18" s="5" t="n"/>
@@ -1312,6 +1296,7 @@
       <c r="C20" s="5" t="n"/>
       <c r="D20" s="5" t="n"/>
       <c r="E20" s="5" t="n"/>
+      <c r="F20" s="5" t="n"/>
       <c r="G20" s="5" t="n"/>
       <c r="H20" s="5" t="n"/>
       <c r="I20" s="5" t="n"/>
@@ -30285,36 +30270,7 @@
       <c r="AA985" s="5" t="n"/>
       <c r="AB985" s="5" t="n"/>
     </row>
-    <row r="986" ht="17.4" customHeight="1" s="17">
-      <c r="A986" s="5" t="n"/>
-      <c r="B986" s="5" t="n"/>
-      <c r="C986" s="5" t="n"/>
-      <c r="D986" s="5" t="n"/>
-      <c r="E986" s="5" t="n"/>
-      <c r="F986" s="5" t="n"/>
-      <c r="G986" s="5" t="n"/>
-      <c r="H986" s="5" t="n"/>
-      <c r="I986" s="5" t="n"/>
-      <c r="J986" s="5" t="n"/>
-      <c r="K986" s="5" t="n"/>
-      <c r="L986" s="5" t="n"/>
-      <c r="M986" s="5" t="n"/>
-      <c r="N986" s="5" t="n"/>
-      <c r="O986" s="5" t="n"/>
-      <c r="P986" s="5" t="n"/>
-      <c r="Q986" s="5" t="n"/>
-      <c r="R986" s="5" t="n"/>
-      <c r="S986" s="5" t="n"/>
-      <c r="T986" s="5" t="n"/>
-      <c r="U986" s="5" t="n"/>
-      <c r="V986" s="5" t="n"/>
-      <c r="W986" s="5" t="n"/>
-      <c r="X986" s="5" t="n"/>
-      <c r="Y986" s="5" t="n"/>
-      <c r="Z986" s="5" t="n"/>
-      <c r="AA986" s="5" t="n"/>
-      <c r="AB986" s="5" t="n"/>
-    </row>
+    <row r="986" ht="17.4" customHeight="1" s="17"/>
     <row r="987" ht="17.4" customHeight="1" s="17"/>
     <row r="988" ht="17.4" customHeight="1" s="17"/>
     <row r="989" ht="17.4" customHeight="1" s="17"/>

--- a/Restored To Eden/Outputs/Formulation Sheets/monni hardstone-night cream.xlsx
+++ b/Restored To Eden/Outputs/Formulation Sheets/monni hardstone-night cream.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="-15720" windowWidth="17130" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -201,6 +201,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -513,22 +514,22 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB985"/>
+  <dimension ref="A1:AB989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="42.6640625" customWidth="1" style="17" min="1" max="1"/>
-    <col width="65.88671875" customWidth="1" style="17" min="2" max="2"/>
-    <col width="41.6640625" customWidth="1" style="17" min="3" max="3"/>
-    <col width="18.88671875" customWidth="1" style="17" min="4" max="6"/>
+    <col width="42.6640625" customWidth="1" style="18" min="1" max="1"/>
+    <col width="65.88671875" customWidth="1" style="18" min="2" max="2"/>
+    <col width="41.6640625" customWidth="1" style="18" min="3" max="3"/>
+    <col width="18.88671875" customWidth="1" style="18" min="4" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" customHeight="1" s="17">
+    <row r="1" ht="17.4" customHeight="1" s="18">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Customer Name</t>
@@ -575,7 +576,7 @@
       <c r="Z1" s="5" t="n"/>
       <c r="AA1" s="5" t="n"/>
     </row>
-    <row r="2" ht="17.4" customHeight="1" s="17">
+    <row r="2" ht="17.4" customHeight="1" s="18">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Product Type  </t>
@@ -586,7 +587,7 @@
           <t>Night Cream</t>
         </is>
       </c>
-      <c r="C2" s="16" t="inlineStr">
+      <c r="C2" s="17" t="inlineStr">
         <is>
           <t>- this is an emulsion (aqueous and emulsion)</t>
         </is>
@@ -622,14 +623,14 @@
       <c r="Z2" s="5" t="n"/>
       <c r="AA2" s="5" t="n"/>
     </row>
-    <row r="3" ht="17.4" customHeight="1" s="17">
+    <row r="3" ht="17.4" customHeight="1" s="18">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Date Manufactured </t>
         </is>
       </c>
       <c r="B3" s="2" t="n"/>
-      <c r="C3" s="16" t="inlineStr">
+      <c r="C3" s="17" t="inlineStr">
         <is>
           <t>- Rich, thick and oily with a slower absorption rate (over several hours)</t>
         </is>
@@ -657,14 +658,14 @@
       <c r="Z3" s="5" t="n"/>
       <c r="AA3" s="5" t="n"/>
     </row>
-    <row r="4" ht="17.4" customHeight="1" s="17">
+    <row r="4" ht="17.4" customHeight="1" s="18">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Batch Number </t>
         </is>
       </c>
       <c r="B4" s="6" t="n"/>
-      <c r="C4" s="18" t="inlineStr">
+      <c r="C4" s="19" t="inlineStr">
         <is>
           <t>- comedogenic rating if people have problems with large or clogged pores</t>
         </is>
@@ -692,16 +693,14 @@
       <c r="Z4" s="5" t="n"/>
       <c r="AA4" s="5" t="n"/>
     </row>
-    <row r="5" ht="17.4" customHeight="1" s="17">
+    <row r="5" ht="17.4" customHeight="1" s="18">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Product Formulation</t>
         </is>
       </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>[total batch amount in grms]</t>
-        </is>
+      <c r="B5" s="6" t="n">
+        <v>100</v>
       </c>
       <c r="C5" s="5" t="n"/>
       <c r="D5" s="5" t="n"/>
@@ -728,34 +727,16 @@
       <c r="Z5" s="5" t="n"/>
       <c r="AA5" s="5" t="n"/>
     </row>
-    <row r="6" ht="17.4" customHeight="1" s="17">
-      <c r="A6" s="7" t="inlineStr">
+    <row r="6" ht="17.4" customHeight="1" s="18">
+      <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>INCI Name</t>
+          <t>Expiry Date</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>Ingredient Name</t>
-        </is>
-      </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>Phase</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>% W/W</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>Total Grams/
-Amount in grams</t>
-        </is>
-      </c>
-      <c r="F6" s="14" t="n"/>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
       <c r="G6" s="5" t="n"/>
       <c r="H6" s="5" t="n"/>
       <c r="I6" s="5" t="n"/>
@@ -777,30 +758,35 @@
       <c r="Y6" s="5" t="n"/>
       <c r="Z6" s="5" t="n"/>
       <c r="AA6" s="5" t="n"/>
-      <c r="AB6" s="5" t="n"/>
-    </row>
-    <row r="7" ht="17.4" customHeight="1" s="17">
-      <c r="A7" s="10" t="inlineStr">
+    </row>
+    <row r="7" ht="17.4" customHeight="1" s="18">
+      <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>Lavandula angustifolia (Lavender) floral water</t>
+          <t>INCI Name</t>
         </is>
       </c>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>lavender floral water</t>
+          <t>Ingredient Name</t>
         </is>
       </c>
       <c r="C7" s="7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Phase</t>
         </is>
       </c>
-      <c r="D7" s="7" t="n">
-        <v>74.2</v>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>% W/W</t>
+        </is>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>74.2</v>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>Total Grams/
+Amount in grams</t>
+        </is>
       </c>
+      <c r="F7" s="14" t="n"/>
       <c r="G7" s="5" t="n"/>
       <c r="H7" s="5" t="n"/>
       <c r="I7" s="5" t="n"/>
@@ -824,11 +810,15 @@
       <c r="AA7" s="5" t="n"/>
       <c r="AB7" s="5" t="n"/>
     </row>
-    <row r="8" ht="17.4" customHeight="1" s="17">
-      <c r="A8" s="9" t="n"/>
+    <row r="8" ht="17.4" customHeight="1" s="18">
+      <c r="A8" s="10" t="inlineStr">
+        <is>
+          <t>Lavandula angustifolia (Lavender) floral water</t>
+        </is>
+      </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>Humectant [this ingredient doesn't change]</t>
+          <t>lavender floral water</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
@@ -837,11 +827,9 @@
         </is>
       </c>
       <c r="D8" s="7" t="n">
-        <v>0.5</v>
+        <v>57.6</v>
       </c>
-      <c r="E8" s="8" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="E8" s="8" t="n"/>
       <c r="G8" s="5" t="n"/>
       <c r="H8" s="5" t="n"/>
       <c r="I8" s="5" t="n"/>
@@ -865,7 +853,7 @@
       <c r="AA8" s="5" t="n"/>
       <c r="AB8" s="5" t="n"/>
     </row>
-    <row r="9" ht="17.4" customHeight="1" s="17">
+    <row r="9" ht="17.4" customHeight="1" s="18">
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="10" t="inlineStr">
         <is>
@@ -878,11 +866,9 @@
         </is>
       </c>
       <c r="D9" s="7" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
-      <c r="E9" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="E9" s="8" t="n"/>
       <c r="G9" s="5" t="n"/>
       <c r="H9" s="5" t="n"/>
       <c r="I9" s="5" t="n"/>
@@ -906,28 +892,22 @@
       <c r="AA9" s="5" t="n"/>
       <c r="AB9" s="5" t="n"/>
     </row>
-    <row r="10" ht="17.4" customHeight="1" s="17">
-      <c r="A10" s="9" t="inlineStr">
-        <is>
-          <t>Macadamia integrifolia (Macadamia nut) refined oil (certified organic)</t>
-        </is>
-      </c>
+    <row r="10" ht="17.4" customHeight="1" s="18">
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="10" t="inlineStr">
         <is>
-          <t>macadamia</t>
+          <t>Humectant [this ingredient doesn't change]</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
-      <c r="E10" s="8" t="n">
-        <v>13</v>
-      </c>
+      <c r="E10" s="8" t="n"/>
       <c r="G10" s="5" t="n"/>
       <c r="H10" s="5" t="n"/>
       <c r="I10" s="5" t="n"/>
@@ -951,11 +931,15 @@
       <c r="AA10" s="5" t="n"/>
       <c r="AB10" s="5" t="n"/>
     </row>
-    <row r="11" ht="17.4" customHeight="1" s="17">
-      <c r="A11" s="9" t="n"/>
+    <row r="11" ht="17.4" customHeight="1" s="18">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>Euterpe oleracea (Acai) oil (certified organic)</t>
+        </is>
+      </c>
       <c r="B11" s="10" t="inlineStr">
         <is>
-          <t>Emulsifier [this ingredient does not change]</t>
+          <t>acai oil certified organic</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr">
@@ -964,11 +948,9 @@
         </is>
       </c>
       <c r="D11" s="7" t="n">
-        <v>8</v>
+        <v>10.1</v>
       </c>
-      <c r="E11" s="8" t="n">
-        <v>8</v>
-      </c>
+      <c r="E11" s="8" t="n"/>
       <c r="G11" s="5" t="n"/>
       <c r="H11" s="5" t="n"/>
       <c r="I11" s="5" t="n"/>
@@ -992,24 +974,26 @@
       <c r="AA11" s="5" t="n"/>
       <c r="AB11" s="5" t="n"/>
     </row>
-    <row r="12" ht="17.4" customHeight="1" s="17">
-      <c r="A12" s="9" t="n"/>
+    <row r="12" ht="17.4" customHeight="1" s="18">
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>Hippophae rhamnoides (Sea Buckthorn) CO2 Oil</t>
+        </is>
+      </c>
       <c r="B12" s="10" t="inlineStr">
         <is>
-          <t>Preservative [this ingredient does not change]</t>
+          <t>sea buckthorn co2 oil</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
-        <v>1</v>
+        <v>10.1</v>
       </c>
-      <c r="E12" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="E12" s="8" t="n"/>
       <c r="G12" s="5" t="n"/>
       <c r="H12" s="5" t="n"/>
       <c r="I12" s="5" t="n"/>
@@ -1033,28 +1017,26 @@
       <c r="AA12" s="5" t="n"/>
       <c r="AB12" s="5" t="n"/>
     </row>
-    <row r="13" ht="17.4" customHeight="1" s="17">
+    <row r="13" ht="17.4" customHeight="1" s="18">
       <c r="A13" s="9" t="inlineStr">
         <is>
-          <t>Citrus limonum (Lemon) oil (Cold Pressed) 100% pure essential oil</t>
+          <t>Cannabis sativa (Hemp) seed oil (certified organic)</t>
         </is>
       </c>
       <c r="B13" s="10" t="inlineStr">
         <is>
-          <t>lemon essential oil</t>
+          <t>hemp seed oil certified organic</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
-        <v>0.9</v>
+        <v>10.1</v>
       </c>
-      <c r="E13" s="8" t="n">
-        <v>0.9000000000000001</v>
-      </c>
+      <c r="E13" s="8" t="n"/>
       <c r="G13" s="5" t="n"/>
       <c r="H13" s="5" t="n"/>
       <c r="I13" s="5" t="n"/>
@@ -1078,28 +1060,22 @@
       <c r="AA13" s="5" t="n"/>
       <c r="AB13" s="5" t="n"/>
     </row>
-    <row r="14" ht="17.4" customHeight="1" s="17">
-      <c r="A14" s="9" t="inlineStr">
-        <is>
-          <t>Rosmarinus officinalis (Rosemary) essential oil</t>
-        </is>
-      </c>
+    <row r="14" ht="17.4" customHeight="1" s="18">
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="10" t="inlineStr">
         <is>
-          <t>rosemary essential oil</t>
+          <t>Emulsifier [this ingredient does not change]</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>0.9</v>
+        <v>8</v>
       </c>
-      <c r="E14" s="8" t="n">
-        <v>0.9000000000000001</v>
-      </c>
+      <c r="E14" s="8" t="n"/>
       <c r="G14" s="5" t="n"/>
       <c r="H14" s="5" t="n"/>
       <c r="I14" s="5" t="n"/>
@@ -1123,11 +1099,11 @@
       <c r="AA14" s="5" t="n"/>
       <c r="AB14" s="5" t="n"/>
     </row>
-    <row r="15" ht="17.4" customHeight="1" s="17">
+    <row r="15" ht="17.4" customHeight="1" s="18">
       <c r="A15" s="9" t="n"/>
       <c r="B15" s="10" t="inlineStr">
         <is>
-          <t>Antioxidant [this ingredient does not change]</t>
+          <t>Preservative [this ingredient does not change]</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr">
@@ -1136,11 +1112,9 @@
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
-      <c r="E15" s="8" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="E15" s="8" t="n"/>
       <c r="G15" s="5" t="n"/>
       <c r="H15" s="5" t="n"/>
       <c r="I15" s="5" t="n"/>
@@ -1164,19 +1138,26 @@
       <c r="AA15" s="5" t="n"/>
       <c r="AB15" s="5" t="n"/>
     </row>
-    <row r="16" ht="17.4" customHeight="1" s="17">
-      <c r="A16" s="11" t="n"/>
-      <c r="B16" s="15" t="inlineStr">
+    <row r="16" ht="17.4" customHeight="1" s="18">
+      <c r="A16" s="9" t="inlineStr">
         <is>
-          <t>TOTAL 100%</t>
+          <t>Citrus limonum (Lemon) oil (Cold Pressed) 100% pure essential oil</t>
         </is>
       </c>
-      <c r="C16" s="12" t="n"/>
-      <c r="D16" s="7">
-        <f>SUM(D7:D22)</f>
-        <v/>
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t>lemon essential oil</t>
+        </is>
       </c>
-      <c r="E16" s="7" t="n"/>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E16" s="8" t="n"/>
       <c r="G16" s="5" t="n"/>
       <c r="H16" s="5" t="n"/>
       <c r="I16" s="5" t="n"/>
@@ -1200,15 +1181,26 @@
       <c r="AA16" s="5" t="n"/>
       <c r="AB16" s="5" t="n"/>
     </row>
-    <row r="17" ht="17.4" customHeight="1" s="17">
-      <c r="A17" s="13" t="inlineStr">
+    <row r="17" ht="17.4" customHeight="1" s="18">
+      <c r="A17" s="9" t="inlineStr">
         <is>
-          <t>COPY DETAILS AND PASTE INTO FORMULATION CALCULATOR</t>
+          <t>Rosmarinus officinalis (Rosemary) essential oil</t>
         </is>
       </c>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
+      <c r="B17" s="10" t="inlineStr">
+        <is>
+          <t>rosemary essential oil</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E17" s="8" t="n"/>
       <c r="G17" s="5" t="n"/>
       <c r="H17" s="5" t="n"/>
       <c r="I17" s="5" t="n"/>
@@ -1232,12 +1224,26 @@
       <c r="AA17" s="5" t="n"/>
       <c r="AB17" s="5" t="n"/>
     </row>
-    <row r="18" ht="17.4" customHeight="1" s="17">
-      <c r="A18" s="5" t="n"/>
-      <c r="B18" s="5" t="n"/>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
+    <row r="18" ht="17.4" customHeight="1" s="18">
+      <c r="A18" s="9" t="inlineStr">
+        <is>
+          <t>Styrax benzoin (Benzoin) resinoid</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="inlineStr">
+        <is>
+          <t>benzoin</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E18" s="8" t="n"/>
       <c r="G18" s="5" t="n"/>
       <c r="H18" s="5" t="n"/>
       <c r="I18" s="5" t="n"/>
@@ -1261,12 +1267,22 @@
       <c r="AA18" s="5" t="n"/>
       <c r="AB18" s="5" t="n"/>
     </row>
-    <row r="19" ht="17.4" customHeight="1" s="17">
-      <c r="A19" s="5" t="n"/>
-      <c r="B19" s="5" t="n"/>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
+    <row r="19" ht="17.4" customHeight="1" s="18">
+      <c r="A19" s="9" t="n"/>
+      <c r="B19" s="10" t="inlineStr">
+        <is>
+          <t>Antioxidant [this ingredient does not change]</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="8" t="n"/>
       <c r="G19" s="5" t="n"/>
       <c r="H19" s="5" t="n"/>
       <c r="I19" s="5" t="n"/>
@@ -1290,13 +1306,19 @@
       <c r="AA19" s="5" t="n"/>
       <c r="AB19" s="5" t="n"/>
     </row>
-    <row r="20" ht="17.4" customHeight="1" s="17">
-      <c r="A20" s="5" t="n"/>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
+    <row r="20" ht="17.4" customHeight="1" s="18">
+      <c r="A20" s="11" t="n"/>
+      <c r="B20" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL 100%</t>
+        </is>
+      </c>
+      <c r="C20" s="12" t="n"/>
+      <c r="D20" s="7">
+        <f>SUM(D8:D23)</f>
+        <v/>
+      </c>
+      <c r="E20" s="7" t="n"/>
       <c r="G20" s="5" t="n"/>
       <c r="H20" s="5" t="n"/>
       <c r="I20" s="5" t="n"/>
@@ -1320,13 +1342,15 @@
       <c r="AA20" s="5" t="n"/>
       <c r="AB20" s="5" t="n"/>
     </row>
-    <row r="21" ht="17.4" customHeight="1" s="17">
-      <c r="A21" s="5" t="n"/>
-      <c r="B21" s="5" t="n"/>
+    <row r="21" ht="17.4" customHeight="1" s="18">
+      <c r="A21" s="13" t="inlineStr">
+        <is>
+          <t>COPY DETAILS AND PASTE INTO FORMULATION CALCULATOR</t>
+        </is>
+      </c>
       <c r="C21" s="5" t="n"/>
       <c r="D21" s="5" t="n"/>
       <c r="E21" s="5" t="n"/>
-      <c r="F21" s="5" t="n"/>
       <c r="G21" s="5" t="n"/>
       <c r="H21" s="5" t="n"/>
       <c r="I21" s="5" t="n"/>
@@ -1350,13 +1374,12 @@
       <c r="AA21" s="5" t="n"/>
       <c r="AB21" s="5" t="n"/>
     </row>
-    <row r="22" ht="17.4" customHeight="1" s="17">
+    <row r="22" ht="17.4" customHeight="1" s="18">
       <c r="A22" s="5" t="n"/>
       <c r="B22" s="5" t="n"/>
       <c r="C22" s="5" t="n"/>
       <c r="D22" s="5" t="n"/>
       <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
       <c r="G22" s="5" t="n"/>
       <c r="H22" s="5" t="n"/>
       <c r="I22" s="5" t="n"/>
@@ -1380,13 +1403,12 @@
       <c r="AA22" s="5" t="n"/>
       <c r="AB22" s="5" t="n"/>
     </row>
-    <row r="23" ht="17.4" customHeight="1" s="17">
+    <row r="23" ht="17.4" customHeight="1" s="18">
       <c r="A23" s="5" t="n"/>
       <c r="B23" s="5" t="n"/>
       <c r="C23" s="5" t="n"/>
       <c r="D23" s="5" t="n"/>
       <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
       <c r="G23" s="5" t="n"/>
       <c r="H23" s="5" t="n"/>
       <c r="I23" s="5" t="n"/>
@@ -1410,7 +1432,7 @@
       <c r="AA23" s="5" t="n"/>
       <c r="AB23" s="5" t="n"/>
     </row>
-    <row r="24" ht="39.75" customHeight="1" s="17">
+    <row r="24" ht="17.4" customHeight="1" s="18">
       <c r="A24" s="5" t="n"/>
       <c r="B24" s="5" t="n"/>
       <c r="C24" s="5" t="n"/>
@@ -1440,7 +1462,7 @@
       <c r="AA24" s="5" t="n"/>
       <c r="AB24" s="5" t="n"/>
     </row>
-    <row r="25" ht="17.4" customHeight="1" s="17">
+    <row r="25" ht="39.75" customHeight="1" s="18">
       <c r="A25" s="5" t="n"/>
       <c r="B25" s="5" t="n"/>
       <c r="C25" s="5" t="n"/>
@@ -1470,7 +1492,7 @@
       <c r="AA25" s="5" t="n"/>
       <c r="AB25" s="5" t="n"/>
     </row>
-    <row r="26" ht="17.4" customHeight="1" s="17">
+    <row r="26" ht="17.4" customHeight="1" s="18">
       <c r="A26" s="5" t="n"/>
       <c r="B26" s="5" t="n"/>
       <c r="C26" s="5" t="n"/>
@@ -1500,7 +1522,7 @@
       <c r="AA26" s="5" t="n"/>
       <c r="AB26" s="5" t="n"/>
     </row>
-    <row r="27" ht="17.4" customHeight="1" s="17">
+    <row r="27" ht="17.4" customHeight="1" s="18">
       <c r="A27" s="5" t="n"/>
       <c r="B27" s="5" t="n"/>
       <c r="C27" s="5" t="n"/>
@@ -1530,7 +1552,7 @@
       <c r="AA27" s="5" t="n"/>
       <c r="AB27" s="5" t="n"/>
     </row>
-    <row r="28" ht="17.4" customHeight="1" s="17">
+    <row r="28" ht="17.4" customHeight="1" s="18">
       <c r="A28" s="5" t="n"/>
       <c r="B28" s="5" t="n"/>
       <c r="C28" s="5" t="n"/>
@@ -1560,7 +1582,7 @@
       <c r="AA28" s="5" t="n"/>
       <c r="AB28" s="5" t="n"/>
     </row>
-    <row r="29" ht="17.4" customHeight="1" s="17">
+    <row r="29" ht="17.4" customHeight="1" s="18">
       <c r="A29" s="5" t="n"/>
       <c r="B29" s="5" t="n"/>
       <c r="C29" s="5" t="n"/>
@@ -1590,7 +1612,7 @@
       <c r="AA29" s="5" t="n"/>
       <c r="AB29" s="5" t="n"/>
     </row>
-    <row r="30" ht="17.4" customHeight="1" s="17">
+    <row r="30" ht="17.4" customHeight="1" s="18">
       <c r="A30" s="5" t="n"/>
       <c r="B30" s="5" t="n"/>
       <c r="C30" s="5" t="n"/>
@@ -1620,7 +1642,7 @@
       <c r="AA30" s="5" t="n"/>
       <c r="AB30" s="5" t="n"/>
     </row>
-    <row r="31" ht="17.4" customHeight="1" s="17">
+    <row r="31" ht="17.4" customHeight="1" s="18">
       <c r="A31" s="5" t="n"/>
       <c r="B31" s="5" t="n"/>
       <c r="C31" s="5" t="n"/>
@@ -1650,7 +1672,7 @@
       <c r="AA31" s="5" t="n"/>
       <c r="AB31" s="5" t="n"/>
     </row>
-    <row r="32" ht="17.4" customHeight="1" s="17">
+    <row r="32" ht="17.4" customHeight="1" s="18">
       <c r="A32" s="5" t="n"/>
       <c r="B32" s="5" t="n"/>
       <c r="C32" s="5" t="n"/>
@@ -1680,7 +1702,7 @@
       <c r="AA32" s="5" t="n"/>
       <c r="AB32" s="5" t="n"/>
     </row>
-    <row r="33" ht="17.4" customHeight="1" s="17">
+    <row r="33" ht="17.4" customHeight="1" s="18">
       <c r="A33" s="5" t="n"/>
       <c r="B33" s="5" t="n"/>
       <c r="C33" s="5" t="n"/>
@@ -1710,7 +1732,7 @@
       <c r="AA33" s="5" t="n"/>
       <c r="AB33" s="5" t="n"/>
     </row>
-    <row r="34" ht="17.4" customHeight="1" s="17">
+    <row r="34" ht="17.4" customHeight="1" s="18">
       <c r="A34" s="5" t="n"/>
       <c r="B34" s="5" t="n"/>
       <c r="C34" s="5" t="n"/>
@@ -1740,7 +1762,7 @@
       <c r="AA34" s="5" t="n"/>
       <c r="AB34" s="5" t="n"/>
     </row>
-    <row r="35" ht="17.4" customHeight="1" s="17">
+    <row r="35" ht="17.4" customHeight="1" s="18">
       <c r="A35" s="5" t="n"/>
       <c r="B35" s="5" t="n"/>
       <c r="C35" s="5" t="n"/>
@@ -1770,7 +1792,7 @@
       <c r="AA35" s="5" t="n"/>
       <c r="AB35" s="5" t="n"/>
     </row>
-    <row r="36" ht="17.4" customHeight="1" s="17">
+    <row r="36" ht="17.4" customHeight="1" s="18">
       <c r="A36" s="5" t="n"/>
       <c r="B36" s="5" t="n"/>
       <c r="C36" s="5" t="n"/>
@@ -1800,7 +1822,7 @@
       <c r="AA36" s="5" t="n"/>
       <c r="AB36" s="5" t="n"/>
     </row>
-    <row r="37" ht="17.4" customHeight="1" s="17">
+    <row r="37" ht="17.4" customHeight="1" s="18">
       <c r="A37" s="5" t="n"/>
       <c r="B37" s="5" t="n"/>
       <c r="C37" s="5" t="n"/>
@@ -1830,7 +1852,7 @@
       <c r="AA37" s="5" t="n"/>
       <c r="AB37" s="5" t="n"/>
     </row>
-    <row r="38" ht="17.4" customHeight="1" s="17">
+    <row r="38" ht="17.4" customHeight="1" s="18">
       <c r="A38" s="5" t="n"/>
       <c r="B38" s="5" t="n"/>
       <c r="C38" s="5" t="n"/>
@@ -1860,7 +1882,7 @@
       <c r="AA38" s="5" t="n"/>
       <c r="AB38" s="5" t="n"/>
     </row>
-    <row r="39" ht="17.4" customHeight="1" s="17">
+    <row r="39" ht="17.4" customHeight="1" s="18">
       <c r="A39" s="5" t="n"/>
       <c r="B39" s="5" t="n"/>
       <c r="C39" s="5" t="n"/>
@@ -1890,7 +1912,7 @@
       <c r="AA39" s="5" t="n"/>
       <c r="AB39" s="5" t="n"/>
     </row>
-    <row r="40" ht="17.4" customHeight="1" s="17">
+    <row r="40" ht="17.4" customHeight="1" s="18">
       <c r="A40" s="5" t="n"/>
       <c r="B40" s="5" t="n"/>
       <c r="C40" s="5" t="n"/>
@@ -1920,7 +1942,7 @@
       <c r="AA40" s="5" t="n"/>
       <c r="AB40" s="5" t="n"/>
     </row>
-    <row r="41" ht="17.4" customHeight="1" s="17">
+    <row r="41" ht="17.4" customHeight="1" s="18">
       <c r="A41" s="5" t="n"/>
       <c r="B41" s="5" t="n"/>
       <c r="C41" s="5" t="n"/>
@@ -1950,7 +1972,7 @@
       <c r="AA41" s="5" t="n"/>
       <c r="AB41" s="5" t="n"/>
     </row>
-    <row r="42" ht="17.4" customHeight="1" s="17">
+    <row r="42" ht="17.4" customHeight="1" s="18">
       <c r="A42" s="5" t="n"/>
       <c r="B42" s="5" t="n"/>
       <c r="C42" s="5" t="n"/>
@@ -1980,7 +2002,7 @@
       <c r="AA42" s="5" t="n"/>
       <c r="AB42" s="5" t="n"/>
     </row>
-    <row r="43" ht="17.4" customHeight="1" s="17">
+    <row r="43" ht="17.4" customHeight="1" s="18">
       <c r="A43" s="5" t="n"/>
       <c r="B43" s="5" t="n"/>
       <c r="C43" s="5" t="n"/>
@@ -2010,7 +2032,7 @@
       <c r="AA43" s="5" t="n"/>
       <c r="AB43" s="5" t="n"/>
     </row>
-    <row r="44" ht="17.4" customHeight="1" s="17">
+    <row r="44" ht="17.4" customHeight="1" s="18">
       <c r="A44" s="5" t="n"/>
       <c r="B44" s="5" t="n"/>
       <c r="C44" s="5" t="n"/>
@@ -2040,7 +2062,7 @@
       <c r="AA44" s="5" t="n"/>
       <c r="AB44" s="5" t="n"/>
     </row>
-    <row r="45" ht="17.4" customHeight="1" s="17">
+    <row r="45" ht="17.4" customHeight="1" s="18">
       <c r="A45" s="5" t="n"/>
       <c r="B45" s="5" t="n"/>
       <c r="C45" s="5" t="n"/>
@@ -2070,7 +2092,7 @@
       <c r="AA45" s="5" t="n"/>
       <c r="AB45" s="5" t="n"/>
     </row>
-    <row r="46" ht="17.4" customHeight="1" s="17">
+    <row r="46" ht="17.4" customHeight="1" s="18">
       <c r="A46" s="5" t="n"/>
       <c r="B46" s="5" t="n"/>
       <c r="C46" s="5" t="n"/>
@@ -2100,7 +2122,7 @@
       <c r="AA46" s="5" t="n"/>
       <c r="AB46" s="5" t="n"/>
     </row>
-    <row r="47" ht="17.4" customHeight="1" s="17">
+    <row r="47" ht="17.4" customHeight="1" s="18">
       <c r="A47" s="5" t="n"/>
       <c r="B47" s="5" t="n"/>
       <c r="C47" s="5" t="n"/>
@@ -2130,7 +2152,7 @@
       <c r="AA47" s="5" t="n"/>
       <c r="AB47" s="5" t="n"/>
     </row>
-    <row r="48" ht="17.4" customHeight="1" s="17">
+    <row r="48" ht="17.4" customHeight="1" s="18">
       <c r="A48" s="5" t="n"/>
       <c r="B48" s="5" t="n"/>
       <c r="C48" s="5" t="n"/>
@@ -2160,7 +2182,7 @@
       <c r="AA48" s="5" t="n"/>
       <c r="AB48" s="5" t="n"/>
     </row>
-    <row r="49" ht="17.4" customHeight="1" s="17">
+    <row r="49" ht="17.4" customHeight="1" s="18">
       <c r="A49" s="5" t="n"/>
       <c r="B49" s="5" t="n"/>
       <c r="C49" s="5" t="n"/>
@@ -2190,7 +2212,7 @@
       <c r="AA49" s="5" t="n"/>
       <c r="AB49" s="5" t="n"/>
     </row>
-    <row r="50" ht="17.4" customHeight="1" s="17">
+    <row r="50" ht="17.4" customHeight="1" s="18">
       <c r="A50" s="5" t="n"/>
       <c r="B50" s="5" t="n"/>
       <c r="C50" s="5" t="n"/>
@@ -2220,7 +2242,7 @@
       <c r="AA50" s="5" t="n"/>
       <c r="AB50" s="5" t="n"/>
     </row>
-    <row r="51" ht="17.4" customHeight="1" s="17">
+    <row r="51" ht="17.4" customHeight="1" s="18">
       <c r="A51" s="5" t="n"/>
       <c r="B51" s="5" t="n"/>
       <c r="C51" s="5" t="n"/>
@@ -2250,7 +2272,7 @@
       <c r="AA51" s="5" t="n"/>
       <c r="AB51" s="5" t="n"/>
     </row>
-    <row r="52" ht="17.4" customHeight="1" s="17">
+    <row r="52" ht="17.4" customHeight="1" s="18">
       <c r="A52" s="5" t="n"/>
       <c r="B52" s="5" t="n"/>
       <c r="C52" s="5" t="n"/>
@@ -2280,7 +2302,7 @@
       <c r="AA52" s="5" t="n"/>
       <c r="AB52" s="5" t="n"/>
     </row>
-    <row r="53" ht="17.4" customHeight="1" s="17">
+    <row r="53" ht="17.4" customHeight="1" s="18">
       <c r="A53" s="5" t="n"/>
       <c r="B53" s="5" t="n"/>
       <c r="C53" s="5" t="n"/>
@@ -2310,7 +2332,7 @@
       <c r="AA53" s="5" t="n"/>
       <c r="AB53" s="5" t="n"/>
     </row>
-    <row r="54" ht="17.4" customHeight="1" s="17">
+    <row r="54" ht="17.4" customHeight="1" s="18">
       <c r="A54" s="5" t="n"/>
       <c r="B54" s="5" t="n"/>
       <c r="C54" s="5" t="n"/>
@@ -2340,7 +2362,7 @@
       <c r="AA54" s="5" t="n"/>
       <c r="AB54" s="5" t="n"/>
     </row>
-    <row r="55" ht="17.4" customHeight="1" s="17">
+    <row r="55" ht="17.4" customHeight="1" s="18">
       <c r="A55" s="5" t="n"/>
       <c r="B55" s="5" t="n"/>
       <c r="C55" s="5" t="n"/>
@@ -2370,7 +2392,7 @@
       <c r="AA55" s="5" t="n"/>
       <c r="AB55" s="5" t="n"/>
     </row>
-    <row r="56" ht="17.4" customHeight="1" s="17">
+    <row r="56" ht="17.4" customHeight="1" s="18">
       <c r="A56" s="5" t="n"/>
       <c r="B56" s="5" t="n"/>
       <c r="C56" s="5" t="n"/>
@@ -2400,7 +2422,7 @@
       <c r="AA56" s="5" t="n"/>
       <c r="AB56" s="5" t="n"/>
     </row>
-    <row r="57" ht="17.4" customHeight="1" s="17">
+    <row r="57" ht="17.4" customHeight="1" s="18">
       <c r="A57" s="5" t="n"/>
       <c r="B57" s="5" t="n"/>
       <c r="C57" s="5" t="n"/>
@@ -2430,7 +2452,7 @@
       <c r="AA57" s="5" t="n"/>
       <c r="AB57" s="5" t="n"/>
     </row>
-    <row r="58" ht="17.4" customHeight="1" s="17">
+    <row r="58" ht="17.4" customHeight="1" s="18">
       <c r="A58" s="5" t="n"/>
       <c r="B58" s="5" t="n"/>
       <c r="C58" s="5" t="n"/>
@@ -2460,7 +2482,7 @@
       <c r="AA58" s="5" t="n"/>
       <c r="AB58" s="5" t="n"/>
     </row>
-    <row r="59" ht="17.4" customHeight="1" s="17">
+    <row r="59" ht="17.4" customHeight="1" s="18">
       <c r="A59" s="5" t="n"/>
       <c r="B59" s="5" t="n"/>
       <c r="C59" s="5" t="n"/>
@@ -2490,7 +2512,7 @@
       <c r="AA59" s="5" t="n"/>
       <c r="AB59" s="5" t="n"/>
     </row>
-    <row r="60" ht="17.4" customHeight="1" s="17">
+    <row r="60" ht="17.4" customHeight="1" s="18">
       <c r="A60" s="5" t="n"/>
       <c r="B60" s="5" t="n"/>
       <c r="C60" s="5" t="n"/>
@@ -2520,7 +2542,7 @@
       <c r="AA60" s="5" t="n"/>
       <c r="AB60" s="5" t="n"/>
     </row>
-    <row r="61" ht="17.4" customHeight="1" s="17">
+    <row r="61" ht="17.4" customHeight="1" s="18">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="5" t="n"/>
       <c r="C61" s="5" t="n"/>
@@ -2550,7 +2572,7 @@
       <c r="AA61" s="5" t="n"/>
       <c r="AB61" s="5" t="n"/>
     </row>
-    <row r="62" ht="17.4" customHeight="1" s="17">
+    <row r="62" ht="17.4" customHeight="1" s="18">
       <c r="A62" s="5" t="n"/>
       <c r="B62" s="5" t="n"/>
       <c r="C62" s="5" t="n"/>
@@ -2580,7 +2602,7 @@
       <c r="AA62" s="5" t="n"/>
       <c r="AB62" s="5" t="n"/>
     </row>
-    <row r="63" ht="17.4" customHeight="1" s="17">
+    <row r="63" ht="17.4" customHeight="1" s="18">
       <c r="A63" s="5" t="n"/>
       <c r="B63" s="5" t="n"/>
       <c r="C63" s="5" t="n"/>
@@ -2610,7 +2632,7 @@
       <c r="AA63" s="5" t="n"/>
       <c r="AB63" s="5" t="n"/>
     </row>
-    <row r="64" ht="17.4" customHeight="1" s="17">
+    <row r="64" ht="17.4" customHeight="1" s="18">
       <c r="A64" s="5" t="n"/>
       <c r="B64" s="5" t="n"/>
       <c r="C64" s="5" t="n"/>
@@ -2640,7 +2662,7 @@
       <c r="AA64" s="5" t="n"/>
       <c r="AB64" s="5" t="n"/>
     </row>
-    <row r="65" ht="17.4" customHeight="1" s="17">
+    <row r="65" ht="17.4" customHeight="1" s="18">
       <c r="A65" s="5" t="n"/>
       <c r="B65" s="5" t="n"/>
       <c r="C65" s="5" t="n"/>
@@ -2670,7 +2692,7 @@
       <c r="AA65" s="5" t="n"/>
       <c r="AB65" s="5" t="n"/>
     </row>
-    <row r="66" ht="17.4" customHeight="1" s="17">
+    <row r="66" ht="17.4" customHeight="1" s="18">
       <c r="A66" s="5" t="n"/>
       <c r="B66" s="5" t="n"/>
       <c r="C66" s="5" t="n"/>
@@ -2700,7 +2722,7 @@
       <c r="AA66" s="5" t="n"/>
       <c r="AB66" s="5" t="n"/>
     </row>
-    <row r="67" ht="17.4" customHeight="1" s="17">
+    <row r="67" ht="17.4" customHeight="1" s="18">
       <c r="A67" s="5" t="n"/>
       <c r="B67" s="5" t="n"/>
       <c r="C67" s="5" t="n"/>
@@ -2730,7 +2752,7 @@
       <c r="AA67" s="5" t="n"/>
       <c r="AB67" s="5" t="n"/>
     </row>
-    <row r="68" ht="17.4" customHeight="1" s="17">
+    <row r="68" ht="17.4" customHeight="1" s="18">
       <c r="A68" s="5" t="n"/>
       <c r="B68" s="5" t="n"/>
       <c r="C68" s="5" t="n"/>
@@ -2760,7 +2782,7 @@
       <c r="AA68" s="5" t="n"/>
       <c r="AB68" s="5" t="n"/>
     </row>
-    <row r="69" ht="17.4" customHeight="1" s="17">
+    <row r="69" ht="17.4" customHeight="1" s="18">
       <c r="A69" s="5" t="n"/>
       <c r="B69" s="5" t="n"/>
       <c r="C69" s="5" t="n"/>
@@ -2790,7 +2812,7 @@
       <c r="AA69" s="5" t="n"/>
       <c r="AB69" s="5" t="n"/>
     </row>
-    <row r="70" ht="17.4" customHeight="1" s="17">
+    <row r="70" ht="17.4" customHeight="1" s="18">
       <c r="A70" s="5" t="n"/>
       <c r="B70" s="5" t="n"/>
       <c r="C70" s="5" t="n"/>
@@ -2820,7 +2842,7 @@
       <c r="AA70" s="5" t="n"/>
       <c r="AB70" s="5" t="n"/>
     </row>
-    <row r="71" ht="17.4" customHeight="1" s="17">
+    <row r="71" ht="17.4" customHeight="1" s="18">
       <c r="A71" s="5" t="n"/>
       <c r="B71" s="5" t="n"/>
       <c r="C71" s="5" t="n"/>
@@ -2850,7 +2872,7 @@
       <c r="AA71" s="5" t="n"/>
       <c r="AB71" s="5" t="n"/>
     </row>
-    <row r="72" ht="17.4" customHeight="1" s="17">
+    <row r="72" ht="17.4" customHeight="1" s="18">
       <c r="A72" s="5" t="n"/>
       <c r="B72" s="5" t="n"/>
       <c r="C72" s="5" t="n"/>
@@ -2880,7 +2902,7 @@
       <c r="AA72" s="5" t="n"/>
       <c r="AB72" s="5" t="n"/>
     </row>
-    <row r="73" ht="17.4" customHeight="1" s="17">
+    <row r="73" ht="17.4" customHeight="1" s="18">
       <c r="A73" s="5" t="n"/>
       <c r="B73" s="5" t="n"/>
       <c r="C73" s="5" t="n"/>
@@ -2910,7 +2932,7 @@
       <c r="AA73" s="5" t="n"/>
       <c r="AB73" s="5" t="n"/>
     </row>
-    <row r="74" ht="17.4" customHeight="1" s="17">
+    <row r="74" ht="17.4" customHeight="1" s="18">
       <c r="A74" s="5" t="n"/>
       <c r="B74" s="5" t="n"/>
       <c r="C74" s="5" t="n"/>
@@ -2940,7 +2962,7 @@
       <c r="AA74" s="5" t="n"/>
       <c r="AB74" s="5" t="n"/>
     </row>
-    <row r="75" ht="17.4" customHeight="1" s="17">
+    <row r="75" ht="17.4" customHeight="1" s="18">
       <c r="A75" s="5" t="n"/>
       <c r="B75" s="5" t="n"/>
       <c r="C75" s="5" t="n"/>
@@ -2970,7 +2992,7 @@
       <c r="AA75" s="5" t="n"/>
       <c r="AB75" s="5" t="n"/>
     </row>
-    <row r="76" ht="17.4" customHeight="1" s="17">
+    <row r="76" ht="17.4" customHeight="1" s="18">
       <c r="A76" s="5" t="n"/>
       <c r="B76" s="5" t="n"/>
       <c r="C76" s="5" t="n"/>
@@ -3000,7 +3022,7 @@
       <c r="AA76" s="5" t="n"/>
       <c r="AB76" s="5" t="n"/>
     </row>
-    <row r="77" ht="17.4" customHeight="1" s="17">
+    <row r="77" ht="17.4" customHeight="1" s="18">
       <c r="A77" s="5" t="n"/>
       <c r="B77" s="5" t="n"/>
       <c r="C77" s="5" t="n"/>
@@ -3030,7 +3052,7 @@
       <c r="AA77" s="5" t="n"/>
       <c r="AB77" s="5" t="n"/>
     </row>
-    <row r="78" ht="17.4" customHeight="1" s="17">
+    <row r="78" ht="17.4" customHeight="1" s="18">
       <c r="A78" s="5" t="n"/>
       <c r="B78" s="5" t="n"/>
       <c r="C78" s="5" t="n"/>
@@ -3060,7 +3082,7 @@
       <c r="AA78" s="5" t="n"/>
       <c r="AB78" s="5" t="n"/>
     </row>
-    <row r="79" ht="17.4" customHeight="1" s="17">
+    <row r="79" ht="17.4" customHeight="1" s="18">
       <c r="A79" s="5" t="n"/>
       <c r="B79" s="5" t="n"/>
       <c r="C79" s="5" t="n"/>
@@ -3090,7 +3112,7 @@
       <c r="AA79" s="5" t="n"/>
       <c r="AB79" s="5" t="n"/>
     </row>
-    <row r="80" ht="17.4" customHeight="1" s="17">
+    <row r="80" ht="17.4" customHeight="1" s="18">
       <c r="A80" s="5" t="n"/>
       <c r="B80" s="5" t="n"/>
       <c r="C80" s="5" t="n"/>
@@ -3120,7 +3142,7 @@
       <c r="AA80" s="5" t="n"/>
       <c r="AB80" s="5" t="n"/>
     </row>
-    <row r="81" ht="17.4" customHeight="1" s="17">
+    <row r="81" ht="17.4" customHeight="1" s="18">
       <c r="A81" s="5" t="n"/>
       <c r="B81" s="5" t="n"/>
       <c r="C81" s="5" t="n"/>
@@ -3150,7 +3172,7 @@
       <c r="AA81" s="5" t="n"/>
       <c r="AB81" s="5" t="n"/>
     </row>
-    <row r="82" ht="17.4" customHeight="1" s="17">
+    <row r="82" ht="17.4" customHeight="1" s="18">
       <c r="A82" s="5" t="n"/>
       <c r="B82" s="5" t="n"/>
       <c r="C82" s="5" t="n"/>
@@ -3180,7 +3202,7 @@
       <c r="AA82" s="5" t="n"/>
       <c r="AB82" s="5" t="n"/>
     </row>
-    <row r="83" ht="17.4" customHeight="1" s="17">
+    <row r="83" ht="17.4" customHeight="1" s="18">
       <c r="A83" s="5" t="n"/>
       <c r="B83" s="5" t="n"/>
       <c r="C83" s="5" t="n"/>
@@ -3210,7 +3232,7 @@
       <c r="AA83" s="5" t="n"/>
       <c r="AB83" s="5" t="n"/>
     </row>
-    <row r="84" ht="17.4" customHeight="1" s="17">
+    <row r="84" ht="17.4" customHeight="1" s="18">
       <c r="A84" s="5" t="n"/>
       <c r="B84" s="5" t="n"/>
       <c r="C84" s="5" t="n"/>
@@ -3240,7 +3262,7 @@
       <c r="AA84" s="5" t="n"/>
       <c r="AB84" s="5" t="n"/>
     </row>
-    <row r="85" ht="17.4" customHeight="1" s="17">
+    <row r="85" ht="17.4" customHeight="1" s="18">
       <c r="A85" s="5" t="n"/>
       <c r="B85" s="5" t="n"/>
       <c r="C85" s="5" t="n"/>
@@ -3270,7 +3292,7 @@
       <c r="AA85" s="5" t="n"/>
       <c r="AB85" s="5" t="n"/>
     </row>
-    <row r="86" ht="17.4" customHeight="1" s="17">
+    <row r="86" ht="17.4" customHeight="1" s="18">
       <c r="A86" s="5" t="n"/>
       <c r="B86" s="5" t="n"/>
       <c r="C86" s="5" t="n"/>
@@ -3300,7 +3322,7 @@
       <c r="AA86" s="5" t="n"/>
       <c r="AB86" s="5" t="n"/>
     </row>
-    <row r="87" ht="17.4" customHeight="1" s="17">
+    <row r="87" ht="17.4" customHeight="1" s="18">
       <c r="A87" s="5" t="n"/>
       <c r="B87" s="5" t="n"/>
       <c r="C87" s="5" t="n"/>
@@ -3330,7 +3352,7 @@
       <c r="AA87" s="5" t="n"/>
       <c r="AB87" s="5" t="n"/>
     </row>
-    <row r="88" ht="17.4" customHeight="1" s="17">
+    <row r="88" ht="17.4" customHeight="1" s="18">
       <c r="A88" s="5" t="n"/>
       <c r="B88" s="5" t="n"/>
       <c r="C88" s="5" t="n"/>
@@ -3360,7 +3382,7 @@
       <c r="AA88" s="5" t="n"/>
       <c r="AB88" s="5" t="n"/>
     </row>
-    <row r="89" ht="17.4" customHeight="1" s="17">
+    <row r="89" ht="17.4" customHeight="1" s="18">
       <c r="A89" s="5" t="n"/>
       <c r="B89" s="5" t="n"/>
       <c r="C89" s="5" t="n"/>
@@ -3390,7 +3412,7 @@
       <c r="AA89" s="5" t="n"/>
       <c r="AB89" s="5" t="n"/>
     </row>
-    <row r="90" ht="17.4" customHeight="1" s="17">
+    <row r="90" ht="17.4" customHeight="1" s="18">
       <c r="A90" s="5" t="n"/>
       <c r="B90" s="5" t="n"/>
       <c r="C90" s="5" t="n"/>
@@ -3420,7 +3442,7 @@
       <c r="AA90" s="5" t="n"/>
       <c r="AB90" s="5" t="n"/>
     </row>
-    <row r="91" ht="17.4" customHeight="1" s="17">
+    <row r="91" ht="17.4" customHeight="1" s="18">
       <c r="A91" s="5" t="n"/>
       <c r="B91" s="5" t="n"/>
       <c r="C91" s="5" t="n"/>
@@ -3450,7 +3472,7 @@
       <c r="AA91" s="5" t="n"/>
       <c r="AB91" s="5" t="n"/>
     </row>
-    <row r="92" ht="17.4" customHeight="1" s="17">
+    <row r="92" ht="17.4" customHeight="1" s="18">
       <c r="A92" s="5" t="n"/>
       <c r="B92" s="5" t="n"/>
       <c r="C92" s="5" t="n"/>
@@ -3480,7 +3502,7 @@
       <c r="AA92" s="5" t="n"/>
       <c r="AB92" s="5" t="n"/>
     </row>
-    <row r="93" ht="17.4" customHeight="1" s="17">
+    <row r="93" ht="17.4" customHeight="1" s="18">
       <c r="A93" s="5" t="n"/>
       <c r="B93" s="5" t="n"/>
       <c r="C93" s="5" t="n"/>
@@ -3510,7 +3532,7 @@
       <c r="AA93" s="5" t="n"/>
       <c r="AB93" s="5" t="n"/>
     </row>
-    <row r="94" ht="17.4" customHeight="1" s="17">
+    <row r="94" ht="17.4" customHeight="1" s="18">
       <c r="A94" s="5" t="n"/>
       <c r="B94" s="5" t="n"/>
       <c r="C94" s="5" t="n"/>
@@ -3540,7 +3562,7 @@
       <c r="AA94" s="5" t="n"/>
       <c r="AB94" s="5" t="n"/>
     </row>
-    <row r="95" ht="17.4" customHeight="1" s="17">
+    <row r="95" ht="17.4" customHeight="1" s="18">
       <c r="A95" s="5" t="n"/>
       <c r="B95" s="5" t="n"/>
       <c r="C95" s="5" t="n"/>
@@ -3570,7 +3592,7 @@
       <c r="AA95" s="5" t="n"/>
       <c r="AB95" s="5" t="n"/>
     </row>
-    <row r="96" ht="17.4" customHeight="1" s="17">
+    <row r="96" ht="17.4" customHeight="1" s="18">
       <c r="A96" s="5" t="n"/>
       <c r="B96" s="5" t="n"/>
       <c r="C96" s="5" t="n"/>
@@ -3600,7 +3622,7 @@
       <c r="AA96" s="5" t="n"/>
       <c r="AB96" s="5" t="n"/>
     </row>
-    <row r="97" ht="17.4" customHeight="1" s="17">
+    <row r="97" ht="17.4" customHeight="1" s="18">
       <c r="A97" s="5" t="n"/>
       <c r="B97" s="5" t="n"/>
       <c r="C97" s="5" t="n"/>
@@ -3630,7 +3652,7 @@
       <c r="AA97" s="5" t="n"/>
       <c r="AB97" s="5" t="n"/>
     </row>
-    <row r="98" ht="17.4" customHeight="1" s="17">
+    <row r="98" ht="17.4" customHeight="1" s="18">
       <c r="A98" s="5" t="n"/>
       <c r="B98" s="5" t="n"/>
       <c r="C98" s="5" t="n"/>
@@ -3660,7 +3682,7 @@
       <c r="AA98" s="5" t="n"/>
       <c r="AB98" s="5" t="n"/>
     </row>
-    <row r="99" ht="17.4" customHeight="1" s="17">
+    <row r="99" ht="17.4" customHeight="1" s="18">
       <c r="A99" s="5" t="n"/>
       <c r="B99" s="5" t="n"/>
       <c r="C99" s="5" t="n"/>
@@ -3690,7 +3712,7 @@
       <c r="AA99" s="5" t="n"/>
       <c r="AB99" s="5" t="n"/>
     </row>
-    <row r="100" ht="17.4" customHeight="1" s="17">
+    <row r="100" ht="17.4" customHeight="1" s="18">
       <c r="A100" s="5" t="n"/>
       <c r="B100" s="5" t="n"/>
       <c r="C100" s="5" t="n"/>
@@ -3720,7 +3742,7 @@
       <c r="AA100" s="5" t="n"/>
       <c r="AB100" s="5" t="n"/>
     </row>
-    <row r="101" ht="17.4" customHeight="1" s="17">
+    <row r="101" ht="17.4" customHeight="1" s="18">
       <c r="A101" s="5" t="n"/>
       <c r="B101" s="5" t="n"/>
       <c r="C101" s="5" t="n"/>
@@ -3750,7 +3772,7 @@
       <c r="AA101" s="5" t="n"/>
       <c r="AB101" s="5" t="n"/>
     </row>
-    <row r="102" ht="17.4" customHeight="1" s="17">
+    <row r="102" ht="17.4" customHeight="1" s="18">
       <c r="A102" s="5" t="n"/>
       <c r="B102" s="5" t="n"/>
       <c r="C102" s="5" t="n"/>
@@ -3780,7 +3802,7 @@
       <c r="AA102" s="5" t="n"/>
       <c r="AB102" s="5" t="n"/>
     </row>
-    <row r="103" ht="17.4" customHeight="1" s="17">
+    <row r="103" ht="17.4" customHeight="1" s="18">
       <c r="A103" s="5" t="n"/>
       <c r="B103" s="5" t="n"/>
       <c r="C103" s="5" t="n"/>
@@ -3810,7 +3832,7 @@
       <c r="AA103" s="5" t="n"/>
       <c r="AB103" s="5" t="n"/>
     </row>
-    <row r="104" ht="17.4" customHeight="1" s="17">
+    <row r="104" ht="17.4" customHeight="1" s="18">
       <c r="A104" s="5" t="n"/>
       <c r="B104" s="5" t="n"/>
       <c r="C104" s="5" t="n"/>
@@ -3840,7 +3862,7 @@
       <c r="AA104" s="5" t="n"/>
       <c r="AB104" s="5" t="n"/>
     </row>
-    <row r="105" ht="17.4" customHeight="1" s="17">
+    <row r="105" ht="17.4" customHeight="1" s="18">
       <c r="A105" s="5" t="n"/>
       <c r="B105" s="5" t="n"/>
       <c r="C105" s="5" t="n"/>
@@ -3870,7 +3892,7 @@
       <c r="AA105" s="5" t="n"/>
       <c r="AB105" s="5" t="n"/>
     </row>
-    <row r="106" ht="17.4" customHeight="1" s="17">
+    <row r="106" ht="17.4" customHeight="1" s="18">
       <c r="A106" s="5" t="n"/>
       <c r="B106" s="5" t="n"/>
       <c r="C106" s="5" t="n"/>
@@ -3900,7 +3922,7 @@
       <c r="AA106" s="5" t="n"/>
       <c r="AB106" s="5" t="n"/>
     </row>
-    <row r="107" ht="17.4" customHeight="1" s="17">
+    <row r="107" ht="17.4" customHeight="1" s="18">
       <c r="A107" s="5" t="n"/>
       <c r="B107" s="5" t="n"/>
       <c r="C107" s="5" t="n"/>
@@ -3930,7 +3952,7 @@
       <c r="AA107" s="5" t="n"/>
       <c r="AB107" s="5" t="n"/>
     </row>
-    <row r="108" ht="17.4" customHeight="1" s="17">
+    <row r="108" ht="17.4" customHeight="1" s="18">
       <c r="A108" s="5" t="n"/>
       <c r="B108" s="5" t="n"/>
       <c r="C108" s="5" t="n"/>
@@ -3960,7 +3982,7 @@
       <c r="AA108" s="5" t="n"/>
       <c r="AB108" s="5" t="n"/>
     </row>
-    <row r="109" ht="17.4" customHeight="1" s="17">
+    <row r="109" ht="17.4" customHeight="1" s="18">
       <c r="A109" s="5" t="n"/>
       <c r="B109" s="5" t="n"/>
       <c r="C109" s="5" t="n"/>
@@ -3990,7 +4012,7 @@
       <c r="AA109" s="5" t="n"/>
       <c r="AB109" s="5" t="n"/>
     </row>
-    <row r="110" ht="17.4" customHeight="1" s="17">
+    <row r="110" ht="17.4" customHeight="1" s="18">
       <c r="A110" s="5" t="n"/>
       <c r="B110" s="5" t="n"/>
       <c r="C110" s="5" t="n"/>
@@ -4020,7 +4042,7 @@
       <c r="AA110" s="5" t="n"/>
       <c r="AB110" s="5" t="n"/>
     </row>
-    <row r="111" ht="17.4" customHeight="1" s="17">
+    <row r="111" ht="17.4" customHeight="1" s="18">
       <c r="A111" s="5" t="n"/>
       <c r="B111" s="5" t="n"/>
       <c r="C111" s="5" t="n"/>
@@ -4050,7 +4072,7 @@
       <c r="AA111" s="5" t="n"/>
       <c r="AB111" s="5" t="n"/>
     </row>
-    <row r="112" ht="17.4" customHeight="1" s="17">
+    <row r="112" ht="17.4" customHeight="1" s="18">
       <c r="A112" s="5" t="n"/>
       <c r="B112" s="5" t="n"/>
       <c r="C112" s="5" t="n"/>
@@ -4080,7 +4102,7 @@
       <c r="AA112" s="5" t="n"/>
       <c r="AB112" s="5" t="n"/>
     </row>
-    <row r="113" ht="17.4" customHeight="1" s="17">
+    <row r="113" ht="17.4" customHeight="1" s="18">
       <c r="A113" s="5" t="n"/>
       <c r="B113" s="5" t="n"/>
       <c r="C113" s="5" t="n"/>
@@ -4110,7 +4132,7 @@
       <c r="AA113" s="5" t="n"/>
       <c r="AB113" s="5" t="n"/>
     </row>
-    <row r="114" ht="17.4" customHeight="1" s="17">
+    <row r="114" ht="17.4" customHeight="1" s="18">
       <c r="A114" s="5" t="n"/>
       <c r="B114" s="5" t="n"/>
       <c r="C114" s="5" t="n"/>
@@ -4140,7 +4162,7 @@
       <c r="AA114" s="5" t="n"/>
       <c r="AB114" s="5" t="n"/>
     </row>
-    <row r="115" ht="17.4" customHeight="1" s="17">
+    <row r="115" ht="17.4" customHeight="1" s="18">
       <c r="A115" s="5" t="n"/>
       <c r="B115" s="5" t="n"/>
       <c r="C115" s="5" t="n"/>
@@ -4170,7 +4192,7 @@
       <c r="AA115" s="5" t="n"/>
       <c r="AB115" s="5" t="n"/>
     </row>
-    <row r="116" ht="17.4" customHeight="1" s="17">
+    <row r="116" ht="17.4" customHeight="1" s="18">
       <c r="A116" s="5" t="n"/>
       <c r="B116" s="5" t="n"/>
       <c r="C116" s="5" t="n"/>
@@ -4200,7 +4222,7 @@
       <c r="AA116" s="5" t="n"/>
       <c r="AB116" s="5" t="n"/>
     </row>
-    <row r="117" ht="17.4" customHeight="1" s="17">
+    <row r="117" ht="17.4" customHeight="1" s="18">
       <c r="A117" s="5" t="n"/>
       <c r="B117" s="5" t="n"/>
       <c r="C117" s="5" t="n"/>
@@ -4230,7 +4252,7 @@
       <c r="AA117" s="5" t="n"/>
       <c r="AB117" s="5" t="n"/>
     </row>
-    <row r="118" ht="17.4" customHeight="1" s="17">
+    <row r="118" ht="17.4" customHeight="1" s="18">
       <c r="A118" s="5" t="n"/>
       <c r="B118" s="5" t="n"/>
       <c r="C118" s="5" t="n"/>
@@ -4260,7 +4282,7 @@
       <c r="AA118" s="5" t="n"/>
       <c r="AB118" s="5" t="n"/>
     </row>
-    <row r="119" ht="17.4" customHeight="1" s="17">
+    <row r="119" ht="17.4" customHeight="1" s="18">
       <c r="A119" s="5" t="n"/>
       <c r="B119" s="5" t="n"/>
       <c r="C119" s="5" t="n"/>
@@ -4290,7 +4312,7 @@
       <c r="AA119" s="5" t="n"/>
       <c r="AB119" s="5" t="n"/>
     </row>
-    <row r="120" ht="17.4" customHeight="1" s="17">
+    <row r="120" ht="17.4" customHeight="1" s="18">
       <c r="A120" s="5" t="n"/>
       <c r="B120" s="5" t="n"/>
       <c r="C120" s="5" t="n"/>
@@ -4320,7 +4342,7 @@
       <c r="AA120" s="5" t="n"/>
       <c r="AB120" s="5" t="n"/>
     </row>
-    <row r="121" ht="17.4" customHeight="1" s="17">
+    <row r="121" ht="17.4" customHeight="1" s="18">
       <c r="A121" s="5" t="n"/>
       <c r="B121" s="5" t="n"/>
       <c r="C121" s="5" t="n"/>
@@ -4350,7 +4372,7 @@
       <c r="AA121" s="5" t="n"/>
       <c r="AB121" s="5" t="n"/>
     </row>
-    <row r="122" ht="17.4" customHeight="1" s="17">
+    <row r="122" ht="17.4" customHeight="1" s="18">
       <c r="A122" s="5" t="n"/>
       <c r="B122" s="5" t="n"/>
       <c r="C122" s="5" t="n"/>
@@ -4380,7 +4402,7 @@
       <c r="AA122" s="5" t="n"/>
       <c r="AB122" s="5" t="n"/>
     </row>
-    <row r="123" ht="17.4" customHeight="1" s="17">
+    <row r="123" ht="17.4" customHeight="1" s="18">
       <c r="A123" s="5" t="n"/>
       <c r="B123" s="5" t="n"/>
       <c r="C123" s="5" t="n"/>
@@ -4410,7 +4432,7 @@
       <c r="AA123" s="5" t="n"/>
       <c r="AB123" s="5" t="n"/>
     </row>
-    <row r="124" ht="17.4" customHeight="1" s="17">
+    <row r="124" ht="17.4" customHeight="1" s="18">
       <c r="A124" s="5" t="n"/>
       <c r="B124" s="5" t="n"/>
       <c r="C124" s="5" t="n"/>
@@ -4440,7 +4462,7 @@
       <c r="AA124" s="5" t="n"/>
       <c r="AB124" s="5" t="n"/>
     </row>
-    <row r="125" ht="17.4" customHeight="1" s="17">
+    <row r="125" ht="17.4" customHeight="1" s="18">
       <c r="A125" s="5" t="n"/>
       <c r="B125" s="5" t="n"/>
       <c r="C125" s="5" t="n"/>
@@ -4470,7 +4492,7 @@
       <c r="AA125" s="5" t="n"/>
       <c r="AB125" s="5" t="n"/>
     </row>
-    <row r="126" ht="17.4" customHeight="1" s="17">
+    <row r="126" ht="17.4" customHeight="1" s="18">
       <c r="A126" s="5" t="n"/>
       <c r="B126" s="5" t="n"/>
       <c r="C126" s="5" t="n"/>
@@ -4500,7 +4522,7 @@
       <c r="AA126" s="5" t="n"/>
       <c r="AB126" s="5" t="n"/>
     </row>
-    <row r="127" ht="17.4" customHeight="1" s="17">
+    <row r="127" ht="17.4" customHeight="1" s="18">
       <c r="A127" s="5" t="n"/>
       <c r="B127" s="5" t="n"/>
       <c r="C127" s="5" t="n"/>
@@ -4530,7 +4552,7 @@
       <c r="AA127" s="5" t="n"/>
       <c r="AB127" s="5" t="n"/>
     </row>
-    <row r="128" ht="17.4" customHeight="1" s="17">
+    <row r="128" ht="17.4" customHeight="1" s="18">
       <c r="A128" s="5" t="n"/>
       <c r="B128" s="5" t="n"/>
       <c r="C128" s="5" t="n"/>
@@ -4560,7 +4582,7 @@
       <c r="AA128" s="5" t="n"/>
       <c r="AB128" s="5" t="n"/>
     </row>
-    <row r="129" ht="17.4" customHeight="1" s="17">
+    <row r="129" ht="17.4" customHeight="1" s="18">
       <c r="A129" s="5" t="n"/>
       <c r="B129" s="5" t="n"/>
       <c r="C129" s="5" t="n"/>
@@ -4590,7 +4612,7 @@
       <c r="AA129" s="5" t="n"/>
       <c r="AB129" s="5" t="n"/>
     </row>
-    <row r="130" ht="17.4" customHeight="1" s="17">
+    <row r="130" ht="17.4" customHeight="1" s="18">
       <c r="A130" s="5" t="n"/>
       <c r="B130" s="5" t="n"/>
       <c r="C130" s="5" t="n"/>
@@ -4620,7 +4642,7 @@
       <c r="AA130" s="5" t="n"/>
       <c r="AB130" s="5" t="n"/>
     </row>
-    <row r="131" ht="17.4" customHeight="1" s="17">
+    <row r="131" ht="17.4" customHeight="1" s="18">
       <c r="A131" s="5" t="n"/>
       <c r="B131" s="5" t="n"/>
       <c r="C131" s="5" t="n"/>
@@ -4650,7 +4672,7 @@
       <c r="AA131" s="5" t="n"/>
       <c r="AB131" s="5" t="n"/>
     </row>
-    <row r="132" ht="17.4" customHeight="1" s="17">
+    <row r="132" ht="17.4" customHeight="1" s="18">
       <c r="A132" s="5" t="n"/>
       <c r="B132" s="5" t="n"/>
       <c r="C132" s="5" t="n"/>
@@ -4680,7 +4702,7 @@
       <c r="AA132" s="5" t="n"/>
       <c r="AB132" s="5" t="n"/>
     </row>
-    <row r="133" ht="17.4" customHeight="1" s="17">
+    <row r="133" ht="17.4" customHeight="1" s="18">
       <c r="A133" s="5" t="n"/>
       <c r="B133" s="5" t="n"/>
       <c r="C133" s="5" t="n"/>
@@ -4710,7 +4732,7 @@
       <c r="AA133" s="5" t="n"/>
       <c r="AB133" s="5" t="n"/>
     </row>
-    <row r="134" ht="17.4" customHeight="1" s="17">
+    <row r="134" ht="17.4" customHeight="1" s="18">
       <c r="A134" s="5" t="n"/>
       <c r="B134" s="5" t="n"/>
       <c r="C134" s="5" t="n"/>
@@ -4740,7 +4762,7 @@
       <c r="AA134" s="5" t="n"/>
       <c r="AB134" s="5" t="n"/>
     </row>
-    <row r="135" ht="17.4" customHeight="1" s="17">
+    <row r="135" ht="17.4" customHeight="1" s="18">
       <c r="A135" s="5" t="n"/>
       <c r="B135" s="5" t="n"/>
       <c r="C135" s="5" t="n"/>
@@ -4770,7 +4792,7 @@
       <c r="AA135" s="5" t="n"/>
       <c r="AB135" s="5" t="n"/>
     </row>
-    <row r="136" ht="17.4" customHeight="1" s="17">
+    <row r="136" ht="17.4" customHeight="1" s="18">
       <c r="A136" s="5" t="n"/>
       <c r="B136" s="5" t="n"/>
       <c r="C136" s="5" t="n"/>
@@ -4800,7 +4822,7 @@
       <c r="AA136" s="5" t="n"/>
       <c r="AB136" s="5" t="n"/>
     </row>
-    <row r="137" ht="17.4" customHeight="1" s="17">
+    <row r="137" ht="17.4" customHeight="1" s="18">
       <c r="A137" s="5" t="n"/>
       <c r="B137" s="5" t="n"/>
       <c r="C137" s="5" t="n"/>
@@ -4830,7 +4852,7 @@
       <c r="AA137" s="5" t="n"/>
       <c r="AB137" s="5" t="n"/>
     </row>
-    <row r="138" ht="17.4" customHeight="1" s="17">
+    <row r="138" ht="17.4" customHeight="1" s="18">
       <c r="A138" s="5" t="n"/>
       <c r="B138" s="5" t="n"/>
       <c r="C138" s="5" t="n"/>
@@ -4860,7 +4882,7 @@
       <c r="AA138" s="5" t="n"/>
       <c r="AB138" s="5" t="n"/>
     </row>
-    <row r="139" ht="17.4" customHeight="1" s="17">
+    <row r="139" ht="17.4" customHeight="1" s="18">
       <c r="A139" s="5" t="n"/>
       <c r="B139" s="5" t="n"/>
       <c r="C139" s="5" t="n"/>
@@ -4890,7 +4912,7 @@
       <c r="AA139" s="5" t="n"/>
       <c r="AB139" s="5" t="n"/>
     </row>
-    <row r="140" ht="17.4" customHeight="1" s="17">
+    <row r="140" ht="17.4" customHeight="1" s="18">
       <c r="A140" s="5" t="n"/>
       <c r="B140" s="5" t="n"/>
       <c r="C140" s="5" t="n"/>
@@ -4920,7 +4942,7 @@
       <c r="AA140" s="5" t="n"/>
       <c r="AB140" s="5" t="n"/>
     </row>
-    <row r="141" ht="17.4" customHeight="1" s="17">
+    <row r="141" ht="17.4" customHeight="1" s="18">
       <c r="A141" s="5" t="n"/>
       <c r="B141" s="5" t="n"/>
       <c r="C141" s="5" t="n"/>
@@ -4950,7 +4972,7 @@
       <c r="AA141" s="5" t="n"/>
       <c r="AB141" s="5" t="n"/>
     </row>
-    <row r="142" ht="17.4" customHeight="1" s="17">
+    <row r="142" ht="17.4" customHeight="1" s="18">
       <c r="A142" s="5" t="n"/>
       <c r="B142" s="5" t="n"/>
       <c r="C142" s="5" t="n"/>
@@ -4980,7 +5002,7 @@
       <c r="AA142" s="5" t="n"/>
       <c r="AB142" s="5" t="n"/>
     </row>
-    <row r="143" ht="17.4" customHeight="1" s="17">
+    <row r="143" ht="17.4" customHeight="1" s="18">
       <c r="A143" s="5" t="n"/>
       <c r="B143" s="5" t="n"/>
       <c r="C143" s="5" t="n"/>
@@ -5010,7 +5032,7 @@
       <c r="AA143" s="5" t="n"/>
       <c r="AB143" s="5" t="n"/>
     </row>
-    <row r="144" ht="17.4" customHeight="1" s="17">
+    <row r="144" ht="17.4" customHeight="1" s="18">
       <c r="A144" s="5" t="n"/>
       <c r="B144" s="5" t="n"/>
       <c r="C144" s="5" t="n"/>
@@ -5040,7 +5062,7 @@
       <c r="AA144" s="5" t="n"/>
       <c r="AB144" s="5" t="n"/>
     </row>
-    <row r="145" ht="17.4" customHeight="1" s="17">
+    <row r="145" ht="17.4" customHeight="1" s="18">
       <c r="A145" s="5" t="n"/>
       <c r="B145" s="5" t="n"/>
       <c r="C145" s="5" t="n"/>
@@ -5070,7 +5092,7 @@
       <c r="AA145" s="5" t="n"/>
       <c r="AB145" s="5" t="n"/>
     </row>
-    <row r="146" ht="17.4" customHeight="1" s="17">
+    <row r="146" ht="17.4" customHeight="1" s="18">
       <c r="A146" s="5" t="n"/>
       <c r="B146" s="5" t="n"/>
       <c r="C146" s="5" t="n"/>
@@ -5100,7 +5122,7 @@
       <c r="AA146" s="5" t="n"/>
       <c r="AB146" s="5" t="n"/>
     </row>
-    <row r="147" ht="17.4" customHeight="1" s="17">
+    <row r="147" ht="17.4" customHeight="1" s="18">
       <c r="A147" s="5" t="n"/>
       <c r="B147" s="5" t="n"/>
       <c r="C147" s="5" t="n"/>
@@ -5130,7 +5152,7 @@
       <c r="AA147" s="5" t="n"/>
       <c r="AB147" s="5" t="n"/>
     </row>
-    <row r="148" ht="17.4" customHeight="1" s="17">
+    <row r="148" ht="17.4" customHeight="1" s="18">
       <c r="A148" s="5" t="n"/>
       <c r="B148" s="5" t="n"/>
       <c r="C148" s="5" t="n"/>
@@ -5160,7 +5182,7 @@
       <c r="AA148" s="5" t="n"/>
       <c r="AB148" s="5" t="n"/>
     </row>
-    <row r="149" ht="17.4" customHeight="1" s="17">
+    <row r="149" ht="17.4" customHeight="1" s="18">
       <c r="A149" s="5" t="n"/>
       <c r="B149" s="5" t="n"/>
       <c r="C149" s="5" t="n"/>
@@ -5190,7 +5212,7 @@
       <c r="AA149" s="5" t="n"/>
       <c r="AB149" s="5" t="n"/>
     </row>
-    <row r="150" ht="17.4" customHeight="1" s="17">
+    <row r="150" ht="17.4" customHeight="1" s="18">
       <c r="A150" s="5" t="n"/>
       <c r="B150" s="5" t="n"/>
       <c r="C150" s="5" t="n"/>
@@ -5220,7 +5242,7 @@
       <c r="AA150" s="5" t="n"/>
       <c r="AB150" s="5" t="n"/>
     </row>
-    <row r="151" ht="17.4" customHeight="1" s="17">
+    <row r="151" ht="17.4" customHeight="1" s="18">
       <c r="A151" s="5" t="n"/>
       <c r="B151" s="5" t="n"/>
       <c r="C151" s="5" t="n"/>
@@ -5250,7 +5272,7 @@
       <c r="AA151" s="5" t="n"/>
       <c r="AB151" s="5" t="n"/>
     </row>
-    <row r="152" ht="17.4" customHeight="1" s="17">
+    <row r="152" ht="17.4" customHeight="1" s="18">
       <c r="A152" s="5" t="n"/>
       <c r="B152" s="5" t="n"/>
       <c r="C152" s="5" t="n"/>
@@ -5280,7 +5302,7 @@
       <c r="AA152" s="5" t="n"/>
       <c r="AB152" s="5" t="n"/>
     </row>
-    <row r="153" ht="17.4" customHeight="1" s="17">
+    <row r="153" ht="17.4" customHeight="1" s="18">
       <c r="A153" s="5" t="n"/>
       <c r="B153" s="5" t="n"/>
       <c r="C153" s="5" t="n"/>
@@ -5310,7 +5332,7 @@
       <c r="AA153" s="5" t="n"/>
       <c r="AB153" s="5" t="n"/>
     </row>
-    <row r="154" ht="17.4" customHeight="1" s="17">
+    <row r="154" ht="17.4" customHeight="1" s="18">
       <c r="A154" s="5" t="n"/>
       <c r="B154" s="5" t="n"/>
       <c r="C154" s="5" t="n"/>
@@ -5340,7 +5362,7 @@
       <c r="AA154" s="5" t="n"/>
       <c r="AB154" s="5" t="n"/>
     </row>
-    <row r="155" ht="17.4" customHeight="1" s="17">
+    <row r="155" ht="17.4" customHeight="1" s="18">
       <c r="A155" s="5" t="n"/>
       <c r="B155" s="5" t="n"/>
       <c r="C155" s="5" t="n"/>
@@ -5370,7 +5392,7 @@
       <c r="AA155" s="5" t="n"/>
       <c r="AB155" s="5" t="n"/>
     </row>
-    <row r="156" ht="17.4" customHeight="1" s="17">
+    <row r="156" ht="17.4" customHeight="1" s="18">
       <c r="A156" s="5" t="n"/>
       <c r="B156" s="5" t="n"/>
       <c r="C156" s="5" t="n"/>
@@ -5400,7 +5422,7 @@
       <c r="AA156" s="5" t="n"/>
       <c r="AB156" s="5" t="n"/>
     </row>
-    <row r="157" ht="17.4" customHeight="1" s="17">
+    <row r="157" ht="17.4" customHeight="1" s="18">
       <c r="A157" s="5" t="n"/>
       <c r="B157" s="5" t="n"/>
       <c r="C157" s="5" t="n"/>
@@ -5430,7 +5452,7 @@
       <c r="AA157" s="5" t="n"/>
       <c r="AB157" s="5" t="n"/>
     </row>
-    <row r="158" ht="17.4" customHeight="1" s="17">
+    <row r="158" ht="17.4" customHeight="1" s="18">
       <c r="A158" s="5" t="n"/>
       <c r="B158" s="5" t="n"/>
       <c r="C158" s="5" t="n"/>
@@ -5460,7 +5482,7 @@
       <c r="AA158" s="5" t="n"/>
       <c r="AB158" s="5" t="n"/>
     </row>
-    <row r="159" ht="17.4" customHeight="1" s="17">
+    <row r="159" ht="17.4" customHeight="1" s="18">
       <c r="A159" s="5" t="n"/>
       <c r="B159" s="5" t="n"/>
       <c r="C159" s="5" t="n"/>
@@ -5490,7 +5512,7 @@
       <c r="AA159" s="5" t="n"/>
       <c r="AB159" s="5" t="n"/>
     </row>
-    <row r="160" ht="17.4" customHeight="1" s="17">
+    <row r="160" ht="17.4" customHeight="1" s="18">
       <c r="A160" s="5" t="n"/>
       <c r="B160" s="5" t="n"/>
       <c r="C160" s="5" t="n"/>
@@ -5520,7 +5542,7 @@
       <c r="AA160" s="5" t="n"/>
       <c r="AB160" s="5" t="n"/>
     </row>
-    <row r="161" ht="17.4" customHeight="1" s="17">
+    <row r="161" ht="17.4" customHeight="1" s="18">
       <c r="A161" s="5" t="n"/>
       <c r="B161" s="5" t="n"/>
       <c r="C161" s="5" t="n"/>
@@ -5550,7 +5572,7 @@
       <c r="AA161" s="5" t="n"/>
       <c r="AB161" s="5" t="n"/>
     </row>
-    <row r="162" ht="17.4" customHeight="1" s="17">
+    <row r="162" ht="17.4" customHeight="1" s="18">
       <c r="A162" s="5" t="n"/>
       <c r="B162" s="5" t="n"/>
       <c r="C162" s="5" t="n"/>
@@ -5580,7 +5602,7 @@
       <c r="AA162" s="5" t="n"/>
       <c r="AB162" s="5" t="n"/>
     </row>
-    <row r="163" ht="17.4" customHeight="1" s="17">
+    <row r="163" ht="17.4" customHeight="1" s="18">
       <c r="A163" s="5" t="n"/>
       <c r="B163" s="5" t="n"/>
       <c r="C163" s="5" t="n"/>
@@ -5610,7 +5632,7 @@
       <c r="AA163" s="5" t="n"/>
       <c r="AB163" s="5" t="n"/>
     </row>
-    <row r="164" ht="17.4" customHeight="1" s="17">
+    <row r="164" ht="17.4" customHeight="1" s="18">
       <c r="A164" s="5" t="n"/>
       <c r="B164" s="5" t="n"/>
       <c r="C164" s="5" t="n"/>
@@ -5640,7 +5662,7 @@
       <c r="AA164" s="5" t="n"/>
       <c r="AB164" s="5" t="n"/>
     </row>
-    <row r="165" ht="17.4" customHeight="1" s="17">
+    <row r="165" ht="17.4" customHeight="1" s="18">
       <c r="A165" s="5" t="n"/>
       <c r="B165" s="5" t="n"/>
       <c r="C165" s="5" t="n"/>
@@ -5670,7 +5692,7 @@
       <c r="AA165" s="5" t="n"/>
       <c r="AB165" s="5" t="n"/>
     </row>
-    <row r="166" ht="17.4" customHeight="1" s="17">
+    <row r="166" ht="17.4" customHeight="1" s="18">
       <c r="A166" s="5" t="n"/>
       <c r="B166" s="5" t="n"/>
       <c r="C166" s="5" t="n"/>
@@ -5700,7 +5722,7 @@
       <c r="AA166" s="5" t="n"/>
       <c r="AB166" s="5" t="n"/>
     </row>
-    <row r="167" ht="17.4" customHeight="1" s="17">
+    <row r="167" ht="17.4" customHeight="1" s="18">
       <c r="A167" s="5" t="n"/>
       <c r="B167" s="5" t="n"/>
       <c r="C167" s="5" t="n"/>
@@ -5730,7 +5752,7 @@
       <c r="AA167" s="5" t="n"/>
       <c r="AB167" s="5" t="n"/>
     </row>
-    <row r="168" ht="17.4" customHeight="1" s="17">
+    <row r="168" ht="17.4" customHeight="1" s="18">
       <c r="A168" s="5" t="n"/>
       <c r="B168" s="5" t="n"/>
       <c r="C168" s="5" t="n"/>
@@ -5760,7 +5782,7 @@
       <c r="AA168" s="5" t="n"/>
       <c r="AB168" s="5" t="n"/>
     </row>
-    <row r="169" ht="17.4" customHeight="1" s="17">
+    <row r="169" ht="17.4" customHeight="1" s="18">
       <c r="A169" s="5" t="n"/>
       <c r="B169" s="5" t="n"/>
       <c r="C169" s="5" t="n"/>
@@ -5790,7 +5812,7 @@
       <c r="AA169" s="5" t="n"/>
       <c r="AB169" s="5" t="n"/>
     </row>
-    <row r="170" ht="17.4" customHeight="1" s="17">
+    <row r="170" ht="17.4" customHeight="1" s="18">
       <c r="A170" s="5" t="n"/>
       <c r="B170" s="5" t="n"/>
       <c r="C170" s="5" t="n"/>
@@ -5820,7 +5842,7 @@
       <c r="AA170" s="5" t="n"/>
       <c r="AB170" s="5" t="n"/>
     </row>
-    <row r="171" ht="17.4" customHeight="1" s="17">
+    <row r="171" ht="17.4" customHeight="1" s="18">
       <c r="A171" s="5" t="n"/>
       <c r="B171" s="5" t="n"/>
       <c r="C171" s="5" t="n"/>
@@ -5850,7 +5872,7 @@
       <c r="AA171" s="5" t="n"/>
       <c r="AB171" s="5" t="n"/>
     </row>
-    <row r="172" ht="17.4" customHeight="1" s="17">
+    <row r="172" ht="17.4" customHeight="1" s="18">
       <c r="A172" s="5" t="n"/>
       <c r="B172" s="5" t="n"/>
       <c r="C172" s="5" t="n"/>
@@ -5880,7 +5902,7 @@
       <c r="AA172" s="5" t="n"/>
       <c r="AB172" s="5" t="n"/>
     </row>
-    <row r="173" ht="17.4" customHeight="1" s="17">
+    <row r="173" ht="17.4" customHeight="1" s="18">
       <c r="A173" s="5" t="n"/>
       <c r="B173" s="5" t="n"/>
       <c r="C173" s="5" t="n"/>
@@ -5910,7 +5932,7 @@
       <c r="AA173" s="5" t="n"/>
       <c r="AB173" s="5" t="n"/>
     </row>
-    <row r="174" ht="17.4" customHeight="1" s="17">
+    <row r="174" ht="17.4" customHeight="1" s="18">
       <c r="A174" s="5" t="n"/>
       <c r="B174" s="5" t="n"/>
       <c r="C174" s="5" t="n"/>
@@ -5940,7 +5962,7 @@
       <c r="AA174" s="5" t="n"/>
       <c r="AB174" s="5" t="n"/>
     </row>
-    <row r="175" ht="17.4" customHeight="1" s="17">
+    <row r="175" ht="17.4" customHeight="1" s="18">
       <c r="A175" s="5" t="n"/>
       <c r="B175" s="5" t="n"/>
       <c r="C175" s="5" t="n"/>
@@ -5970,7 +5992,7 @@
       <c r="AA175" s="5" t="n"/>
       <c r="AB175" s="5" t="n"/>
     </row>
-    <row r="176" ht="17.4" customHeight="1" s="17">
+    <row r="176" ht="17.4" customHeight="1" s="18">
       <c r="A176" s="5" t="n"/>
       <c r="B176" s="5" t="n"/>
       <c r="C176" s="5" t="n"/>
@@ -6000,7 +6022,7 @@
       <c r="AA176" s="5" t="n"/>
       <c r="AB176" s="5" t="n"/>
     </row>
-    <row r="177" ht="17.4" customHeight="1" s="17">
+    <row r="177" ht="17.4" customHeight="1" s="18">
       <c r="A177" s="5" t="n"/>
       <c r="B177" s="5" t="n"/>
       <c r="C177" s="5" t="n"/>
@@ -6030,7 +6052,7 @@
       <c r="AA177" s="5" t="n"/>
       <c r="AB177" s="5" t="n"/>
     </row>
-    <row r="178" ht="17.4" customHeight="1" s="17">
+    <row r="178" ht="17.4" customHeight="1" s="18">
       <c r="A178" s="5" t="n"/>
       <c r="B178" s="5" t="n"/>
       <c r="C178" s="5" t="n"/>
@@ -6060,7 +6082,7 @@
       <c r="AA178" s="5" t="n"/>
       <c r="AB178" s="5" t="n"/>
     </row>
-    <row r="179" ht="17.4" customHeight="1" s="17">
+    <row r="179" ht="17.4" customHeight="1" s="18">
       <c r="A179" s="5" t="n"/>
       <c r="B179" s="5" t="n"/>
       <c r="C179" s="5" t="n"/>
@@ -6090,7 +6112,7 @@
       <c r="AA179" s="5" t="n"/>
       <c r="AB179" s="5" t="n"/>
     </row>
-    <row r="180" ht="17.4" customHeight="1" s="17">
+    <row r="180" ht="17.4" customHeight="1" s="18">
       <c r="A180" s="5" t="n"/>
       <c r="B180" s="5" t="n"/>
       <c r="C180" s="5" t="n"/>
@@ -6120,7 +6142,7 @@
       <c r="AA180" s="5" t="n"/>
       <c r="AB180" s="5" t="n"/>
     </row>
-    <row r="181" ht="17.4" customHeight="1" s="17">
+    <row r="181" ht="17.4" customHeight="1" s="18">
       <c r="A181" s="5" t="n"/>
       <c r="B181" s="5" t="n"/>
       <c r="C181" s="5" t="n"/>
@@ -6150,7 +6172,7 @@
       <c r="AA181" s="5" t="n"/>
       <c r="AB181" s="5" t="n"/>
     </row>
-    <row r="182" ht="17.4" customHeight="1" s="17">
+    <row r="182" ht="17.4" customHeight="1" s="18">
       <c r="A182" s="5" t="n"/>
       <c r="B182" s="5" t="n"/>
       <c r="C182" s="5" t="n"/>
@@ -6180,7 +6202,7 @@
       <c r="AA182" s="5" t="n"/>
       <c r="AB182" s="5" t="n"/>
     </row>
-    <row r="183" ht="17.4" customHeight="1" s="17">
+    <row r="183" ht="17.4" customHeight="1" s="18">
       <c r="A183" s="5" t="n"/>
       <c r="B183" s="5" t="n"/>
       <c r="C183" s="5" t="n"/>
@@ -6210,7 +6232,7 @@
       <c r="AA183" s="5" t="n"/>
       <c r="AB183" s="5" t="n"/>
     </row>
-    <row r="184" ht="17.4" customHeight="1" s="17">
+    <row r="184" ht="17.4" customHeight="1" s="18">
       <c r="A184" s="5" t="n"/>
       <c r="B184" s="5" t="n"/>
       <c r="C184" s="5" t="n"/>
@@ -6240,7 +6262,7 @@
       <c r="AA184" s="5" t="n"/>
       <c r="AB184" s="5" t="n"/>
     </row>
-    <row r="185" ht="17.4" customHeight="1" s="17">
+    <row r="185" ht="17.4" customHeight="1" s="18">
       <c r="A185" s="5" t="n"/>
       <c r="B185" s="5" t="n"/>
       <c r="C185" s="5" t="n"/>
@@ -6270,7 +6292,7 @@
       <c r="AA185" s="5" t="n"/>
       <c r="AB185" s="5" t="n"/>
     </row>
-    <row r="186" ht="17.4" customHeight="1" s="17">
+    <row r="186" ht="17.4" customHeight="1" s="18">
       <c r="A186" s="5" t="n"/>
       <c r="B186" s="5" t="n"/>
       <c r="C186" s="5" t="n"/>
@@ -6300,7 +6322,7 @@
       <c r="AA186" s="5" t="n"/>
       <c r="AB186" s="5" t="n"/>
     </row>
-    <row r="187" ht="17.4" customHeight="1" s="17">
+    <row r="187" ht="17.4" customHeight="1" s="18">
       <c r="A187" s="5" t="n"/>
       <c r="B187" s="5" t="n"/>
       <c r="C187" s="5" t="n"/>
@@ -6330,7 +6352,7 @@
       <c r="AA187" s="5" t="n"/>
       <c r="AB187" s="5" t="n"/>
     </row>
-    <row r="188" ht="17.4" customHeight="1" s="17">
+    <row r="188" ht="17.4" customHeight="1" s="18">
       <c r="A188" s="5" t="n"/>
       <c r="B188" s="5" t="n"/>
       <c r="C188" s="5" t="n"/>
@@ -6360,7 +6382,7 @@
       <c r="AA188" s="5" t="n"/>
       <c r="AB188" s="5" t="n"/>
     </row>
-    <row r="189" ht="17.4" customHeight="1" s="17">
+    <row r="189" ht="17.4" customHeight="1" s="18">
       <c r="A189" s="5" t="n"/>
       <c r="B189" s="5" t="n"/>
       <c r="C189" s="5" t="n"/>
@@ -6390,7 +6412,7 @@
       <c r="AA189" s="5" t="n"/>
       <c r="AB189" s="5" t="n"/>
     </row>
-    <row r="190" ht="17.4" customHeight="1" s="17">
+    <row r="190" ht="17.4" customHeight="1" s="18">
       <c r="A190" s="5" t="n"/>
       <c r="B190" s="5" t="n"/>
       <c r="C190" s="5" t="n"/>
@@ -6420,7 +6442,7 @@
       <c r="AA190" s="5" t="n"/>
       <c r="AB190" s="5" t="n"/>
     </row>
-    <row r="191" ht="17.4" customHeight="1" s="17">
+    <row r="191" ht="17.4" customHeight="1" s="18">
       <c r="A191" s="5" t="n"/>
       <c r="B191" s="5" t="n"/>
       <c r="C191" s="5" t="n"/>
@@ -6450,7 +6472,7 @@
       <c r="AA191" s="5" t="n"/>
       <c r="AB191" s="5" t="n"/>
     </row>
-    <row r="192" ht="17.4" customHeight="1" s="17">
+    <row r="192" ht="17.4" customHeight="1" s="18">
       <c r="A192" s="5" t="n"/>
       <c r="B192" s="5" t="n"/>
       <c r="C192" s="5" t="n"/>
@@ -6480,7 +6502,7 @@
       <c r="AA192" s="5" t="n"/>
       <c r="AB192" s="5" t="n"/>
     </row>
-    <row r="193" ht="17.4" customHeight="1" s="17">
+    <row r="193" ht="17.4" customHeight="1" s="18">
       <c r="A193" s="5" t="n"/>
       <c r="B193" s="5" t="n"/>
       <c r="C193" s="5" t="n"/>
@@ -6510,7 +6532,7 @@
       <c r="AA193" s="5" t="n"/>
       <c r="AB193" s="5" t="n"/>
     </row>
-    <row r="194" ht="17.4" customHeight="1" s="17">
+    <row r="194" ht="17.4" customHeight="1" s="18">
       <c r="A194" s="5" t="n"/>
       <c r="B194" s="5" t="n"/>
       <c r="C194" s="5" t="n"/>
@@ -6540,7 +6562,7 @@
       <c r="AA194" s="5" t="n"/>
       <c r="AB194" s="5" t="n"/>
     </row>
-    <row r="195" ht="17.4" customHeight="1" s="17">
+    <row r="195" ht="17.4" customHeight="1" s="18">
       <c r="A195" s="5" t="n"/>
       <c r="B195" s="5" t="n"/>
       <c r="C195" s="5" t="n"/>
@@ -6570,7 +6592,7 @@
       <c r="AA195" s="5" t="n"/>
       <c r="AB195" s="5" t="n"/>
     </row>
-    <row r="196" ht="17.4" customHeight="1" s="17">
+    <row r="196" ht="17.4" customHeight="1" s="18">
       <c r="A196" s="5" t="n"/>
       <c r="B196" s="5" t="n"/>
       <c r="C196" s="5" t="n"/>
@@ -6600,7 +6622,7 @@
       <c r="AA196" s="5" t="n"/>
       <c r="AB196" s="5" t="n"/>
     </row>
-    <row r="197" ht="17.4" customHeight="1" s="17">
+    <row r="197" ht="17.4" customHeight="1" s="18">
       <c r="A197" s="5" t="n"/>
       <c r="B197" s="5" t="n"/>
       <c r="C197" s="5" t="n"/>
@@ -6630,7 +6652,7 @@
       <c r="AA197" s="5" t="n"/>
       <c r="AB197" s="5" t="n"/>
     </row>
-    <row r="198" ht="17.4" customHeight="1" s="17">
+    <row r="198" ht="17.4" customHeight="1" s="18">
       <c r="A198" s="5" t="n"/>
       <c r="B198" s="5" t="n"/>
       <c r="C198" s="5" t="n"/>
@@ -6660,7 +6682,7 @@
       <c r="AA198" s="5" t="n"/>
       <c r="AB198" s="5" t="n"/>
     </row>
-    <row r="199" ht="17.4" customHeight="1" s="17">
+    <row r="199" ht="17.4" customHeight="1" s="18">
       <c r="A199" s="5" t="n"/>
       <c r="B199" s="5" t="n"/>
       <c r="C199" s="5" t="n"/>
@@ -6690,7 +6712,7 @@
       <c r="AA199" s="5" t="n"/>
       <c r="AB199" s="5" t="n"/>
     </row>
-    <row r="200" ht="17.4" customHeight="1" s="17">
+    <row r="200" ht="17.4" customHeight="1" s="18">
       <c r="A200" s="5" t="n"/>
       <c r="B200" s="5" t="n"/>
       <c r="C200" s="5" t="n"/>
@@ -6720,7 +6742,7 @@
       <c r="AA200" s="5" t="n"/>
       <c r="AB200" s="5" t="n"/>
     </row>
-    <row r="201" ht="17.4" customHeight="1" s="17">
+    <row r="201" ht="17.4" customHeight="1" s="18">
       <c r="A201" s="5" t="n"/>
       <c r="B201" s="5" t="n"/>
       <c r="C201" s="5" t="n"/>
@@ -6750,7 +6772,7 @@
       <c r="AA201" s="5" t="n"/>
       <c r="AB201" s="5" t="n"/>
     </row>
-    <row r="202" ht="17.4" customHeight="1" s="17">
+    <row r="202" ht="17.4" customHeight="1" s="18">
       <c r="A202" s="5" t="n"/>
       <c r="B202" s="5" t="n"/>
       <c r="C202" s="5" t="n"/>
@@ -6780,7 +6802,7 @@
       <c r="AA202" s="5" t="n"/>
       <c r="AB202" s="5" t="n"/>
     </row>
-    <row r="203" ht="17.4" customHeight="1" s="17">
+    <row r="203" ht="17.4" customHeight="1" s="18">
       <c r="A203" s="5" t="n"/>
       <c r="B203" s="5" t="n"/>
       <c r="C203" s="5" t="n"/>
@@ -6810,7 +6832,7 @@
       <c r="AA203" s="5" t="n"/>
       <c r="AB203" s="5" t="n"/>
     </row>
-    <row r="204" ht="17.4" customHeight="1" s="17">
+    <row r="204" ht="17.4" customHeight="1" s="18">
       <c r="A204" s="5" t="n"/>
       <c r="B204" s="5" t="n"/>
       <c r="C204" s="5" t="n"/>
@@ -6840,7 +6862,7 @@
       <c r="AA204" s="5" t="n"/>
       <c r="AB204" s="5" t="n"/>
     </row>
-    <row r="205" ht="17.4" customHeight="1" s="17">
+    <row r="205" ht="17.4" customHeight="1" s="18">
       <c r="A205" s="5" t="n"/>
       <c r="B205" s="5" t="n"/>
       <c r="C205" s="5" t="n"/>
@@ -6870,7 +6892,7 @@
       <c r="AA205" s="5" t="n"/>
       <c r="AB205" s="5" t="n"/>
     </row>
-    <row r="206" ht="17.4" customHeight="1" s="17">
+    <row r="206" ht="17.4" customHeight="1" s="18">
       <c r="A206" s="5" t="n"/>
       <c r="B206" s="5" t="n"/>
       <c r="C206" s="5" t="n"/>
@@ -6900,7 +6922,7 @@
       <c r="AA206" s="5" t="n"/>
       <c r="AB206" s="5" t="n"/>
     </row>
-    <row r="207" ht="17.4" customHeight="1" s="17">
+    <row r="207" ht="17.4" customHeight="1" s="18">
       <c r="A207" s="5" t="n"/>
       <c r="B207" s="5" t="n"/>
       <c r="C207" s="5" t="n"/>
@@ -6930,7 +6952,7 @@
       <c r="AA207" s="5" t="n"/>
       <c r="AB207" s="5" t="n"/>
     </row>
-    <row r="208" ht="17.4" customHeight="1" s="17">
+    <row r="208" ht="17.4" customHeight="1" s="18">
       <c r="A208" s="5" t="n"/>
       <c r="B208" s="5" t="n"/>
       <c r="C208" s="5" t="n"/>
@@ -6960,7 +6982,7 @@
       <c r="AA208" s="5" t="n"/>
       <c r="AB208" s="5" t="n"/>
     </row>
-    <row r="209" ht="17.4" customHeight="1" s="17">
+    <row r="209" ht="17.4" customHeight="1" s="18">
       <c r="A209" s="5" t="n"/>
       <c r="B209" s="5" t="n"/>
       <c r="C209" s="5" t="n"/>
@@ -6990,7 +7012,7 @@
       <c r="AA209" s="5" t="n"/>
       <c r="AB209" s="5" t="n"/>
     </row>
-    <row r="210" ht="17.4" customHeight="1" s="17">
+    <row r="210" ht="17.4" customHeight="1" s="18">
       <c r="A210" s="5" t="n"/>
       <c r="B210" s="5" t="n"/>
       <c r="C210" s="5" t="n"/>
@@ -7020,7 +7042,7 @@
       <c r="AA210" s="5" t="n"/>
       <c r="AB210" s="5" t="n"/>
     </row>
-    <row r="211" ht="17.4" customHeight="1" s="17">
+    <row r="211" ht="17.4" customHeight="1" s="18">
       <c r="A211" s="5" t="n"/>
       <c r="B211" s="5" t="n"/>
       <c r="C211" s="5" t="n"/>
@@ -7050,7 +7072,7 @@
       <c r="AA211" s="5" t="n"/>
       <c r="AB211" s="5" t="n"/>
     </row>
-    <row r="212" ht="17.4" customHeight="1" s="17">
+    <row r="212" ht="17.4" customHeight="1" s="18">
       <c r="A212" s="5" t="n"/>
       <c r="B212" s="5" t="n"/>
       <c r="C212" s="5" t="n"/>
@@ -7080,7 +7102,7 @@
       <c r="AA212" s="5" t="n"/>
       <c r="AB212" s="5" t="n"/>
     </row>
-    <row r="213" ht="17.4" customHeight="1" s="17">
+    <row r="213" ht="17.4" customHeight="1" s="18">
       <c r="A213" s="5" t="n"/>
       <c r="B213" s="5" t="n"/>
       <c r="C213" s="5" t="n"/>
@@ -7110,7 +7132,7 @@
       <c r="AA213" s="5" t="n"/>
       <c r="AB213" s="5" t="n"/>
     </row>
-    <row r="214" ht="17.4" customHeight="1" s="17">
+    <row r="214" ht="17.4" customHeight="1" s="18">
       <c r="A214" s="5" t="n"/>
       <c r="B214" s="5" t="n"/>
       <c r="C214" s="5" t="n"/>
@@ -7140,7 +7162,7 @@
       <c r="AA214" s="5" t="n"/>
       <c r="AB214" s="5" t="n"/>
     </row>
-    <row r="215" ht="17.4" customHeight="1" s="17">
+    <row r="215" ht="17.4" customHeight="1" s="18">
       <c r="A215" s="5" t="n"/>
       <c r="B215" s="5" t="n"/>
       <c r="C215" s="5" t="n"/>
@@ -7170,7 +7192,7 @@
       <c r="AA215" s="5" t="n"/>
       <c r="AB215" s="5" t="n"/>
     </row>
-    <row r="216" ht="17.4" customHeight="1" s="17">
+    <row r="216" ht="17.4" customHeight="1" s="18">
       <c r="A216" s="5" t="n"/>
       <c r="B216" s="5" t="n"/>
       <c r="C216" s="5" t="n"/>
@@ -7200,7 +7222,7 @@
       <c r="AA216" s="5" t="n"/>
       <c r="AB216" s="5" t="n"/>
     </row>
-    <row r="217" ht="17.4" customHeight="1" s="17">
+    <row r="217" ht="17.4" customHeight="1" s="18">
       <c r="A217" s="5" t="n"/>
       <c r="B217" s="5" t="n"/>
       <c r="C217" s="5" t="n"/>
@@ -7230,7 +7252,7 @@
       <c r="AA217" s="5" t="n"/>
       <c r="AB217" s="5" t="n"/>
     </row>
-    <row r="218" ht="17.4" customHeight="1" s="17">
+    <row r="218" ht="17.4" customHeight="1" s="18">
       <c r="A218" s="5" t="n"/>
       <c r="B218" s="5" t="n"/>
       <c r="C218" s="5" t="n"/>
@@ -7260,7 +7282,7 @@
       <c r="AA218" s="5" t="n"/>
       <c r="AB218" s="5" t="n"/>
     </row>
-    <row r="219" ht="17.4" customHeight="1" s="17">
+    <row r="219" ht="17.4" customHeight="1" s="18">
       <c r="A219" s="5" t="n"/>
       <c r="B219" s="5" t="n"/>
       <c r="C219" s="5" t="n"/>
@@ -7290,7 +7312,7 @@
       <c r="AA219" s="5" t="n"/>
       <c r="AB219" s="5" t="n"/>
     </row>
-    <row r="220" ht="17.4" customHeight="1" s="17">
+    <row r="220" ht="17.4" customHeight="1" s="18">
       <c r="A220" s="5" t="n"/>
       <c r="B220" s="5" t="n"/>
       <c r="C220" s="5" t="n"/>
@@ -7320,7 +7342,7 @@
       <c r="AA220" s="5" t="n"/>
       <c r="AB220" s="5" t="n"/>
     </row>
-    <row r="221" ht="17.4" customHeight="1" s="17">
+    <row r="221" ht="17.4" customHeight="1" s="18">
       <c r="A221" s="5" t="n"/>
       <c r="B221" s="5" t="n"/>
       <c r="C221" s="5" t="n"/>
@@ -7350,7 +7372,7 @@
       <c r="AA221" s="5" t="n"/>
       <c r="AB221" s="5" t="n"/>
     </row>
-    <row r="222" ht="17.4" customHeight="1" s="17">
+    <row r="222" ht="17.4" customHeight="1" s="18">
       <c r="A222" s="5" t="n"/>
       <c r="B222" s="5" t="n"/>
       <c r="C222" s="5" t="n"/>
@@ -7380,7 +7402,7 @@
       <c r="AA222" s="5" t="n"/>
       <c r="AB222" s="5" t="n"/>
     </row>
-    <row r="223" ht="17.4" customHeight="1" s="17">
+    <row r="223" ht="17.4" customHeight="1" s="18">
       <c r="A223" s="5" t="n"/>
       <c r="B223" s="5" t="n"/>
       <c r="C223" s="5" t="n"/>
@@ -7410,7 +7432,7 @@
       <c r="AA223" s="5" t="n"/>
       <c r="AB223" s="5" t="n"/>
     </row>
-    <row r="224" ht="17.4" customHeight="1" s="17">
+    <row r="224" ht="17.4" customHeight="1" s="18">
       <c r="A224" s="5" t="n"/>
       <c r="B224" s="5" t="n"/>
       <c r="C224" s="5" t="n"/>
@@ -7440,7 +7462,7 @@
       <c r="AA224" s="5" t="n"/>
       <c r="AB224" s="5" t="n"/>
     </row>
-    <row r="225" ht="17.4" customHeight="1" s="17">
+    <row r="225" ht="17.4" customHeight="1" s="18">
       <c r="A225" s="5" t="n"/>
       <c r="B225" s="5" t="n"/>
       <c r="C225" s="5" t="n"/>
@@ -7470,7 +7492,7 @@
       <c r="AA225" s="5" t="n"/>
       <c r="AB225" s="5" t="n"/>
     </row>
-    <row r="226" ht="17.4" customHeight="1" s="17">
+    <row r="226" ht="17.4" customHeight="1" s="18">
       <c r="A226" s="5" t="n"/>
       <c r="B226" s="5" t="n"/>
       <c r="C226" s="5" t="n"/>
@@ -7500,7 +7522,7 @@
       <c r="AA226" s="5" t="n"/>
       <c r="AB226" s="5" t="n"/>
     </row>
-    <row r="227" ht="17.4" customHeight="1" s="17">
+    <row r="227" ht="17.4" customHeight="1" s="18">
       <c r="A227" s="5" t="n"/>
       <c r="B227" s="5" t="n"/>
       <c r="C227" s="5" t="n"/>
@@ -7530,7 +7552,7 @@
       <c r="AA227" s="5" t="n"/>
       <c r="AB227" s="5" t="n"/>
     </row>
-    <row r="228" ht="17.4" customHeight="1" s="17">
+    <row r="228" ht="17.4" customHeight="1" s="18">
       <c r="A228" s="5" t="n"/>
       <c r="B228" s="5" t="n"/>
       <c r="C228" s="5" t="n"/>
@@ -7560,7 +7582,7 @@
       <c r="AA228" s="5" t="n"/>
       <c r="AB228" s="5" t="n"/>
     </row>
-    <row r="229" ht="17.4" customHeight="1" s="17">
+    <row r="229" ht="17.4" customHeight="1" s="18">
       <c r="A229" s="5" t="n"/>
       <c r="B229" s="5" t="n"/>
       <c r="C229" s="5" t="n"/>
@@ -7590,7 +7612,7 @@
       <c r="AA229" s="5" t="n"/>
       <c r="AB229" s="5" t="n"/>
     </row>
-    <row r="230" ht="17.4" customHeight="1" s="17">
+    <row r="230" ht="17.4" customHeight="1" s="18">
       <c r="A230" s="5" t="n"/>
       <c r="B230" s="5" t="n"/>
       <c r="C230" s="5" t="n"/>
@@ -7620,7 +7642,7 @@
       <c r="AA230" s="5" t="n"/>
       <c r="AB230" s="5" t="n"/>
     </row>
-    <row r="231" ht="17.4" customHeight="1" s="17">
+    <row r="231" ht="17.4" customHeight="1" s="18">
       <c r="A231" s="5" t="n"/>
       <c r="B231" s="5" t="n"/>
       <c r="C231" s="5" t="n"/>
@@ -7650,7 +7672,7 @@
       <c r="AA231" s="5" t="n"/>
       <c r="AB231" s="5" t="n"/>
     </row>
-    <row r="232" ht="17.4" customHeight="1" s="17">
+    <row r="232" ht="17.4" customHeight="1" s="18">
       <c r="A232" s="5" t="n"/>
       <c r="B232" s="5" t="n"/>
       <c r="C232" s="5" t="n"/>
@@ -7680,7 +7702,7 @@
       <c r="AA232" s="5" t="n"/>
       <c r="AB232" s="5" t="n"/>
     </row>
-    <row r="233" ht="17.4" customHeight="1" s="17">
+    <row r="233" ht="17.4" customHeight="1" s="18">
       <c r="A233" s="5" t="n"/>
       <c r="B233" s="5" t="n"/>
       <c r="C233" s="5" t="n"/>
@@ -7710,7 +7732,7 @@
       <c r="AA233" s="5" t="n"/>
       <c r="AB233" s="5" t="n"/>
     </row>
-    <row r="234" ht="17.4" customHeight="1" s="17">
+    <row r="234" ht="17.4" customHeight="1" s="18">
       <c r="A234" s="5" t="n"/>
       <c r="B234" s="5" t="n"/>
       <c r="C234" s="5" t="n"/>
@@ -7740,7 +7762,7 @@
       <c r="AA234" s="5" t="n"/>
       <c r="AB234" s="5" t="n"/>
     </row>
-    <row r="235" ht="17.4" customHeight="1" s="17">
+    <row r="235" ht="17.4" customHeight="1" s="18">
       <c r="A235" s="5" t="n"/>
       <c r="B235" s="5" t="n"/>
       <c r="C235" s="5" t="n"/>
@@ -7770,7 +7792,7 @@
       <c r="AA235" s="5" t="n"/>
       <c r="AB235" s="5" t="n"/>
     </row>
-    <row r="236" ht="17.4" customHeight="1" s="17">
+    <row r="236" ht="17.4" customHeight="1" s="18">
       <c r="A236" s="5" t="n"/>
       <c r="B236" s="5" t="n"/>
       <c r="C236" s="5" t="n"/>
@@ -7800,7 +7822,7 @@
       <c r="AA236" s="5" t="n"/>
       <c r="AB236" s="5" t="n"/>
     </row>
-    <row r="237" ht="17.4" customHeight="1" s="17">
+    <row r="237" ht="17.4" customHeight="1" s="18">
       <c r="A237" s="5" t="n"/>
       <c r="B237" s="5" t="n"/>
       <c r="C237" s="5" t="n"/>
@@ -7830,7 +7852,7 @@
       <c r="AA237" s="5" t="n"/>
       <c r="AB237" s="5" t="n"/>
     </row>
-    <row r="238" ht="17.4" customHeight="1" s="17">
+    <row r="238" ht="17.4" customHeight="1" s="18">
       <c r="A238" s="5" t="n"/>
       <c r="B238" s="5" t="n"/>
       <c r="C238" s="5" t="n"/>
@@ -7860,7 +7882,7 @@
       <c r="AA238" s="5" t="n"/>
       <c r="AB238" s="5" t="n"/>
     </row>
-    <row r="239" ht="17.4" customHeight="1" s="17">
+    <row r="239" ht="17.4" customHeight="1" s="18">
       <c r="A239" s="5" t="n"/>
       <c r="B239" s="5" t="n"/>
       <c r="C239" s="5" t="n"/>
@@ -7890,7 +7912,7 @@
       <c r="AA239" s="5" t="n"/>
       <c r="AB239" s="5" t="n"/>
     </row>
-    <row r="240" ht="17.4" customHeight="1" s="17">
+    <row r="240" ht="17.4" customHeight="1" s="18">
       <c r="A240" s="5" t="n"/>
       <c r="B240" s="5" t="n"/>
       <c r="C240" s="5" t="n"/>
@@ -7920,7 +7942,7 @@
       <c r="AA240" s="5" t="n"/>
       <c r="AB240" s="5" t="n"/>
     </row>
-    <row r="241" ht="17.4" customHeight="1" s="17">
+    <row r="241" ht="17.4" customHeight="1" s="18">
       <c r="A241" s="5" t="n"/>
       <c r="B241" s="5" t="n"/>
       <c r="C241" s="5" t="n"/>
@@ -7950,7 +7972,7 @@
       <c r="AA241" s="5" t="n"/>
       <c r="AB241" s="5" t="n"/>
     </row>
-    <row r="242" ht="17.4" customHeight="1" s="17">
+    <row r="242" ht="17.4" customHeight="1" s="18">
       <c r="A242" s="5" t="n"/>
       <c r="B242" s="5" t="n"/>
       <c r="C242" s="5" t="n"/>
@@ -7980,7 +8002,7 @@
       <c r="AA242" s="5" t="n"/>
       <c r="AB242" s="5" t="n"/>
     </row>
-    <row r="243" ht="17.4" customHeight="1" s="17">
+    <row r="243" ht="17.4" customHeight="1" s="18">
       <c r="A243" s="5" t="n"/>
       <c r="B243" s="5" t="n"/>
       <c r="C243" s="5" t="n"/>
@@ -8010,7 +8032,7 @@
       <c r="AA243" s="5" t="n"/>
       <c r="AB243" s="5" t="n"/>
     </row>
-    <row r="244" ht="17.4" customHeight="1" s="17">
+    <row r="244" ht="17.4" customHeight="1" s="18">
       <c r="A244" s="5" t="n"/>
       <c r="B244" s="5" t="n"/>
       <c r="C244" s="5" t="n"/>
@@ -8040,7 +8062,7 @@
       <c r="AA244" s="5" t="n"/>
       <c r="AB244" s="5" t="n"/>
     </row>
-    <row r="245" ht="17.4" customHeight="1" s="17">
+    <row r="245" ht="17.4" customHeight="1" s="18">
       <c r="A245" s="5" t="n"/>
       <c r="B245" s="5" t="n"/>
       <c r="C245" s="5" t="n"/>
@@ -8070,7 +8092,7 @@
       <c r="AA245" s="5" t="n"/>
       <c r="AB245" s="5" t="n"/>
     </row>
-    <row r="246" ht="17.4" customHeight="1" s="17">
+    <row r="246" ht="17.4" customHeight="1" s="18">
       <c r="A246" s="5" t="n"/>
       <c r="B246" s="5" t="n"/>
       <c r="C246" s="5" t="n"/>
@@ -8100,7 +8122,7 @@
       <c r="AA246" s="5" t="n"/>
       <c r="AB246" s="5" t="n"/>
     </row>
-    <row r="247" ht="17.4" customHeight="1" s="17">
+    <row r="247" ht="17.4" customHeight="1" s="18">
       <c r="A247" s="5" t="n"/>
       <c r="B247" s="5" t="n"/>
       <c r="C247" s="5" t="n"/>
@@ -8130,7 +8152,7 @@
       <c r="AA247" s="5" t="n"/>
       <c r="AB247" s="5" t="n"/>
     </row>
-    <row r="248" ht="17.4" customHeight="1" s="17">
+    <row r="248" ht="17.4" customHeight="1" s="18">
       <c r="A248" s="5" t="n"/>
       <c r="B248" s="5" t="n"/>
       <c r="C248" s="5" t="n"/>
@@ -8160,7 +8182,7 @@
       <c r="AA248" s="5" t="n"/>
       <c r="AB248" s="5" t="n"/>
     </row>
-    <row r="249" ht="17.4" customHeight="1" s="17">
+    <row r="249" ht="17.4" customHeight="1" s="18">
       <c r="A249" s="5" t="n"/>
       <c r="B249" s="5" t="n"/>
       <c r="C249" s="5" t="n"/>
@@ -8190,7 +8212,7 @@
       <c r="AA249" s="5" t="n"/>
       <c r="AB249" s="5" t="n"/>
     </row>
-    <row r="250" ht="17.4" customHeight="1" s="17">
+    <row r="250" ht="17.4" customHeight="1" s="18">
       <c r="A250" s="5" t="n"/>
       <c r="B250" s="5" t="n"/>
       <c r="C250" s="5" t="n"/>
@@ -8220,7 +8242,7 @@
       <c r="AA250" s="5" t="n"/>
       <c r="AB250" s="5" t="n"/>
     </row>
-    <row r="251" ht="17.4" customHeight="1" s="17">
+    <row r="251" ht="17.4" customHeight="1" s="18">
       <c r="A251" s="5" t="n"/>
       <c r="B251" s="5" t="n"/>
       <c r="C251" s="5" t="n"/>
@@ -8250,7 +8272,7 @@
       <c r="AA251" s="5" t="n"/>
       <c r="AB251" s="5" t="n"/>
     </row>
-    <row r="252" ht="17.4" customHeight="1" s="17">
+    <row r="252" ht="17.4" customHeight="1" s="18">
       <c r="A252" s="5" t="n"/>
       <c r="B252" s="5" t="n"/>
       <c r="C252" s="5" t="n"/>
@@ -8280,7 +8302,7 @@
       <c r="AA252" s="5" t="n"/>
       <c r="AB252" s="5" t="n"/>
     </row>
-    <row r="253" ht="17.4" customHeight="1" s="17">
+    <row r="253" ht="17.4" customHeight="1" s="18">
       <c r="A253" s="5" t="n"/>
       <c r="B253" s="5" t="n"/>
       <c r="C253" s="5" t="n"/>
@@ -8310,7 +8332,7 @@
       <c r="AA253" s="5" t="n"/>
       <c r="AB253" s="5" t="n"/>
     </row>
-    <row r="254" ht="17.4" customHeight="1" s="17">
+    <row r="254" ht="17.4" customHeight="1" s="18">
       <c r="A254" s="5" t="n"/>
       <c r="B254" s="5" t="n"/>
       <c r="C254" s="5" t="n"/>
@@ -8340,7 +8362,7 @@
       <c r="AA254" s="5" t="n"/>
       <c r="AB254" s="5" t="n"/>
     </row>
-    <row r="255" ht="17.4" customHeight="1" s="17">
+    <row r="255" ht="17.4" customHeight="1" s="18">
       <c r="A255" s="5" t="n"/>
       <c r="B255" s="5" t="n"/>
       <c r="C255" s="5" t="n"/>
@@ -8370,7 +8392,7 @@
       <c r="AA255" s="5" t="n"/>
       <c r="AB255" s="5" t="n"/>
     </row>
-    <row r="256" ht="17.4" customHeight="1" s="17">
+    <row r="256" ht="17.4" customHeight="1" s="18">
       <c r="A256" s="5" t="n"/>
       <c r="B256" s="5" t="n"/>
       <c r="C256" s="5" t="n"/>
@@ -8400,7 +8422,7 @@
       <c r="AA256" s="5" t="n"/>
       <c r="AB256" s="5" t="n"/>
     </row>
-    <row r="257" ht="17.4" customHeight="1" s="17">
+    <row r="257" ht="17.4" customHeight="1" s="18">
       <c r="A257" s="5" t="n"/>
       <c r="B257" s="5" t="n"/>
       <c r="C257" s="5" t="n"/>
@@ -8430,7 +8452,7 @@
       <c r="AA257" s="5" t="n"/>
       <c r="AB257" s="5" t="n"/>
     </row>
-    <row r="258" ht="17.4" customHeight="1" s="17">
+    <row r="258" ht="17.4" customHeight="1" s="18">
       <c r="A258" s="5" t="n"/>
       <c r="B258" s="5" t="n"/>
       <c r="C258" s="5" t="n"/>
@@ -8460,7 +8482,7 @@
       <c r="AA258" s="5" t="n"/>
       <c r="AB258" s="5" t="n"/>
     </row>
-    <row r="259" ht="17.4" customHeight="1" s="17">
+    <row r="259" ht="17.4" customHeight="1" s="18">
       <c r="A259" s="5" t="n"/>
       <c r="B259" s="5" t="n"/>
       <c r="C259" s="5" t="n"/>
@@ -8490,7 +8512,7 @@
       <c r="AA259" s="5" t="n"/>
       <c r="AB259" s="5" t="n"/>
     </row>
-    <row r="260" ht="17.4" customHeight="1" s="17">
+    <row r="260" ht="17.4" customHeight="1" s="18">
       <c r="A260" s="5" t="n"/>
       <c r="B260" s="5" t="n"/>
       <c r="C260" s="5" t="n"/>
@@ -8520,7 +8542,7 @@
       <c r="AA260" s="5" t="n"/>
       <c r="AB260" s="5" t="n"/>
     </row>
-    <row r="261" ht="17.4" customHeight="1" s="17">
+    <row r="261" ht="17.4" customHeight="1" s="18">
       <c r="A261" s="5" t="n"/>
       <c r="B261" s="5" t="n"/>
       <c r="C261" s="5" t="n"/>
@@ -8550,7 +8572,7 @@
       <c r="AA261" s="5" t="n"/>
       <c r="AB261" s="5" t="n"/>
     </row>
-    <row r="262" ht="17.4" customHeight="1" s="17">
+    <row r="262" ht="17.4" customHeight="1" s="18">
       <c r="A262" s="5" t="n"/>
       <c r="B262" s="5" t="n"/>
       <c r="C262" s="5" t="n"/>
@@ -8580,7 +8602,7 @@
       <c r="AA262" s="5" t="n"/>
       <c r="AB262" s="5" t="n"/>
     </row>
-    <row r="263" ht="17.4" customHeight="1" s="17">
+    <row r="263" ht="17.4" customHeight="1" s="18">
       <c r="A263" s="5" t="n"/>
       <c r="B263" s="5" t="n"/>
       <c r="C263" s="5" t="n"/>
@@ -8610,7 +8632,7 @@
       <c r="AA263" s="5" t="n"/>
       <c r="AB263" s="5" t="n"/>
     </row>
-    <row r="264" ht="17.4" customHeight="1" s="17">
+    <row r="264" ht="17.4" customHeight="1" s="18">
       <c r="A264" s="5" t="n"/>
       <c r="B264" s="5" t="n"/>
       <c r="C264" s="5" t="n"/>
@@ -8640,7 +8662,7 @@
       <c r="AA264" s="5" t="n"/>
       <c r="AB264" s="5" t="n"/>
     </row>
-    <row r="265" ht="17.4" customHeight="1" s="17">
+    <row r="265" ht="17.4" customHeight="1" s="18">
       <c r="A265" s="5" t="n"/>
       <c r="B265" s="5" t="n"/>
       <c r="C265" s="5" t="n"/>
@@ -8670,7 +8692,7 @@
       <c r="AA265" s="5" t="n"/>
       <c r="AB265" s="5" t="n"/>
     </row>
-    <row r="266" ht="17.4" customHeight="1" s="17">
+    <row r="266" ht="17.4" customHeight="1" s="18">
       <c r="A266" s="5" t="n"/>
       <c r="B266" s="5" t="n"/>
       <c r="C266" s="5" t="n"/>
@@ -8700,7 +8722,7 @@
       <c r="AA266" s="5" t="n"/>
       <c r="AB266" s="5" t="n"/>
     </row>
-    <row r="267" ht="17.4" customHeight="1" s="17">
+    <row r="267" ht="17.4" customHeight="1" s="18">
       <c r="A267" s="5" t="n"/>
       <c r="B267" s="5" t="n"/>
       <c r="C267" s="5" t="n"/>
@@ -8730,7 +8752,7 @@
       <c r="AA267" s="5" t="n"/>
       <c r="AB267" s="5" t="n"/>
     </row>
-    <row r="268" ht="17.4" customHeight="1" s="17">
+    <row r="268" ht="17.4" customHeight="1" s="18">
       <c r="A268" s="5" t="n"/>
       <c r="B268" s="5" t="n"/>
       <c r="C268" s="5" t="n"/>
@@ -8760,7 +8782,7 @@
       <c r="AA268" s="5" t="n"/>
       <c r="AB268" s="5" t="n"/>
     </row>
-    <row r="269" ht="17.4" customHeight="1" s="17">
+    <row r="269" ht="17.4" customHeight="1" s="18">
       <c r="A269" s="5" t="n"/>
       <c r="B269" s="5" t="n"/>
       <c r="C269" s="5" t="n"/>
@@ -8790,7 +8812,7 @@
       <c r="AA269" s="5" t="n"/>
       <c r="AB269" s="5" t="n"/>
     </row>
-    <row r="270" ht="17.4" customHeight="1" s="17">
+    <row r="270" ht="17.4" customHeight="1" s="18">
       <c r="A270" s="5" t="n"/>
       <c r="B270" s="5" t="n"/>
       <c r="C270" s="5" t="n"/>
@@ -8820,7 +8842,7 @@
       <c r="AA270" s="5" t="n"/>
       <c r="AB270" s="5" t="n"/>
     </row>
-    <row r="271" ht="17.4" customHeight="1" s="17">
+    <row r="271" ht="17.4" customHeight="1" s="18">
       <c r="A271" s="5" t="n"/>
       <c r="B271" s="5" t="n"/>
       <c r="C271" s="5" t="n"/>
@@ -8850,7 +8872,7 @@
       <c r="AA271" s="5" t="n"/>
       <c r="AB271" s="5" t="n"/>
     </row>
-    <row r="272" ht="17.4" customHeight="1" s="17">
+    <row r="272" ht="17.4" customHeight="1" s="18">
       <c r="A272" s="5" t="n"/>
       <c r="B272" s="5" t="n"/>
       <c r="C272" s="5" t="n"/>
@@ -8880,7 +8902,7 @@
       <c r="AA272" s="5" t="n"/>
       <c r="AB272" s="5" t="n"/>
     </row>
-    <row r="273" ht="17.4" customHeight="1" s="17">
+    <row r="273" ht="17.4" customHeight="1" s="18">
       <c r="A273" s="5" t="n"/>
       <c r="B273" s="5" t="n"/>
       <c r="C273" s="5" t="n"/>
@@ -8910,7 +8932,7 @@
       <c r="AA273" s="5" t="n"/>
       <c r="AB273" s="5" t="n"/>
     </row>
-    <row r="274" ht="17.4" customHeight="1" s="17">
+    <row r="274" ht="17.4" customHeight="1" s="18">
       <c r="A274" s="5" t="n"/>
       <c r="B274" s="5" t="n"/>
       <c r="C274" s="5" t="n"/>
@@ -8940,7 +8962,7 @@
       <c r="AA274" s="5" t="n"/>
       <c r="AB274" s="5" t="n"/>
     </row>
-    <row r="275" ht="17.4" customHeight="1" s="17">
+    <row r="275" ht="17.4" customHeight="1" s="18">
       <c r="A275" s="5" t="n"/>
       <c r="B275" s="5" t="n"/>
       <c r="C275" s="5" t="n"/>
@@ -8970,7 +8992,7 @@
       <c r="AA275" s="5" t="n"/>
       <c r="AB275" s="5" t="n"/>
     </row>
-    <row r="276" ht="17.4" customHeight="1" s="17">
+    <row r="276" ht="17.4" customHeight="1" s="18">
       <c r="A276" s="5" t="n"/>
       <c r="B276" s="5" t="n"/>
       <c r="C276" s="5" t="n"/>
@@ -9000,7 +9022,7 @@
       <c r="AA276" s="5" t="n"/>
       <c r="AB276" s="5" t="n"/>
     </row>
-    <row r="277" ht="17.4" customHeight="1" s="17">
+    <row r="277" ht="17.4" customHeight="1" s="18">
       <c r="A277" s="5" t="n"/>
       <c r="B277" s="5" t="n"/>
       <c r="C277" s="5" t="n"/>
@@ -9030,7 +9052,7 @@
       <c r="AA277" s="5" t="n"/>
       <c r="AB277" s="5" t="n"/>
     </row>
-    <row r="278" ht="17.4" customHeight="1" s="17">
+    <row r="278" ht="17.4" customHeight="1" s="18">
       <c r="A278" s="5" t="n"/>
       <c r="B278" s="5" t="n"/>
       <c r="C278" s="5" t="n"/>
@@ -9060,7 +9082,7 @@
       <c r="AA278" s="5" t="n"/>
       <c r="AB278" s="5" t="n"/>
     </row>
-    <row r="279" ht="17.4" customHeight="1" s="17">
+    <row r="279" ht="17.4" customHeight="1" s="18">
       <c r="A279" s="5" t="n"/>
       <c r="B279" s="5" t="n"/>
       <c r="C279" s="5" t="n"/>
@@ -9090,7 +9112,7 @@
       <c r="AA279" s="5" t="n"/>
       <c r="AB279" s="5" t="n"/>
     </row>
-    <row r="280" ht="17.4" customHeight="1" s="17">
+    <row r="280" ht="17.4" customHeight="1" s="18">
       <c r="A280" s="5" t="n"/>
       <c r="B280" s="5" t="n"/>
       <c r="C280" s="5" t="n"/>
@@ -9120,7 +9142,7 @@
       <c r="AA280" s="5" t="n"/>
       <c r="AB280" s="5" t="n"/>
     </row>
-    <row r="281" ht="17.4" customHeight="1" s="17">
+    <row r="281" ht="17.4" customHeight="1" s="18">
       <c r="A281" s="5" t="n"/>
       <c r="B281" s="5" t="n"/>
       <c r="C281" s="5" t="n"/>
@@ -9150,7 +9172,7 @@
       <c r="AA281" s="5" t="n"/>
       <c r="AB281" s="5" t="n"/>
     </row>
-    <row r="282" ht="17.4" customHeight="1" s="17">
+    <row r="282" ht="17.4" customHeight="1" s="18">
       <c r="A282" s="5" t="n"/>
       <c r="B282" s="5" t="n"/>
       <c r="C282" s="5" t="n"/>
@@ -9180,7 +9202,7 @@
       <c r="AA282" s="5" t="n"/>
       <c r="AB282" s="5" t="n"/>
     </row>
-    <row r="283" ht="17.4" customHeight="1" s="17">
+    <row r="283" ht="17.4" customHeight="1" s="18">
       <c r="A283" s="5" t="n"/>
       <c r="B283" s="5" t="n"/>
       <c r="C283" s="5" t="n"/>
@@ -9210,7 +9232,7 @@
       <c r="AA283" s="5" t="n"/>
       <c r="AB283" s="5" t="n"/>
     </row>
-    <row r="284" ht="17.4" customHeight="1" s="17">
+    <row r="284" ht="17.4" customHeight="1" s="18">
       <c r="A284" s="5" t="n"/>
       <c r="B284" s="5" t="n"/>
       <c r="C284" s="5" t="n"/>
@@ -9240,7 +9262,7 @@
       <c r="AA284" s="5" t="n"/>
       <c r="AB284" s="5" t="n"/>
     </row>
-    <row r="285" ht="17.4" customHeight="1" s="17">
+    <row r="285" ht="17.4" customHeight="1" s="18">
       <c r="A285" s="5" t="n"/>
       <c r="B285" s="5" t="n"/>
       <c r="C285" s="5" t="n"/>
@@ -9270,7 +9292,7 @@
       <c r="AA285" s="5" t="n"/>
       <c r="AB285" s="5" t="n"/>
     </row>
-    <row r="286" ht="17.4" customHeight="1" s="17">
+    <row r="286" ht="17.4" customHeight="1" s="18">
       <c r="A286" s="5" t="n"/>
       <c r="B286" s="5" t="n"/>
       <c r="C286" s="5" t="n"/>
@@ -9300,7 +9322,7 @@
       <c r="AA286" s="5" t="n"/>
       <c r="AB286" s="5" t="n"/>
     </row>
-    <row r="287" ht="17.4" customHeight="1" s="17">
+    <row r="287" ht="17.4" customHeight="1" s="18">
       <c r="A287" s="5" t="n"/>
       <c r="B287" s="5" t="n"/>
       <c r="C287" s="5" t="n"/>
@@ -9330,7 +9352,7 @@
       <c r="AA287" s="5" t="n"/>
       <c r="AB287" s="5" t="n"/>
     </row>
-    <row r="288" ht="17.4" customHeight="1" s="17">
+    <row r="288" ht="17.4" customHeight="1" s="18">
       <c r="A288" s="5" t="n"/>
       <c r="B288" s="5" t="n"/>
       <c r="C288" s="5" t="n"/>
@@ -9360,7 +9382,7 @@
       <c r="AA288" s="5" t="n"/>
       <c r="AB288" s="5" t="n"/>
     </row>
-    <row r="289" ht="17.4" customHeight="1" s="17">
+    <row r="289" ht="17.4" customHeight="1" s="18">
       <c r="A289" s="5" t="n"/>
       <c r="B289" s="5" t="n"/>
       <c r="C289" s="5" t="n"/>
@@ -9390,7 +9412,7 @@
       <c r="AA289" s="5" t="n"/>
       <c r="AB289" s="5" t="n"/>
     </row>
-    <row r="290" ht="17.4" customHeight="1" s="17">
+    <row r="290" ht="17.4" customHeight="1" s="18">
       <c r="A290" s="5" t="n"/>
       <c r="B290" s="5" t="n"/>
       <c r="C290" s="5" t="n"/>
@@ -9420,7 +9442,7 @@
       <c r="AA290" s="5" t="n"/>
       <c r="AB290" s="5" t="n"/>
     </row>
-    <row r="291" ht="17.4" customHeight="1" s="17">
+    <row r="291" ht="17.4" customHeight="1" s="18">
       <c r="A291" s="5" t="n"/>
       <c r="B291" s="5" t="n"/>
       <c r="C291" s="5" t="n"/>
@@ -9450,7 +9472,7 @@
       <c r="AA291" s="5" t="n"/>
       <c r="AB291" s="5" t="n"/>
     </row>
-    <row r="292" ht="17.4" customHeight="1" s="17">
+    <row r="292" ht="17.4" customHeight="1" s="18">
       <c r="A292" s="5" t="n"/>
       <c r="B292" s="5" t="n"/>
       <c r="C292" s="5" t="n"/>
@@ -9480,7 +9502,7 @@
       <c r="AA292" s="5" t="n"/>
       <c r="AB292" s="5" t="n"/>
     </row>
-    <row r="293" ht="17.4" customHeight="1" s="17">
+    <row r="293" ht="17.4" customHeight="1" s="18">
       <c r="A293" s="5" t="n"/>
       <c r="B293" s="5" t="n"/>
       <c r="C293" s="5" t="n"/>
@@ -9510,7 +9532,7 @@
       <c r="AA293" s="5" t="n"/>
       <c r="AB293" s="5" t="n"/>
     </row>
-    <row r="294" ht="17.4" customHeight="1" s="17">
+    <row r="294" ht="17.4" customHeight="1" s="18">
       <c r="A294" s="5" t="n"/>
       <c r="B294" s="5" t="n"/>
       <c r="C294" s="5" t="n"/>
@@ -9540,7 +9562,7 @@
       <c r="AA294" s="5" t="n"/>
       <c r="AB294" s="5" t="n"/>
     </row>
-    <row r="295" ht="17.4" customHeight="1" s="17">
+    <row r="295" ht="17.4" customHeight="1" s="18">
       <c r="A295" s="5" t="n"/>
       <c r="B295" s="5" t="n"/>
       <c r="C295" s="5" t="n"/>
@@ -9570,7 +9592,7 @@
       <c r="AA295" s="5" t="n"/>
       <c r="AB295" s="5" t="n"/>
     </row>
-    <row r="296" ht="17.4" customHeight="1" s="17">
+    <row r="296" ht="17.4" customHeight="1" s="18">
       <c r="A296" s="5" t="n"/>
       <c r="B296" s="5" t="n"/>
       <c r="C296" s="5" t="n"/>
@@ -9600,7 +9622,7 @@
       <c r="AA296" s="5" t="n"/>
       <c r="AB296" s="5" t="n"/>
     </row>
-    <row r="297" ht="17.4" customHeight="1" s="17">
+    <row r="297" ht="17.4" customHeight="1" s="18">
       <c r="A297" s="5" t="n"/>
       <c r="B297" s="5" t="n"/>
       <c r="C297" s="5" t="n"/>
@@ -9630,7 +9652,7 @@
       <c r="AA297" s="5" t="n"/>
       <c r="AB297" s="5" t="n"/>
     </row>
-    <row r="298" ht="17.4" customHeight="1" s="17">
+    <row r="298" ht="17.4" customHeight="1" s="18">
       <c r="A298" s="5" t="n"/>
       <c r="B298" s="5" t="n"/>
       <c r="C298" s="5" t="n"/>
@@ -9660,7 +9682,7 @@
       <c r="AA298" s="5" t="n"/>
       <c r="AB298" s="5" t="n"/>
     </row>
-    <row r="299" ht="17.4" customHeight="1" s="17">
+    <row r="299" ht="17.4" customHeight="1" s="18">
       <c r="A299" s="5" t="n"/>
       <c r="B299" s="5" t="n"/>
       <c r="C299" s="5" t="n"/>
@@ -9690,7 +9712,7 @@
       <c r="AA299" s="5" t="n"/>
       <c r="AB299" s="5" t="n"/>
     </row>
-    <row r="300" ht="17.4" customHeight="1" s="17">
+    <row r="300" ht="17.4" customHeight="1" s="18">
       <c r="A300" s="5" t="n"/>
       <c r="B300" s="5" t="n"/>
       <c r="C300" s="5" t="n"/>
@@ -9720,7 +9742,7 @@
       <c r="AA300" s="5" t="n"/>
       <c r="AB300" s="5" t="n"/>
     </row>
-    <row r="301" ht="17.4" customHeight="1" s="17">
+    <row r="301" ht="17.4" customHeight="1" s="18">
       <c r="A301" s="5" t="n"/>
       <c r="B301" s="5" t="n"/>
       <c r="C301" s="5" t="n"/>
@@ -9750,7 +9772,7 @@
       <c r="AA301" s="5" t="n"/>
       <c r="AB301" s="5" t="n"/>
     </row>
-    <row r="302" ht="17.4" customHeight="1" s="17">
+    <row r="302" ht="17.4" customHeight="1" s="18">
       <c r="A302" s="5" t="n"/>
       <c r="B302" s="5" t="n"/>
       <c r="C302" s="5" t="n"/>
@@ -9780,7 +9802,7 @@
       <c r="AA302" s="5" t="n"/>
       <c r="AB302" s="5" t="n"/>
     </row>
-    <row r="303" ht="17.4" customHeight="1" s="17">
+    <row r="303" ht="17.4" customHeight="1" s="18">
       <c r="A303" s="5" t="n"/>
       <c r="B303" s="5" t="n"/>
       <c r="C303" s="5" t="n"/>
@@ -9810,7 +9832,7 @@
       <c r="AA303" s="5" t="n"/>
       <c r="AB303" s="5" t="n"/>
     </row>
-    <row r="304" ht="17.4" customHeight="1" s="17">
+    <row r="304" ht="17.4" customHeight="1" s="18">
       <c r="A304" s="5" t="n"/>
       <c r="B304" s="5" t="n"/>
       <c r="C304" s="5" t="n"/>
@@ -9840,7 +9862,7 @@
       <c r="AA304" s="5" t="n"/>
       <c r="AB304" s="5" t="n"/>
     </row>
-    <row r="305" ht="17.4" customHeight="1" s="17">
+    <row r="305" ht="17.4" customHeight="1" s="18">
       <c r="A305" s="5" t="n"/>
       <c r="B305" s="5" t="n"/>
       <c r="C305" s="5" t="n"/>
@@ -9870,7 +9892,7 @@
       <c r="AA305" s="5" t="n"/>
       <c r="AB305" s="5" t="n"/>
     </row>
-    <row r="306" ht="17.4" customHeight="1" s="17">
+    <row r="306" ht="17.4" customHeight="1" s="18">
       <c r="A306" s="5" t="n"/>
       <c r="B306" s="5" t="n"/>
       <c r="C306" s="5" t="n"/>
@@ -9900,7 +9922,7 @@
       <c r="AA306" s="5" t="n"/>
       <c r="AB306" s="5" t="n"/>
     </row>
-    <row r="307" ht="17.4" customHeight="1" s="17">
+    <row r="307" ht="17.4" customHeight="1" s="18">
       <c r="A307" s="5" t="n"/>
       <c r="B307" s="5" t="n"/>
       <c r="C307" s="5" t="n"/>
@@ -9930,7 +9952,7 @@
       <c r="AA307" s="5" t="n"/>
       <c r="AB307" s="5" t="n"/>
     </row>
-    <row r="308" ht="17.4" customHeight="1" s="17">
+    <row r="308" ht="17.4" customHeight="1" s="18">
       <c r="A308" s="5" t="n"/>
       <c r="B308" s="5" t="n"/>
       <c r="C308" s="5" t="n"/>
@@ -9960,7 +9982,7 @@
       <c r="AA308" s="5" t="n"/>
       <c r="AB308" s="5" t="n"/>
     </row>
-    <row r="309" ht="17.4" customHeight="1" s="17">
+    <row r="309" ht="17.4" customHeight="1" s="18">
       <c r="A309" s="5" t="n"/>
       <c r="B309" s="5" t="n"/>
       <c r="C309" s="5" t="n"/>
@@ -9990,7 +10012,7 @@
       <c r="AA309" s="5" t="n"/>
       <c r="AB309" s="5" t="n"/>
     </row>
-    <row r="310" ht="17.4" customHeight="1" s="17">
+    <row r="310" ht="17.4" customHeight="1" s="18">
       <c r="A310" s="5" t="n"/>
       <c r="B310" s="5" t="n"/>
       <c r="C310" s="5" t="n"/>
@@ -10020,7 +10042,7 @@
       <c r="AA310" s="5" t="n"/>
       <c r="AB310" s="5" t="n"/>
     </row>
-    <row r="311" ht="17.4" customHeight="1" s="17">
+    <row r="311" ht="17.4" customHeight="1" s="18">
       <c r="A311" s="5" t="n"/>
       <c r="B311" s="5" t="n"/>
       <c r="C311" s="5" t="n"/>
@@ -10050,7 +10072,7 @@
       <c r="AA311" s="5" t="n"/>
       <c r="AB311" s="5" t="n"/>
     </row>
-    <row r="312" ht="17.4" customHeight="1" s="17">
+    <row r="312" ht="17.4" customHeight="1" s="18">
       <c r="A312" s="5" t="n"/>
       <c r="B312" s="5" t="n"/>
       <c r="C312" s="5" t="n"/>
@@ -10080,7 +10102,7 @@
       <c r="AA312" s="5" t="n"/>
       <c r="AB312" s="5" t="n"/>
     </row>
-    <row r="313" ht="17.4" customHeight="1" s="17">
+    <row r="313" ht="17.4" customHeight="1" s="18">
       <c r="A313" s="5" t="n"/>
       <c r="B313" s="5" t="n"/>
       <c r="C313" s="5" t="n"/>
@@ -10110,7 +10132,7 @@
       <c r="AA313" s="5" t="n"/>
       <c r="AB313" s="5" t="n"/>
     </row>
-    <row r="314" ht="17.4" customHeight="1" s="17">
+    <row r="314" ht="17.4" customHeight="1" s="18">
       <c r="A314" s="5" t="n"/>
       <c r="B314" s="5" t="n"/>
       <c r="C314" s="5" t="n"/>
@@ -10140,7 +10162,7 @@
       <c r="AA314" s="5" t="n"/>
       <c r="AB314" s="5" t="n"/>
     </row>
-    <row r="315" ht="17.4" customHeight="1" s="17">
+    <row r="315" ht="17.4" customHeight="1" s="18">
       <c r="A315" s="5" t="n"/>
       <c r="B315" s="5" t="n"/>
       <c r="C315" s="5" t="n"/>
@@ -10170,7 +10192,7 @@
       <c r="AA315" s="5" t="n"/>
       <c r="AB315" s="5" t="n"/>
     </row>
-    <row r="316" ht="17.4" customHeight="1" s="17">
+    <row r="316" ht="17.4" customHeight="1" s="18">
       <c r="A316" s="5" t="n"/>
       <c r="B316" s="5" t="n"/>
       <c r="C316" s="5" t="n"/>
@@ -10200,7 +10222,7 @@
       <c r="AA316" s="5" t="n"/>
       <c r="AB316" s="5" t="n"/>
     </row>
-    <row r="317" ht="17.4" customHeight="1" s="17">
+    <row r="317" ht="17.4" customHeight="1" s="18">
       <c r="A317" s="5" t="n"/>
       <c r="B317" s="5" t="n"/>
       <c r="C317" s="5" t="n"/>
@@ -10230,7 +10252,7 @@
       <c r="AA317" s="5" t="n"/>
       <c r="AB317" s="5" t="n"/>
     </row>
-    <row r="318" ht="17.4" customHeight="1" s="17">
+    <row r="318" ht="17.4" customHeight="1" s="18">
       <c r="A318" s="5" t="n"/>
       <c r="B318" s="5" t="n"/>
       <c r="C318" s="5" t="n"/>
@@ -10260,7 +10282,7 @@
       <c r="AA318" s="5" t="n"/>
       <c r="AB318" s="5" t="n"/>
     </row>
-    <row r="319" ht="17.4" customHeight="1" s="17">
+    <row r="319" ht="17.4" customHeight="1" s="18">
       <c r="A319" s="5" t="n"/>
       <c r="B319" s="5" t="n"/>
       <c r="C319" s="5" t="n"/>
@@ -10290,7 +10312,7 @@
       <c r="AA319" s="5" t="n"/>
       <c r="AB319" s="5" t="n"/>
     </row>
-    <row r="320" ht="17.4" customHeight="1" s="17">
+    <row r="320" ht="17.4" customHeight="1" s="18">
       <c r="A320" s="5" t="n"/>
       <c r="B320" s="5" t="n"/>
       <c r="C320" s="5" t="n"/>
@@ -10320,7 +10342,7 @@
       <c r="AA320" s="5" t="n"/>
       <c r="AB320" s="5" t="n"/>
     </row>
-    <row r="321" ht="17.4" customHeight="1" s="17">
+    <row r="321" ht="17.4" customHeight="1" s="18">
       <c r="A321" s="5" t="n"/>
       <c r="B321" s="5" t="n"/>
       <c r="C321" s="5" t="n"/>
@@ -10350,7 +10372,7 @@
       <c r="AA321" s="5" t="n"/>
       <c r="AB321" s="5" t="n"/>
     </row>
-    <row r="322" ht="17.4" customHeight="1" s="17">
+    <row r="322" ht="17.4" customHeight="1" s="18">
       <c r="A322" s="5" t="n"/>
       <c r="B322" s="5" t="n"/>
       <c r="C322" s="5" t="n"/>
@@ -10380,7 +10402,7 @@
       <c r="AA322" s="5" t="n"/>
       <c r="AB322" s="5" t="n"/>
     </row>
-    <row r="323" ht="17.4" customHeight="1" s="17">
+    <row r="323" ht="17.4" customHeight="1" s="18">
       <c r="A323" s="5" t="n"/>
       <c r="B323" s="5" t="n"/>
       <c r="C323" s="5" t="n"/>
@@ -10410,7 +10432,7 @@
       <c r="AA323" s="5" t="n"/>
       <c r="AB323" s="5" t="n"/>
     </row>
-    <row r="324" ht="17.4" customHeight="1" s="17">
+    <row r="324" ht="17.4" customHeight="1" s="18">
       <c r="A324" s="5" t="n"/>
       <c r="B324" s="5" t="n"/>
       <c r="C324" s="5" t="n"/>
@@ -10440,7 +10462,7 @@
       <c r="AA324" s="5" t="n"/>
       <c r="AB324" s="5" t="n"/>
     </row>
-    <row r="325" ht="17.4" customHeight="1" s="17">
+    <row r="325" ht="17.4" customHeight="1" s="18">
       <c r="A325" s="5" t="n"/>
       <c r="B325" s="5" t="n"/>
       <c r="C325" s="5" t="n"/>
@@ -10470,7 +10492,7 @@
       <c r="AA325" s="5" t="n"/>
       <c r="AB325" s="5" t="n"/>
     </row>
-    <row r="326" ht="17.4" customHeight="1" s="17">
+    <row r="326" ht="17.4" customHeight="1" s="18">
       <c r="A326" s="5" t="n"/>
       <c r="B326" s="5" t="n"/>
       <c r="C326" s="5" t="n"/>
@@ -10500,7 +10522,7 @@
       <c r="AA326" s="5" t="n"/>
       <c r="AB326" s="5" t="n"/>
     </row>
-    <row r="327" ht="17.4" customHeight="1" s="17">
+    <row r="327" ht="17.4" customHeight="1" s="18">
       <c r="A327" s="5" t="n"/>
       <c r="B327" s="5" t="n"/>
       <c r="C327" s="5" t="n"/>
@@ -10530,7 +10552,7 @@
       <c r="AA327" s="5" t="n"/>
       <c r="AB327" s="5" t="n"/>
     </row>
-    <row r="328" ht="17.4" customHeight="1" s="17">
+    <row r="328" ht="17.4" customHeight="1" s="18">
       <c r="A328" s="5" t="n"/>
       <c r="B328" s="5" t="n"/>
       <c r="C328" s="5" t="n"/>
@@ -10560,7 +10582,7 @@
       <c r="AA328" s="5" t="n"/>
       <c r="AB328" s="5" t="n"/>
     </row>
-    <row r="329" ht="17.4" customHeight="1" s="17">
+    <row r="329" ht="17.4" customHeight="1" s="18">
       <c r="A329" s="5" t="n"/>
       <c r="B329" s="5" t="n"/>
       <c r="C329" s="5" t="n"/>
@@ -10590,7 +10612,7 @@
       <c r="AA329" s="5" t="n"/>
       <c r="AB329" s="5" t="n"/>
     </row>
-    <row r="330" ht="17.4" customHeight="1" s="17">
+    <row r="330" ht="17.4" customHeight="1" s="18">
       <c r="A330" s="5" t="n"/>
       <c r="B330" s="5" t="n"/>
       <c r="C330" s="5" t="n"/>
@@ -10620,7 +10642,7 @@
       <c r="AA330" s="5" t="n"/>
       <c r="AB330" s="5" t="n"/>
     </row>
-    <row r="331" ht="17.4" customHeight="1" s="17">
+    <row r="331" ht="17.4" customHeight="1" s="18">
       <c r="A331" s="5" t="n"/>
       <c r="B331" s="5" t="n"/>
       <c r="C331" s="5" t="n"/>
@@ -10650,7 +10672,7 @@
       <c r="AA331" s="5" t="n"/>
       <c r="AB331" s="5" t="n"/>
     </row>
-    <row r="332" ht="17.4" customHeight="1" s="17">
+    <row r="332" ht="17.4" customHeight="1" s="18">
       <c r="A332" s="5" t="n"/>
       <c r="B332" s="5" t="n"/>
       <c r="C332" s="5" t="n"/>
@@ -10680,7 +10702,7 @@
       <c r="AA332" s="5" t="n"/>
       <c r="AB332" s="5" t="n"/>
     </row>
-    <row r="333" ht="17.4" customHeight="1" s="17">
+    <row r="333" ht="17.4" customHeight="1" s="18">
       <c r="A333" s="5" t="n"/>
       <c r="B333" s="5" t="n"/>
       <c r="C333" s="5" t="n"/>
@@ -10710,7 +10732,7 @@
       <c r="AA333" s="5" t="n"/>
       <c r="AB333" s="5" t="n"/>
     </row>
-    <row r="334" ht="17.4" customHeight="1" s="17">
+    <row r="334" ht="17.4" customHeight="1" s="18">
       <c r="A334" s="5" t="n"/>
       <c r="B334" s="5" t="n"/>
       <c r="C334" s="5" t="n"/>
@@ -10740,7 +10762,7 @@
       <c r="AA334" s="5" t="n"/>
       <c r="AB334" s="5" t="n"/>
     </row>
-    <row r="335" ht="17.4" customHeight="1" s="17">
+    <row r="335" ht="17.4" customHeight="1" s="18">
       <c r="A335" s="5" t="n"/>
       <c r="B335" s="5" t="n"/>
       <c r="C335" s="5" t="n"/>
@@ -10770,7 +10792,7 @@
       <c r="AA335" s="5" t="n"/>
       <c r="AB335" s="5" t="n"/>
     </row>
-    <row r="336" ht="17.4" customHeight="1" s="17">
+    <row r="336" ht="17.4" customHeight="1" s="18">
       <c r="A336" s="5" t="n"/>
       <c r="B336" s="5" t="n"/>
       <c r="C336" s="5" t="n"/>
@@ -10800,7 +10822,7 @@
       <c r="AA336" s="5" t="n"/>
       <c r="AB336" s="5" t="n"/>
     </row>
-    <row r="337" ht="17.4" customHeight="1" s="17">
+    <row r="337" ht="17.4" customHeight="1" s="18">
       <c r="A337" s="5" t="n"/>
       <c r="B337" s="5" t="n"/>
       <c r="C337" s="5" t="n"/>
@@ -10830,7 +10852,7 @@
       <c r="AA337" s="5" t="n"/>
       <c r="AB337" s="5" t="n"/>
     </row>
-    <row r="338" ht="17.4" customHeight="1" s="17">
+    <row r="338" ht="17.4" customHeight="1" s="18">
       <c r="A338" s="5" t="n"/>
       <c r="B338" s="5" t="n"/>
       <c r="C338" s="5" t="n"/>
@@ -10860,7 +10882,7 @@
       <c r="AA338" s="5" t="n"/>
       <c r="AB338" s="5" t="n"/>
     </row>
-    <row r="339" ht="17.4" customHeight="1" s="17">
+    <row r="339" ht="17.4" customHeight="1" s="18">
       <c r="A339" s="5" t="n"/>
       <c r="B339" s="5" t="n"/>
       <c r="C339" s="5" t="n"/>
@@ -10890,7 +10912,7 @@
       <c r="AA339" s="5" t="n"/>
       <c r="AB339" s="5" t="n"/>
     </row>
-    <row r="340" ht="17.4" customHeight="1" s="17">
+    <row r="340" ht="17.4" customHeight="1" s="18">
       <c r="A340" s="5" t="n"/>
       <c r="B340" s="5" t="n"/>
       <c r="C340" s="5" t="n"/>
@@ -10920,7 +10942,7 @@
       <c r="AA340" s="5" t="n"/>
       <c r="AB340" s="5" t="n"/>
     </row>
-    <row r="341" ht="17.4" customHeight="1" s="17">
+    <row r="341" ht="17.4" customHeight="1" s="18">
       <c r="A341" s="5" t="n"/>
       <c r="B341" s="5" t="n"/>
       <c r="C341" s="5" t="n"/>
@@ -10950,7 +10972,7 @@
       <c r="AA341" s="5" t="n"/>
       <c r="AB341" s="5" t="n"/>
     </row>
-    <row r="342" ht="17.4" customHeight="1" s="17">
+    <row r="342" ht="17.4" customHeight="1" s="18">
       <c r="A342" s="5" t="n"/>
       <c r="B342" s="5" t="n"/>
       <c r="C342" s="5" t="n"/>
@@ -10980,7 +11002,7 @@
       <c r="AA342" s="5" t="n"/>
       <c r="AB342" s="5" t="n"/>
     </row>
-    <row r="343" ht="17.4" customHeight="1" s="17">
+    <row r="343" ht="17.4" customHeight="1" s="18">
       <c r="A343" s="5" t="n"/>
       <c r="B343" s="5" t="n"/>
       <c r="C343" s="5" t="n"/>
@@ -11010,7 +11032,7 @@
       <c r="AA343" s="5" t="n"/>
       <c r="AB343" s="5" t="n"/>
     </row>
-    <row r="344" ht="17.4" customHeight="1" s="17">
+    <row r="344" ht="17.4" customHeight="1" s="18">
       <c r="A344" s="5" t="n"/>
       <c r="B344" s="5" t="n"/>
       <c r="C344" s="5" t="n"/>
@@ -11040,7 +11062,7 @@
       <c r="AA344" s="5" t="n"/>
       <c r="AB344" s="5" t="n"/>
     </row>
-    <row r="345" ht="17.4" customHeight="1" s="17">
+    <row r="345" ht="17.4" customHeight="1" s="18">
       <c r="A345" s="5" t="n"/>
       <c r="B345" s="5" t="n"/>
       <c r="C345" s="5" t="n"/>
@@ -11070,7 +11092,7 @@
       <c r="AA345" s="5" t="n"/>
       <c r="AB345" s="5" t="n"/>
     </row>
-    <row r="346" ht="17.4" customHeight="1" s="17">
+    <row r="346" ht="17.4" customHeight="1" s="18">
       <c r="A346" s="5" t="n"/>
       <c r="B346" s="5" t="n"/>
       <c r="C346" s="5" t="n"/>
@@ -11100,7 +11122,7 @@
       <c r="AA346" s="5" t="n"/>
       <c r="AB346" s="5" t="n"/>
     </row>
-    <row r="347" ht="17.4" customHeight="1" s="17">
+    <row r="347" ht="17.4" customHeight="1" s="18">
       <c r="A347" s="5" t="n"/>
       <c r="B347" s="5" t="n"/>
       <c r="C347" s="5" t="n"/>
@@ -11130,7 +11152,7 @@
       <c r="AA347" s="5" t="n"/>
       <c r="AB347" s="5" t="n"/>
     </row>
-    <row r="348" ht="17.4" customHeight="1" s="17">
+    <row r="348" ht="17.4" customHeight="1" s="18">
       <c r="A348" s="5" t="n"/>
       <c r="B348" s="5" t="n"/>
       <c r="C348" s="5" t="n"/>
@@ -11160,7 +11182,7 @@
       <c r="AA348" s="5" t="n"/>
       <c r="AB348" s="5" t="n"/>
     </row>
-    <row r="349" ht="17.4" customHeight="1" s="17">
+    <row r="349" ht="17.4" customHeight="1" s="18">
       <c r="A349" s="5" t="n"/>
       <c r="B349" s="5" t="n"/>
       <c r="C349" s="5" t="n"/>
@@ -11190,7 +11212,7 @@
       <c r="AA349" s="5" t="n"/>
       <c r="AB349" s="5" t="n"/>
     </row>
-    <row r="350" ht="17.4" customHeight="1" s="17">
+    <row r="350" ht="17.4" customHeight="1" s="18">
       <c r="A350" s="5" t="n"/>
       <c r="B350" s="5" t="n"/>
       <c r="C350" s="5" t="n"/>
@@ -11220,7 +11242,7 @@
       <c r="AA350" s="5" t="n"/>
       <c r="AB350" s="5" t="n"/>
     </row>
-    <row r="351" ht="17.4" customHeight="1" s="17">
+    <row r="351" ht="17.4" customHeight="1" s="18">
       <c r="A351" s="5" t="n"/>
       <c r="B351" s="5" t="n"/>
       <c r="C351" s="5" t="n"/>
@@ -11250,7 +11272,7 @@
       <c r="AA351" s="5" t="n"/>
       <c r="AB351" s="5" t="n"/>
     </row>
-    <row r="352" ht="17.4" customHeight="1" s="17">
+    <row r="352" ht="17.4" customHeight="1" s="18">
       <c r="A352" s="5" t="n"/>
       <c r="B352" s="5" t="n"/>
       <c r="C352" s="5" t="n"/>
@@ -11280,7 +11302,7 @@
       <c r="AA352" s="5" t="n"/>
       <c r="AB352" s="5" t="n"/>
     </row>
-    <row r="353" ht="17.4" customHeight="1" s="17">
+    <row r="353" ht="17.4" customHeight="1" s="18">
       <c r="A353" s="5" t="n"/>
       <c r="B353" s="5" t="n"/>
       <c r="C353" s="5" t="n"/>
@@ -11310,7 +11332,7 @@
       <c r="AA353" s="5" t="n"/>
       <c r="AB353" s="5" t="n"/>
     </row>
-    <row r="354" ht="17.4" customHeight="1" s="17">
+    <row r="354" ht="17.4" customHeight="1" s="18">
       <c r="A354" s="5" t="n"/>
       <c r="B354" s="5" t="n"/>
       <c r="C354" s="5" t="n"/>
@@ -11340,7 +11362,7 @@
       <c r="AA354" s="5" t="n"/>
       <c r="AB354" s="5" t="n"/>
     </row>
-    <row r="355" ht="17.4" customHeight="1" s="17">
+    <row r="355" ht="17.4" customHeight="1" s="18">
       <c r="A355" s="5" t="n"/>
       <c r="B355" s="5" t="n"/>
       <c r="C355" s="5" t="n"/>
@@ -11370,7 +11392,7 @@
       <c r="AA355" s="5" t="n"/>
       <c r="AB355" s="5" t="n"/>
     </row>
-    <row r="356" ht="17.4" customHeight="1" s="17">
+    <row r="356" ht="17.4" customHeight="1" s="18">
       <c r="A356" s="5" t="n"/>
       <c r="B356" s="5" t="n"/>
       <c r="C356" s="5" t="n"/>
@@ -11400,7 +11422,7 @@
       <c r="AA356" s="5" t="n"/>
       <c r="AB356" s="5" t="n"/>
     </row>
-    <row r="357" ht="17.4" customHeight="1" s="17">
+    <row r="357" ht="17.4" customHeight="1" s="18">
       <c r="A357" s="5" t="n"/>
       <c r="B357" s="5" t="n"/>
       <c r="C357" s="5" t="n"/>
@@ -11430,7 +11452,7 @@
       <c r="AA357" s="5" t="n"/>
       <c r="AB357" s="5" t="n"/>
     </row>
-    <row r="358" ht="17.4" customHeight="1" s="17">
+    <row r="358" ht="17.4" customHeight="1" s="18">
       <c r="A358" s="5" t="n"/>
       <c r="B358" s="5" t="n"/>
       <c r="C358" s="5" t="n"/>
@@ -11460,7 +11482,7 @@
       <c r="AA358" s="5" t="n"/>
       <c r="AB358" s="5" t="n"/>
     </row>
-    <row r="359" ht="17.4" customHeight="1" s="17">
+    <row r="359" ht="17.4" customHeight="1" s="18">
       <c r="A359" s="5" t="n"/>
       <c r="B359" s="5" t="n"/>
       <c r="C359" s="5" t="n"/>
@@ -11490,7 +11512,7 @@
       <c r="AA359" s="5" t="n"/>
       <c r="AB359" s="5" t="n"/>
     </row>
-    <row r="360" ht="17.4" customHeight="1" s="17">
+    <row r="360" ht="17.4" customHeight="1" s="18">
       <c r="A360" s="5" t="n"/>
       <c r="B360" s="5" t="n"/>
       <c r="C360" s="5" t="n"/>
@@ -11520,7 +11542,7 @@
       <c r="AA360" s="5" t="n"/>
       <c r="AB360" s="5" t="n"/>
     </row>
-    <row r="361" ht="17.4" customHeight="1" s="17">
+    <row r="361" ht="17.4" customHeight="1" s="18">
       <c r="A361" s="5" t="n"/>
       <c r="B361" s="5" t="n"/>
       <c r="C361" s="5" t="n"/>
@@ -11550,7 +11572,7 @@
       <c r="AA361" s="5" t="n"/>
       <c r="AB361" s="5" t="n"/>
     </row>
-    <row r="362" ht="17.4" customHeight="1" s="17">
+    <row r="362" ht="17.4" customHeight="1" s="18">
       <c r="A362" s="5" t="n"/>
       <c r="B362" s="5" t="n"/>
       <c r="C362" s="5" t="n"/>
@@ -11580,7 +11602,7 @@
       <c r="AA362" s="5" t="n"/>
       <c r="AB362" s="5" t="n"/>
     </row>
-    <row r="363" ht="17.4" customHeight="1" s="17">
+    <row r="363" ht="17.4" customHeight="1" s="18">
       <c r="A363" s="5" t="n"/>
       <c r="B363" s="5" t="n"/>
       <c r="C363" s="5" t="n"/>
@@ -11610,7 +11632,7 @@
       <c r="AA363" s="5" t="n"/>
       <c r="AB363" s="5" t="n"/>
     </row>
-    <row r="364" ht="17.4" customHeight="1" s="17">
+    <row r="364" ht="17.4" customHeight="1" s="18">
       <c r="A364" s="5" t="n"/>
       <c r="B364" s="5" t="n"/>
       <c r="C364" s="5" t="n"/>
@@ -11640,7 +11662,7 @@
       <c r="AA364" s="5" t="n"/>
       <c r="AB364" s="5" t="n"/>
     </row>
-    <row r="365" ht="17.4" customHeight="1" s="17">
+    <row r="365" ht="17.4" customHeight="1" s="18">
       <c r="A365" s="5" t="n"/>
       <c r="B365" s="5" t="n"/>
       <c r="C365" s="5" t="n"/>
@@ -11670,7 +11692,7 @@
       <c r="AA365" s="5" t="n"/>
       <c r="AB365" s="5" t="n"/>
     </row>
-    <row r="366" ht="17.4" customHeight="1" s="17">
+    <row r="366" ht="17.4" customHeight="1" s="18">
       <c r="A366" s="5" t="n"/>
       <c r="B366" s="5" t="n"/>
       <c r="C366" s="5" t="n"/>
@@ -11700,7 +11722,7 @@
       <c r="AA366" s="5" t="n"/>
       <c r="AB366" s="5" t="n"/>
     </row>
-    <row r="367" ht="17.4" customHeight="1" s="17">
+    <row r="367" ht="17.4" customHeight="1" s="18">
       <c r="A367" s="5" t="n"/>
       <c r="B367" s="5" t="n"/>
       <c r="C367" s="5" t="n"/>
@@ -11730,7 +11752,7 @@
       <c r="AA367" s="5" t="n"/>
       <c r="AB367" s="5" t="n"/>
     </row>
-    <row r="368" ht="17.4" customHeight="1" s="17">
+    <row r="368" ht="17.4" customHeight="1" s="18">
       <c r="A368" s="5" t="n"/>
       <c r="B368" s="5" t="n"/>
       <c r="C368" s="5" t="n"/>
@@ -11760,7 +11782,7 @@
       <c r="AA368" s="5" t="n"/>
       <c r="AB368" s="5" t="n"/>
     </row>
-    <row r="369" ht="17.4" customHeight="1" s="17">
+    <row r="369" ht="17.4" customHeight="1" s="18">
       <c r="A369" s="5" t="n"/>
       <c r="B369" s="5" t="n"/>
       <c r="C369" s="5" t="n"/>
@@ -11790,7 +11812,7 @@
       <c r="AA369" s="5" t="n"/>
       <c r="AB369" s="5" t="n"/>
     </row>
-    <row r="370" ht="17.4" customHeight="1" s="17">
+    <row r="370" ht="17.4" customHeight="1" s="18">
       <c r="A370" s="5" t="n"/>
       <c r="B370" s="5" t="n"/>
       <c r="C370" s="5" t="n"/>
@@ -11820,7 +11842,7 @@
       <c r="AA370" s="5" t="n"/>
       <c r="AB370" s="5" t="n"/>
     </row>
-    <row r="371" ht="17.4" customHeight="1" s="17">
+    <row r="371" ht="17.4" customHeight="1" s="18">
       <c r="A371" s="5" t="n"/>
       <c r="B371" s="5" t="n"/>
       <c r="C371" s="5" t="n"/>
@@ -11850,7 +11872,7 @@
       <c r="AA371" s="5" t="n"/>
       <c r="AB371" s="5" t="n"/>
     </row>
-    <row r="372" ht="17.4" customHeight="1" s="17">
+    <row r="372" ht="17.4" customHeight="1" s="18">
       <c r="A372" s="5" t="n"/>
       <c r="B372" s="5" t="n"/>
       <c r="C372" s="5" t="n"/>
@@ -11880,7 +11902,7 @@
       <c r="AA372" s="5" t="n"/>
       <c r="AB372" s="5" t="n"/>
     </row>
-    <row r="373" ht="17.4" customHeight="1" s="17">
+    <row r="373" ht="17.4" customHeight="1" s="18">
       <c r="A373" s="5" t="n"/>
       <c r="B373" s="5" t="n"/>
       <c r="C373" s="5" t="n"/>
@@ -11910,7 +11932,7 @@
       <c r="AA373" s="5" t="n"/>
       <c r="AB373" s="5" t="n"/>
     </row>
-    <row r="374" ht="17.4" customHeight="1" s="17">
+    <row r="374" ht="17.4" customHeight="1" s="18">
       <c r="A374" s="5" t="n"/>
       <c r="B374" s="5" t="n"/>
       <c r="C374" s="5" t="n"/>
@@ -11940,7 +11962,7 @@
       <c r="AA374" s="5" t="n"/>
       <c r="AB374" s="5" t="n"/>
     </row>
-    <row r="375" ht="17.4" customHeight="1" s="17">
+    <row r="375" ht="17.4" customHeight="1" s="18">
       <c r="A375" s="5" t="n"/>
       <c r="B375" s="5" t="n"/>
       <c r="C375" s="5" t="n"/>
@@ -11970,7 +11992,7 @@
       <c r="AA375" s="5" t="n"/>
       <c r="AB375" s="5" t="n"/>
     </row>
-    <row r="376" ht="17.4" customHeight="1" s="17">
+    <row r="376" ht="17.4" customHeight="1" s="18">
       <c r="A376" s="5" t="n"/>
       <c r="B376" s="5" t="n"/>
       <c r="C376" s="5" t="n"/>
@@ -12000,7 +12022,7 @@
       <c r="AA376" s="5" t="n"/>
       <c r="AB376" s="5" t="n"/>
     </row>
-    <row r="377" ht="17.4" customHeight="1" s="17">
+    <row r="377" ht="17.4" customHeight="1" s="18">
       <c r="A377" s="5" t="n"/>
       <c r="B377" s="5" t="n"/>
       <c r="C377" s="5" t="n"/>
@@ -12030,7 +12052,7 @@
       <c r="AA377" s="5" t="n"/>
       <c r="AB377" s="5" t="n"/>
     </row>
-    <row r="378" ht="17.4" customHeight="1" s="17">
+    <row r="378" ht="17.4" customHeight="1" s="18">
       <c r="A378" s="5" t="n"/>
       <c r="B378" s="5" t="n"/>
       <c r="C378" s="5" t="n"/>
@@ -12060,7 +12082,7 @@
       <c r="AA378" s="5" t="n"/>
       <c r="AB378" s="5" t="n"/>
     </row>
-    <row r="379" ht="17.4" customHeight="1" s="17">
+    <row r="379" ht="17.4" customHeight="1" s="18">
       <c r="A379" s="5" t="n"/>
       <c r="B379" s="5" t="n"/>
       <c r="C379" s="5" t="n"/>
@@ -12090,7 +12112,7 @@
       <c r="AA379" s="5" t="n"/>
       <c r="AB379" s="5" t="n"/>
     </row>
-    <row r="380" ht="17.4" customHeight="1" s="17">
+    <row r="380" ht="17.4" customHeight="1" s="18">
       <c r="A380" s="5" t="n"/>
       <c r="B380" s="5" t="n"/>
       <c r="C380" s="5" t="n"/>
@@ -12120,7 +12142,7 @@
       <c r="AA380" s="5" t="n"/>
       <c r="AB380" s="5" t="n"/>
     </row>
-    <row r="381" ht="17.4" customHeight="1" s="17">
+    <row r="381" ht="17.4" customHeight="1" s="18">
       <c r="A381" s="5" t="n"/>
       <c r="B381" s="5" t="n"/>
       <c r="C381" s="5" t="n"/>
@@ -12150,7 +12172,7 @@
       <c r="AA381" s="5" t="n"/>
       <c r="AB381" s="5" t="n"/>
     </row>
-    <row r="382" ht="17.4" customHeight="1" s="17">
+    <row r="382" ht="17.4" customHeight="1" s="18">
       <c r="A382" s="5" t="n"/>
       <c r="B382" s="5" t="n"/>
       <c r="C382" s="5" t="n"/>
@@ -12180,7 +12202,7 @@
       <c r="AA382" s="5" t="n"/>
       <c r="AB382" s="5" t="n"/>
     </row>
-    <row r="383" ht="17.4" customHeight="1" s="17">
+    <row r="383" ht="17.4" customHeight="1" s="18">
       <c r="A383" s="5" t="n"/>
       <c r="B383" s="5" t="n"/>
       <c r="C383" s="5" t="n"/>
@@ -12210,7 +12232,7 @@
       <c r="AA383" s="5" t="n"/>
       <c r="AB383" s="5" t="n"/>
     </row>
-    <row r="384" ht="17.4" customHeight="1" s="17">
+    <row r="384" ht="17.4" customHeight="1" s="18">
       <c r="A384" s="5" t="n"/>
       <c r="B384" s="5" t="n"/>
       <c r="C384" s="5" t="n"/>
@@ -12240,7 +12262,7 @@
       <c r="AA384" s="5" t="n"/>
       <c r="AB384" s="5" t="n"/>
     </row>
-    <row r="385" ht="17.4" customHeight="1" s="17">
+    <row r="385" ht="17.4" customHeight="1" s="18">
       <c r="A385" s="5" t="n"/>
       <c r="B385" s="5" t="n"/>
       <c r="C385" s="5" t="n"/>
@@ -12270,7 +12292,7 @@
       <c r="AA385" s="5" t="n"/>
       <c r="AB385" s="5" t="n"/>
     </row>
-    <row r="386" ht="17.4" customHeight="1" s="17">
+    <row r="386" ht="17.4" customHeight="1" s="18">
       <c r="A386" s="5" t="n"/>
       <c r="B386" s="5" t="n"/>
       <c r="C386" s="5" t="n"/>
@@ -12300,7 +12322,7 @@
       <c r="AA386" s="5" t="n"/>
       <c r="AB386" s="5" t="n"/>
     </row>
-    <row r="387" ht="17.4" customHeight="1" s="17">
+    <row r="387" ht="17.4" customHeight="1" s="18">
       <c r="A387" s="5" t="n"/>
       <c r="B387" s="5" t="n"/>
       <c r="C387" s="5" t="n"/>
@@ -12330,7 +12352,7 @@
       <c r="AA387" s="5" t="n"/>
       <c r="AB387" s="5" t="n"/>
     </row>
-    <row r="388" ht="17.4" customHeight="1" s="17">
+    <row r="388" ht="17.4" customHeight="1" s="18">
       <c r="A388" s="5" t="n"/>
       <c r="B388" s="5" t="n"/>
       <c r="C388" s="5" t="n"/>
@@ -12360,7 +12382,7 @@
       <c r="AA388" s="5" t="n"/>
       <c r="AB388" s="5" t="n"/>
     </row>
-    <row r="389" ht="17.4" customHeight="1" s="17">
+    <row r="389" ht="17.4" customHeight="1" s="18">
       <c r="A389" s="5" t="n"/>
       <c r="B389" s="5" t="n"/>
       <c r="C389" s="5" t="n"/>
@@ -12390,7 +12412,7 @@
       <c r="AA389" s="5" t="n"/>
       <c r="AB389" s="5" t="n"/>
     </row>
-    <row r="390" ht="17.4" customHeight="1" s="17">
+    <row r="390" ht="17.4" customHeight="1" s="18">
       <c r="A390" s="5" t="n"/>
       <c r="B390" s="5" t="n"/>
       <c r="C390" s="5" t="n"/>
@@ -12420,7 +12442,7 @@
       <c r="AA390" s="5" t="n"/>
       <c r="AB390" s="5" t="n"/>
     </row>
-    <row r="391" ht="17.4" customHeight="1" s="17">
+    <row r="391" ht="17.4" customHeight="1" s="18">
       <c r="A391" s="5" t="n"/>
       <c r="B391" s="5" t="n"/>
       <c r="C391" s="5" t="n"/>
@@ -12450,7 +12472,7 @@
       <c r="AA391" s="5" t="n"/>
       <c r="AB391" s="5" t="n"/>
     </row>
-    <row r="392" ht="17.4" customHeight="1" s="17">
+    <row r="392" ht="17.4" customHeight="1" s="18">
       <c r="A392" s="5" t="n"/>
       <c r="B392" s="5" t="n"/>
       <c r="C392" s="5" t="n"/>
@@ -12480,7 +12502,7 @@
       <c r="AA392" s="5" t="n"/>
       <c r="AB392" s="5" t="n"/>
     </row>
-    <row r="393" ht="17.4" customHeight="1" s="17">
+    <row r="393" ht="17.4" customHeight="1" s="18">
       <c r="A393" s="5" t="n"/>
       <c r="B393" s="5" t="n"/>
       <c r="C393" s="5" t="n"/>
@@ -12510,7 +12532,7 @@
       <c r="AA393" s="5" t="n"/>
       <c r="AB393" s="5" t="n"/>
     </row>
-    <row r="394" ht="17.4" customHeight="1" s="17">
+    <row r="394" ht="17.4" customHeight="1" s="18">
       <c r="A394" s="5" t="n"/>
       <c r="B394" s="5" t="n"/>
       <c r="C394" s="5" t="n"/>
@@ -12540,7 +12562,7 @@
       <c r="AA394" s="5" t="n"/>
       <c r="AB394" s="5" t="n"/>
     </row>
-    <row r="395" ht="17.4" customHeight="1" s="17">
+    <row r="395" ht="17.4" customHeight="1" s="18">
       <c r="A395" s="5" t="n"/>
       <c r="B395" s="5" t="n"/>
       <c r="C395" s="5" t="n"/>
@@ -12570,7 +12592,7 @@
       <c r="AA395" s="5" t="n"/>
       <c r="AB395" s="5" t="n"/>
     </row>
-    <row r="396" ht="17.4" customHeight="1" s="17">
+    <row r="396" ht="17.4" customHeight="1" s="18">
       <c r="A396" s="5" t="n"/>
       <c r="B396" s="5" t="n"/>
       <c r="C396" s="5" t="n"/>
@@ -12600,7 +12622,7 @@
       <c r="AA396" s="5" t="n"/>
       <c r="AB396" s="5" t="n"/>
     </row>
-    <row r="397" ht="17.4" customHeight="1" s="17">
+    <row r="397" ht="17.4" customHeight="1" s="18">
       <c r="A397" s="5" t="n"/>
       <c r="B397" s="5" t="n"/>
       <c r="C397" s="5" t="n"/>
@@ -12630,7 +12652,7 @@
       <c r="AA397" s="5" t="n"/>
       <c r="AB397" s="5" t="n"/>
     </row>
-    <row r="398" ht="17.4" customHeight="1" s="17">
+    <row r="398" ht="17.4" customHeight="1" s="18">
       <c r="A398" s="5" t="n"/>
       <c r="B398" s="5" t="n"/>
       <c r="C398" s="5" t="n"/>
@@ -12660,7 +12682,7 @@
       <c r="AA398" s="5" t="n"/>
       <c r="AB398" s="5" t="n"/>
     </row>
-    <row r="399" ht="17.4" customHeight="1" s="17">
+    <row r="399" ht="17.4" customHeight="1" s="18">
       <c r="A399" s="5" t="n"/>
       <c r="B399" s="5" t="n"/>
       <c r="C399" s="5" t="n"/>
@@ -12690,7 +12712,7 @@
       <c r="AA399" s="5" t="n"/>
       <c r="AB399" s="5" t="n"/>
     </row>
-    <row r="400" ht="17.4" customHeight="1" s="17">
+    <row r="400" ht="17.4" customHeight="1" s="18">
       <c r="A400" s="5" t="n"/>
       <c r="B400" s="5" t="n"/>
       <c r="C400" s="5" t="n"/>
@@ -12720,7 +12742,7 @@
       <c r="AA400" s="5" t="n"/>
       <c r="AB400" s="5" t="n"/>
     </row>
-    <row r="401" ht="17.4" customHeight="1" s="17">
+    <row r="401" ht="17.4" customHeight="1" s="18">
       <c r="A401" s="5" t="n"/>
       <c r="B401" s="5" t="n"/>
       <c r="C401" s="5" t="n"/>
@@ -12750,7 +12772,7 @@
       <c r="AA401" s="5" t="n"/>
       <c r="AB401" s="5" t="n"/>
     </row>
-    <row r="402" ht="17.4" customHeight="1" s="17">
+    <row r="402" ht="17.4" customHeight="1" s="18">
       <c r="A402" s="5" t="n"/>
       <c r="B402" s="5" t="n"/>
       <c r="C402" s="5" t="n"/>
@@ -12780,7 +12802,7 @@
       <c r="AA402" s="5" t="n"/>
       <c r="AB402" s="5" t="n"/>
     </row>
-    <row r="403" ht="17.4" customHeight="1" s="17">
+    <row r="403" ht="17.4" customHeight="1" s="18">
       <c r="A403" s="5" t="n"/>
       <c r="B403" s="5" t="n"/>
       <c r="C403" s="5" t="n"/>
@@ -12810,7 +12832,7 @@
       <c r="AA403" s="5" t="n"/>
       <c r="AB403" s="5" t="n"/>
     </row>
-    <row r="404" ht="17.4" customHeight="1" s="17">
+    <row r="404" ht="17.4" customHeight="1" s="18">
       <c r="A404" s="5" t="n"/>
       <c r="B404" s="5" t="n"/>
       <c r="C404" s="5" t="n"/>
@@ -12840,7 +12862,7 @@
       <c r="AA404" s="5" t="n"/>
       <c r="AB404" s="5" t="n"/>
     </row>
-    <row r="405" ht="17.4" customHeight="1" s="17">
+    <row r="405" ht="17.4" customHeight="1" s="18">
       <c r="A405" s="5" t="n"/>
       <c r="B405" s="5" t="n"/>
       <c r="C405" s="5" t="n"/>
@@ -12870,7 +12892,7 @@
       <c r="AA405" s="5" t="n"/>
       <c r="AB405" s="5" t="n"/>
     </row>
-    <row r="406" ht="17.4" customHeight="1" s="17">
+    <row r="406" ht="17.4" customHeight="1" s="18">
       <c r="A406" s="5" t="n"/>
       <c r="B406" s="5" t="n"/>
       <c r="C406" s="5" t="n"/>
@@ -12900,7 +12922,7 @@
       <c r="AA406" s="5" t="n"/>
       <c r="AB406" s="5" t="n"/>
     </row>
-    <row r="407" ht="17.4" customHeight="1" s="17">
+    <row r="407" ht="17.4" customHeight="1" s="18">
       <c r="A407" s="5" t="n"/>
       <c r="B407" s="5" t="n"/>
       <c r="C407" s="5" t="n"/>
@@ -12930,7 +12952,7 @@
       <c r="AA407" s="5" t="n"/>
       <c r="AB407" s="5" t="n"/>
     </row>
-    <row r="408" ht="17.4" customHeight="1" s="17">
+    <row r="408" ht="17.4" customHeight="1" s="18">
       <c r="A408" s="5" t="n"/>
       <c r="B408" s="5" t="n"/>
       <c r="C408" s="5" t="n"/>
@@ -12960,7 +12982,7 @@
       <c r="AA408" s="5" t="n"/>
       <c r="AB408" s="5" t="n"/>
     </row>
-    <row r="409" ht="17.4" customHeight="1" s="17">
+    <row r="409" ht="17.4" customHeight="1" s="18">
       <c r="A409" s="5" t="n"/>
       <c r="B409" s="5" t="n"/>
       <c r="C409" s="5" t="n"/>
@@ -12990,7 +13012,7 @@
       <c r="AA409" s="5" t="n"/>
       <c r="AB409" s="5" t="n"/>
     </row>
-    <row r="410" ht="17.4" customHeight="1" s="17">
+    <row r="410" ht="17.4" customHeight="1" s="18">
       <c r="A410" s="5" t="n"/>
       <c r="B410" s="5" t="n"/>
       <c r="C410" s="5" t="n"/>
@@ -13020,7 +13042,7 @@
       <c r="AA410" s="5" t="n"/>
       <c r="AB410" s="5" t="n"/>
     </row>
-    <row r="411" ht="17.4" customHeight="1" s="17">
+    <row r="411" ht="17.4" customHeight="1" s="18">
       <c r="A411" s="5" t="n"/>
       <c r="B411" s="5" t="n"/>
       <c r="C411" s="5" t="n"/>
@@ -13050,7 +13072,7 @@
       <c r="AA411" s="5" t="n"/>
       <c r="AB411" s="5" t="n"/>
     </row>
-    <row r="412" ht="17.4" customHeight="1" s="17">
+    <row r="412" ht="17.4" customHeight="1" s="18">
       <c r="A412" s="5" t="n"/>
       <c r="B412" s="5" t="n"/>
       <c r="C412" s="5" t="n"/>
@@ -13080,7 +13102,7 @@
       <c r="AA412" s="5" t="n"/>
       <c r="AB412" s="5" t="n"/>
     </row>
-    <row r="413" ht="17.4" customHeight="1" s="17">
+    <row r="413" ht="17.4" customHeight="1" s="18">
       <c r="A413" s="5" t="n"/>
       <c r="B413" s="5" t="n"/>
       <c r="C413" s="5" t="n"/>
@@ -13110,7 +13132,7 @@
       <c r="AA413" s="5" t="n"/>
       <c r="AB413" s="5" t="n"/>
     </row>
-    <row r="414" ht="17.4" customHeight="1" s="17">
+    <row r="414" ht="17.4" customHeight="1" s="18">
       <c r="A414" s="5" t="n"/>
       <c r="B414" s="5" t="n"/>
       <c r="C414" s="5" t="n"/>
@@ -13140,7 +13162,7 @@
       <c r="AA414" s="5" t="n"/>
       <c r="AB414" s="5" t="n"/>
     </row>
-    <row r="415" ht="17.4" customHeight="1" s="17">
+    <row r="415" ht="17.4" customHeight="1" s="18">
       <c r="A415" s="5" t="n"/>
       <c r="B415" s="5" t="n"/>
       <c r="C415" s="5" t="n"/>
@@ -13170,7 +13192,7 @@
       <c r="AA415" s="5" t="n"/>
       <c r="AB415" s="5" t="n"/>
     </row>
-    <row r="416" ht="17.4" customHeight="1" s="17">
+    <row r="416" ht="17.4" customHeight="1" s="18">
       <c r="A416" s="5" t="n"/>
       <c r="B416" s="5" t="n"/>
       <c r="C416" s="5" t="n"/>
@@ -13200,7 +13222,7 @@
       <c r="AA416" s="5" t="n"/>
       <c r="AB416" s="5" t="n"/>
     </row>
-    <row r="417" ht="17.4" customHeight="1" s="17">
+    <row r="417" ht="17.4" customHeight="1" s="18">
       <c r="A417" s="5" t="n"/>
       <c r="B417" s="5" t="n"/>
       <c r="C417" s="5" t="n"/>
@@ -13230,7 +13252,7 @@
       <c r="AA417" s="5" t="n"/>
       <c r="AB417" s="5" t="n"/>
     </row>
-    <row r="418" ht="17.4" customHeight="1" s="17">
+    <row r="418" ht="17.4" customHeight="1" s="18">
       <c r="A418" s="5" t="n"/>
       <c r="B418" s="5" t="n"/>
       <c r="C418" s="5" t="n"/>
@@ -13260,7 +13282,7 @@
       <c r="AA418" s="5" t="n"/>
       <c r="AB418" s="5" t="n"/>
     </row>
-    <row r="419" ht="17.4" customHeight="1" s="17">
+    <row r="419" ht="17.4" customHeight="1" s="18">
       <c r="A419" s="5" t="n"/>
       <c r="B419" s="5" t="n"/>
       <c r="C419" s="5" t="n"/>
@@ -13290,7 +13312,7 @@
       <c r="AA419" s="5" t="n"/>
       <c r="AB419" s="5" t="n"/>
     </row>
-    <row r="420" ht="17.4" customHeight="1" s="17">
+    <row r="420" ht="17.4" customHeight="1" s="18">
       <c r="A420" s="5" t="n"/>
       <c r="B420" s="5" t="n"/>
       <c r="C420" s="5" t="n"/>
@@ -13320,7 +13342,7 @@
       <c r="AA420" s="5" t="n"/>
       <c r="AB420" s="5" t="n"/>
     </row>
-    <row r="421" ht="17.4" customHeight="1" s="17">
+    <row r="421" ht="17.4" customHeight="1" s="18">
       <c r="A421" s="5" t="n"/>
       <c r="B421" s="5" t="n"/>
       <c r="C421" s="5" t="n"/>
@@ -13350,7 +13372,7 @@
       <c r="AA421" s="5" t="n"/>
       <c r="AB421" s="5" t="n"/>
     </row>
-    <row r="422" ht="17.4" customHeight="1" s="17">
+    <row r="422" ht="17.4" customHeight="1" s="18">
       <c r="A422" s="5" t="n"/>
       <c r="B422" s="5" t="n"/>
       <c r="C422" s="5" t="n"/>
@@ -13380,7 +13402,7 @@
       <c r="AA422" s="5" t="n"/>
       <c r="AB422" s="5" t="n"/>
     </row>
-    <row r="423" ht="17.4" customHeight="1" s="17">
+    <row r="423" ht="17.4" customHeight="1" s="18">
       <c r="A423" s="5" t="n"/>
       <c r="B423" s="5" t="n"/>
       <c r="C423" s="5" t="n"/>
@@ -13410,7 +13432,7 @@
       <c r="AA423" s="5" t="n"/>
       <c r="AB423" s="5" t="n"/>
     </row>
-    <row r="424" ht="17.4" customHeight="1" s="17">
+    <row r="424" ht="17.4" customHeight="1" s="18">
       <c r="A424" s="5" t="n"/>
       <c r="B424" s="5" t="n"/>
       <c r="C424" s="5" t="n"/>
@@ -13440,7 +13462,7 @@
       <c r="AA424" s="5" t="n"/>
       <c r="AB424" s="5" t="n"/>
     </row>
-    <row r="425" ht="17.4" customHeight="1" s="17">
+    <row r="425" ht="17.4" customHeight="1" s="18">
       <c r="A425" s="5" t="n"/>
       <c r="B425" s="5" t="n"/>
       <c r="C425" s="5" t="n"/>
@@ -13470,7 +13492,7 @@
       <c r="AA425" s="5" t="n"/>
       <c r="AB425" s="5" t="n"/>
     </row>
-    <row r="426" ht="17.4" customHeight="1" s="17">
+    <row r="426" ht="17.4" customHeight="1" s="18">
       <c r="A426" s="5" t="n"/>
       <c r="B426" s="5" t="n"/>
       <c r="C426" s="5" t="n"/>
@@ -13500,7 +13522,7 @@
       <c r="AA426" s="5" t="n"/>
       <c r="AB426" s="5" t="n"/>
     </row>
-    <row r="427" ht="17.4" customHeight="1" s="17">
+    <row r="427" ht="17.4" customHeight="1" s="18">
       <c r="A427" s="5" t="n"/>
       <c r="B427" s="5" t="n"/>
       <c r="C427" s="5" t="n"/>
@@ -13530,7 +13552,7 @@
       <c r="AA427" s="5" t="n"/>
       <c r="AB427" s="5" t="n"/>
     </row>
-    <row r="428" ht="17.4" customHeight="1" s="17">
+    <row r="428" ht="17.4" customHeight="1" s="18">
       <c r="A428" s="5" t="n"/>
       <c r="B428" s="5" t="n"/>
       <c r="C428" s="5" t="n"/>
@@ -13560,7 +13582,7 @@
       <c r="AA428" s="5" t="n"/>
       <c r="AB428" s="5" t="n"/>
     </row>
-    <row r="429" ht="17.4" customHeight="1" s="17">
+    <row r="429" ht="17.4" customHeight="1" s="18">
       <c r="A429" s="5" t="n"/>
       <c r="B429" s="5" t="n"/>
       <c r="C429" s="5" t="n"/>
@@ -13590,7 +13612,7 @@
       <c r="AA429" s="5" t="n"/>
       <c r="AB429" s="5" t="n"/>
     </row>
-    <row r="430" ht="17.4" customHeight="1" s="17">
+    <row r="430" ht="17.4" customHeight="1" s="18">
       <c r="A430" s="5" t="n"/>
       <c r="B430" s="5" t="n"/>
       <c r="C430" s="5" t="n"/>
@@ -13620,7 +13642,7 @@
       <c r="AA430" s="5" t="n"/>
       <c r="AB430" s="5" t="n"/>
     </row>
-    <row r="431" ht="17.4" customHeight="1" s="17">
+    <row r="431" ht="17.4" customHeight="1" s="18">
       <c r="A431" s="5" t="n"/>
       <c r="B431" s="5" t="n"/>
       <c r="C431" s="5" t="n"/>
@@ -13650,7 +13672,7 @@
       <c r="AA431" s="5" t="n"/>
       <c r="AB431" s="5" t="n"/>
     </row>
-    <row r="432" ht="17.4" customHeight="1" s="17">
+    <row r="432" ht="17.4" customHeight="1" s="18">
       <c r="A432" s="5" t="n"/>
       <c r="B432" s="5" t="n"/>
       <c r="C432" s="5" t="n"/>
@@ -13680,7 +13702,7 @@
       <c r="AA432" s="5" t="n"/>
       <c r="AB432" s="5" t="n"/>
     </row>
-    <row r="433" ht="17.4" customHeight="1" s="17">
+    <row r="433" ht="17.4" customHeight="1" s="18">
       <c r="A433" s="5" t="n"/>
       <c r="B433" s="5" t="n"/>
       <c r="C433" s="5" t="n"/>
@@ -13710,7 +13732,7 @@
       <c r="AA433" s="5" t="n"/>
       <c r="AB433" s="5" t="n"/>
     </row>
-    <row r="434" ht="17.4" customHeight="1" s="17">
+    <row r="434" ht="17.4" customHeight="1" s="18">
       <c r="A434" s="5" t="n"/>
       <c r="B434" s="5" t="n"/>
       <c r="C434" s="5" t="n"/>
@@ -13740,7 +13762,7 @@
       <c r="AA434" s="5" t="n"/>
       <c r="AB434" s="5" t="n"/>
     </row>
-    <row r="435" ht="17.4" customHeight="1" s="17">
+    <row r="435" ht="17.4" customHeight="1" s="18">
       <c r="A435" s="5" t="n"/>
       <c r="B435" s="5" t="n"/>
       <c r="C435" s="5" t="n"/>
@@ -13770,7 +13792,7 @@
       <c r="AA435" s="5" t="n"/>
       <c r="AB435" s="5" t="n"/>
     </row>
-    <row r="436" ht="17.4" customHeight="1" s="17">
+    <row r="436" ht="17.4" customHeight="1" s="18">
       <c r="A436" s="5" t="n"/>
       <c r="B436" s="5" t="n"/>
       <c r="C436" s="5" t="n"/>
@@ -13800,7 +13822,7 @@
       <c r="AA436" s="5" t="n"/>
       <c r="AB436" s="5" t="n"/>
     </row>
-    <row r="437" ht="17.4" customHeight="1" s="17">
+    <row r="437" ht="17.4" customHeight="1" s="18">
       <c r="A437" s="5" t="n"/>
       <c r="B437" s="5" t="n"/>
       <c r="C437" s="5" t="n"/>
@@ -13830,7 +13852,7 @@
       <c r="AA437" s="5" t="n"/>
       <c r="AB437" s="5" t="n"/>
     </row>
-    <row r="438" ht="17.4" customHeight="1" s="17">
+    <row r="438" ht="17.4" customHeight="1" s="18">
       <c r="A438" s="5" t="n"/>
       <c r="B438" s="5" t="n"/>
       <c r="C438" s="5" t="n"/>
@@ -13860,7 +13882,7 @@
       <c r="AA438" s="5" t="n"/>
       <c r="AB438" s="5" t="n"/>
     </row>
-    <row r="439" ht="17.4" customHeight="1" s="17">
+    <row r="439" ht="17.4" customHeight="1" s="18">
       <c r="A439" s="5" t="n"/>
       <c r="B439" s="5" t="n"/>
       <c r="C439" s="5" t="n"/>
@@ -13890,7 +13912,7 @@
       <c r="AA439" s="5" t="n"/>
       <c r="AB439" s="5" t="n"/>
     </row>
-    <row r="440" ht="17.4" customHeight="1" s="17">
+    <row r="440" ht="17.4" customHeight="1" s="18">
       <c r="A440" s="5" t="n"/>
       <c r="B440" s="5" t="n"/>
       <c r="C440" s="5" t="n"/>
@@ -13920,7 +13942,7 @@
       <c r="AA440" s="5" t="n"/>
       <c r="AB440" s="5" t="n"/>
     </row>
-    <row r="441" ht="17.4" customHeight="1" s="17">
+    <row r="441" ht="17.4" customHeight="1" s="18">
       <c r="A441" s="5" t="n"/>
       <c r="B441" s="5" t="n"/>
       <c r="C441" s="5" t="n"/>
@@ -13950,7 +13972,7 @@
       <c r="AA441" s="5" t="n"/>
       <c r="AB441" s="5" t="n"/>
     </row>
-    <row r="442" ht="17.4" customHeight="1" s="17">
+    <row r="442" ht="17.4" customHeight="1" s="18">
       <c r="A442" s="5" t="n"/>
       <c r="B442" s="5" t="n"/>
       <c r="C442" s="5" t="n"/>
@@ -13980,7 +14002,7 @@
       <c r="AA442" s="5" t="n"/>
       <c r="AB442" s="5" t="n"/>
     </row>
-    <row r="443" ht="17.4" customHeight="1" s="17">
+    <row r="443" ht="17.4" customHeight="1" s="18">
       <c r="A443" s="5" t="n"/>
       <c r="B443" s="5" t="n"/>
       <c r="C443" s="5" t="n"/>
@@ -14010,7 +14032,7 @@
       <c r="AA443" s="5" t="n"/>
       <c r="AB443" s="5" t="n"/>
     </row>
-    <row r="444" ht="17.4" customHeight="1" s="17">
+    <row r="444" ht="17.4" customHeight="1" s="18">
       <c r="A444" s="5" t="n"/>
       <c r="B444" s="5" t="n"/>
       <c r="C444" s="5" t="n"/>
@@ -14040,7 +14062,7 @@
       <c r="AA444" s="5" t="n"/>
       <c r="AB444" s="5" t="n"/>
     </row>
-    <row r="445" ht="17.4" customHeight="1" s="17">
+    <row r="445" ht="17.4" customHeight="1" s="18">
       <c r="A445" s="5" t="n"/>
       <c r="B445" s="5" t="n"/>
       <c r="C445" s="5" t="n"/>
@@ -14070,7 +14092,7 @@
       <c r="AA445" s="5" t="n"/>
       <c r="AB445" s="5" t="n"/>
     </row>
-    <row r="446" ht="17.4" customHeight="1" s="17">
+    <row r="446" ht="17.4" customHeight="1" s="18">
       <c r="A446" s="5" t="n"/>
       <c r="B446" s="5" t="n"/>
       <c r="C446" s="5" t="n"/>
@@ -14100,7 +14122,7 @@
       <c r="AA446" s="5" t="n"/>
       <c r="AB446" s="5" t="n"/>
     </row>
-    <row r="447" ht="17.4" customHeight="1" s="17">
+    <row r="447" ht="17.4" customHeight="1" s="18">
       <c r="A447" s="5" t="n"/>
       <c r="B447" s="5" t="n"/>
       <c r="C447" s="5" t="n"/>
@@ -14130,7 +14152,7 @@
       <c r="AA447" s="5" t="n"/>
       <c r="AB447" s="5" t="n"/>
     </row>
-    <row r="448" ht="17.4" customHeight="1" s="17">
+    <row r="448" ht="17.4" customHeight="1" s="18">
       <c r="A448" s="5" t="n"/>
       <c r="B448" s="5" t="n"/>
       <c r="C448" s="5" t="n"/>
@@ -14160,7 +14182,7 @@
       <c r="AA448" s="5" t="n"/>
       <c r="AB448" s="5" t="n"/>
     </row>
-    <row r="449" ht="17.4" customHeight="1" s="17">
+    <row r="449" ht="17.4" customHeight="1" s="18">
       <c r="A449" s="5" t="n"/>
       <c r="B449" s="5" t="n"/>
       <c r="C449" s="5" t="n"/>
@@ -14190,7 +14212,7 @@
       <c r="AA449" s="5" t="n"/>
       <c r="AB449" s="5" t="n"/>
     </row>
-    <row r="450" ht="17.4" customHeight="1" s="17">
+    <row r="450" ht="17.4" customHeight="1" s="18">
       <c r="A450" s="5" t="n"/>
       <c r="B450" s="5" t="n"/>
       <c r="C450" s="5" t="n"/>
@@ -14220,7 +14242,7 @@
       <c r="AA450" s="5" t="n"/>
       <c r="AB450" s="5" t="n"/>
     </row>
-    <row r="451" ht="17.4" customHeight="1" s="17">
+    <row r="451" ht="17.4" customHeight="1" s="18">
       <c r="A451" s="5" t="n"/>
       <c r="B451" s="5" t="n"/>
       <c r="C451" s="5" t="n"/>
@@ -14250,7 +14272,7 @@
       <c r="AA451" s="5" t="n"/>
       <c r="AB451" s="5" t="n"/>
     </row>
-    <row r="452" ht="17.4" customHeight="1" s="17">
+    <row r="452" ht="17.4" customHeight="1" s="18">
       <c r="A452" s="5" t="n"/>
       <c r="B452" s="5" t="n"/>
       <c r="C452" s="5" t="n"/>
@@ -14280,7 +14302,7 @@
       <c r="AA452" s="5" t="n"/>
       <c r="AB452" s="5" t="n"/>
     </row>
-    <row r="453" ht="17.4" customHeight="1" s="17">
+    <row r="453" ht="17.4" customHeight="1" s="18">
       <c r="A453" s="5" t="n"/>
       <c r="B453" s="5" t="n"/>
       <c r="C453" s="5" t="n"/>
@@ -14310,7 +14332,7 @@
       <c r="AA453" s="5" t="n"/>
       <c r="AB453" s="5" t="n"/>
     </row>
-    <row r="454" ht="17.4" customHeight="1" s="17">
+    <row r="454" ht="17.4" customHeight="1" s="18">
       <c r="A454" s="5" t="n"/>
       <c r="B454" s="5" t="n"/>
       <c r="C454" s="5" t="n"/>
@@ -14340,7 +14362,7 @@
       <c r="AA454" s="5" t="n"/>
       <c r="AB454" s="5" t="n"/>
     </row>
-    <row r="455" ht="17.4" customHeight="1" s="17">
+    <row r="455" ht="17.4" customHeight="1" s="18">
       <c r="A455" s="5" t="n"/>
       <c r="B455" s="5" t="n"/>
       <c r="C455" s="5" t="n"/>
@@ -14370,7 +14392,7 @@
       <c r="AA455" s="5" t="n"/>
       <c r="AB455" s="5" t="n"/>
     </row>
-    <row r="456" ht="17.4" customHeight="1" s="17">
+    <row r="456" ht="17.4" customHeight="1" s="18">
       <c r="A456" s="5" t="n"/>
       <c r="B456" s="5" t="n"/>
       <c r="C456" s="5" t="n"/>
@@ -14400,7 +14422,7 @@
       <c r="AA456" s="5" t="n"/>
       <c r="AB456" s="5" t="n"/>
     </row>
-    <row r="457" ht="17.4" customHeight="1" s="17">
+    <row r="457" ht="17.4" customHeight="1" s="18">
       <c r="A457" s="5" t="n"/>
       <c r="B457" s="5" t="n"/>
       <c r="C457" s="5" t="n"/>
@@ -14430,7 +14452,7 @@
       <c r="AA457" s="5" t="n"/>
       <c r="AB457" s="5" t="n"/>
     </row>
-    <row r="458" ht="17.4" customHeight="1" s="17">
+    <row r="458" ht="17.4" customHeight="1" s="18">
       <c r="A458" s="5" t="n"/>
       <c r="B458" s="5" t="n"/>
       <c r="C458" s="5" t="n"/>
@@ -14460,7 +14482,7 @@
       <c r="AA458" s="5" t="n"/>
       <c r="AB458" s="5" t="n"/>
     </row>
-    <row r="459" ht="17.4" customHeight="1" s="17">
+    <row r="459" ht="17.4" customHeight="1" s="18">
       <c r="A459" s="5" t="n"/>
       <c r="B459" s="5" t="n"/>
       <c r="C459" s="5" t="n"/>
@@ -14490,7 +14512,7 @@
       <c r="AA459" s="5" t="n"/>
       <c r="AB459" s="5" t="n"/>
     </row>
-    <row r="460" ht="17.4" customHeight="1" s="17">
+    <row r="460" ht="17.4" customHeight="1" s="18">
       <c r="A460" s="5" t="n"/>
       <c r="B460" s="5" t="n"/>
       <c r="C460" s="5" t="n"/>
@@ -14520,7 +14542,7 @@
       <c r="AA460" s="5" t="n"/>
       <c r="AB460" s="5" t="n"/>
     </row>
-    <row r="461" ht="17.4" customHeight="1" s="17">
+    <row r="461" ht="17.4" customHeight="1" s="18">
       <c r="A461" s="5" t="n"/>
       <c r="B461" s="5" t="n"/>
       <c r="C461" s="5" t="n"/>
@@ -14550,7 +14572,7 @@
       <c r="AA461" s="5" t="n"/>
       <c r="AB461" s="5" t="n"/>
     </row>
-    <row r="462" ht="17.4" customHeight="1" s="17">
+    <row r="462" ht="17.4" customHeight="1" s="18">
       <c r="A462" s="5" t="n"/>
       <c r="B462" s="5" t="n"/>
       <c r="C462" s="5" t="n"/>
@@ -14580,7 +14602,7 @@
       <c r="AA462" s="5" t="n"/>
       <c r="AB462" s="5" t="n"/>
     </row>
-    <row r="463" ht="17.4" customHeight="1" s="17">
+    <row r="463" ht="17.4" customHeight="1" s="18">
       <c r="A463" s="5" t="n"/>
       <c r="B463" s="5" t="n"/>
       <c r="C463" s="5" t="n"/>
@@ -14610,7 +14632,7 @@
       <c r="AA463" s="5" t="n"/>
       <c r="AB463" s="5" t="n"/>
     </row>
-    <row r="464" ht="17.4" customHeight="1" s="17">
+    <row r="464" ht="17.4" customHeight="1" s="18">
       <c r="A464" s="5" t="n"/>
       <c r="B464" s="5" t="n"/>
       <c r="C464" s="5" t="n"/>
@@ -14640,7 +14662,7 @@
       <c r="AA464" s="5" t="n"/>
       <c r="AB464" s="5" t="n"/>
     </row>
-    <row r="465" ht="17.4" customHeight="1" s="17">
+    <row r="465" ht="17.4" customHeight="1" s="18">
       <c r="A465" s="5" t="n"/>
       <c r="B465" s="5" t="n"/>
       <c r="C465" s="5" t="n"/>
@@ -14670,7 +14692,7 @@
       <c r="AA465" s="5" t="n"/>
       <c r="AB465" s="5" t="n"/>
     </row>
-    <row r="466" ht="17.4" customHeight="1" s="17">
+    <row r="466" ht="17.4" customHeight="1" s="18">
       <c r="A466" s="5" t="n"/>
       <c r="B466" s="5" t="n"/>
       <c r="C466" s="5" t="n"/>
@@ -14700,7 +14722,7 @@
       <c r="AA466" s="5" t="n"/>
       <c r="AB466" s="5" t="n"/>
     </row>
-    <row r="467" ht="17.4" customHeight="1" s="17">
+    <row r="467" ht="17.4" customHeight="1" s="18">
       <c r="A467" s="5" t="n"/>
       <c r="B467" s="5" t="n"/>
       <c r="C467" s="5" t="n"/>
@@ -14730,7 +14752,7 @@
       <c r="AA467" s="5" t="n"/>
       <c r="AB467" s="5" t="n"/>
     </row>
-    <row r="468" ht="17.4" customHeight="1" s="17">
+    <row r="468" ht="17.4" customHeight="1" s="18">
       <c r="A468" s="5" t="n"/>
       <c r="B468" s="5" t="n"/>
       <c r="C468" s="5" t="n"/>
@@ -14760,7 +14782,7 @@
       <c r="AA468" s="5" t="n"/>
       <c r="AB468" s="5" t="n"/>
     </row>
-    <row r="469" ht="17.4" customHeight="1" s="17">
+    <row r="469" ht="17.4" customHeight="1" s="18">
       <c r="A469" s="5" t="n"/>
       <c r="B469" s="5" t="n"/>
       <c r="C469" s="5" t="n"/>
@@ -14790,7 +14812,7 @@
       <c r="AA469" s="5" t="n"/>
       <c r="AB469" s="5" t="n"/>
     </row>
-    <row r="470" ht="17.4" customHeight="1" s="17">
+    <row r="470" ht="17.4" customHeight="1" s="18">
       <c r="A470" s="5" t="n"/>
       <c r="B470" s="5" t="n"/>
       <c r="C470" s="5" t="n"/>
@@ -14820,7 +14842,7 @@
       <c r="AA470" s="5" t="n"/>
       <c r="AB470" s="5" t="n"/>
     </row>
-    <row r="471" ht="17.4" customHeight="1" s="17">
+    <row r="471" ht="17.4" customHeight="1" s="18">
       <c r="A471" s="5" t="n"/>
       <c r="B471" s="5" t="n"/>
       <c r="C471" s="5" t="n"/>
@@ -14850,7 +14872,7 @@
       <c r="AA471" s="5" t="n"/>
       <c r="AB471" s="5" t="n"/>
     </row>
-    <row r="472" ht="17.4" customHeight="1" s="17">
+    <row r="472" ht="17.4" customHeight="1" s="18">
       <c r="A472" s="5" t="n"/>
       <c r="B472" s="5" t="n"/>
       <c r="C472" s="5" t="n"/>
@@ -14880,7 +14902,7 @@
       <c r="AA472" s="5" t="n"/>
       <c r="AB472" s="5" t="n"/>
     </row>
-    <row r="473" ht="17.4" customHeight="1" s="17">
+    <row r="473" ht="17.4" customHeight="1" s="18">
       <c r="A473" s="5" t="n"/>
       <c r="B473" s="5" t="n"/>
       <c r="C473" s="5" t="n"/>
@@ -14910,7 +14932,7 @@
       <c r="AA473" s="5" t="n"/>
       <c r="AB473" s="5" t="n"/>
     </row>
-    <row r="474" ht="17.4" customHeight="1" s="17">
+    <row r="474" ht="17.4" customHeight="1" s="18">
       <c r="A474" s="5" t="n"/>
       <c r="B474" s="5" t="n"/>
       <c r="C474" s="5" t="n"/>
@@ -14940,7 +14962,7 @@
       <c r="AA474" s="5" t="n"/>
       <c r="AB474" s="5" t="n"/>
     </row>
-    <row r="475" ht="17.4" customHeight="1" s="17">
+    <row r="475" ht="17.4" customHeight="1" s="18">
       <c r="A475" s="5" t="n"/>
       <c r="B475" s="5" t="n"/>
       <c r="C475" s="5" t="n"/>
@@ -14970,7 +14992,7 @@
       <c r="AA475" s="5" t="n"/>
       <c r="AB475" s="5" t="n"/>
     </row>
-    <row r="476" ht="17.4" customHeight="1" s="17">
+    <row r="476" ht="17.4" customHeight="1" s="18">
       <c r="A476" s="5" t="n"/>
       <c r="B476" s="5" t="n"/>
       <c r="C476" s="5" t="n"/>
@@ -15000,7 +15022,7 @@
       <c r="AA476" s="5" t="n"/>
       <c r="AB476" s="5" t="n"/>
     </row>
-    <row r="477" ht="17.4" customHeight="1" s="17">
+    <row r="477" ht="17.4" customHeight="1" s="18">
       <c r="A477" s="5" t="n"/>
       <c r="B477" s="5" t="n"/>
       <c r="C477" s="5" t="n"/>
@@ -15030,7 +15052,7 @@
       <c r="AA477" s="5" t="n"/>
       <c r="AB477" s="5" t="n"/>
     </row>
-    <row r="478" ht="17.4" customHeight="1" s="17">
+    <row r="478" ht="17.4" customHeight="1" s="18">
       <c r="A478" s="5" t="n"/>
       <c r="B478" s="5" t="n"/>
       <c r="C478" s="5" t="n"/>
@@ -15060,7 +15082,7 @@
       <c r="AA478" s="5" t="n"/>
       <c r="AB478" s="5" t="n"/>
     </row>
-    <row r="479" ht="17.4" customHeight="1" s="17">
+    <row r="479" ht="17.4" customHeight="1" s="18">
       <c r="A479" s="5" t="n"/>
       <c r="B479" s="5" t="n"/>
       <c r="C479" s="5" t="n"/>
@@ -15090,7 +15112,7 @@
       <c r="AA479" s="5" t="n"/>
       <c r="AB479" s="5" t="n"/>
     </row>
-    <row r="480" ht="17.4" customHeight="1" s="17">
+    <row r="480" ht="17.4" customHeight="1" s="18">
       <c r="A480" s="5" t="n"/>
       <c r="B480" s="5" t="n"/>
       <c r="C480" s="5" t="n"/>
@@ -15120,7 +15142,7 @@
       <c r="AA480" s="5" t="n"/>
       <c r="AB480" s="5" t="n"/>
     </row>
-    <row r="481" ht="17.4" customHeight="1" s="17">
+    <row r="481" ht="17.4" customHeight="1" s="18">
       <c r="A481" s="5" t="n"/>
       <c r="B481" s="5" t="n"/>
       <c r="C481" s="5" t="n"/>
@@ -15150,7 +15172,7 @@
       <c r="AA481" s="5" t="n"/>
       <c r="AB481" s="5" t="n"/>
     </row>
-    <row r="482" ht="17.4" customHeight="1" s="17">
+    <row r="482" ht="17.4" customHeight="1" s="18">
       <c r="A482" s="5" t="n"/>
       <c r="B482" s="5" t="n"/>
       <c r="C482" s="5" t="n"/>
@@ -15180,7 +15202,7 @@
       <c r="AA482" s="5" t="n"/>
       <c r="AB482" s="5" t="n"/>
     </row>
-    <row r="483" ht="17.4" customHeight="1" s="17">
+    <row r="483" ht="17.4" customHeight="1" s="18">
       <c r="A483" s="5" t="n"/>
       <c r="B483" s="5" t="n"/>
       <c r="C483" s="5" t="n"/>
@@ -15210,7 +15232,7 @@
       <c r="AA483" s="5" t="n"/>
       <c r="AB483" s="5" t="n"/>
     </row>
-    <row r="484" ht="17.4" customHeight="1" s="17">
+    <row r="484" ht="17.4" customHeight="1" s="18">
       <c r="A484" s="5" t="n"/>
       <c r="B484" s="5" t="n"/>
       <c r="C484" s="5" t="n"/>
@@ -15240,7 +15262,7 @@
       <c r="AA484" s="5" t="n"/>
       <c r="AB484" s="5" t="n"/>
     </row>
-    <row r="485" ht="17.4" customHeight="1" s="17">
+    <row r="485" ht="17.4" customHeight="1" s="18">
       <c r="A485" s="5" t="n"/>
       <c r="B485" s="5" t="n"/>
       <c r="C485" s="5" t="n"/>
@@ -15270,7 +15292,7 @@
       <c r="AA485" s="5" t="n"/>
       <c r="AB485" s="5" t="n"/>
     </row>
-    <row r="486" ht="17.4" customHeight="1" s="17">
+    <row r="486" ht="17.4" customHeight="1" s="18">
       <c r="A486" s="5" t="n"/>
       <c r="B486" s="5" t="n"/>
       <c r="C486" s="5" t="n"/>
@@ -15300,7 +15322,7 @@
       <c r="AA486" s="5" t="n"/>
       <c r="AB486" s="5" t="n"/>
     </row>
-    <row r="487" ht="17.4" customHeight="1" s="17">
+    <row r="487" ht="17.4" customHeight="1" s="18">
       <c r="A487" s="5" t="n"/>
       <c r="B487" s="5" t="n"/>
       <c r="C487" s="5" t="n"/>
@@ -15330,7 +15352,7 @@
       <c r="AA487" s="5" t="n"/>
       <c r="AB487" s="5" t="n"/>
     </row>
-    <row r="488" ht="17.4" customHeight="1" s="17">
+    <row r="488" ht="17.4" customHeight="1" s="18">
       <c r="A488" s="5" t="n"/>
       <c r="B488" s="5" t="n"/>
       <c r="C488" s="5" t="n"/>
@@ -15360,7 +15382,7 @@
       <c r="AA488" s="5" t="n"/>
       <c r="AB488" s="5" t="n"/>
     </row>
-    <row r="489" ht="17.4" customHeight="1" s="17">
+    <row r="489" ht="17.4" customHeight="1" s="18">
       <c r="A489" s="5" t="n"/>
       <c r="B489" s="5" t="n"/>
       <c r="C489" s="5" t="n"/>
@@ -15390,7 +15412,7 @@
       <c r="AA489" s="5" t="n"/>
       <c r="AB489" s="5" t="n"/>
     </row>
-    <row r="490" ht="17.4" customHeight="1" s="17">
+    <row r="490" ht="17.4" customHeight="1" s="18">
       <c r="A490" s="5" t="n"/>
       <c r="B490" s="5" t="n"/>
       <c r="C490" s="5" t="n"/>
@@ -15420,7 +15442,7 @@
       <c r="AA490" s="5" t="n"/>
       <c r="AB490" s="5" t="n"/>
     </row>
-    <row r="491" ht="17.4" customHeight="1" s="17">
+    <row r="491" ht="17.4" customHeight="1" s="18">
       <c r="A491" s="5" t="n"/>
       <c r="B491" s="5" t="n"/>
       <c r="C491" s="5" t="n"/>
@@ -15450,7 +15472,7 @@
       <c r="AA491" s="5" t="n"/>
       <c r="AB491" s="5" t="n"/>
     </row>
-    <row r="492" ht="17.4" customHeight="1" s="17">
+    <row r="492" ht="17.4" customHeight="1" s="18">
       <c r="A492" s="5" t="n"/>
       <c r="B492" s="5" t="n"/>
       <c r="C492" s="5" t="n"/>
@@ -15480,7 +15502,7 @@
       <c r="AA492" s="5" t="n"/>
       <c r="AB492" s="5" t="n"/>
     </row>
-    <row r="493" ht="17.4" customHeight="1" s="17">
+    <row r="493" ht="17.4" customHeight="1" s="18">
       <c r="A493" s="5" t="n"/>
       <c r="B493" s="5" t="n"/>
       <c r="C493" s="5" t="n"/>
@@ -15510,7 +15532,7 @@
       <c r="AA493" s="5" t="n"/>
       <c r="AB493" s="5" t="n"/>
     </row>
-    <row r="494" ht="17.4" customHeight="1" s="17">
+    <row r="494" ht="17.4" customHeight="1" s="18">
       <c r="A494" s="5" t="n"/>
       <c r="B494" s="5" t="n"/>
       <c r="C494" s="5" t="n"/>
@@ -15540,7 +15562,7 @@
       <c r="AA494" s="5" t="n"/>
       <c r="AB494" s="5" t="n"/>
     </row>
-    <row r="495" ht="17.4" customHeight="1" s="17">
+    <row r="495" ht="17.4" customHeight="1" s="18">
       <c r="A495" s="5" t="n"/>
       <c r="B495" s="5" t="n"/>
       <c r="C495" s="5" t="n"/>
@@ -15570,7 +15592,7 @@
       <c r="AA495" s="5" t="n"/>
       <c r="AB495" s="5" t="n"/>
     </row>
-    <row r="496" ht="17.4" customHeight="1" s="17">
+    <row r="496" ht="17.4" customHeight="1" s="18">
       <c r="A496" s="5" t="n"/>
       <c r="B496" s="5" t="n"/>
       <c r="C496" s="5" t="n"/>
@@ -15600,7 +15622,7 @@
       <c r="AA496" s="5" t="n"/>
       <c r="AB496" s="5" t="n"/>
     </row>
-    <row r="497" ht="17.4" customHeight="1" s="17">
+    <row r="497" ht="17.4" customHeight="1" s="18">
       <c r="A497" s="5" t="n"/>
       <c r="B497" s="5" t="n"/>
       <c r="C497" s="5" t="n"/>
@@ -15630,7 +15652,7 @@
       <c r="AA497" s="5" t="n"/>
       <c r="AB497" s="5" t="n"/>
     </row>
-    <row r="498" ht="17.4" customHeight="1" s="17">
+    <row r="498" ht="17.4" customHeight="1" s="18">
       <c r="A498" s="5" t="n"/>
       <c r="B498" s="5" t="n"/>
       <c r="C498" s="5" t="n"/>
@@ -15660,7 +15682,7 @@
       <c r="AA498" s="5" t="n"/>
       <c r="AB498" s="5" t="n"/>
     </row>
-    <row r="499" ht="17.4" customHeight="1" s="17">
+    <row r="499" ht="17.4" customHeight="1" s="18">
       <c r="A499" s="5" t="n"/>
       <c r="B499" s="5" t="n"/>
       <c r="C499" s="5" t="n"/>
@@ -15690,7 +15712,7 @@
       <c r="AA499" s="5" t="n"/>
       <c r="AB499" s="5" t="n"/>
     </row>
-    <row r="500" ht="17.4" customHeight="1" s="17">
+    <row r="500" ht="17.4" customHeight="1" s="18">
       <c r="A500" s="5" t="n"/>
       <c r="B500" s="5" t="n"/>
       <c r="C500" s="5" t="n"/>
@@ -15720,7 +15742,7 @@
       <c r="AA500" s="5" t="n"/>
       <c r="AB500" s="5" t="n"/>
     </row>
-    <row r="501" ht="17.4" customHeight="1" s="17">
+    <row r="501" ht="17.4" customHeight="1" s="18">
       <c r="A501" s="5" t="n"/>
       <c r="B501" s="5" t="n"/>
       <c r="C501" s="5" t="n"/>
@@ -15750,7 +15772,7 @@
       <c r="AA501" s="5" t="n"/>
       <c r="AB501" s="5" t="n"/>
     </row>
-    <row r="502" ht="17.4" customHeight="1" s="17">
+    <row r="502" ht="17.4" customHeight="1" s="18">
       <c r="A502" s="5" t="n"/>
       <c r="B502" s="5" t="n"/>
       <c r="C502" s="5" t="n"/>
@@ -15780,7 +15802,7 @@
       <c r="AA502" s="5" t="n"/>
       <c r="AB502" s="5" t="n"/>
     </row>
-    <row r="503" ht="17.4" customHeight="1" s="17">
+    <row r="503" ht="17.4" customHeight="1" s="18">
       <c r="A503" s="5" t="n"/>
       <c r="B503" s="5" t="n"/>
       <c r="C503" s="5" t="n"/>
@@ -15810,7 +15832,7 @@
       <c r="AA503" s="5" t="n"/>
       <c r="AB503" s="5" t="n"/>
     </row>
-    <row r="504" ht="17.4" customHeight="1" s="17">
+    <row r="504" ht="17.4" customHeight="1" s="18">
       <c r="A504" s="5" t="n"/>
       <c r="B504" s="5" t="n"/>
       <c r="C504" s="5" t="n"/>
@@ -15840,7 +15862,7 @@
       <c r="AA504" s="5" t="n"/>
       <c r="AB504" s="5" t="n"/>
     </row>
-    <row r="505" ht="17.4" customHeight="1" s="17">
+    <row r="505" ht="17.4" customHeight="1" s="18">
       <c r="A505" s="5" t="n"/>
       <c r="B505" s="5" t="n"/>
       <c r="C505" s="5" t="n"/>
@@ -15870,7 +15892,7 @@
       <c r="AA505" s="5" t="n"/>
       <c r="AB505" s="5" t="n"/>
     </row>
-    <row r="506" ht="17.4" customHeight="1" s="17">
+    <row r="506" ht="17.4" customHeight="1" s="18">
       <c r="A506" s="5" t="n"/>
       <c r="B506" s="5" t="n"/>
       <c r="C506" s="5" t="n"/>
@@ -15900,7 +15922,7 @@
       <c r="AA506" s="5" t="n"/>
       <c r="AB506" s="5" t="n"/>
     </row>
-    <row r="507" ht="17.4" customHeight="1" s="17">
+    <row r="507" ht="17.4" customHeight="1" s="18">
       <c r="A507" s="5" t="n"/>
       <c r="B507" s="5" t="n"/>
       <c r="C507" s="5" t="n"/>
@@ -15930,7 +15952,7 @@
       <c r="AA507" s="5" t="n"/>
       <c r="AB507" s="5" t="n"/>
     </row>
-    <row r="508" ht="17.4" customHeight="1" s="17">
+    <row r="508" ht="17.4" customHeight="1" s="18">
       <c r="A508" s="5" t="n"/>
       <c r="B508" s="5" t="n"/>
       <c r="C508" s="5" t="n"/>
@@ -15960,7 +15982,7 @@
       <c r="AA508" s="5" t="n"/>
       <c r="AB508" s="5" t="n"/>
     </row>
-    <row r="509" ht="17.4" customHeight="1" s="17">
+    <row r="509" ht="17.4" customHeight="1" s="18">
       <c r="A509" s="5" t="n"/>
       <c r="B509" s="5" t="n"/>
       <c r="C509" s="5" t="n"/>
@@ -15990,7 +16012,7 @@
       <c r="AA509" s="5" t="n"/>
       <c r="AB509" s="5" t="n"/>
     </row>
-    <row r="510" ht="17.4" customHeight="1" s="17">
+    <row r="510" ht="17.4" customHeight="1" s="18">
       <c r="A510" s="5" t="n"/>
       <c r="B510" s="5" t="n"/>
       <c r="C510" s="5" t="n"/>
@@ -16020,7 +16042,7 @@
       <c r="AA510" s="5" t="n"/>
       <c r="AB510" s="5" t="n"/>
     </row>
-    <row r="511" ht="17.4" customHeight="1" s="17">
+    <row r="511" ht="17.4" customHeight="1" s="18">
       <c r="A511" s="5" t="n"/>
       <c r="B511" s="5" t="n"/>
       <c r="C511" s="5" t="n"/>
@@ -16050,7 +16072,7 @@
       <c r="AA511" s="5" t="n"/>
       <c r="AB511" s="5" t="n"/>
     </row>
-    <row r="512" ht="17.4" customHeight="1" s="17">
+    <row r="512" ht="17.4" customHeight="1" s="18">
       <c r="A512" s="5" t="n"/>
       <c r="B512" s="5" t="n"/>
       <c r="C512" s="5" t="n"/>
@@ -16080,7 +16102,7 @@
       <c r="AA512" s="5" t="n"/>
       <c r="AB512" s="5" t="n"/>
     </row>
-    <row r="513" ht="17.4" customHeight="1" s="17">
+    <row r="513" ht="17.4" customHeight="1" s="18">
       <c r="A513" s="5" t="n"/>
       <c r="B513" s="5" t="n"/>
       <c r="C513" s="5" t="n"/>
@@ -16110,7 +16132,7 @@
       <c r="AA513" s="5" t="n"/>
       <c r="AB513" s="5" t="n"/>
     </row>
-    <row r="514" ht="17.4" customHeight="1" s="17">
+    <row r="514" ht="17.4" customHeight="1" s="18">
       <c r="A514" s="5" t="n"/>
       <c r="B514" s="5" t="n"/>
       <c r="C514" s="5" t="n"/>
@@ -16140,7 +16162,7 @@
       <c r="AA514" s="5" t="n"/>
       <c r="AB514" s="5" t="n"/>
     </row>
-    <row r="515" ht="17.4" customHeight="1" s="17">
+    <row r="515" ht="17.4" customHeight="1" s="18">
       <c r="A515" s="5" t="n"/>
       <c r="B515" s="5" t="n"/>
       <c r="C515" s="5" t="n"/>
@@ -16170,7 +16192,7 @@
       <c r="AA515" s="5" t="n"/>
       <c r="AB515" s="5" t="n"/>
     </row>
-    <row r="516" ht="17.4" customHeight="1" s="17">
+    <row r="516" ht="17.4" customHeight="1" s="18">
       <c r="A516" s="5" t="n"/>
       <c r="B516" s="5" t="n"/>
       <c r="C516" s="5" t="n"/>
@@ -16200,7 +16222,7 @@
       <c r="AA516" s="5" t="n"/>
       <c r="AB516" s="5" t="n"/>
     </row>
-    <row r="517" ht="17.4" customHeight="1" s="17">
+    <row r="517" ht="17.4" customHeight="1" s="18">
       <c r="A517" s="5" t="n"/>
       <c r="B517" s="5" t="n"/>
       <c r="C517" s="5" t="n"/>
@@ -16230,7 +16252,7 @@
       <c r="AA517" s="5" t="n"/>
       <c r="AB517" s="5" t="n"/>
     </row>
-    <row r="518" ht="17.4" customHeight="1" s="17">
+    <row r="518" ht="17.4" customHeight="1" s="18">
       <c r="A518" s="5" t="n"/>
       <c r="B518" s="5" t="n"/>
       <c r="C518" s="5" t="n"/>
@@ -16260,7 +16282,7 @@
       <c r="AA518" s="5" t="n"/>
       <c r="AB518" s="5" t="n"/>
     </row>
-    <row r="519" ht="17.4" customHeight="1" s="17">
+    <row r="519" ht="17.4" customHeight="1" s="18">
       <c r="A519" s="5" t="n"/>
       <c r="B519" s="5" t="n"/>
       <c r="C519" s="5" t="n"/>
@@ -16290,7 +16312,7 @@
       <c r="AA519" s="5" t="n"/>
       <c r="AB519" s="5" t="n"/>
     </row>
-    <row r="520" ht="17.4" customHeight="1" s="17">
+    <row r="520" ht="17.4" customHeight="1" s="18">
       <c r="A520" s="5" t="n"/>
       <c r="B520" s="5" t="n"/>
       <c r="C520" s="5" t="n"/>
@@ -16320,7 +16342,7 @@
       <c r="AA520" s="5" t="n"/>
       <c r="AB520" s="5" t="n"/>
     </row>
-    <row r="521" ht="17.4" customHeight="1" s="17">
+    <row r="521" ht="17.4" customHeight="1" s="18">
       <c r="A521" s="5" t="n"/>
       <c r="B521" s="5" t="n"/>
       <c r="C521" s="5" t="n"/>
@@ -16350,7 +16372,7 @@
       <c r="AA521" s="5" t="n"/>
       <c r="AB521" s="5" t="n"/>
     </row>
-    <row r="522" ht="17.4" customHeight="1" s="17">
+    <row r="522" ht="17.4" customHeight="1" s="18">
       <c r="A522" s="5" t="n"/>
       <c r="B522" s="5" t="n"/>
       <c r="C522" s="5" t="n"/>
@@ -16380,7 +16402,7 @@
       <c r="AA522" s="5" t="n"/>
       <c r="AB522" s="5" t="n"/>
     </row>
-    <row r="523" ht="17.4" customHeight="1" s="17">
+    <row r="523" ht="17.4" customHeight="1" s="18">
       <c r="A523" s="5" t="n"/>
       <c r="B523" s="5" t="n"/>
       <c r="C523" s="5" t="n"/>
@@ -16410,7 +16432,7 @@
       <c r="AA523" s="5" t="n"/>
       <c r="AB523" s="5" t="n"/>
     </row>
-    <row r="524" ht="17.4" customHeight="1" s="17">
+    <row r="524" ht="17.4" customHeight="1" s="18">
       <c r="A524" s="5" t="n"/>
       <c r="B524" s="5" t="n"/>
       <c r="C524" s="5" t="n"/>
@@ -16440,7 +16462,7 @@
       <c r="AA524" s="5" t="n"/>
       <c r="AB524" s="5" t="n"/>
     </row>
-    <row r="525" ht="17.4" customHeight="1" s="17">
+    <row r="525" ht="17.4" customHeight="1" s="18">
       <c r="A525" s="5" t="n"/>
       <c r="B525" s="5" t="n"/>
       <c r="C525" s="5" t="n"/>
@@ -16470,7 +16492,7 @@
       <c r="AA525" s="5" t="n"/>
       <c r="AB525" s="5" t="n"/>
     </row>
-    <row r="526" ht="17.4" customHeight="1" s="17">
+    <row r="526" ht="17.4" customHeight="1" s="18">
       <c r="A526" s="5" t="n"/>
       <c r="B526" s="5" t="n"/>
       <c r="C526" s="5" t="n"/>
@@ -16500,7 +16522,7 @@
       <c r="AA526" s="5" t="n"/>
       <c r="AB526" s="5" t="n"/>
     </row>
-    <row r="527" ht="17.4" customHeight="1" s="17">
+    <row r="527" ht="17.4" customHeight="1" s="18">
       <c r="A527" s="5" t="n"/>
       <c r="B527" s="5" t="n"/>
       <c r="C527" s="5" t="n"/>
@@ -16530,7 +16552,7 @@
       <c r="AA527" s="5" t="n"/>
       <c r="AB527" s="5" t="n"/>
     </row>
-    <row r="528" ht="17.4" customHeight="1" s="17">
+    <row r="528" ht="17.4" customHeight="1" s="18">
       <c r="A528" s="5" t="n"/>
       <c r="B528" s="5" t="n"/>
       <c r="C528" s="5" t="n"/>
@@ -16560,7 +16582,7 @@
       <c r="AA528" s="5" t="n"/>
       <c r="AB528" s="5" t="n"/>
     </row>
-    <row r="529" ht="17.4" customHeight="1" s="17">
+    <row r="529" ht="17.4" customHeight="1" s="18">
       <c r="A529" s="5" t="n"/>
       <c r="B529" s="5" t="n"/>
       <c r="C529" s="5" t="n"/>
@@ -16590,7 +16612,7 @@
       <c r="AA529" s="5" t="n"/>
       <c r="AB529" s="5" t="n"/>
     </row>
-    <row r="530" ht="17.4" customHeight="1" s="17">
+    <row r="530" ht="17.4" customHeight="1" s="18">
       <c r="A530" s="5" t="n"/>
       <c r="B530" s="5" t="n"/>
       <c r="C530" s="5" t="n"/>
@@ -16620,7 +16642,7 @@
       <c r="AA530" s="5" t="n"/>
       <c r="AB530" s="5" t="n"/>
     </row>
-    <row r="531" ht="17.4" customHeight="1" s="17">
+    <row r="531" ht="17.4" customHeight="1" s="18">
       <c r="A531" s="5" t="n"/>
       <c r="B531" s="5" t="n"/>
       <c r="C531" s="5" t="n"/>
@@ -16650,7 +16672,7 @@
       <c r="AA531" s="5" t="n"/>
       <c r="AB531" s="5" t="n"/>
     </row>
-    <row r="532" ht="17.4" customHeight="1" s="17">
+    <row r="532" ht="17.4" customHeight="1" s="18">
       <c r="A532" s="5" t="n"/>
       <c r="B532" s="5" t="n"/>
       <c r="C532" s="5" t="n"/>
@@ -16680,7 +16702,7 @@
       <c r="AA532" s="5" t="n"/>
       <c r="AB532" s="5" t="n"/>
     </row>
-    <row r="533" ht="17.4" customHeight="1" s="17">
+    <row r="533" ht="17.4" customHeight="1" s="18">
       <c r="A533" s="5" t="n"/>
       <c r="B533" s="5" t="n"/>
       <c r="C533" s="5" t="n"/>
@@ -16710,7 +16732,7 @@
       <c r="AA533" s="5" t="n"/>
       <c r="AB533" s="5" t="n"/>
     </row>
-    <row r="534" ht="17.4" customHeight="1" s="17">
+    <row r="534" ht="17.4" customHeight="1" s="18">
       <c r="A534" s="5" t="n"/>
       <c r="B534" s="5" t="n"/>
       <c r="C534" s="5" t="n"/>
@@ -16740,7 +16762,7 @@
       <c r="AA534" s="5" t="n"/>
       <c r="AB534" s="5" t="n"/>
     </row>
-    <row r="535" ht="17.4" customHeight="1" s="17">
+    <row r="535" ht="17.4" customHeight="1" s="18">
       <c r="A535" s="5" t="n"/>
       <c r="B535" s="5" t="n"/>
       <c r="C535" s="5" t="n"/>
@@ -16770,7 +16792,7 @@
       <c r="AA535" s="5" t="n"/>
       <c r="AB535" s="5" t="n"/>
     </row>
-    <row r="536" ht="17.4" customHeight="1" s="17">
+    <row r="536" ht="17.4" customHeight="1" s="18">
       <c r="A536" s="5" t="n"/>
       <c r="B536" s="5" t="n"/>
       <c r="C536" s="5" t="n"/>
@@ -16800,7 +16822,7 @@
       <c r="AA536" s="5" t="n"/>
       <c r="AB536" s="5" t="n"/>
     </row>
-    <row r="537" ht="17.4" customHeight="1" s="17">
+    <row r="537" ht="17.4" customHeight="1" s="18">
       <c r="A537" s="5" t="n"/>
       <c r="B537" s="5" t="n"/>
       <c r="C537" s="5" t="n"/>
@@ -16830,7 +16852,7 @@
       <c r="AA537" s="5" t="n"/>
       <c r="AB537" s="5" t="n"/>
     </row>
-    <row r="538" ht="17.4" customHeight="1" s="17">
+    <row r="538" ht="17.4" customHeight="1" s="18">
       <c r="A538" s="5" t="n"/>
       <c r="B538" s="5" t="n"/>
       <c r="C538" s="5" t="n"/>
@@ -16860,7 +16882,7 @@
       <c r="AA538" s="5" t="n"/>
       <c r="AB538" s="5" t="n"/>
     </row>
-    <row r="539" ht="17.4" customHeight="1" s="17">
+    <row r="539" ht="17.4" customHeight="1" s="18">
       <c r="A539" s="5" t="n"/>
       <c r="B539" s="5" t="n"/>
       <c r="C539" s="5" t="n"/>
@@ -16890,7 +16912,7 @@
       <c r="AA539" s="5" t="n"/>
       <c r="AB539" s="5" t="n"/>
     </row>
-    <row r="540" ht="17.4" customHeight="1" s="17">
+    <row r="540" ht="17.4" customHeight="1" s="18">
       <c r="A540" s="5" t="n"/>
       <c r="B540" s="5" t="n"/>
       <c r="C540" s="5" t="n"/>
@@ -16920,7 +16942,7 @@
       <c r="AA540" s="5" t="n"/>
       <c r="AB540" s="5" t="n"/>
     </row>
-    <row r="541" ht="17.4" customHeight="1" s="17">
+    <row r="541" ht="17.4" customHeight="1" s="18">
       <c r="A541" s="5" t="n"/>
       <c r="B541" s="5" t="n"/>
       <c r="C541" s="5" t="n"/>
@@ -16950,7 +16972,7 @@
       <c r="AA541" s="5" t="n"/>
       <c r="AB541" s="5" t="n"/>
     </row>
-    <row r="542" ht="17.4" customHeight="1" s="17">
+    <row r="542" ht="17.4" customHeight="1" s="18">
       <c r="A542" s="5" t="n"/>
       <c r="B542" s="5" t="n"/>
       <c r="C542" s="5" t="n"/>
@@ -16980,7 +17002,7 @@
       <c r="AA542" s="5" t="n"/>
       <c r="AB542" s="5" t="n"/>
     </row>
-    <row r="543" ht="17.4" customHeight="1" s="17">
+    <row r="543" ht="17.4" customHeight="1" s="18">
       <c r="A543" s="5" t="n"/>
       <c r="B543" s="5" t="n"/>
       <c r="C543" s="5" t="n"/>
@@ -17010,7 +17032,7 @@
       <c r="AA543" s="5" t="n"/>
       <c r="AB543" s="5" t="n"/>
     </row>
-    <row r="544" ht="17.4" customHeight="1" s="17">
+    <row r="544" ht="17.4" customHeight="1" s="18">
       <c r="A544" s="5" t="n"/>
       <c r="B544" s="5" t="n"/>
       <c r="C544" s="5" t="n"/>
@@ -17040,7 +17062,7 @@
       <c r="AA544" s="5" t="n"/>
       <c r="AB544" s="5" t="n"/>
     </row>
-    <row r="545" ht="17.4" customHeight="1" s="17">
+    <row r="545" ht="17.4" customHeight="1" s="18">
       <c r="A545" s="5" t="n"/>
       <c r="B545" s="5" t="n"/>
       <c r="C545" s="5" t="n"/>
@@ -17070,7 +17092,7 @@
       <c r="AA545" s="5" t="n"/>
       <c r="AB545" s="5" t="n"/>
     </row>
-    <row r="546" ht="17.4" customHeight="1" s="17">
+    <row r="546" ht="17.4" customHeight="1" s="18">
       <c r="A546" s="5" t="n"/>
       <c r="B546" s="5" t="n"/>
       <c r="C546" s="5" t="n"/>
@@ -17100,7 +17122,7 @@
       <c r="AA546" s="5" t="n"/>
       <c r="AB546" s="5" t="n"/>
     </row>
-    <row r="547" ht="17.4" customHeight="1" s="17">
+    <row r="547" ht="17.4" customHeight="1" s="18">
       <c r="A547" s="5" t="n"/>
       <c r="B547" s="5" t="n"/>
       <c r="C547" s="5" t="n"/>
@@ -17130,7 +17152,7 @@
       <c r="AA547" s="5" t="n"/>
       <c r="AB547" s="5" t="n"/>
     </row>
-    <row r="548" ht="17.4" customHeight="1" s="17">
+    <row r="548" ht="17.4" customHeight="1" s="18">
       <c r="A548" s="5" t="n"/>
       <c r="B548" s="5" t="n"/>
       <c r="C548" s="5" t="n"/>
@@ -17160,7 +17182,7 @@
       <c r="AA548" s="5" t="n"/>
       <c r="AB548" s="5" t="n"/>
     </row>
-    <row r="549" ht="17.4" customHeight="1" s="17">
+    <row r="549" ht="17.4" customHeight="1" s="18">
       <c r="A549" s="5" t="n"/>
       <c r="B549" s="5" t="n"/>
       <c r="C549" s="5" t="n"/>
@@ -17190,7 +17212,7 @@
       <c r="AA549" s="5" t="n"/>
       <c r="AB549" s="5" t="n"/>
     </row>
-    <row r="550" ht="17.4" customHeight="1" s="17">
+    <row r="550" ht="17.4" customHeight="1" s="18">
       <c r="A550" s="5" t="n"/>
       <c r="B550" s="5" t="n"/>
       <c r="C550" s="5" t="n"/>
@@ -17220,7 +17242,7 @@
       <c r="AA550" s="5" t="n"/>
       <c r="AB550" s="5" t="n"/>
     </row>
-    <row r="551" ht="17.4" customHeight="1" s="17">
+    <row r="551" ht="17.4" customHeight="1" s="18">
       <c r="A551" s="5" t="n"/>
       <c r="B551" s="5" t="n"/>
       <c r="C551" s="5" t="n"/>
@@ -17250,7 +17272,7 @@
       <c r="AA551" s="5" t="n"/>
       <c r="AB551" s="5" t="n"/>
     </row>
-    <row r="552" ht="17.4" customHeight="1" s="17">
+    <row r="552" ht="17.4" customHeight="1" s="18">
       <c r="A552" s="5" t="n"/>
       <c r="B552" s="5" t="n"/>
       <c r="C552" s="5" t="n"/>
@@ -17280,7 +17302,7 @@
       <c r="AA552" s="5" t="n"/>
       <c r="AB552" s="5" t="n"/>
     </row>
-    <row r="553" ht="17.4" customHeight="1" s="17">
+    <row r="553" ht="17.4" customHeight="1" s="18">
       <c r="A553" s="5" t="n"/>
       <c r="B553" s="5" t="n"/>
       <c r="C553" s="5" t="n"/>
@@ -17310,7 +17332,7 @@
       <c r="AA553" s="5" t="n"/>
       <c r="AB553" s="5" t="n"/>
     </row>
-    <row r="554" ht="17.4" customHeight="1" s="17">
+    <row r="554" ht="17.4" customHeight="1" s="18">
       <c r="A554" s="5" t="n"/>
       <c r="B554" s="5" t="n"/>
       <c r="C554" s="5" t="n"/>
@@ -17340,7 +17362,7 @@
       <c r="AA554" s="5" t="n"/>
       <c r="AB554" s="5" t="n"/>
     </row>
-    <row r="555" ht="17.4" customHeight="1" s="17">
+    <row r="555" ht="17.4" customHeight="1" s="18">
       <c r="A555" s="5" t="n"/>
       <c r="B555" s="5" t="n"/>
       <c r="C555" s="5" t="n"/>
@@ -17370,7 +17392,7 @@
       <c r="AA555" s="5" t="n"/>
       <c r="AB555" s="5" t="n"/>
     </row>
-    <row r="556" ht="17.4" customHeight="1" s="17">
+    <row r="556" ht="17.4" customHeight="1" s="18">
       <c r="A556" s="5" t="n"/>
       <c r="B556" s="5" t="n"/>
       <c r="C556" s="5" t="n"/>
@@ -17400,7 +17422,7 @@
       <c r="AA556" s="5" t="n"/>
       <c r="AB556" s="5" t="n"/>
     </row>
-    <row r="557" ht="17.4" customHeight="1" s="17">
+    <row r="557" ht="17.4" customHeight="1" s="18">
       <c r="A557" s="5" t="n"/>
       <c r="B557" s="5" t="n"/>
       <c r="C557" s="5" t="n"/>
@@ -17430,7 +17452,7 @@
       <c r="AA557" s="5" t="n"/>
       <c r="AB557" s="5" t="n"/>
     </row>
-    <row r="558" ht="17.4" customHeight="1" s="17">
+    <row r="558" ht="17.4" customHeight="1" s="18">
       <c r="A558" s="5" t="n"/>
       <c r="B558" s="5" t="n"/>
       <c r="C558" s="5" t="n"/>
@@ -17460,7 +17482,7 @@
       <c r="AA558" s="5" t="n"/>
       <c r="AB558" s="5" t="n"/>
     </row>
-    <row r="559" ht="17.4" customHeight="1" s="17">
+    <row r="559" ht="17.4" customHeight="1" s="18">
       <c r="A559" s="5" t="n"/>
       <c r="B559" s="5" t="n"/>
       <c r="C559" s="5" t="n"/>
@@ -17490,7 +17512,7 @@
       <c r="AA559" s="5" t="n"/>
       <c r="AB559" s="5" t="n"/>
     </row>
-    <row r="560" ht="17.4" customHeight="1" s="17">
+    <row r="560" ht="17.4" customHeight="1" s="18">
       <c r="A560" s="5" t="n"/>
       <c r="B560" s="5" t="n"/>
       <c r="C560" s="5" t="n"/>
@@ -17520,7 +17542,7 @@
       <c r="AA560" s="5" t="n"/>
       <c r="AB560" s="5" t="n"/>
     </row>
-    <row r="561" ht="17.4" customHeight="1" s="17">
+    <row r="561" ht="17.4" customHeight="1" s="18">
       <c r="A561" s="5" t="n"/>
       <c r="B561" s="5" t="n"/>
       <c r="C561" s="5" t="n"/>
@@ -17550,7 +17572,7 @@
       <c r="AA561" s="5" t="n"/>
       <c r="AB561" s="5" t="n"/>
     </row>
-    <row r="562" ht="17.4" customHeight="1" s="17">
+    <row r="562" ht="17.4" customHeight="1" s="18">
       <c r="A562" s="5" t="n"/>
       <c r="B562" s="5" t="n"/>
       <c r="C562" s="5" t="n"/>
@@ -17580,7 +17602,7 @@
       <c r="AA562" s="5" t="n"/>
       <c r="AB562" s="5" t="n"/>
     </row>
-    <row r="563" ht="17.4" customHeight="1" s="17">
+    <row r="563" ht="17.4" customHeight="1" s="18">
       <c r="A563" s="5" t="n"/>
       <c r="B563" s="5" t="n"/>
       <c r="C563" s="5" t="n"/>
@@ -17610,7 +17632,7 @@
       <c r="AA563" s="5" t="n"/>
       <c r="AB563" s="5" t="n"/>
     </row>
-    <row r="564" ht="17.4" customHeight="1" s="17">
+    <row r="564" ht="17.4" customHeight="1" s="18">
       <c r="A564" s="5" t="n"/>
       <c r="B564" s="5" t="n"/>
       <c r="C564" s="5" t="n"/>
@@ -17640,7 +17662,7 @@
       <c r="AA564" s="5" t="n"/>
       <c r="AB564" s="5" t="n"/>
     </row>
-    <row r="565" ht="17.4" customHeight="1" s="17">
+    <row r="565" ht="17.4" customHeight="1" s="18">
       <c r="A565" s="5" t="n"/>
       <c r="B565" s="5" t="n"/>
       <c r="C565" s="5" t="n"/>
@@ -17670,7 +17692,7 @@
       <c r="AA565" s="5" t="n"/>
       <c r="AB565" s="5" t="n"/>
     </row>
-    <row r="566" ht="17.4" customHeight="1" s="17">
+    <row r="566" ht="17.4" customHeight="1" s="18">
       <c r="A566" s="5" t="n"/>
       <c r="B566" s="5" t="n"/>
       <c r="C566" s="5" t="n"/>
@@ -17700,7 +17722,7 @@
       <c r="AA566" s="5" t="n"/>
       <c r="AB566" s="5" t="n"/>
     </row>
-    <row r="567" ht="17.4" customHeight="1" s="17">
+    <row r="567" ht="17.4" customHeight="1" s="18">
       <c r="A567" s="5" t="n"/>
       <c r="B567" s="5" t="n"/>
       <c r="C567" s="5" t="n"/>
@@ -17730,7 +17752,7 @@
       <c r="AA567" s="5" t="n"/>
       <c r="AB567" s="5" t="n"/>
     </row>
-    <row r="568" ht="17.4" customHeight="1" s="17">
+    <row r="568" ht="17.4" customHeight="1" s="18">
       <c r="A568" s="5" t="n"/>
       <c r="B568" s="5" t="n"/>
       <c r="C568" s="5" t="n"/>
@@ -17760,7 +17782,7 @@
       <c r="AA568" s="5" t="n"/>
       <c r="AB568" s="5" t="n"/>
     </row>
-    <row r="569" ht="17.4" customHeight="1" s="17">
+    <row r="569" ht="17.4" customHeight="1" s="18">
       <c r="A569" s="5" t="n"/>
       <c r="B569" s="5" t="n"/>
       <c r="C569" s="5" t="n"/>
@@ -17790,7 +17812,7 @@
       <c r="AA569" s="5" t="n"/>
       <c r="AB569" s="5" t="n"/>
     </row>
-    <row r="570" ht="17.4" customHeight="1" s="17">
+    <row r="570" ht="17.4" customHeight="1" s="18">
       <c r="A570" s="5" t="n"/>
       <c r="B570" s="5" t="n"/>
       <c r="C570" s="5" t="n"/>
@@ -17820,7 +17842,7 @@
       <c r="AA570" s="5" t="n"/>
       <c r="AB570" s="5" t="n"/>
     </row>
-    <row r="571" ht="17.4" customHeight="1" s="17">
+    <row r="571" ht="17.4" customHeight="1" s="18">
       <c r="A571" s="5" t="n"/>
       <c r="B571" s="5" t="n"/>
       <c r="C571" s="5" t="n"/>
@@ -17850,7 +17872,7 @@
       <c r="AA571" s="5" t="n"/>
       <c r="AB571" s="5" t="n"/>
     </row>
-    <row r="572" ht="17.4" customHeight="1" s="17">
+    <row r="572" ht="17.4" customHeight="1" s="18">
       <c r="A572" s="5" t="n"/>
       <c r="B572" s="5" t="n"/>
       <c r="C572" s="5" t="n"/>
@@ -17880,7 +17902,7 @@
       <c r="AA572" s="5" t="n"/>
       <c r="AB572" s="5" t="n"/>
     </row>
-    <row r="573" ht="17.4" customHeight="1" s="17">
+    <row r="573" ht="17.4" customHeight="1" s="18">
       <c r="A573" s="5" t="n"/>
       <c r="B573" s="5" t="n"/>
       <c r="C573" s="5" t="n"/>
@@ -17910,7 +17932,7 @@
       <c r="AA573" s="5" t="n"/>
       <c r="AB573" s="5" t="n"/>
     </row>
-    <row r="574" ht="17.4" customHeight="1" s="17">
+    <row r="574" ht="17.4" customHeight="1" s="18">
       <c r="A574" s="5" t="n"/>
       <c r="B574" s="5" t="n"/>
       <c r="C574" s="5" t="n"/>
@@ -17940,7 +17962,7 @@
       <c r="AA574" s="5" t="n"/>
       <c r="AB574" s="5" t="n"/>
     </row>
-    <row r="575" ht="17.4" customHeight="1" s="17">
+    <row r="575" ht="17.4" customHeight="1" s="18">
       <c r="A575" s="5" t="n"/>
       <c r="B575" s="5" t="n"/>
       <c r="C575" s="5" t="n"/>
@@ -17970,7 +17992,7 @@
       <c r="AA575" s="5" t="n"/>
       <c r="AB575" s="5" t="n"/>
     </row>
-    <row r="576" ht="17.4" customHeight="1" s="17">
+    <row r="576" ht="17.4" customHeight="1" s="18">
       <c r="A576" s="5" t="n"/>
       <c r="B576" s="5" t="n"/>
       <c r="C576" s="5" t="n"/>
@@ -18000,7 +18022,7 @@
       <c r="AA576" s="5" t="n"/>
       <c r="AB576" s="5" t="n"/>
     </row>
-    <row r="577" ht="17.4" customHeight="1" s="17">
+    <row r="577" ht="17.4" customHeight="1" s="18">
       <c r="A577" s="5" t="n"/>
       <c r="B577" s="5" t="n"/>
       <c r="C577" s="5" t="n"/>
@@ -18030,7 +18052,7 @@
       <c r="AA577" s="5" t="n"/>
       <c r="AB577" s="5" t="n"/>
     </row>
-    <row r="578" ht="17.4" customHeight="1" s="17">
+    <row r="578" ht="17.4" customHeight="1" s="18">
       <c r="A578" s="5" t="n"/>
       <c r="B578" s="5" t="n"/>
       <c r="C578" s="5" t="n"/>
@@ -18060,7 +18082,7 @@
       <c r="AA578" s="5" t="n"/>
       <c r="AB578" s="5" t="n"/>
     </row>
-    <row r="579" ht="17.4" customHeight="1" s="17">
+    <row r="579" ht="17.4" customHeight="1" s="18">
       <c r="A579" s="5" t="n"/>
       <c r="B579" s="5" t="n"/>
       <c r="C579" s="5" t="n"/>
@@ -18090,7 +18112,7 @@
       <c r="AA579" s="5" t="n"/>
       <c r="AB579" s="5" t="n"/>
     </row>
-    <row r="580" ht="17.4" customHeight="1" s="17">
+    <row r="580" ht="17.4" customHeight="1" s="18">
       <c r="A580" s="5" t="n"/>
       <c r="B580" s="5" t="n"/>
       <c r="C580" s="5" t="n"/>
@@ -18120,7 +18142,7 @@
       <c r="AA580" s="5" t="n"/>
       <c r="AB580" s="5" t="n"/>
     </row>
-    <row r="581" ht="17.4" customHeight="1" s="17">
+    <row r="581" ht="17.4" customHeight="1" s="18">
       <c r="A581" s="5" t="n"/>
       <c r="B581" s="5" t="n"/>
       <c r="C581" s="5" t="n"/>
@@ -18150,7 +18172,7 @@
       <c r="AA581" s="5" t="n"/>
       <c r="AB581" s="5" t="n"/>
     </row>
-    <row r="582" ht="17.4" customHeight="1" s="17">
+    <row r="582" ht="17.4" customHeight="1" s="18">
       <c r="A582" s="5" t="n"/>
       <c r="B582" s="5" t="n"/>
       <c r="C582" s="5" t="n"/>
@@ -18180,7 +18202,7 @@
       <c r="AA582" s="5" t="n"/>
       <c r="AB582" s="5" t="n"/>
     </row>
-    <row r="583" ht="17.4" customHeight="1" s="17">
+    <row r="583" ht="17.4" customHeight="1" s="18">
       <c r="A583" s="5" t="n"/>
       <c r="B583" s="5" t="n"/>
       <c r="C583" s="5" t="n"/>
@@ -18210,7 +18232,7 @@
       <c r="AA583" s="5" t="n"/>
       <c r="AB583" s="5" t="n"/>
     </row>
-    <row r="584" ht="17.4" customHeight="1" s="17">
+    <row r="584" ht="17.4" customHeight="1" s="18">
       <c r="A584" s="5" t="n"/>
       <c r="B584" s="5" t="n"/>
       <c r="C584" s="5" t="n"/>
@@ -18240,7 +18262,7 @@
       <c r="AA584" s="5" t="n"/>
       <c r="AB584" s="5" t="n"/>
     </row>
-    <row r="585" ht="17.4" customHeight="1" s="17">
+    <row r="585" ht="17.4" customHeight="1" s="18">
       <c r="A585" s="5" t="n"/>
       <c r="B585" s="5" t="n"/>
       <c r="C585" s="5" t="n"/>
@@ -18270,7 +18292,7 @@
       <c r="AA585" s="5" t="n"/>
       <c r="AB585" s="5" t="n"/>
     </row>
-    <row r="586" ht="17.4" customHeight="1" s="17">
+    <row r="586" ht="17.4" customHeight="1" s="18">
       <c r="A586" s="5" t="n"/>
       <c r="B586" s="5" t="n"/>
       <c r="C586" s="5" t="n"/>
@@ -18300,7 +18322,7 @@
       <c r="AA586" s="5" t="n"/>
       <c r="AB586" s="5" t="n"/>
     </row>
-    <row r="587" ht="17.4" customHeight="1" s="17">
+    <row r="587" ht="17.4" customHeight="1" s="18">
       <c r="A587" s="5" t="n"/>
       <c r="B587" s="5" t="n"/>
       <c r="C587" s="5" t="n"/>
@@ -18330,7 +18352,7 @@
       <c r="AA587" s="5" t="n"/>
       <c r="AB587" s="5" t="n"/>
     </row>
-    <row r="588" ht="17.4" customHeight="1" s="17">
+    <row r="588" ht="17.4" customHeight="1" s="18">
       <c r="A588" s="5" t="n"/>
       <c r="B588" s="5" t="n"/>
       <c r="C588" s="5" t="n"/>
@@ -18360,7 +18382,7 @@
       <c r="AA588" s="5" t="n"/>
       <c r="AB588" s="5" t="n"/>
     </row>
-    <row r="589" ht="17.4" customHeight="1" s="17">
+    <row r="589" ht="17.4" customHeight="1" s="18">
       <c r="A589" s="5" t="n"/>
       <c r="B589" s="5" t="n"/>
       <c r="C589" s="5" t="n"/>
@@ -18390,7 +18412,7 @@
       <c r="AA589" s="5" t="n"/>
       <c r="AB589" s="5" t="n"/>
     </row>
-    <row r="590" ht="17.4" customHeight="1" s="17">
+    <row r="590" ht="17.4" customHeight="1" s="18">
       <c r="A590" s="5" t="n"/>
       <c r="B590" s="5" t="n"/>
       <c r="C590" s="5" t="n"/>
@@ -18420,7 +18442,7 @@
       <c r="AA590" s="5" t="n"/>
       <c r="AB590" s="5" t="n"/>
     </row>
-    <row r="591" ht="17.4" customHeight="1" s="17">
+    <row r="591" ht="17.4" customHeight="1" s="18">
       <c r="A591" s="5" t="n"/>
       <c r="B591" s="5" t="n"/>
       <c r="C591" s="5" t="n"/>
@@ -18450,7 +18472,7 @@
       <c r="AA591" s="5" t="n"/>
       <c r="AB591" s="5" t="n"/>
     </row>
-    <row r="592" ht="17.4" customHeight="1" s="17">
+    <row r="592" ht="17.4" customHeight="1" s="18">
       <c r="A592" s="5" t="n"/>
       <c r="B592" s="5" t="n"/>
       <c r="C592" s="5" t="n"/>
@@ -18480,7 +18502,7 @@
       <c r="AA592" s="5" t="n"/>
       <c r="AB592" s="5" t="n"/>
     </row>
-    <row r="593" ht="17.4" customHeight="1" s="17">
+    <row r="593" ht="17.4" customHeight="1" s="18">
       <c r="A593" s="5" t="n"/>
       <c r="B593" s="5" t="n"/>
       <c r="C593" s="5" t="n"/>
@@ -18510,7 +18532,7 @@
       <c r="AA593" s="5" t="n"/>
       <c r="AB593" s="5" t="n"/>
     </row>
-    <row r="594" ht="17.4" customHeight="1" s="17">
+    <row r="594" ht="17.4" customHeight="1" s="18">
       <c r="A594" s="5" t="n"/>
       <c r="B594" s="5" t="n"/>
       <c r="C594" s="5" t="n"/>
@@ -18540,7 +18562,7 @@
       <c r="AA594" s="5" t="n"/>
       <c r="AB594" s="5" t="n"/>
     </row>
-    <row r="595" ht="17.4" customHeight="1" s="17">
+    <row r="595" ht="17.4" customHeight="1" s="18">
       <c r="A595" s="5" t="n"/>
       <c r="B595" s="5" t="n"/>
       <c r="C595" s="5" t="n"/>
@@ -18570,7 +18592,7 @@
       <c r="AA595" s="5" t="n"/>
       <c r="AB595" s="5" t="n"/>
     </row>
-    <row r="596" ht="17.4" customHeight="1" s="17">
+    <row r="596" ht="17.4" customHeight="1" s="18">
       <c r="A596" s="5" t="n"/>
       <c r="B596" s="5" t="n"/>
       <c r="C596" s="5" t="n"/>
@@ -18600,7 +18622,7 @@
       <c r="AA596" s="5" t="n"/>
       <c r="AB596" s="5" t="n"/>
     </row>
-    <row r="597" ht="17.4" customHeight="1" s="17">
+    <row r="597" ht="17.4" customHeight="1" s="18">
       <c r="A597" s="5" t="n"/>
       <c r="B597" s="5" t="n"/>
       <c r="C597" s="5" t="n"/>
@@ -18630,7 +18652,7 @@
       <c r="AA597" s="5" t="n"/>
       <c r="AB597" s="5" t="n"/>
     </row>
-    <row r="598" ht="17.4" customHeight="1" s="17">
+    <row r="598" ht="17.4" customHeight="1" s="18">
       <c r="A598" s="5" t="n"/>
       <c r="B598" s="5" t="n"/>
       <c r="C598" s="5" t="n"/>
@@ -18660,7 +18682,7 @@
       <c r="AA598" s="5" t="n"/>
       <c r="AB598" s="5" t="n"/>
     </row>
-    <row r="599" ht="17.4" customHeight="1" s="17">
+    <row r="599" ht="17.4" customHeight="1" s="18">
       <c r="A599" s="5" t="n"/>
       <c r="B599" s="5" t="n"/>
       <c r="C599" s="5" t="n"/>
@@ -18690,7 +18712,7 @@
       <c r="AA599" s="5" t="n"/>
       <c r="AB599" s="5" t="n"/>
     </row>
-    <row r="600" ht="17.4" customHeight="1" s="17">
+    <row r="600" ht="17.4" customHeight="1" s="18">
       <c r="A600" s="5" t="n"/>
       <c r="B600" s="5" t="n"/>
       <c r="C600" s="5" t="n"/>
@@ -18720,7 +18742,7 @@
       <c r="AA600" s="5" t="n"/>
       <c r="AB600" s="5" t="n"/>
     </row>
-    <row r="601" ht="17.4" customHeight="1" s="17">
+    <row r="601" ht="17.4" customHeight="1" s="18">
       <c r="A601" s="5" t="n"/>
       <c r="B601" s="5" t="n"/>
       <c r="C601" s="5" t="n"/>
@@ -18750,7 +18772,7 @@
       <c r="AA601" s="5" t="n"/>
       <c r="AB601" s="5" t="n"/>
     </row>
-    <row r="602" ht="17.4" customHeight="1" s="17">
+    <row r="602" ht="17.4" customHeight="1" s="18">
       <c r="A602" s="5" t="n"/>
       <c r="B602" s="5" t="n"/>
       <c r="C602" s="5" t="n"/>
@@ -18780,7 +18802,7 @@
       <c r="AA602" s="5" t="n"/>
       <c r="AB602" s="5" t="n"/>
     </row>
-    <row r="603" ht="17.4" customHeight="1" s="17">
+    <row r="603" ht="17.4" customHeight="1" s="18">
       <c r="A603" s="5" t="n"/>
       <c r="B603" s="5" t="n"/>
       <c r="C603" s="5" t="n"/>
@@ -18810,7 +18832,7 @@
       <c r="AA603" s="5" t="n"/>
       <c r="AB603" s="5" t="n"/>
     </row>
-    <row r="604" ht="17.4" customHeight="1" s="17">
+    <row r="604" ht="17.4" customHeight="1" s="18">
       <c r="A604" s="5" t="n"/>
       <c r="B604" s="5" t="n"/>
       <c r="C604" s="5" t="n"/>
@@ -18840,7 +18862,7 @@
       <c r="AA604" s="5" t="n"/>
       <c r="AB604" s="5" t="n"/>
     </row>
-    <row r="605" ht="17.4" customHeight="1" s="17">
+    <row r="605" ht="17.4" customHeight="1" s="18">
       <c r="A605" s="5" t="n"/>
       <c r="B605" s="5" t="n"/>
       <c r="C605" s="5" t="n"/>
@@ -18870,7 +18892,7 @@
       <c r="AA605" s="5" t="n"/>
       <c r="AB605" s="5" t="n"/>
     </row>
-    <row r="606" ht="17.4" customHeight="1" s="17">
+    <row r="606" ht="17.4" customHeight="1" s="18">
       <c r="A606" s="5" t="n"/>
       <c r="B606" s="5" t="n"/>
       <c r="C606" s="5" t="n"/>
@@ -18900,7 +18922,7 @@
       <c r="AA606" s="5" t="n"/>
       <c r="AB606" s="5" t="n"/>
     </row>
-    <row r="607" ht="17.4" customHeight="1" s="17">
+    <row r="607" ht="17.4" customHeight="1" s="18">
       <c r="A607" s="5" t="n"/>
       <c r="B607" s="5" t="n"/>
       <c r="C607" s="5" t="n"/>
@@ -18930,7 +18952,7 @@
       <c r="AA607" s="5" t="n"/>
       <c r="AB607" s="5" t="n"/>
     </row>
-    <row r="608" ht="17.4" customHeight="1" s="17">
+    <row r="608" ht="17.4" customHeight="1" s="18">
       <c r="A608" s="5" t="n"/>
       <c r="B608" s="5" t="n"/>
       <c r="C608" s="5" t="n"/>
@@ -18960,7 +18982,7 @@
       <c r="AA608" s="5" t="n"/>
       <c r="AB608" s="5" t="n"/>
     </row>
-    <row r="609" ht="17.4" customHeight="1" s="17">
+    <row r="609" ht="17.4" customHeight="1" s="18">
       <c r="A609" s="5" t="n"/>
       <c r="B609" s="5" t="n"/>
       <c r="C609" s="5" t="n"/>
@@ -18990,7 +19012,7 @@
       <c r="AA609" s="5" t="n"/>
       <c r="AB609" s="5" t="n"/>
     </row>
-    <row r="610" ht="17.4" customHeight="1" s="17">
+    <row r="610" ht="17.4" customHeight="1" s="18">
       <c r="A610" s="5" t="n"/>
       <c r="B610" s="5" t="n"/>
       <c r="C610" s="5" t="n"/>
@@ -19020,7 +19042,7 @@
       <c r="AA610" s="5" t="n"/>
       <c r="AB610" s="5" t="n"/>
     </row>
-    <row r="611" ht="17.4" customHeight="1" s="17">
+    <row r="611" ht="17.4" customHeight="1" s="18">
       <c r="A611" s="5" t="n"/>
       <c r="B611" s="5" t="n"/>
       <c r="C611" s="5" t="n"/>
@@ -19050,7 +19072,7 @@
       <c r="AA611" s="5" t="n"/>
       <c r="AB611" s="5" t="n"/>
     </row>
-    <row r="612" ht="17.4" customHeight="1" s="17">
+    <row r="612" ht="17.4" customHeight="1" s="18">
       <c r="A612" s="5" t="n"/>
       <c r="B612" s="5" t="n"/>
       <c r="C612" s="5" t="n"/>
@@ -19080,7 +19102,7 @@
       <c r="AA612" s="5" t="n"/>
       <c r="AB612" s="5" t="n"/>
     </row>
-    <row r="613" ht="17.4" customHeight="1" s="17">
+    <row r="613" ht="17.4" customHeight="1" s="18">
       <c r="A613" s="5" t="n"/>
       <c r="B613" s="5" t="n"/>
       <c r="C613" s="5" t="n"/>
@@ -19110,7 +19132,7 @@
       <c r="AA613" s="5" t="n"/>
       <c r="AB613" s="5" t="n"/>
     </row>
-    <row r="614" ht="17.4" customHeight="1" s="17">
+    <row r="614" ht="17.4" customHeight="1" s="18">
       <c r="A614" s="5" t="n"/>
       <c r="B614" s="5" t="n"/>
       <c r="C614" s="5" t="n"/>
@@ -19140,7 +19162,7 @@
       <c r="AA614" s="5" t="n"/>
       <c r="AB614" s="5" t="n"/>
     </row>
-    <row r="615" ht="17.4" customHeight="1" s="17">
+    <row r="615" ht="17.4" customHeight="1" s="18">
       <c r="A615" s="5" t="n"/>
       <c r="B615" s="5" t="n"/>
       <c r="C615" s="5" t="n"/>
@@ -19170,7 +19192,7 @@
       <c r="AA615" s="5" t="n"/>
       <c r="AB615" s="5" t="n"/>
     </row>
-    <row r="616" ht="17.4" customHeight="1" s="17">
+    <row r="616" ht="17.4" customHeight="1" s="18">
       <c r="A616" s="5" t="n"/>
       <c r="B616" s="5" t="n"/>
       <c r="C616" s="5" t="n"/>
@@ -19200,7 +19222,7 @@
       <c r="AA616" s="5" t="n"/>
       <c r="AB616" s="5" t="n"/>
     </row>
-    <row r="617" ht="17.4" customHeight="1" s="17">
+    <row r="617" ht="17.4" customHeight="1" s="18">
       <c r="A617" s="5" t="n"/>
       <c r="B617" s="5" t="n"/>
       <c r="C617" s="5" t="n"/>
@@ -19230,7 +19252,7 @@
       <c r="AA617" s="5" t="n"/>
       <c r="AB617" s="5" t="n"/>
     </row>
-    <row r="618" ht="17.4" customHeight="1" s="17">
+    <row r="618" ht="17.4" customHeight="1" s="18">
       <c r="A618" s="5" t="n"/>
       <c r="B618" s="5" t="n"/>
       <c r="C618" s="5" t="n"/>
@@ -19260,7 +19282,7 @@
       <c r="AA618" s="5" t="n"/>
       <c r="AB618" s="5" t="n"/>
     </row>
-    <row r="619" ht="17.4" customHeight="1" s="17">
+    <row r="619" ht="17.4" customHeight="1" s="18">
       <c r="A619" s="5" t="n"/>
       <c r="B619" s="5" t="n"/>
       <c r="C619" s="5" t="n"/>
@@ -19290,7 +19312,7 @@
       <c r="AA619" s="5" t="n"/>
       <c r="AB619" s="5" t="n"/>
     </row>
-    <row r="620" ht="17.4" customHeight="1" s="17">
+    <row r="620" ht="17.4" customHeight="1" s="18">
       <c r="A620" s="5" t="n"/>
       <c r="B620" s="5" t="n"/>
       <c r="C620" s="5" t="n"/>
@@ -19320,7 +19342,7 @@
       <c r="AA620" s="5" t="n"/>
       <c r="AB620" s="5" t="n"/>
     </row>
-    <row r="621" ht="17.4" customHeight="1" s="17">
+    <row r="621" ht="17.4" customHeight="1" s="18">
       <c r="A621" s="5" t="n"/>
       <c r="B621" s="5" t="n"/>
       <c r="C621" s="5" t="n"/>
@@ -19350,7 +19372,7 @@
       <c r="AA621" s="5" t="n"/>
       <c r="AB621" s="5" t="n"/>
     </row>
-    <row r="622" ht="17.4" customHeight="1" s="17">
+    <row r="622" ht="17.4" customHeight="1" s="18">
       <c r="A622" s="5" t="n"/>
       <c r="B622" s="5" t="n"/>
       <c r="C622" s="5" t="n"/>
@@ -19380,7 +19402,7 @@
       <c r="AA622" s="5" t="n"/>
       <c r="AB622" s="5" t="n"/>
     </row>
-    <row r="623" ht="17.4" customHeight="1" s="17">
+    <row r="623" ht="17.4" customHeight="1" s="18">
       <c r="A623" s="5" t="n"/>
       <c r="B623" s="5" t="n"/>
       <c r="C623" s="5" t="n"/>
@@ -19410,7 +19432,7 @@
       <c r="AA623" s="5" t="n"/>
       <c r="AB623" s="5" t="n"/>
     </row>
-    <row r="624" ht="17.4" customHeight="1" s="17">
+    <row r="624" ht="17.4" customHeight="1" s="18">
       <c r="A624" s="5" t="n"/>
       <c r="B624" s="5" t="n"/>
       <c r="C624" s="5" t="n"/>
@@ -19440,7 +19462,7 @@
       <c r="AA624" s="5" t="n"/>
       <c r="AB624" s="5" t="n"/>
     </row>
-    <row r="625" ht="17.4" customHeight="1" s="17">
+    <row r="625" ht="17.4" customHeight="1" s="18">
       <c r="A625" s="5" t="n"/>
       <c r="B625" s="5" t="n"/>
       <c r="C625" s="5" t="n"/>
@@ -19470,7 +19492,7 @@
       <c r="AA625" s="5" t="n"/>
       <c r="AB625" s="5" t="n"/>
     </row>
-    <row r="626" ht="17.4" customHeight="1" s="17">
+    <row r="626" ht="17.4" customHeight="1" s="18">
       <c r="A626" s="5" t="n"/>
       <c r="B626" s="5" t="n"/>
       <c r="C626" s="5" t="n"/>
@@ -19500,7 +19522,7 @@
       <c r="AA626" s="5" t="n"/>
       <c r="AB626" s="5" t="n"/>
     </row>
-    <row r="627" ht="17.4" customHeight="1" s="17">
+    <row r="627" ht="17.4" customHeight="1" s="18">
       <c r="A627" s="5" t="n"/>
       <c r="B627" s="5" t="n"/>
       <c r="C627" s="5" t="n"/>
@@ -19530,7 +19552,7 @@
       <c r="AA627" s="5" t="n"/>
       <c r="AB627" s="5" t="n"/>
     </row>
-    <row r="628" ht="17.4" customHeight="1" s="17">
+    <row r="628" ht="17.4" customHeight="1" s="18">
       <c r="A628" s="5" t="n"/>
       <c r="B628" s="5" t="n"/>
       <c r="C628" s="5" t="n"/>
@@ -19560,7 +19582,7 @@
       <c r="AA628" s="5" t="n"/>
       <c r="AB628" s="5" t="n"/>
     </row>
-    <row r="629" ht="17.4" customHeight="1" s="17">
+    <row r="629" ht="17.4" customHeight="1" s="18">
       <c r="A629" s="5" t="n"/>
       <c r="B629" s="5" t="n"/>
       <c r="C629" s="5" t="n"/>
@@ -19590,7 +19612,7 @@
       <c r="AA629" s="5" t="n"/>
       <c r="AB629" s="5" t="n"/>
     </row>
-    <row r="630" ht="17.4" customHeight="1" s="17">
+    <row r="630" ht="17.4" customHeight="1" s="18">
       <c r="A630" s="5" t="n"/>
       <c r="B630" s="5" t="n"/>
       <c r="C630" s="5" t="n"/>
@@ -19620,7 +19642,7 @@
       <c r="AA630" s="5" t="n"/>
       <c r="AB630" s="5" t="n"/>
     </row>
-    <row r="631" ht="17.4" customHeight="1" s="17">
+    <row r="631" ht="17.4" customHeight="1" s="18">
       <c r="A631" s="5" t="n"/>
       <c r="B631" s="5" t="n"/>
       <c r="C631" s="5" t="n"/>
@@ -19650,7 +19672,7 @@
       <c r="AA631" s="5" t="n"/>
       <c r="AB631" s="5" t="n"/>
     </row>
-    <row r="632" ht="17.4" customHeight="1" s="17">
+    <row r="632" ht="17.4" customHeight="1" s="18">
       <c r="A632" s="5" t="n"/>
       <c r="B632" s="5" t="n"/>
       <c r="C632" s="5" t="n"/>
@@ -19680,7 +19702,7 @@
       <c r="AA632" s="5" t="n"/>
       <c r="AB632" s="5" t="n"/>
     </row>
-    <row r="633" ht="17.4" customHeight="1" s="17">
+    <row r="633" ht="17.4" customHeight="1" s="18">
       <c r="A633" s="5" t="n"/>
       <c r="B633" s="5" t="n"/>
       <c r="C633" s="5" t="n"/>
@@ -19710,7 +19732,7 @@
       <c r="AA633" s="5" t="n"/>
       <c r="AB633" s="5" t="n"/>
     </row>
-    <row r="634" ht="17.4" customHeight="1" s="17">
+    <row r="634" ht="17.4" customHeight="1" s="18">
       <c r="A634" s="5" t="n"/>
       <c r="B634" s="5" t="n"/>
       <c r="C634" s="5" t="n"/>
@@ -19740,7 +19762,7 @@
       <c r="AA634" s="5" t="n"/>
       <c r="AB634" s="5" t="n"/>
     </row>
-    <row r="635" ht="17.4" customHeight="1" s="17">
+    <row r="635" ht="17.4" customHeight="1" s="18">
       <c r="A635" s="5" t="n"/>
       <c r="B635" s="5" t="n"/>
       <c r="C635" s="5" t="n"/>
@@ -19770,7 +19792,7 @@
       <c r="AA635" s="5" t="n"/>
       <c r="AB635" s="5" t="n"/>
     </row>
-    <row r="636" ht="17.4" customHeight="1" s="17">
+    <row r="636" ht="17.4" customHeight="1" s="18">
       <c r="A636" s="5" t="n"/>
       <c r="B636" s="5" t="n"/>
       <c r="C636" s="5" t="n"/>
@@ -19800,7 +19822,7 @@
       <c r="AA636" s="5" t="n"/>
       <c r="AB636" s="5" t="n"/>
     </row>
-    <row r="637" ht="17.4" customHeight="1" s="17">
+    <row r="637" ht="17.4" customHeight="1" s="18">
       <c r="A637" s="5" t="n"/>
       <c r="B637" s="5" t="n"/>
       <c r="C637" s="5" t="n"/>
@@ -19830,7 +19852,7 @@
       <c r="AA637" s="5" t="n"/>
       <c r="AB637" s="5" t="n"/>
     </row>
-    <row r="638" ht="17.4" customHeight="1" s="17">
+    <row r="638" ht="17.4" customHeight="1" s="18">
       <c r="A638" s="5" t="n"/>
       <c r="B638" s="5" t="n"/>
       <c r="C638" s="5" t="n"/>
@@ -19860,7 +19882,7 @@
       <c r="AA638" s="5" t="n"/>
       <c r="AB638" s="5" t="n"/>
     </row>
-    <row r="639" ht="17.4" customHeight="1" s="17">
+    <row r="639" ht="17.4" customHeight="1" s="18">
       <c r="A639" s="5" t="n"/>
       <c r="B639" s="5" t="n"/>
       <c r="C639" s="5" t="n"/>
@@ -19890,7 +19912,7 @@
       <c r="AA639" s="5" t="n"/>
       <c r="AB639" s="5" t="n"/>
     </row>
-    <row r="640" ht="17.4" customHeight="1" s="17">
+    <row r="640" ht="17.4" customHeight="1" s="18">
       <c r="A640" s="5" t="n"/>
       <c r="B640" s="5" t="n"/>
       <c r="C640" s="5" t="n"/>
@@ -19920,7 +19942,7 @@
       <c r="AA640" s="5" t="n"/>
       <c r="AB640" s="5" t="n"/>
     </row>
-    <row r="641" ht="17.4" customHeight="1" s="17">
+    <row r="641" ht="17.4" customHeight="1" s="18">
       <c r="A641" s="5" t="n"/>
       <c r="B641" s="5" t="n"/>
       <c r="C641" s="5" t="n"/>
@@ -19950,7 +19972,7 @@
       <c r="AA641" s="5" t="n"/>
       <c r="AB641" s="5" t="n"/>
     </row>
-    <row r="642" ht="17.4" customHeight="1" s="17">
+    <row r="642" ht="17.4" customHeight="1" s="18">
       <c r="A642" s="5" t="n"/>
       <c r="B642" s="5" t="n"/>
       <c r="C642" s="5" t="n"/>
@@ -19980,7 +20002,7 @@
       <c r="AA642" s="5" t="n"/>
       <c r="AB642" s="5" t="n"/>
     </row>
-    <row r="643" ht="17.4" customHeight="1" s="17">
+    <row r="643" ht="17.4" customHeight="1" s="18">
       <c r="A643" s="5" t="n"/>
       <c r="B643" s="5" t="n"/>
       <c r="C643" s="5" t="n"/>
@@ -20010,7 +20032,7 @@
       <c r="AA643" s="5" t="n"/>
       <c r="AB643" s="5" t="n"/>
     </row>
-    <row r="644" ht="17.4" customHeight="1" s="17">
+    <row r="644" ht="17.4" customHeight="1" s="18">
       <c r="A644" s="5" t="n"/>
       <c r="B644" s="5" t="n"/>
       <c r="C644" s="5" t="n"/>
@@ -20040,7 +20062,7 @@
       <c r="AA644" s="5" t="n"/>
       <c r="AB644" s="5" t="n"/>
     </row>
-    <row r="645" ht="17.4" customHeight="1" s="17">
+    <row r="645" ht="17.4" customHeight="1" s="18">
       <c r="A645" s="5" t="n"/>
       <c r="B645" s="5" t="n"/>
       <c r="C645" s="5" t="n"/>
@@ -20070,7 +20092,7 @@
       <c r="AA645" s="5" t="n"/>
       <c r="AB645" s="5" t="n"/>
     </row>
-    <row r="646" ht="17.4" customHeight="1" s="17">
+    <row r="646" ht="17.4" customHeight="1" s="18">
       <c r="A646" s="5" t="n"/>
       <c r="B646" s="5" t="n"/>
       <c r="C646" s="5" t="n"/>
@@ -20100,7 +20122,7 @@
       <c r="AA646" s="5" t="n"/>
       <c r="AB646" s="5" t="n"/>
     </row>
-    <row r="647" ht="17.4" customHeight="1" s="17">
+    <row r="647" ht="17.4" customHeight="1" s="18">
       <c r="A647" s="5" t="n"/>
       <c r="B647" s="5" t="n"/>
       <c r="C647" s="5" t="n"/>
@@ -20130,7 +20152,7 @@
       <c r="AA647" s="5" t="n"/>
       <c r="AB647" s="5" t="n"/>
     </row>
-    <row r="648" ht="17.4" customHeight="1" s="17">
+    <row r="648" ht="17.4" customHeight="1" s="18">
       <c r="A648" s="5" t="n"/>
       <c r="B648" s="5" t="n"/>
       <c r="C648" s="5" t="n"/>
@@ -20160,7 +20182,7 @@
       <c r="AA648" s="5" t="n"/>
       <c r="AB648" s="5" t="n"/>
     </row>
-    <row r="649" ht="17.4" customHeight="1" s="17">
+    <row r="649" ht="17.4" customHeight="1" s="18">
       <c r="A649" s="5" t="n"/>
       <c r="B649" s="5" t="n"/>
       <c r="C649" s="5" t="n"/>
@@ -20190,7 +20212,7 @@
       <c r="AA649" s="5" t="n"/>
       <c r="AB649" s="5" t="n"/>
     </row>
-    <row r="650" ht="17.4" customHeight="1" s="17">
+    <row r="650" ht="17.4" customHeight="1" s="18">
       <c r="A650" s="5" t="n"/>
       <c r="B650" s="5" t="n"/>
       <c r="C650" s="5" t="n"/>
@@ -20220,7 +20242,7 @@
       <c r="AA650" s="5" t="n"/>
       <c r="AB650" s="5" t="n"/>
     </row>
-    <row r="651" ht="17.4" customHeight="1" s="17">
+    <row r="651" ht="17.4" customHeight="1" s="18">
       <c r="A651" s="5" t="n"/>
       <c r="B651" s="5" t="n"/>
       <c r="C651" s="5" t="n"/>
@@ -20250,7 +20272,7 @@
       <c r="AA651" s="5" t="n"/>
       <c r="AB651" s="5" t="n"/>
     </row>
-    <row r="652" ht="17.4" customHeight="1" s="17">
+    <row r="652" ht="17.4" customHeight="1" s="18">
       <c r="A652" s="5" t="n"/>
       <c r="B652" s="5" t="n"/>
       <c r="C652" s="5" t="n"/>
@@ -20280,7 +20302,7 @@
       <c r="AA652" s="5" t="n"/>
       <c r="AB652" s="5" t="n"/>
     </row>
-    <row r="653" ht="17.4" customHeight="1" s="17">
+    <row r="653" ht="17.4" customHeight="1" s="18">
       <c r="A653" s="5" t="n"/>
       <c r="B653" s="5" t="n"/>
       <c r="C653" s="5" t="n"/>
@@ -20310,7 +20332,7 @@
       <c r="AA653" s="5" t="n"/>
       <c r="AB653" s="5" t="n"/>
     </row>
-    <row r="654" ht="17.4" customHeight="1" s="17">
+    <row r="654" ht="17.4" customHeight="1" s="18">
       <c r="A654" s="5" t="n"/>
       <c r="B654" s="5" t="n"/>
       <c r="C654" s="5" t="n"/>
@@ -20340,7 +20362,7 @@
       <c r="AA654" s="5" t="n"/>
       <c r="AB654" s="5" t="n"/>
     </row>
-    <row r="655" ht="17.4" customHeight="1" s="17">
+    <row r="655" ht="17.4" customHeight="1" s="18">
       <c r="A655" s="5" t="n"/>
       <c r="B655" s="5" t="n"/>
       <c r="C655" s="5" t="n"/>
@@ -20370,7 +20392,7 @@
       <c r="AA655" s="5" t="n"/>
       <c r="AB655" s="5" t="n"/>
     </row>
-    <row r="656" ht="17.4" customHeight="1" s="17">
+    <row r="656" ht="17.4" customHeight="1" s="18">
       <c r="A656" s="5" t="n"/>
       <c r="B656" s="5" t="n"/>
       <c r="C656" s="5" t="n"/>
@@ -20400,7 +20422,7 @@
       <c r="AA656" s="5" t="n"/>
       <c r="AB656" s="5" t="n"/>
     </row>
-    <row r="657" ht="17.4" customHeight="1" s="17">
+    <row r="657" ht="17.4" customHeight="1" s="18">
       <c r="A657" s="5" t="n"/>
       <c r="B657" s="5" t="n"/>
       <c r="C657" s="5" t="n"/>
@@ -20430,7 +20452,7 @@
       <c r="AA657" s="5" t="n"/>
       <c r="AB657" s="5" t="n"/>
     </row>
-    <row r="658" ht="17.4" customHeight="1" s="17">
+    <row r="658" ht="17.4" customHeight="1" s="18">
       <c r="A658" s="5" t="n"/>
       <c r="B658" s="5" t="n"/>
       <c r="C658" s="5" t="n"/>
@@ -20460,7 +20482,7 @@
       <c r="AA658" s="5" t="n"/>
       <c r="AB658" s="5" t="n"/>
     </row>
-    <row r="659" ht="17.4" customHeight="1" s="17">
+    <row r="659" ht="17.4" customHeight="1" s="18">
       <c r="A659" s="5" t="n"/>
       <c r="B659" s="5" t="n"/>
       <c r="C659" s="5" t="n"/>
@@ -20490,7 +20512,7 @@
       <c r="AA659" s="5" t="n"/>
       <c r="AB659" s="5" t="n"/>
     </row>
-    <row r="660" ht="17.4" customHeight="1" s="17">
+    <row r="660" ht="17.4" customHeight="1" s="18">
       <c r="A660" s="5" t="n"/>
       <c r="B660" s="5" t="n"/>
       <c r="C660" s="5" t="n"/>
@@ -20520,7 +20542,7 @@
       <c r="AA660" s="5" t="n"/>
       <c r="AB660" s="5" t="n"/>
     </row>
-    <row r="661" ht="17.4" customHeight="1" s="17">
+    <row r="661" ht="17.4" customHeight="1" s="18">
       <c r="A661" s="5" t="n"/>
       <c r="B661" s="5" t="n"/>
       <c r="C661" s="5" t="n"/>
@@ -20550,7 +20572,7 @@
       <c r="AA661" s="5" t="n"/>
       <c r="AB661" s="5" t="n"/>
     </row>
-    <row r="662" ht="17.4" customHeight="1" s="17">
+    <row r="662" ht="17.4" customHeight="1" s="18">
       <c r="A662" s="5" t="n"/>
       <c r="B662" s="5" t="n"/>
       <c r="C662" s="5" t="n"/>
@@ -20580,7 +20602,7 @@
       <c r="AA662" s="5" t="n"/>
       <c r="AB662" s="5" t="n"/>
     </row>
-    <row r="663" ht="17.4" customHeight="1" s="17">
+    <row r="663" ht="17.4" customHeight="1" s="18">
       <c r="A663" s="5" t="n"/>
       <c r="B663" s="5" t="n"/>
       <c r="C663" s="5" t="n"/>
@@ -20610,7 +20632,7 @@
       <c r="AA663" s="5" t="n"/>
       <c r="AB663" s="5" t="n"/>
     </row>
-    <row r="664" ht="17.4" customHeight="1" s="17">
+    <row r="664" ht="17.4" customHeight="1" s="18">
       <c r="A664" s="5" t="n"/>
       <c r="B664" s="5" t="n"/>
       <c r="C664" s="5" t="n"/>
@@ -20640,7 +20662,7 @@
       <c r="AA664" s="5" t="n"/>
       <c r="AB664" s="5" t="n"/>
     </row>
-    <row r="665" ht="17.4" customHeight="1" s="17">
+    <row r="665" ht="17.4" customHeight="1" s="18">
       <c r="A665" s="5" t="n"/>
       <c r="B665" s="5" t="n"/>
       <c r="C665" s="5" t="n"/>
@@ -20670,7 +20692,7 @@
       <c r="AA665" s="5" t="n"/>
       <c r="AB665" s="5" t="n"/>
     </row>
-    <row r="666" ht="17.4" customHeight="1" s="17">
+    <row r="666" ht="17.4" customHeight="1" s="18">
       <c r="A666" s="5" t="n"/>
       <c r="B666" s="5" t="n"/>
       <c r="C666" s="5" t="n"/>
@@ -20700,7 +20722,7 @@
       <c r="AA666" s="5" t="n"/>
       <c r="AB666" s="5" t="n"/>
     </row>
-    <row r="667" ht="17.4" customHeight="1" s="17">
+    <row r="667" ht="17.4" customHeight="1" s="18">
       <c r="A667" s="5" t="n"/>
       <c r="B667" s="5" t="n"/>
       <c r="C667" s="5" t="n"/>
@@ -20730,7 +20752,7 @@
       <c r="AA667" s="5" t="n"/>
       <c r="AB667" s="5" t="n"/>
     </row>
-    <row r="668" ht="17.4" customHeight="1" s="17">
+    <row r="668" ht="17.4" customHeight="1" s="18">
       <c r="A668" s="5" t="n"/>
       <c r="B668" s="5" t="n"/>
       <c r="C668" s="5" t="n"/>
@@ -20760,7 +20782,7 @@
       <c r="AA668" s="5" t="n"/>
       <c r="AB668" s="5" t="n"/>
     </row>
-    <row r="669" ht="17.4" customHeight="1" s="17">
+    <row r="669" ht="17.4" customHeight="1" s="18">
       <c r="A669" s="5" t="n"/>
       <c r="B669" s="5" t="n"/>
       <c r="C669" s="5" t="n"/>
@@ -20790,7 +20812,7 @@
       <c r="AA669" s="5" t="n"/>
       <c r="AB669" s="5" t="n"/>
     </row>
-    <row r="670" ht="17.4" customHeight="1" s="17">
+    <row r="670" ht="17.4" customHeight="1" s="18">
       <c r="A670" s="5" t="n"/>
       <c r="B670" s="5" t="n"/>
       <c r="C670" s="5" t="n"/>
@@ -20820,7 +20842,7 @@
       <c r="AA670" s="5" t="n"/>
       <c r="AB670" s="5" t="n"/>
     </row>
-    <row r="671" ht="17.4" customHeight="1" s="17">
+    <row r="671" ht="17.4" customHeight="1" s="18">
       <c r="A671" s="5" t="n"/>
       <c r="B671" s="5" t="n"/>
       <c r="C671" s="5" t="n"/>
@@ -20850,7 +20872,7 @@
       <c r="AA671" s="5" t="n"/>
       <c r="AB671" s="5" t="n"/>
     </row>
-    <row r="672" ht="17.4" customHeight="1" s="17">
+    <row r="672" ht="17.4" customHeight="1" s="18">
       <c r="A672" s="5" t="n"/>
       <c r="B672" s="5" t="n"/>
       <c r="C672" s="5" t="n"/>
@@ -20880,7 +20902,7 @@
       <c r="AA672" s="5" t="n"/>
       <c r="AB672" s="5" t="n"/>
     </row>
-    <row r="673" ht="17.4" customHeight="1" s="17">
+    <row r="673" ht="17.4" customHeight="1" s="18">
       <c r="A673" s="5" t="n"/>
       <c r="B673" s="5" t="n"/>
       <c r="C673" s="5" t="n"/>
@@ -20910,7 +20932,7 @@
       <c r="AA673" s="5" t="n"/>
       <c r="AB673" s="5" t="n"/>
     </row>
-    <row r="674" ht="17.4" customHeight="1" s="17">
+    <row r="674" ht="17.4" customHeight="1" s="18">
       <c r="A674" s="5" t="n"/>
       <c r="B674" s="5" t="n"/>
       <c r="C674" s="5" t="n"/>
@@ -20940,7 +20962,7 @@
       <c r="AA674" s="5" t="n"/>
       <c r="AB674" s="5" t="n"/>
     </row>
-    <row r="675" ht="17.4" customHeight="1" s="17">
+    <row r="675" ht="17.4" customHeight="1" s="18">
       <c r="A675" s="5" t="n"/>
       <c r="B675" s="5" t="n"/>
       <c r="C675" s="5" t="n"/>
@@ -20970,7 +20992,7 @@
       <c r="AA675" s="5" t="n"/>
       <c r="AB675" s="5" t="n"/>
     </row>
-    <row r="676" ht="17.4" customHeight="1" s="17">
+    <row r="676" ht="17.4" customHeight="1" s="18">
       <c r="A676" s="5" t="n"/>
       <c r="B676" s="5" t="n"/>
       <c r="C676" s="5" t="n"/>
@@ -21000,7 +21022,7 @@
       <c r="AA676" s="5" t="n"/>
       <c r="AB676" s="5" t="n"/>
     </row>
-    <row r="677" ht="17.4" customHeight="1" s="17">
+    <row r="677" ht="17.4" customHeight="1" s="18">
       <c r="A677" s="5" t="n"/>
       <c r="B677" s="5" t="n"/>
       <c r="C677" s="5" t="n"/>
@@ -21030,7 +21052,7 @@
       <c r="AA677" s="5" t="n"/>
       <c r="AB677" s="5" t="n"/>
     </row>
-    <row r="678" ht="17.4" customHeight="1" s="17">
+    <row r="678" ht="17.4" customHeight="1" s="18">
       <c r="A678" s="5" t="n"/>
       <c r="B678" s="5" t="n"/>
       <c r="C678" s="5" t="n"/>
@@ -21060,7 +21082,7 @@
       <c r="AA678" s="5" t="n"/>
       <c r="AB678" s="5" t="n"/>
     </row>
-    <row r="679" ht="17.4" customHeight="1" s="17">
+    <row r="679" ht="17.4" customHeight="1" s="18">
       <c r="A679" s="5" t="n"/>
       <c r="B679" s="5" t="n"/>
       <c r="C679" s="5" t="n"/>
@@ -21090,7 +21112,7 @@
       <c r="AA679" s="5" t="n"/>
       <c r="AB679" s="5" t="n"/>
     </row>
-    <row r="680" ht="17.4" customHeight="1" s="17">
+    <row r="680" ht="17.4" customHeight="1" s="18">
       <c r="A680" s="5" t="n"/>
       <c r="B680" s="5" t="n"/>
       <c r="C680" s="5" t="n"/>
@@ -21120,7 +21142,7 @@
       <c r="AA680" s="5" t="n"/>
       <c r="AB680" s="5" t="n"/>
     </row>
-    <row r="681" ht="17.4" customHeight="1" s="17">
+    <row r="681" ht="17.4" customHeight="1" s="18">
       <c r="A681" s="5" t="n"/>
       <c r="B681" s="5" t="n"/>
       <c r="C681" s="5" t="n"/>
@@ -21150,7 +21172,7 @@
       <c r="AA681" s="5" t="n"/>
       <c r="AB681" s="5" t="n"/>
     </row>
-    <row r="682" ht="17.4" customHeight="1" s="17">
+    <row r="682" ht="17.4" customHeight="1" s="18">
       <c r="A682" s="5" t="n"/>
       <c r="B682" s="5" t="n"/>
       <c r="C682" s="5" t="n"/>
@@ -21180,7 +21202,7 @@
       <c r="AA682" s="5" t="n"/>
       <c r="AB682" s="5" t="n"/>
     </row>
-    <row r="683" ht="17.4" customHeight="1" s="17">
+    <row r="683" ht="17.4" customHeight="1" s="18">
       <c r="A683" s="5" t="n"/>
       <c r="B683" s="5" t="n"/>
       <c r="C683" s="5" t="n"/>
@@ -21210,7 +21232,7 @@
       <c r="AA683" s="5" t="n"/>
       <c r="AB683" s="5" t="n"/>
     </row>
-    <row r="684" ht="17.4" customHeight="1" s="17">
+    <row r="684" ht="17.4" customHeight="1" s="18">
       <c r="A684" s="5" t="n"/>
       <c r="B684" s="5" t="n"/>
       <c r="C684" s="5" t="n"/>
@@ -21240,7 +21262,7 @@
       <c r="AA684" s="5" t="n"/>
       <c r="AB684" s="5" t="n"/>
     </row>
-    <row r="685" ht="17.4" customHeight="1" s="17">
+    <row r="685" ht="17.4" customHeight="1" s="18">
       <c r="A685" s="5" t="n"/>
       <c r="B685" s="5" t="n"/>
       <c r="C685" s="5" t="n"/>
@@ -21270,7 +21292,7 @@
       <c r="AA685" s="5" t="n"/>
       <c r="AB685" s="5" t="n"/>
     </row>
-    <row r="686" ht="17.4" customHeight="1" s="17">
+    <row r="686" ht="17.4" customHeight="1" s="18">
       <c r="A686" s="5" t="n"/>
       <c r="B686" s="5" t="n"/>
       <c r="C686" s="5" t="n"/>
@@ -21300,7 +21322,7 @@
       <c r="AA686" s="5" t="n"/>
       <c r="AB686" s="5" t="n"/>
     </row>
-    <row r="687" ht="17.4" customHeight="1" s="17">
+    <row r="687" ht="17.4" customHeight="1" s="18">
       <c r="A687" s="5" t="n"/>
       <c r="B687" s="5" t="n"/>
       <c r="C687" s="5" t="n"/>
@@ -21330,7 +21352,7 @@
       <c r="AA687" s="5" t="n"/>
       <c r="AB687" s="5" t="n"/>
     </row>
-    <row r="688" ht="17.4" customHeight="1" s="17">
+    <row r="688" ht="17.4" customHeight="1" s="18">
       <c r="A688" s="5" t="n"/>
       <c r="B688" s="5" t="n"/>
       <c r="C688" s="5" t="n"/>
@@ -21360,7 +21382,7 @@
       <c r="AA688" s="5" t="n"/>
       <c r="AB688" s="5" t="n"/>
     </row>
-    <row r="689" ht="17.4" customHeight="1" s="17">
+    <row r="689" ht="17.4" customHeight="1" s="18">
       <c r="A689" s="5" t="n"/>
       <c r="B689" s="5" t="n"/>
       <c r="C689" s="5" t="n"/>
@@ -21390,7 +21412,7 @@
       <c r="AA689" s="5" t="n"/>
       <c r="AB689" s="5" t="n"/>
     </row>
-    <row r="690" ht="17.4" customHeight="1" s="17">
+    <row r="690" ht="17.4" customHeight="1" s="18">
       <c r="A690" s="5" t="n"/>
       <c r="B690" s="5" t="n"/>
       <c r="C690" s="5" t="n"/>
@@ -21420,7 +21442,7 @@
       <c r="AA690" s="5" t="n"/>
       <c r="AB690" s="5" t="n"/>
     </row>
-    <row r="691" ht="17.4" customHeight="1" s="17">
+    <row r="691" ht="17.4" customHeight="1" s="18">
       <c r="A691" s="5" t="n"/>
       <c r="B691" s="5" t="n"/>
       <c r="C691" s="5" t="n"/>
@@ -21450,7 +21472,7 @@
       <c r="AA691" s="5" t="n"/>
       <c r="AB691" s="5" t="n"/>
     </row>
-    <row r="692" ht="17.4" customHeight="1" s="17">
+    <row r="692" ht="17.4" customHeight="1" s="18">
       <c r="A692" s="5" t="n"/>
       <c r="B692" s="5" t="n"/>
       <c r="C692" s="5" t="n"/>
@@ -21480,7 +21502,7 @@
       <c r="AA692" s="5" t="n"/>
       <c r="AB692" s="5" t="n"/>
     </row>
-    <row r="693" ht="17.4" customHeight="1" s="17">
+    <row r="693" ht="17.4" customHeight="1" s="18">
       <c r="A693" s="5" t="n"/>
       <c r="B693" s="5" t="n"/>
       <c r="C693" s="5" t="n"/>
@@ -21510,7 +21532,7 @@
       <c r="AA693" s="5" t="n"/>
       <c r="AB693" s="5" t="n"/>
     </row>
-    <row r="694" ht="17.4" customHeight="1" s="17">
+    <row r="694" ht="17.4" customHeight="1" s="18">
       <c r="A694" s="5" t="n"/>
       <c r="B694" s="5" t="n"/>
       <c r="C694" s="5" t="n"/>
@@ -21540,7 +21562,7 @@
       <c r="AA694" s="5" t="n"/>
       <c r="AB694" s="5" t="n"/>
     </row>
-    <row r="695" ht="17.4" customHeight="1" s="17">
+    <row r="695" ht="17.4" customHeight="1" s="18">
       <c r="A695" s="5" t="n"/>
       <c r="B695" s="5" t="n"/>
       <c r="C695" s="5" t="n"/>
@@ -21570,7 +21592,7 @@
       <c r="AA695" s="5" t="n"/>
       <c r="AB695" s="5" t="n"/>
     </row>
-    <row r="696" ht="17.4" customHeight="1" s="17">
+    <row r="696" ht="17.4" customHeight="1" s="18">
       <c r="A696" s="5" t="n"/>
       <c r="B696" s="5" t="n"/>
       <c r="C696" s="5" t="n"/>
@@ -21600,7 +21622,7 @@
       <c r="AA696" s="5" t="n"/>
       <c r="AB696" s="5" t="n"/>
     </row>
-    <row r="697" ht="17.4" customHeight="1" s="17">
+    <row r="697" ht="17.4" customHeight="1" s="18">
       <c r="A697" s="5" t="n"/>
       <c r="B697" s="5" t="n"/>
       <c r="C697" s="5" t="n"/>
@@ -21630,7 +21652,7 @@
       <c r="AA697" s="5" t="n"/>
       <c r="AB697" s="5" t="n"/>
     </row>
-    <row r="698" ht="17.4" customHeight="1" s="17">
+    <row r="698" ht="17.4" customHeight="1" s="18">
       <c r="A698" s="5" t="n"/>
       <c r="B698" s="5" t="n"/>
       <c r="C698" s="5" t="n"/>
@@ -21660,7 +21682,7 @@
       <c r="AA698" s="5" t="n"/>
       <c r="AB698" s="5" t="n"/>
     </row>
-    <row r="699" ht="17.4" customHeight="1" s="17">
+    <row r="699" ht="17.4" customHeight="1" s="18">
       <c r="A699" s="5" t="n"/>
       <c r="B699" s="5" t="n"/>
       <c r="C699" s="5" t="n"/>
@@ -21690,7 +21712,7 @@
       <c r="AA699" s="5" t="n"/>
       <c r="AB699" s="5" t="n"/>
     </row>
-    <row r="700" ht="17.4" customHeight="1" s="17">
+    <row r="700" ht="17.4" customHeight="1" s="18">
       <c r="A700" s="5" t="n"/>
       <c r="B700" s="5" t="n"/>
       <c r="C700" s="5" t="n"/>
@@ -21720,7 +21742,7 @@
       <c r="AA700" s="5" t="n"/>
       <c r="AB700" s="5" t="n"/>
     </row>
-    <row r="701" ht="17.4" customHeight="1" s="17">
+    <row r="701" ht="17.4" customHeight="1" s="18">
       <c r="A701" s="5" t="n"/>
       <c r="B701" s="5" t="n"/>
       <c r="C701" s="5" t="n"/>
@@ -21750,7 +21772,7 @@
       <c r="AA701" s="5" t="n"/>
       <c r="AB701" s="5" t="n"/>
     </row>
-    <row r="702" ht="17.4" customHeight="1" s="17">
+    <row r="702" ht="17.4" customHeight="1" s="18">
       <c r="A702" s="5" t="n"/>
       <c r="B702" s="5" t="n"/>
       <c r="C702" s="5" t="n"/>
@@ -21780,7 +21802,7 @@
       <c r="AA702" s="5" t="n"/>
       <c r="AB702" s="5" t="n"/>
     </row>
-    <row r="703" ht="17.4" customHeight="1" s="17">
+    <row r="703" ht="17.4" customHeight="1" s="18">
       <c r="A703" s="5" t="n"/>
       <c r="B703" s="5" t="n"/>
       <c r="C703" s="5" t="n"/>
@@ -21810,7 +21832,7 @@
       <c r="AA703" s="5" t="n"/>
       <c r="AB703" s="5" t="n"/>
     </row>
-    <row r="704" ht="17.4" customHeight="1" s="17">
+    <row r="704" ht="17.4" customHeight="1" s="18">
       <c r="A704" s="5" t="n"/>
       <c r="B704" s="5" t="n"/>
       <c r="C704" s="5" t="n"/>
@@ -21840,7 +21862,7 @@
       <c r="AA704" s="5" t="n"/>
       <c r="AB704" s="5" t="n"/>
     </row>
-    <row r="705" ht="17.4" customHeight="1" s="17">
+    <row r="705" ht="17.4" customHeight="1" s="18">
       <c r="A705" s="5" t="n"/>
       <c r="B705" s="5" t="n"/>
       <c r="C705" s="5" t="n"/>
@@ -21870,7 +21892,7 @@
       <c r="AA705" s="5" t="n"/>
       <c r="AB705" s="5" t="n"/>
     </row>
-    <row r="706" ht="17.4" customHeight="1" s="17">
+    <row r="706" ht="17.4" customHeight="1" s="18">
       <c r="A706" s="5" t="n"/>
       <c r="B706" s="5" t="n"/>
       <c r="C706" s="5" t="n"/>
@@ -21900,7 +21922,7 @@
       <c r="AA706" s="5" t="n"/>
       <c r="AB706" s="5" t="n"/>
     </row>
-    <row r="707" ht="17.4" customHeight="1" s="17">
+    <row r="707" ht="17.4" customHeight="1" s="18">
       <c r="A707" s="5" t="n"/>
       <c r="B707" s="5" t="n"/>
       <c r="C707" s="5" t="n"/>
@@ -21930,7 +21952,7 @@
       <c r="AA707" s="5" t="n"/>
       <c r="AB707" s="5" t="n"/>
     </row>
-    <row r="708" ht="17.4" customHeight="1" s="17">
+    <row r="708" ht="17.4" customHeight="1" s="18">
       <c r="A708" s="5" t="n"/>
       <c r="B708" s="5" t="n"/>
       <c r="C708" s="5" t="n"/>
@@ -21960,7 +21982,7 @@
       <c r="AA708" s="5" t="n"/>
       <c r="AB708" s="5" t="n"/>
     </row>
-    <row r="709" ht="17.4" customHeight="1" s="17">
+    <row r="709" ht="17.4" customHeight="1" s="18">
       <c r="A709" s="5" t="n"/>
       <c r="B709" s="5" t="n"/>
       <c r="C709" s="5" t="n"/>
@@ -21990,7 +22012,7 @@
       <c r="AA709" s="5" t="n"/>
       <c r="AB709" s="5" t="n"/>
     </row>
-    <row r="710" ht="17.4" customHeight="1" s="17">
+    <row r="710" ht="17.4" customHeight="1" s="18">
       <c r="A710" s="5" t="n"/>
       <c r="B710" s="5" t="n"/>
       <c r="C710" s="5" t="n"/>
@@ -22020,7 +22042,7 @@
       <c r="AA710" s="5" t="n"/>
       <c r="AB710" s="5" t="n"/>
     </row>
-    <row r="711" ht="17.4" customHeight="1" s="17">
+    <row r="711" ht="17.4" customHeight="1" s="18">
       <c r="A711" s="5" t="n"/>
       <c r="B711" s="5" t="n"/>
       <c r="C711" s="5" t="n"/>
@@ -22050,7 +22072,7 @@
       <c r="AA711" s="5" t="n"/>
       <c r="AB711" s="5" t="n"/>
     </row>
-    <row r="712" ht="17.4" customHeight="1" s="17">
+    <row r="712" ht="17.4" customHeight="1" s="18">
       <c r="A712" s="5" t="n"/>
       <c r="B712" s="5" t="n"/>
       <c r="C712" s="5" t="n"/>
@@ -22080,7 +22102,7 @@
       <c r="AA712" s="5" t="n"/>
       <c r="AB712" s="5" t="n"/>
     </row>
-    <row r="713" ht="17.4" customHeight="1" s="17">
+    <row r="713" ht="17.4" customHeight="1" s="18">
       <c r="A713" s="5" t="n"/>
       <c r="B713" s="5" t="n"/>
       <c r="C713" s="5" t="n"/>
@@ -22110,7 +22132,7 @@
       <c r="AA713" s="5" t="n"/>
       <c r="AB713" s="5" t="n"/>
     </row>
-    <row r="714" ht="17.4" customHeight="1" s="17">
+    <row r="714" ht="17.4" customHeight="1" s="18">
       <c r="A714" s="5" t="n"/>
       <c r="B714" s="5" t="n"/>
       <c r="C714" s="5" t="n"/>
@@ -22140,7 +22162,7 @@
       <c r="AA714" s="5" t="n"/>
       <c r="AB714" s="5" t="n"/>
     </row>
-    <row r="715" ht="17.4" customHeight="1" s="17">
+    <row r="715" ht="17.4" customHeight="1" s="18">
       <c r="A715" s="5" t="n"/>
       <c r="B715" s="5" t="n"/>
       <c r="C715" s="5" t="n"/>
@@ -22170,7 +22192,7 @@
       <c r="AA715" s="5" t="n"/>
       <c r="AB715" s="5" t="n"/>
     </row>
-    <row r="716" ht="17.4" customHeight="1" s="17">
+    <row r="716" ht="17.4" customHeight="1" s="18">
       <c r="A716" s="5" t="n"/>
       <c r="B716" s="5" t="n"/>
       <c r="C716" s="5" t="n"/>
@@ -22200,7 +22222,7 @@
       <c r="AA716" s="5" t="n"/>
       <c r="AB716" s="5" t="n"/>
     </row>
-    <row r="717" ht="17.4" customHeight="1" s="17">
+    <row r="717" ht="17.4" customHeight="1" s="18">
       <c r="A717" s="5" t="n"/>
       <c r="B717" s="5" t="n"/>
       <c r="C717" s="5" t="n"/>
@@ -22230,7 +22252,7 @@
       <c r="AA717" s="5" t="n"/>
       <c r="AB717" s="5" t="n"/>
     </row>
-    <row r="718" ht="17.4" customHeight="1" s="17">
+    <row r="718" ht="17.4" customHeight="1" s="18">
       <c r="A718" s="5" t="n"/>
       <c r="B718" s="5" t="n"/>
       <c r="C718" s="5" t="n"/>
@@ -22260,7 +22282,7 @@
       <c r="AA718" s="5" t="n"/>
       <c r="AB718" s="5" t="n"/>
     </row>
-    <row r="719" ht="17.4" customHeight="1" s="17">
+    <row r="719" ht="17.4" customHeight="1" s="18">
       <c r="A719" s="5" t="n"/>
       <c r="B719" s="5" t="n"/>
       <c r="C719" s="5" t="n"/>
@@ -22290,7 +22312,7 @@
       <c r="AA719" s="5" t="n"/>
       <c r="AB719" s="5" t="n"/>
     </row>
-    <row r="720" ht="17.4" customHeight="1" s="17">
+    <row r="720" ht="17.4" customHeight="1" s="18">
       <c r="A720" s="5" t="n"/>
       <c r="B720" s="5" t="n"/>
       <c r="C720" s="5" t="n"/>
@@ -22320,7 +22342,7 @@
       <c r="AA720" s="5" t="n"/>
       <c r="AB720" s="5" t="n"/>
     </row>
-    <row r="721" ht="17.4" customHeight="1" s="17">
+    <row r="721" ht="17.4" customHeight="1" s="18">
       <c r="A721" s="5" t="n"/>
       <c r="B721" s="5" t="n"/>
       <c r="C721" s="5" t="n"/>
@@ -22350,7 +22372,7 @@
       <c r="AA721" s="5" t="n"/>
       <c r="AB721" s="5" t="n"/>
     </row>
-    <row r="722" ht="17.4" customHeight="1" s="17">
+    <row r="722" ht="17.4" customHeight="1" s="18">
       <c r="A722" s="5" t="n"/>
       <c r="B722" s="5" t="n"/>
       <c r="C722" s="5" t="n"/>
@@ -22380,7 +22402,7 @@
       <c r="AA722" s="5" t="n"/>
       <c r="AB722" s="5" t="n"/>
     </row>
-    <row r="723" ht="17.4" customHeight="1" s="17">
+    <row r="723" ht="17.4" customHeight="1" s="18">
       <c r="A723" s="5" t="n"/>
       <c r="B723" s="5" t="n"/>
       <c r="C723" s="5" t="n"/>
@@ -22410,7 +22432,7 @@
       <c r="AA723" s="5" t="n"/>
       <c r="AB723" s="5" t="n"/>
     </row>
-    <row r="724" ht="17.4" customHeight="1" s="17">
+    <row r="724" ht="17.4" customHeight="1" s="18">
       <c r="A724" s="5" t="n"/>
       <c r="B724" s="5" t="n"/>
       <c r="C724" s="5" t="n"/>
@@ -22440,7 +22462,7 @@
       <c r="AA724" s="5" t="n"/>
       <c r="AB724" s="5" t="n"/>
     </row>
-    <row r="725" ht="17.4" customHeight="1" s="17">
+    <row r="725" ht="17.4" customHeight="1" s="18">
       <c r="A725" s="5" t="n"/>
       <c r="B725" s="5" t="n"/>
       <c r="C725" s="5" t="n"/>
@@ -22470,7 +22492,7 @@
       <c r="AA725" s="5" t="n"/>
       <c r="AB725" s="5" t="n"/>
     </row>
-    <row r="726" ht="17.4" customHeight="1" s="17">
+    <row r="726" ht="17.4" customHeight="1" s="18">
       <c r="A726" s="5" t="n"/>
       <c r="B726" s="5" t="n"/>
       <c r="C726" s="5" t="n"/>
@@ -22500,7 +22522,7 @@
       <c r="AA726" s="5" t="n"/>
       <c r="AB726" s="5" t="n"/>
     </row>
-    <row r="727" ht="17.4" customHeight="1" s="17">
+    <row r="727" ht="17.4" customHeight="1" s="18">
       <c r="A727" s="5" t="n"/>
       <c r="B727" s="5" t="n"/>
       <c r="C727" s="5" t="n"/>
@@ -22530,7 +22552,7 @@
       <c r="AA727" s="5" t="n"/>
       <c r="AB727" s="5" t="n"/>
     </row>
-    <row r="728" ht="17.4" customHeight="1" s="17">
+    <row r="728" ht="17.4" customHeight="1" s="18">
       <c r="A728" s="5" t="n"/>
       <c r="B728" s="5" t="n"/>
       <c r="C728" s="5" t="n"/>
@@ -22560,7 +22582,7 @@
       <c r="AA728" s="5" t="n"/>
       <c r="AB728" s="5" t="n"/>
     </row>
-    <row r="729" ht="17.4" customHeight="1" s="17">
+    <row r="729" ht="17.4" customHeight="1" s="18">
       <c r="A729" s="5" t="n"/>
       <c r="B729" s="5" t="n"/>
       <c r="C729" s="5" t="n"/>
@@ -22590,7 +22612,7 @@
       <c r="AA729" s="5" t="n"/>
       <c r="AB729" s="5" t="n"/>
     </row>
-    <row r="730" ht="17.4" customHeight="1" s="17">
+    <row r="730" ht="17.4" customHeight="1" s="18">
       <c r="A730" s="5" t="n"/>
       <c r="B730" s="5" t="n"/>
       <c r="C730" s="5" t="n"/>
@@ -22620,7 +22642,7 @@
       <c r="AA730" s="5" t="n"/>
       <c r="AB730" s="5" t="n"/>
     </row>
-    <row r="731" ht="17.4" customHeight="1" s="17">
+    <row r="731" ht="17.4" customHeight="1" s="18">
       <c r="A731" s="5" t="n"/>
       <c r="B731" s="5" t="n"/>
       <c r="C731" s="5" t="n"/>
@@ -22650,7 +22672,7 @@
       <c r="AA731" s="5" t="n"/>
       <c r="AB731" s="5" t="n"/>
     </row>
-    <row r="732" ht="17.4" customHeight="1" s="17">
+    <row r="732" ht="17.4" customHeight="1" s="18">
       <c r="A732" s="5" t="n"/>
       <c r="B732" s="5" t="n"/>
       <c r="C732" s="5" t="n"/>
@@ -22680,7 +22702,7 @@
       <c r="AA732" s="5" t="n"/>
       <c r="AB732" s="5" t="n"/>
     </row>
-    <row r="733" ht="17.4" customHeight="1" s="17">
+    <row r="733" ht="17.4" customHeight="1" s="18">
       <c r="A733" s="5" t="n"/>
       <c r="B733" s="5" t="n"/>
       <c r="C733" s="5" t="n"/>
@@ -22710,7 +22732,7 @@
       <c r="AA733" s="5" t="n"/>
       <c r="AB733" s="5" t="n"/>
     </row>
-    <row r="734" ht="17.4" customHeight="1" s="17">
+    <row r="734" ht="17.4" customHeight="1" s="18">
       <c r="A734" s="5" t="n"/>
       <c r="B734" s="5" t="n"/>
       <c r="C734" s="5" t="n"/>
@@ -22740,7 +22762,7 @@
       <c r="AA734" s="5" t="n"/>
       <c r="AB734" s="5" t="n"/>
     </row>
-    <row r="735" ht="17.4" customHeight="1" s="17">
+    <row r="735" ht="17.4" customHeight="1" s="18">
       <c r="A735" s="5" t="n"/>
       <c r="B735" s="5" t="n"/>
       <c r="C735" s="5" t="n"/>
@@ -22770,7 +22792,7 @@
       <c r="AA735" s="5" t="n"/>
       <c r="AB735" s="5" t="n"/>
     </row>
-    <row r="736" ht="17.4" customHeight="1" s="17">
+    <row r="736" ht="17.4" customHeight="1" s="18">
       <c r="A736" s="5" t="n"/>
       <c r="B736" s="5" t="n"/>
       <c r="C736" s="5" t="n"/>
@@ -22800,7 +22822,7 @@
       <c r="AA736" s="5" t="n"/>
       <c r="AB736" s="5" t="n"/>
     </row>
-    <row r="737" ht="17.4" customHeight="1" s="17">
+    <row r="737" ht="17.4" customHeight="1" s="18">
       <c r="A737" s="5" t="n"/>
       <c r="B737" s="5" t="n"/>
       <c r="C737" s="5" t="n"/>
@@ -22830,7 +22852,7 @@
       <c r="AA737" s="5" t="n"/>
       <c r="AB737" s="5" t="n"/>
     </row>
-    <row r="738" ht="17.4" customHeight="1" s="17">
+    <row r="738" ht="17.4" customHeight="1" s="18">
       <c r="A738" s="5" t="n"/>
       <c r="B738" s="5" t="n"/>
       <c r="C738" s="5" t="n"/>
@@ -22860,7 +22882,7 @@
       <c r="AA738" s="5" t="n"/>
       <c r="AB738" s="5" t="n"/>
     </row>
-    <row r="739" ht="17.4" customHeight="1" s="17">
+    <row r="739" ht="17.4" customHeight="1" s="18">
       <c r="A739" s="5" t="n"/>
       <c r="B739" s="5" t="n"/>
       <c r="C739" s="5" t="n"/>
@@ -22890,7 +22912,7 @@
       <c r="AA739" s="5" t="n"/>
       <c r="AB739" s="5" t="n"/>
     </row>
-    <row r="740" ht="17.4" customHeight="1" s="17">
+    <row r="740" ht="17.4" customHeight="1" s="18">
       <c r="A740" s="5" t="n"/>
       <c r="B740" s="5" t="n"/>
       <c r="C740" s="5" t="n"/>
@@ -22920,7 +22942,7 @@
       <c r="AA740" s="5" t="n"/>
       <c r="AB740" s="5" t="n"/>
     </row>
-    <row r="741" ht="17.4" customHeight="1" s="17">
+    <row r="741" ht="17.4" customHeight="1" s="18">
       <c r="A741" s="5" t="n"/>
       <c r="B741" s="5" t="n"/>
       <c r="C741" s="5" t="n"/>
@@ -22950,7 +22972,7 @@
       <c r="AA741" s="5" t="n"/>
       <c r="AB741" s="5" t="n"/>
     </row>
-    <row r="742" ht="17.4" customHeight="1" s="17">
+    <row r="742" ht="17.4" customHeight="1" s="18">
       <c r="A742" s="5" t="n"/>
       <c r="B742" s="5" t="n"/>
       <c r="C742" s="5" t="n"/>
@@ -22980,7 +23002,7 @@
       <c r="AA742" s="5" t="n"/>
       <c r="AB742" s="5" t="n"/>
     </row>
-    <row r="743" ht="17.4" customHeight="1" s="17">
+    <row r="743" ht="17.4" customHeight="1" s="18">
       <c r="A743" s="5" t="n"/>
       <c r="B743" s="5" t="n"/>
       <c r="C743" s="5" t="n"/>
@@ -23010,7 +23032,7 @@
       <c r="AA743" s="5" t="n"/>
       <c r="AB743" s="5" t="n"/>
     </row>
-    <row r="744" ht="17.4" customHeight="1" s="17">
+    <row r="744" ht="17.4" customHeight="1" s="18">
       <c r="A744" s="5" t="n"/>
       <c r="B744" s="5" t="n"/>
       <c r="C744" s="5" t="n"/>
@@ -23040,7 +23062,7 @@
       <c r="AA744" s="5" t="n"/>
       <c r="AB744" s="5" t="n"/>
     </row>
-    <row r="745" ht="17.4" customHeight="1" s="17">
+    <row r="745" ht="17.4" customHeight="1" s="18">
       <c r="A745" s="5" t="n"/>
       <c r="B745" s="5" t="n"/>
       <c r="C745" s="5" t="n"/>
@@ -23070,7 +23092,7 @@
       <c r="AA745" s="5" t="n"/>
       <c r="AB745" s="5" t="n"/>
     </row>
-    <row r="746" ht="17.4" customHeight="1" s="17">
+    <row r="746" ht="17.4" customHeight="1" s="18">
       <c r="A746" s="5" t="n"/>
       <c r="B746" s="5" t="n"/>
       <c r="C746" s="5" t="n"/>
@@ -23100,7 +23122,7 @@
       <c r="AA746" s="5" t="n"/>
       <c r="AB746" s="5" t="n"/>
     </row>
-    <row r="747" ht="17.4" customHeight="1" s="17">
+    <row r="747" ht="17.4" customHeight="1" s="18">
       <c r="A747" s="5" t="n"/>
       <c r="B747" s="5" t="n"/>
       <c r="C747" s="5" t="n"/>
@@ -23130,7 +23152,7 @@
       <c r="AA747" s="5" t="n"/>
       <c r="AB747" s="5" t="n"/>
     </row>
-    <row r="748" ht="17.4" customHeight="1" s="17">
+    <row r="748" ht="17.4" customHeight="1" s="18">
       <c r="A748" s="5" t="n"/>
       <c r="B748" s="5" t="n"/>
       <c r="C748" s="5" t="n"/>
@@ -23160,7 +23182,7 @@
       <c r="AA748" s="5" t="n"/>
       <c r="AB748" s="5" t="n"/>
     </row>
-    <row r="749" ht="17.4" customHeight="1" s="17">
+    <row r="749" ht="17.4" customHeight="1" s="18">
       <c r="A749" s="5" t="n"/>
       <c r="B749" s="5" t="n"/>
       <c r="C749" s="5" t="n"/>
@@ -23190,7 +23212,7 @@
       <c r="AA749" s="5" t="n"/>
       <c r="AB749" s="5" t="n"/>
     </row>
-    <row r="750" ht="17.4" customHeight="1" s="17">
+    <row r="750" ht="17.4" customHeight="1" s="18">
       <c r="A750" s="5" t="n"/>
       <c r="B750" s="5" t="n"/>
       <c r="C750" s="5" t="n"/>
@@ -23220,7 +23242,7 @@
       <c r="AA750" s="5" t="n"/>
       <c r="AB750" s="5" t="n"/>
     </row>
-    <row r="751" ht="17.4" customHeight="1" s="17">
+    <row r="751" ht="17.4" customHeight="1" s="18">
       <c r="A751" s="5" t="n"/>
       <c r="B751" s="5" t="n"/>
       <c r="C751" s="5" t="n"/>
@@ -23250,7 +23272,7 @@
       <c r="AA751" s="5" t="n"/>
       <c r="AB751" s="5" t="n"/>
     </row>
-    <row r="752" ht="17.4" customHeight="1" s="17">
+    <row r="752" ht="17.4" customHeight="1" s="18">
       <c r="A752" s="5" t="n"/>
       <c r="B752" s="5" t="n"/>
       <c r="C752" s="5" t="n"/>
@@ -23280,7 +23302,7 @@
       <c r="AA752" s="5" t="n"/>
       <c r="AB752" s="5" t="n"/>
     </row>
-    <row r="753" ht="17.4" customHeight="1" s="17">
+    <row r="753" ht="17.4" customHeight="1" s="18">
       <c r="A753" s="5" t="n"/>
       <c r="B753" s="5" t="n"/>
       <c r="C753" s="5" t="n"/>
@@ -23310,7 +23332,7 @@
       <c r="AA753" s="5" t="n"/>
       <c r="AB753" s="5" t="n"/>
     </row>
-    <row r="754" ht="17.4" customHeight="1" s="17">
+    <row r="754" ht="17.4" customHeight="1" s="18">
       <c r="A754" s="5" t="n"/>
       <c r="B754" s="5" t="n"/>
       <c r="C754" s="5" t="n"/>
@@ -23340,7 +23362,7 @@
       <c r="AA754" s="5" t="n"/>
       <c r="AB754" s="5" t="n"/>
     </row>
-    <row r="755" ht="17.4" customHeight="1" s="17">
+    <row r="755" ht="17.4" customHeight="1" s="18">
       <c r="A755" s="5" t="n"/>
       <c r="B755" s="5" t="n"/>
       <c r="C755" s="5" t="n"/>
@@ -23370,7 +23392,7 @@
       <c r="AA755" s="5" t="n"/>
       <c r="AB755" s="5" t="n"/>
     </row>
-    <row r="756" ht="17.4" customHeight="1" s="17">
+    <row r="756" ht="17.4" customHeight="1" s="18">
       <c r="A756" s="5" t="n"/>
       <c r="B756" s="5" t="n"/>
       <c r="C756" s="5" t="n"/>
@@ -23400,7 +23422,7 @@
       <c r="AA756" s="5" t="n"/>
       <c r="AB756" s="5" t="n"/>
     </row>
-    <row r="757" ht="17.4" customHeight="1" s="17">
+    <row r="757" ht="17.4" customHeight="1" s="18">
       <c r="A757" s="5" t="n"/>
       <c r="B757" s="5" t="n"/>
       <c r="C757" s="5" t="n"/>
@@ -23430,7 +23452,7 @@
       <c r="AA757" s="5" t="n"/>
       <c r="AB757" s="5" t="n"/>
     </row>
-    <row r="758" ht="17.4" customHeight="1" s="17">
+    <row r="758" ht="17.4" customHeight="1" s="18">
       <c r="A758" s="5" t="n"/>
       <c r="B758" s="5" t="n"/>
       <c r="C758" s="5" t="n"/>
@@ -23460,7 +23482,7 @@
       <c r="AA758" s="5" t="n"/>
       <c r="AB758" s="5" t="n"/>
     </row>
-    <row r="759" ht="17.4" customHeight="1" s="17">
+    <row r="759" ht="17.4" customHeight="1" s="18">
       <c r="A759" s="5" t="n"/>
       <c r="B759" s="5" t="n"/>
       <c r="C759" s="5" t="n"/>
@@ -23490,7 +23512,7 @@
       <c r="AA759" s="5" t="n"/>
       <c r="AB759" s="5" t="n"/>
     </row>
-    <row r="760" ht="17.4" customHeight="1" s="17">
+    <row r="760" ht="17.4" customHeight="1" s="18">
       <c r="A760" s="5" t="n"/>
       <c r="B760" s="5" t="n"/>
       <c r="C760" s="5" t="n"/>
@@ -23520,7 +23542,7 @@
       <c r="AA760" s="5" t="n"/>
       <c r="AB760" s="5" t="n"/>
     </row>
-    <row r="761" ht="17.4" customHeight="1" s="17">
+    <row r="761" ht="17.4" customHeight="1" s="18">
       <c r="A761" s="5" t="n"/>
       <c r="B761" s="5" t="n"/>
       <c r="C761" s="5" t="n"/>
@@ -23550,7 +23572,7 @@
       <c r="AA761" s="5" t="n"/>
       <c r="AB761" s="5" t="n"/>
     </row>
-    <row r="762" ht="17.4" customHeight="1" s="17">
+    <row r="762" ht="17.4" customHeight="1" s="18">
       <c r="A762" s="5" t="n"/>
       <c r="B762" s="5" t="n"/>
       <c r="C762" s="5" t="n"/>
@@ -23580,7 +23602,7 @@
       <c r="AA762" s="5" t="n"/>
       <c r="AB762" s="5" t="n"/>
     </row>
-    <row r="763" ht="17.4" customHeight="1" s="17">
+    <row r="763" ht="17.4" customHeight="1" s="18">
       <c r="A763" s="5" t="n"/>
       <c r="B763" s="5" t="n"/>
       <c r="C763" s="5" t="n"/>
@@ -23610,7 +23632,7 @@
       <c r="AA763" s="5" t="n"/>
       <c r="AB763" s="5" t="n"/>
     </row>
-    <row r="764" ht="17.4" customHeight="1" s="17">
+    <row r="764" ht="17.4" customHeight="1" s="18">
       <c r="A764" s="5" t="n"/>
       <c r="B764" s="5" t="n"/>
       <c r="C764" s="5" t="n"/>
@@ -23640,7 +23662,7 @@
       <c r="AA764" s="5" t="n"/>
       <c r="AB764" s="5" t="n"/>
     </row>
-    <row r="765" ht="17.4" customHeight="1" s="17">
+    <row r="765" ht="17.4" customHeight="1" s="18">
       <c r="A765" s="5" t="n"/>
       <c r="B765" s="5" t="n"/>
       <c r="C765" s="5" t="n"/>
@@ -23670,7 +23692,7 @@
       <c r="AA765" s="5" t="n"/>
       <c r="AB765" s="5" t="n"/>
     </row>
-    <row r="766" ht="17.4" customHeight="1" s="17">
+    <row r="766" ht="17.4" customHeight="1" s="18">
       <c r="A766" s="5" t="n"/>
       <c r="B766" s="5" t="n"/>
       <c r="C766" s="5" t="n"/>
@@ -23700,7 +23722,7 @@
       <c r="AA766" s="5" t="n"/>
       <c r="AB766" s="5" t="n"/>
     </row>
-    <row r="767" ht="17.4" customHeight="1" s="17">
+    <row r="767" ht="17.4" customHeight="1" s="18">
       <c r="A767" s="5" t="n"/>
       <c r="B767" s="5" t="n"/>
       <c r="C767" s="5" t="n"/>
@@ -23730,7 +23752,7 @@
       <c r="AA767" s="5" t="n"/>
       <c r="AB767" s="5" t="n"/>
     </row>
-    <row r="768" ht="17.4" customHeight="1" s="17">
+    <row r="768" ht="17.4" customHeight="1" s="18">
       <c r="A768" s="5" t="n"/>
       <c r="B768" s="5" t="n"/>
       <c r="C768" s="5" t="n"/>
@@ -23760,7 +23782,7 @@
       <c r="AA768" s="5" t="n"/>
       <c r="AB768" s="5" t="n"/>
     </row>
-    <row r="769" ht="17.4" customHeight="1" s="17">
+    <row r="769" ht="17.4" customHeight="1" s="18">
       <c r="A769" s="5" t="n"/>
       <c r="B769" s="5" t="n"/>
       <c r="C769" s="5" t="n"/>
@@ -23790,7 +23812,7 @@
       <c r="AA769" s="5" t="n"/>
       <c r="AB769" s="5" t="n"/>
     </row>
-    <row r="770" ht="17.4" customHeight="1" s="17">
+    <row r="770" ht="17.4" customHeight="1" s="18">
       <c r="A770" s="5" t="n"/>
       <c r="B770" s="5" t="n"/>
       <c r="C770" s="5" t="n"/>
@@ -23820,7 +23842,7 @@
       <c r="AA770" s="5" t="n"/>
       <c r="AB770" s="5" t="n"/>
     </row>
-    <row r="771" ht="17.4" customHeight="1" s="17">
+    <row r="771" ht="17.4" customHeight="1" s="18">
       <c r="A771" s="5" t="n"/>
       <c r="B771" s="5" t="n"/>
       <c r="C771" s="5" t="n"/>
@@ -23850,7 +23872,7 @@
       <c r="AA771" s="5" t="n"/>
       <c r="AB771" s="5" t="n"/>
     </row>
-    <row r="772" ht="17.4" customHeight="1" s="17">
+    <row r="772" ht="17.4" customHeight="1" s="18">
       <c r="A772" s="5" t="n"/>
       <c r="B772" s="5" t="n"/>
       <c r="C772" s="5" t="n"/>
@@ -23880,7 +23902,7 @@
       <c r="AA772" s="5" t="n"/>
       <c r="AB772" s="5" t="n"/>
     </row>
-    <row r="773" ht="17.4" customHeight="1" s="17">
+    <row r="773" ht="17.4" customHeight="1" s="18">
       <c r="A773" s="5" t="n"/>
       <c r="B773" s="5" t="n"/>
       <c r="C773" s="5" t="n"/>
@@ -23910,7 +23932,7 @@
       <c r="AA773" s="5" t="n"/>
       <c r="AB773" s="5" t="n"/>
     </row>
-    <row r="774" ht="17.4" customHeight="1" s="17">
+    <row r="774" ht="17.4" customHeight="1" s="18">
       <c r="A774" s="5" t="n"/>
       <c r="B774" s="5" t="n"/>
       <c r="C774" s="5" t="n"/>
@@ -23940,7 +23962,7 @@
       <c r="AA774" s="5" t="n"/>
       <c r="AB774" s="5" t="n"/>
     </row>
-    <row r="775" ht="17.4" customHeight="1" s="17">
+    <row r="775" ht="17.4" customHeight="1" s="18">
       <c r="A775" s="5" t="n"/>
       <c r="B775" s="5" t="n"/>
       <c r="C775" s="5" t="n"/>
@@ -23970,7 +23992,7 @@
       <c r="AA775" s="5" t="n"/>
       <c r="AB775" s="5" t="n"/>
     </row>
-    <row r="776" ht="17.4" customHeight="1" s="17">
+    <row r="776" ht="17.4" customHeight="1" s="18">
       <c r="A776" s="5" t="n"/>
       <c r="B776" s="5" t="n"/>
       <c r="C776" s="5" t="n"/>
@@ -24000,7 +24022,7 @@
       <c r="AA776" s="5" t="n"/>
       <c r="AB776" s="5" t="n"/>
     </row>
-    <row r="777" ht="17.4" customHeight="1" s="17">
+    <row r="777" ht="17.4" customHeight="1" s="18">
       <c r="A777" s="5" t="n"/>
       <c r="B777" s="5" t="n"/>
       <c r="C777" s="5" t="n"/>
@@ -24030,7 +24052,7 @@
       <c r="AA777" s="5" t="n"/>
       <c r="AB777" s="5" t="n"/>
     </row>
-    <row r="778" ht="17.4" customHeight="1" s="17">
+    <row r="778" ht="17.4" customHeight="1" s="18">
       <c r="A778" s="5" t="n"/>
       <c r="B778" s="5" t="n"/>
       <c r="C778" s="5" t="n"/>
@@ -24060,7 +24082,7 @@
       <c r="AA778" s="5" t="n"/>
       <c r="AB778" s="5" t="n"/>
     </row>
-    <row r="779" ht="17.4" customHeight="1" s="17">
+    <row r="779" ht="17.4" customHeight="1" s="18">
       <c r="A779" s="5" t="n"/>
       <c r="B779" s="5" t="n"/>
       <c r="C779" s="5" t="n"/>
@@ -24090,7 +24112,7 @@
       <c r="AA779" s="5" t="n"/>
       <c r="AB779" s="5" t="n"/>
     </row>
-    <row r="780" ht="17.4" customHeight="1" s="17">
+    <row r="780" ht="17.4" customHeight="1" s="18">
       <c r="A780" s="5" t="n"/>
       <c r="B780" s="5" t="n"/>
       <c r="C780" s="5" t="n"/>
@@ -24120,7 +24142,7 @@
       <c r="AA780" s="5" t="n"/>
       <c r="AB780" s="5" t="n"/>
     </row>
-    <row r="781" ht="17.4" customHeight="1" s="17">
+    <row r="781" ht="17.4" customHeight="1" s="18">
       <c r="A781" s="5" t="n"/>
       <c r="B781" s="5" t="n"/>
       <c r="C781" s="5" t="n"/>
@@ -24150,7 +24172,7 @@
       <c r="AA781" s="5" t="n"/>
       <c r="AB781" s="5" t="n"/>
     </row>
-    <row r="782" ht="17.4" customHeight="1" s="17">
+    <row r="782" ht="17.4" customHeight="1" s="18">
       <c r="A782" s="5" t="n"/>
       <c r="B782" s="5" t="n"/>
       <c r="C782" s="5" t="n"/>
@@ -24180,7 +24202,7 @@
       <c r="AA782" s="5" t="n"/>
       <c r="AB782" s="5" t="n"/>
     </row>
-    <row r="783" ht="17.4" customHeight="1" s="17">
+    <row r="783" ht="17.4" customHeight="1" s="18">
       <c r="A783" s="5" t="n"/>
       <c r="B783" s="5" t="n"/>
       <c r="C783" s="5" t="n"/>
@@ -24210,7 +24232,7 @@
       <c r="AA783" s="5" t="n"/>
       <c r="AB783" s="5" t="n"/>
     </row>
-    <row r="784" ht="17.4" customHeight="1" s="17">
+    <row r="784" ht="17.4" customHeight="1" s="18">
       <c r="A784" s="5" t="n"/>
       <c r="B784" s="5" t="n"/>
       <c r="C784" s="5" t="n"/>
@@ -24240,7 +24262,7 @@
       <c r="AA784" s="5" t="n"/>
       <c r="AB784" s="5" t="n"/>
     </row>
-    <row r="785" ht="17.4" customHeight="1" s="17">
+    <row r="785" ht="17.4" customHeight="1" s="18">
       <c r="A785" s="5" t="n"/>
       <c r="B785" s="5" t="n"/>
       <c r="C785" s="5" t="n"/>
@@ -24270,7 +24292,7 @@
       <c r="AA785" s="5" t="n"/>
       <c r="AB785" s="5" t="n"/>
     </row>
-    <row r="786" ht="17.4" customHeight="1" s="17">
+    <row r="786" ht="17.4" customHeight="1" s="18">
       <c r="A786" s="5" t="n"/>
       <c r="B786" s="5" t="n"/>
       <c r="C786" s="5" t="n"/>
@@ -24300,7 +24322,7 @@
       <c r="AA786" s="5" t="n"/>
       <c r="AB786" s="5" t="n"/>
     </row>
-    <row r="787" ht="17.4" customHeight="1" s="17">
+    <row r="787" ht="17.4" customHeight="1" s="18">
       <c r="A787" s="5" t="n"/>
       <c r="B787" s="5" t="n"/>
       <c r="C787" s="5" t="n"/>
@@ -24330,7 +24352,7 @@
       <c r="AA787" s="5" t="n"/>
       <c r="AB787" s="5" t="n"/>
     </row>
-    <row r="788" ht="17.4" customHeight="1" s="17">
+    <row r="788" ht="17.4" customHeight="1" s="18">
       <c r="A788" s="5" t="n"/>
       <c r="B788" s="5" t="n"/>
       <c r="C788" s="5" t="n"/>
@@ -24360,7 +24382,7 @@
       <c r="AA788" s="5" t="n"/>
       <c r="AB788" s="5" t="n"/>
     </row>
-    <row r="789" ht="17.4" customHeight="1" s="17">
+    <row r="789" ht="17.4" customHeight="1" s="18">
       <c r="A789" s="5" t="n"/>
       <c r="B789" s="5" t="n"/>
       <c r="C789" s="5" t="n"/>
@@ -24390,7 +24412,7 @@
       <c r="AA789" s="5" t="n"/>
       <c r="AB789" s="5" t="n"/>
     </row>
-    <row r="790" ht="17.4" customHeight="1" s="17">
+    <row r="790" ht="17.4" customHeight="1" s="18">
       <c r="A790" s="5" t="n"/>
       <c r="B790" s="5" t="n"/>
       <c r="C790" s="5" t="n"/>
@@ -24420,7 +24442,7 @@
       <c r="AA790" s="5" t="n"/>
       <c r="AB790" s="5" t="n"/>
     </row>
-    <row r="791" ht="17.4" customHeight="1" s="17">
+    <row r="791" ht="17.4" customHeight="1" s="18">
       <c r="A791" s="5" t="n"/>
       <c r="B791" s="5" t="n"/>
       <c r="C791" s="5" t="n"/>
@@ -24450,7 +24472,7 @@
       <c r="AA791" s="5" t="n"/>
       <c r="AB791" s="5" t="n"/>
     </row>
-    <row r="792" ht="17.4" customHeight="1" s="17">
+    <row r="792" ht="17.4" customHeight="1" s="18">
       <c r="A792" s="5" t="n"/>
       <c r="B792" s="5" t="n"/>
       <c r="C792" s="5" t="n"/>
@@ -24480,7 +24502,7 @@
       <c r="AA792" s="5" t="n"/>
       <c r="AB792" s="5" t="n"/>
     </row>
-    <row r="793" ht="17.4" customHeight="1" s="17">
+    <row r="793" ht="17.4" customHeight="1" s="18">
       <c r="A793" s="5" t="n"/>
       <c r="B793" s="5" t="n"/>
       <c r="C793" s="5" t="n"/>
@@ -24510,7 +24532,7 @@
       <c r="AA793" s="5" t="n"/>
       <c r="AB793" s="5" t="n"/>
     </row>
-    <row r="794" ht="17.4" customHeight="1" s="17">
+    <row r="794" ht="17.4" customHeight="1" s="18">
       <c r="A794" s="5" t="n"/>
       <c r="B794" s="5" t="n"/>
       <c r="C794" s="5" t="n"/>
@@ -24540,7 +24562,7 @@
       <c r="AA794" s="5" t="n"/>
       <c r="AB794" s="5" t="n"/>
     </row>
-    <row r="795" ht="17.4" customHeight="1" s="17">
+    <row r="795" ht="17.4" customHeight="1" s="18">
       <c r="A795" s="5" t="n"/>
       <c r="B795" s="5" t="n"/>
       <c r="C795" s="5" t="n"/>
@@ -24570,7 +24592,7 @@
       <c r="AA795" s="5" t="n"/>
       <c r="AB795" s="5" t="n"/>
     </row>
-    <row r="796" ht="17.4" customHeight="1" s="17">
+    <row r="796" ht="17.4" customHeight="1" s="18">
       <c r="A796" s="5" t="n"/>
       <c r="B796" s="5" t="n"/>
       <c r="C796" s="5" t="n"/>
@@ -24600,7 +24622,7 @@
       <c r="AA796" s="5" t="n"/>
       <c r="AB796" s="5" t="n"/>
     </row>
-    <row r="797" ht="17.4" customHeight="1" s="17">
+    <row r="797" ht="17.4" customHeight="1" s="18">
       <c r="A797" s="5" t="n"/>
       <c r="B797" s="5" t="n"/>
       <c r="C797" s="5" t="n"/>
@@ -24630,7 +24652,7 @@
       <c r="AA797" s="5" t="n"/>
       <c r="AB797" s="5" t="n"/>
     </row>
-    <row r="798" ht="17.4" customHeight="1" s="17">
+    <row r="798" ht="17.4" customHeight="1" s="18">
       <c r="A798" s="5" t="n"/>
       <c r="B798" s="5" t="n"/>
       <c r="C798" s="5" t="n"/>
@@ -24660,7 +24682,7 @@
       <c r="AA798" s="5" t="n"/>
       <c r="AB798" s="5" t="n"/>
     </row>
-    <row r="799" ht="17.4" customHeight="1" s="17">
+    <row r="799" ht="17.4" customHeight="1" s="18">
       <c r="A799" s="5" t="n"/>
       <c r="B799" s="5" t="n"/>
       <c r="C799" s="5" t="n"/>
@@ -24690,7 +24712,7 @@
       <c r="AA799" s="5" t="n"/>
       <c r="AB799" s="5" t="n"/>
     </row>
-    <row r="800" ht="17.4" customHeight="1" s="17">
+    <row r="800" ht="17.4" customHeight="1" s="18">
       <c r="A800" s="5" t="n"/>
       <c r="B800" s="5" t="n"/>
       <c r="C800" s="5" t="n"/>
@@ -24720,7 +24742,7 @@
       <c r="AA800" s="5" t="n"/>
       <c r="AB800" s="5" t="n"/>
     </row>
-    <row r="801" ht="17.4" customHeight="1" s="17">
+    <row r="801" ht="17.4" customHeight="1" s="18">
       <c r="A801" s="5" t="n"/>
       <c r="B801" s="5" t="n"/>
       <c r="C801" s="5" t="n"/>
@@ -24750,7 +24772,7 @@
       <c r="AA801" s="5" t="n"/>
       <c r="AB801" s="5" t="n"/>
     </row>
-    <row r="802" ht="17.4" customHeight="1" s="17">
+    <row r="802" ht="17.4" customHeight="1" s="18">
       <c r="A802" s="5" t="n"/>
       <c r="B802" s="5" t="n"/>
       <c r="C802" s="5" t="n"/>
@@ -24780,7 +24802,7 @@
       <c r="AA802" s="5" t="n"/>
       <c r="AB802" s="5" t="n"/>
     </row>
-    <row r="803" ht="17.4" customHeight="1" s="17">
+    <row r="803" ht="17.4" customHeight="1" s="18">
       <c r="A803" s="5" t="n"/>
       <c r="B803" s="5" t="n"/>
       <c r="C803" s="5" t="n"/>
@@ -24810,7 +24832,7 @@
       <c r="AA803" s="5" t="n"/>
       <c r="AB803" s="5" t="n"/>
     </row>
-    <row r="804" ht="17.4" customHeight="1" s="17">
+    <row r="804" ht="17.4" customHeight="1" s="18">
       <c r="A804" s="5" t="n"/>
       <c r="B804" s="5" t="n"/>
       <c r="C804" s="5" t="n"/>
@@ -24840,7 +24862,7 @@
       <c r="AA804" s="5" t="n"/>
       <c r="AB804" s="5" t="n"/>
     </row>
-    <row r="805" ht="17.4" customHeight="1" s="17">
+    <row r="805" ht="17.4" customHeight="1" s="18">
       <c r="A805" s="5" t="n"/>
       <c r="B805" s="5" t="n"/>
       <c r="C805" s="5" t="n"/>
@@ -24870,7 +24892,7 @@
       <c r="AA805" s="5" t="n"/>
       <c r="AB805" s="5" t="n"/>
     </row>
-    <row r="806" ht="17.4" customHeight="1" s="17">
+    <row r="806" ht="17.4" customHeight="1" s="18">
       <c r="A806" s="5" t="n"/>
       <c r="B806" s="5" t="n"/>
       <c r="C806" s="5" t="n"/>
@@ -24900,7 +24922,7 @@
       <c r="AA806" s="5" t="n"/>
       <c r="AB806" s="5" t="n"/>
     </row>
-    <row r="807" ht="17.4" customHeight="1" s="17">
+    <row r="807" ht="17.4" customHeight="1" s="18">
       <c r="A807" s="5" t="n"/>
       <c r="B807" s="5" t="n"/>
       <c r="C807" s="5" t="n"/>
@@ -24930,7 +24952,7 @@
       <c r="AA807" s="5" t="n"/>
       <c r="AB807" s="5" t="n"/>
     </row>
-    <row r="808" ht="17.4" customHeight="1" s="17">
+    <row r="808" ht="17.4" customHeight="1" s="18">
       <c r="A808" s="5" t="n"/>
       <c r="B808" s="5" t="n"/>
       <c r="C808" s="5" t="n"/>
@@ -24960,7 +24982,7 @@
       <c r="AA808" s="5" t="n"/>
       <c r="AB808" s="5" t="n"/>
     </row>
-    <row r="809" ht="17.4" customHeight="1" s="17">
+    <row r="809" ht="17.4" customHeight="1" s="18">
       <c r="A809" s="5" t="n"/>
       <c r="B809" s="5" t="n"/>
       <c r="C809" s="5" t="n"/>
@@ -24990,7 +25012,7 @@
       <c r="AA809" s="5" t="n"/>
       <c r="AB809" s="5" t="n"/>
     </row>
-    <row r="810" ht="17.4" customHeight="1" s="17">
+    <row r="810" ht="17.4" customHeight="1" s="18">
       <c r="A810" s="5" t="n"/>
       <c r="B810" s="5" t="n"/>
       <c r="C810" s="5" t="n"/>
@@ -25020,7 +25042,7 @@
       <c r="AA810" s="5" t="n"/>
       <c r="AB810" s="5" t="n"/>
     </row>
-    <row r="811" ht="17.4" customHeight="1" s="17">
+    <row r="811" ht="17.4" customHeight="1" s="18">
       <c r="A811" s="5" t="n"/>
       <c r="B811" s="5" t="n"/>
       <c r="C811" s="5" t="n"/>
@@ -25050,7 +25072,7 @@
       <c r="AA811" s="5" t="n"/>
       <c r="AB811" s="5" t="n"/>
     </row>
-    <row r="812" ht="17.4" customHeight="1" s="17">
+    <row r="812" ht="17.4" customHeight="1" s="18">
       <c r="A812" s="5" t="n"/>
       <c r="B812" s="5" t="n"/>
       <c r="C812" s="5" t="n"/>
@@ -25080,7 +25102,7 @@
       <c r="AA812" s="5" t="n"/>
       <c r="AB812" s="5" t="n"/>
     </row>
-    <row r="813" ht="17.4" customHeight="1" s="17">
+    <row r="813" ht="17.4" customHeight="1" s="18">
       <c r="A813" s="5" t="n"/>
       <c r="B813" s="5" t="n"/>
       <c r="C813" s="5" t="n"/>
@@ -25110,7 +25132,7 @@
       <c r="AA813" s="5" t="n"/>
       <c r="AB813" s="5" t="n"/>
     </row>
-    <row r="814" ht="17.4" customHeight="1" s="17">
+    <row r="814" ht="17.4" customHeight="1" s="18">
       <c r="A814" s="5" t="n"/>
       <c r="B814" s="5" t="n"/>
       <c r="C814" s="5" t="n"/>
@@ -25140,7 +25162,7 @@
       <c r="AA814" s="5" t="n"/>
       <c r="AB814" s="5" t="n"/>
     </row>
-    <row r="815" ht="17.4" customHeight="1" s="17">
+    <row r="815" ht="17.4" customHeight="1" s="18">
       <c r="A815" s="5" t="n"/>
       <c r="B815" s="5" t="n"/>
       <c r="C815" s="5" t="n"/>
@@ -25170,7 +25192,7 @@
       <c r="AA815" s="5" t="n"/>
       <c r="AB815" s="5" t="n"/>
     </row>
-    <row r="816" ht="17.4" customHeight="1" s="17">
+    <row r="816" ht="17.4" customHeight="1" s="18">
       <c r="A816" s="5" t="n"/>
       <c r="B816" s="5" t="n"/>
       <c r="C816" s="5" t="n"/>
@@ -25200,7 +25222,7 @@
       <c r="AA816" s="5" t="n"/>
       <c r="AB816" s="5" t="n"/>
     </row>
-    <row r="817" ht="17.4" customHeight="1" s="17">
+    <row r="817" ht="17.4" customHeight="1" s="18">
       <c r="A817" s="5" t="n"/>
       <c r="B817" s="5" t="n"/>
       <c r="C817" s="5" t="n"/>
@@ -25230,7 +25252,7 @@
       <c r="AA817" s="5" t="n"/>
       <c r="AB817" s="5" t="n"/>
     </row>
-    <row r="818" ht="17.4" customHeight="1" s="17">
+    <row r="818" ht="17.4" customHeight="1" s="18">
       <c r="A818" s="5" t="n"/>
       <c r="B818" s="5" t="n"/>
       <c r="C818" s="5" t="n"/>
@@ -25260,7 +25282,7 @@
       <c r="AA818" s="5" t="n"/>
       <c r="AB818" s="5" t="n"/>
     </row>
-    <row r="819" ht="17.4" customHeight="1" s="17">
+    <row r="819" ht="17.4" customHeight="1" s="18">
       <c r="A819" s="5" t="n"/>
       <c r="B819" s="5" t="n"/>
       <c r="C819" s="5" t="n"/>
@@ -25290,7 +25312,7 @@
       <c r="AA819" s="5" t="n"/>
       <c r="AB819" s="5" t="n"/>
     </row>
-    <row r="820" ht="17.4" customHeight="1" s="17">
+    <row r="820" ht="17.4" customHeight="1" s="18">
       <c r="A820" s="5" t="n"/>
       <c r="B820" s="5" t="n"/>
       <c r="C820" s="5" t="n"/>
@@ -25320,7 +25342,7 @@
       <c r="AA820" s="5" t="n"/>
       <c r="AB820" s="5" t="n"/>
     </row>
-    <row r="821" ht="17.4" customHeight="1" s="17">
+    <row r="821" ht="17.4" customHeight="1" s="18">
       <c r="A821" s="5" t="n"/>
       <c r="B821" s="5" t="n"/>
       <c r="C821" s="5" t="n"/>
@@ -25350,7 +25372,7 @@
       <c r="AA821" s="5" t="n"/>
       <c r="AB821" s="5" t="n"/>
     </row>
-    <row r="822" ht="17.4" customHeight="1" s="17">
+    <row r="822" ht="17.4" customHeight="1" s="18">
       <c r="A822" s="5" t="n"/>
       <c r="B822" s="5" t="n"/>
       <c r="C822" s="5" t="n"/>
@@ -25380,7 +25402,7 @@
       <c r="AA822" s="5" t="n"/>
       <c r="AB822" s="5" t="n"/>
     </row>
-    <row r="823" ht="17.4" customHeight="1" s="17">
+    <row r="823" ht="17.4" customHeight="1" s="18">
       <c r="A823" s="5" t="n"/>
       <c r="B823" s="5" t="n"/>
       <c r="C823" s="5" t="n"/>
@@ -25410,7 +25432,7 @@
       <c r="AA823" s="5" t="n"/>
       <c r="AB823" s="5" t="n"/>
     </row>
-    <row r="824" ht="17.4" customHeight="1" s="17">
+    <row r="824" ht="17.4" customHeight="1" s="18">
       <c r="A824" s="5" t="n"/>
       <c r="B824" s="5" t="n"/>
       <c r="C824" s="5" t="n"/>
@@ -25440,7 +25462,7 @@
       <c r="AA824" s="5" t="n"/>
       <c r="AB824" s="5" t="n"/>
     </row>
-    <row r="825" ht="17.4" customHeight="1" s="17">
+    <row r="825" ht="17.4" customHeight="1" s="18">
       <c r="A825" s="5" t="n"/>
       <c r="B825" s="5" t="n"/>
       <c r="C825" s="5" t="n"/>
@@ -25470,7 +25492,7 @@
       <c r="AA825" s="5" t="n"/>
       <c r="AB825" s="5" t="n"/>
     </row>
-    <row r="826" ht="17.4" customHeight="1" s="17">
+    <row r="826" ht="17.4" customHeight="1" s="18">
       <c r="A826" s="5" t="n"/>
       <c r="B826" s="5" t="n"/>
       <c r="C826" s="5" t="n"/>
@@ -25500,7 +25522,7 @@
       <c r="AA826" s="5" t="n"/>
       <c r="AB826" s="5" t="n"/>
     </row>
-    <row r="827" ht="17.4" customHeight="1" s="17">
+    <row r="827" ht="17.4" customHeight="1" s="18">
       <c r="A827" s="5" t="n"/>
       <c r="B827" s="5" t="n"/>
       <c r="C827" s="5" t="n"/>
@@ -25530,7 +25552,7 @@
       <c r="AA827" s="5" t="n"/>
       <c r="AB827" s="5" t="n"/>
     </row>
-    <row r="828" ht="17.4" customHeight="1" s="17">
+    <row r="828" ht="17.4" customHeight="1" s="18">
       <c r="A828" s="5" t="n"/>
       <c r="B828" s="5" t="n"/>
       <c r="C828" s="5" t="n"/>
@@ -25560,7 +25582,7 @@
       <c r="AA828" s="5" t="n"/>
       <c r="AB828" s="5" t="n"/>
     </row>
-    <row r="829" ht="17.4" customHeight="1" s="17">
+    <row r="829" ht="17.4" customHeight="1" s="18">
       <c r="A829" s="5" t="n"/>
       <c r="B829" s="5" t="n"/>
       <c r="C829" s="5" t="n"/>
@@ -25590,7 +25612,7 @@
       <c r="AA829" s="5" t="n"/>
       <c r="AB829" s="5" t="n"/>
     </row>
-    <row r="830" ht="17.4" customHeight="1" s="17">
+    <row r="830" ht="17.4" customHeight="1" s="18">
       <c r="A830" s="5" t="n"/>
       <c r="B830" s="5" t="n"/>
       <c r="C830" s="5" t="n"/>
@@ -25620,7 +25642,7 @@
       <c r="AA830" s="5" t="n"/>
       <c r="AB830" s="5" t="n"/>
     </row>
-    <row r="831" ht="17.4" customHeight="1" s="17">
+    <row r="831" ht="17.4" customHeight="1" s="18">
       <c r="A831" s="5" t="n"/>
       <c r="B831" s="5" t="n"/>
       <c r="C831" s="5" t="n"/>
@@ -25650,7 +25672,7 @@
       <c r="AA831" s="5" t="n"/>
       <c r="AB831" s="5" t="n"/>
     </row>
-    <row r="832" ht="17.4" customHeight="1" s="17">
+    <row r="832" ht="17.4" customHeight="1" s="18">
       <c r="A832" s="5" t="n"/>
       <c r="B832" s="5" t="n"/>
       <c r="C832" s="5" t="n"/>
@@ -25680,7 +25702,7 @@
       <c r="AA832" s="5" t="n"/>
       <c r="AB832" s="5" t="n"/>
     </row>
-    <row r="833" ht="17.4" customHeight="1" s="17">
+    <row r="833" ht="17.4" customHeight="1" s="18">
       <c r="A833" s="5" t="n"/>
       <c r="B833" s="5" t="n"/>
       <c r="C833" s="5" t="n"/>
@@ -25710,7 +25732,7 @@
       <c r="AA833" s="5" t="n"/>
       <c r="AB833" s="5" t="n"/>
     </row>
-    <row r="834" ht="17.4" customHeight="1" s="17">
+    <row r="834" ht="17.4" customHeight="1" s="18">
       <c r="A834" s="5" t="n"/>
       <c r="B834" s="5" t="n"/>
       <c r="C834" s="5" t="n"/>
@@ -25740,7 +25762,7 @@
       <c r="AA834" s="5" t="n"/>
       <c r="AB834" s="5" t="n"/>
     </row>
-    <row r="835" ht="17.4" customHeight="1" s="17">
+    <row r="835" ht="17.4" customHeight="1" s="18">
       <c r="A835" s="5" t="n"/>
       <c r="B835" s="5" t="n"/>
       <c r="C835" s="5" t="n"/>
@@ -25770,7 +25792,7 @@
       <c r="AA835" s="5" t="n"/>
       <c r="AB835" s="5" t="n"/>
     </row>
-    <row r="836" ht="17.4" customHeight="1" s="17">
+    <row r="836" ht="17.4" customHeight="1" s="18">
       <c r="A836" s="5" t="n"/>
       <c r="B836" s="5" t="n"/>
       <c r="C836" s="5" t="n"/>
@@ -25800,7 +25822,7 @@
       <c r="AA836" s="5" t="n"/>
       <c r="AB836" s="5" t="n"/>
     </row>
-    <row r="837" ht="17.4" customHeight="1" s="17">
+    <row r="837" ht="17.4" customHeight="1" s="18">
       <c r="A837" s="5" t="n"/>
       <c r="B837" s="5" t="n"/>
       <c r="C837" s="5" t="n"/>
@@ -25830,7 +25852,7 @@
       <c r="AA837" s="5" t="n"/>
       <c r="AB837" s="5" t="n"/>
     </row>
-    <row r="838" ht="17.4" customHeight="1" s="17">
+    <row r="838" ht="17.4" customHeight="1" s="18">
       <c r="A838" s="5" t="n"/>
       <c r="B838" s="5" t="n"/>
       <c r="C838" s="5" t="n"/>
@@ -25860,7 +25882,7 @@
       <c r="AA838" s="5" t="n"/>
       <c r="AB838" s="5" t="n"/>
     </row>
-    <row r="839" ht="17.4" customHeight="1" s="17">
+    <row r="839" ht="17.4" customHeight="1" s="18">
       <c r="A839" s="5" t="n"/>
       <c r="B839" s="5" t="n"/>
       <c r="C839" s="5" t="n"/>
@@ -25890,7 +25912,7 @@
       <c r="AA839" s="5" t="n"/>
       <c r="AB839" s="5" t="n"/>
     </row>
-    <row r="840" ht="17.4" customHeight="1" s="17">
+    <row r="840" ht="17.4" customHeight="1" s="18">
       <c r="A840" s="5" t="n"/>
       <c r="B840" s="5" t="n"/>
       <c r="C840" s="5" t="n"/>
@@ -25920,7 +25942,7 @@
       <c r="AA840" s="5" t="n"/>
       <c r="AB840" s="5" t="n"/>
     </row>
-    <row r="841" ht="17.4" customHeight="1" s="17">
+    <row r="841" ht="17.4" customHeight="1" s="18">
       <c r="A841" s="5" t="n"/>
       <c r="B841" s="5" t="n"/>
       <c r="C841" s="5" t="n"/>
@@ -25950,7 +25972,7 @@
       <c r="AA841" s="5" t="n"/>
       <c r="AB841" s="5" t="n"/>
     </row>
-    <row r="842" ht="17.4" customHeight="1" s="17">
+    <row r="842" ht="17.4" customHeight="1" s="18">
       <c r="A842" s="5" t="n"/>
       <c r="B842" s="5" t="n"/>
       <c r="C842" s="5" t="n"/>
@@ -25980,7 +26002,7 @@
       <c r="AA842" s="5" t="n"/>
       <c r="AB842" s="5" t="n"/>
     </row>
-    <row r="843" ht="17.4" customHeight="1" s="17">
+    <row r="843" ht="17.4" customHeight="1" s="18">
       <c r="A843" s="5" t="n"/>
       <c r="B843" s="5" t="n"/>
       <c r="C843" s="5" t="n"/>
@@ -26010,7 +26032,7 @@
       <c r="AA843" s="5" t="n"/>
       <c r="AB843" s="5" t="n"/>
     </row>
-    <row r="844" ht="17.4" customHeight="1" s="17">
+    <row r="844" ht="17.4" customHeight="1" s="18">
       <c r="A844" s="5" t="n"/>
       <c r="B844" s="5" t="n"/>
       <c r="C844" s="5" t="n"/>
@@ -26040,7 +26062,7 @@
       <c r="AA844" s="5" t="n"/>
       <c r="AB844" s="5" t="n"/>
     </row>
-    <row r="845" ht="17.4" customHeight="1" s="17">
+    <row r="845" ht="17.4" customHeight="1" s="18">
       <c r="A845" s="5" t="n"/>
       <c r="B845" s="5" t="n"/>
       <c r="C845" s="5" t="n"/>
@@ -26070,7 +26092,7 @@
       <c r="AA845" s="5" t="n"/>
       <c r="AB845" s="5" t="n"/>
     </row>
-    <row r="846" ht="17.4" customHeight="1" s="17">
+    <row r="846" ht="17.4" customHeight="1" s="18">
       <c r="A846" s="5" t="n"/>
       <c r="B846" s="5" t="n"/>
       <c r="C846" s="5" t="n"/>
@@ -26100,7 +26122,7 @@
       <c r="AA846" s="5" t="n"/>
       <c r="AB846" s="5" t="n"/>
     </row>
-    <row r="847" ht="17.4" customHeight="1" s="17">
+    <row r="847" ht="17.4" customHeight="1" s="18">
       <c r="A847" s="5" t="n"/>
       <c r="B847" s="5" t="n"/>
       <c r="C847" s="5" t="n"/>
@@ -26130,7 +26152,7 @@
       <c r="AA847" s="5" t="n"/>
       <c r="AB847" s="5" t="n"/>
     </row>
-    <row r="848" ht="17.4" customHeight="1" s="17">
+    <row r="848" ht="17.4" customHeight="1" s="18">
       <c r="A848" s="5" t="n"/>
       <c r="B848" s="5" t="n"/>
       <c r="C848" s="5" t="n"/>
@@ -26160,7 +26182,7 @@
       <c r="AA848" s="5" t="n"/>
       <c r="AB848" s="5" t="n"/>
     </row>
-    <row r="849" ht="17.4" customHeight="1" s="17">
+    <row r="849" ht="17.4" customHeight="1" s="18">
       <c r="A849" s="5" t="n"/>
       <c r="B849" s="5" t="n"/>
       <c r="C849" s="5" t="n"/>
@@ -26190,7 +26212,7 @@
       <c r="AA849" s="5" t="n"/>
       <c r="AB849" s="5" t="n"/>
     </row>
-    <row r="850" ht="17.4" customHeight="1" s="17">
+    <row r="850" ht="17.4" customHeight="1" s="18">
       <c r="A850" s="5" t="n"/>
       <c r="B850" s="5" t="n"/>
       <c r="C850" s="5" t="n"/>
@@ -26220,7 +26242,7 @@
       <c r="AA850" s="5" t="n"/>
       <c r="AB850" s="5" t="n"/>
     </row>
-    <row r="851" ht="17.4" customHeight="1" s="17">
+    <row r="851" ht="17.4" customHeight="1" s="18">
       <c r="A851" s="5" t="n"/>
       <c r="B851" s="5" t="n"/>
       <c r="C851" s="5" t="n"/>
@@ -26250,7 +26272,7 @@
       <c r="AA851" s="5" t="n"/>
       <c r="AB851" s="5" t="n"/>
     </row>
-    <row r="852" ht="17.4" customHeight="1" s="17">
+    <row r="852" ht="17.4" customHeight="1" s="18">
       <c r="A852" s="5" t="n"/>
       <c r="B852" s="5" t="n"/>
       <c r="C852" s="5" t="n"/>
@@ -26280,7 +26302,7 @@
       <c r="AA852" s="5" t="n"/>
       <c r="AB852" s="5" t="n"/>
     </row>
-    <row r="853" ht="17.4" customHeight="1" s="17">
+    <row r="853" ht="17.4" customHeight="1" s="18">
       <c r="A853" s="5" t="n"/>
       <c r="B853" s="5" t="n"/>
       <c r="C853" s="5" t="n"/>
@@ -26310,7 +26332,7 @@
       <c r="AA853" s="5" t="n"/>
       <c r="AB853" s="5" t="n"/>
     </row>
-    <row r="854" ht="17.4" customHeight="1" s="17">
+    <row r="854" ht="17.4" customHeight="1" s="18">
       <c r="A854" s="5" t="n"/>
       <c r="B854" s="5" t="n"/>
       <c r="C854" s="5" t="n"/>
@@ -26340,7 +26362,7 @@
       <c r="AA854" s="5" t="n"/>
       <c r="AB854" s="5" t="n"/>
     </row>
-    <row r="855" ht="17.4" customHeight="1" s="17">
+    <row r="855" ht="17.4" customHeight="1" s="18">
       <c r="A855" s="5" t="n"/>
       <c r="B855" s="5" t="n"/>
       <c r="C855" s="5" t="n"/>
@@ -26370,7 +26392,7 @@
       <c r="AA855" s="5" t="n"/>
       <c r="AB855" s="5" t="n"/>
     </row>
-    <row r="856" ht="17.4" customHeight="1" s="17">
+    <row r="856" ht="17.4" customHeight="1" s="18">
       <c r="A856" s="5" t="n"/>
       <c r="B856" s="5" t="n"/>
       <c r="C856" s="5" t="n"/>
@@ -26400,7 +26422,7 @@
       <c r="AA856" s="5" t="n"/>
       <c r="AB856" s="5" t="n"/>
     </row>
-    <row r="857" ht="17.4" customHeight="1" s="17">
+    <row r="857" ht="17.4" customHeight="1" s="18">
       <c r="A857" s="5" t="n"/>
       <c r="B857" s="5" t="n"/>
       <c r="C857" s="5" t="n"/>
@@ -26430,7 +26452,7 @@
       <c r="AA857" s="5" t="n"/>
       <c r="AB857" s="5" t="n"/>
     </row>
-    <row r="858" ht="17.4" customHeight="1" s="17">
+    <row r="858" ht="17.4" customHeight="1" s="18">
       <c r="A858" s="5" t="n"/>
       <c r="B858" s="5" t="n"/>
       <c r="C858" s="5" t="n"/>
@@ -26460,7 +26482,7 @@
       <c r="AA858" s="5" t="n"/>
       <c r="AB858" s="5" t="n"/>
     </row>
-    <row r="859" ht="17.4" customHeight="1" s="17">
+    <row r="859" ht="17.4" customHeight="1" s="18">
       <c r="A859" s="5" t="n"/>
       <c r="B859" s="5" t="n"/>
       <c r="C859" s="5" t="n"/>
@@ -26490,7 +26512,7 @@
       <c r="AA859" s="5" t="n"/>
       <c r="AB859" s="5" t="n"/>
     </row>
-    <row r="860" ht="17.4" customHeight="1" s="17">
+    <row r="860" ht="17.4" customHeight="1" s="18">
       <c r="A860" s="5" t="n"/>
       <c r="B860" s="5" t="n"/>
       <c r="C860" s="5" t="n"/>
@@ -26520,7 +26542,7 @@
       <c r="AA860" s="5" t="n"/>
       <c r="AB860" s="5" t="n"/>
     </row>
-    <row r="861" ht="17.4" customHeight="1" s="17">
+    <row r="861" ht="17.4" customHeight="1" s="18">
       <c r="A861" s="5" t="n"/>
       <c r="B861" s="5" t="n"/>
       <c r="C861" s="5" t="n"/>
@@ -26550,7 +26572,7 @@
       <c r="AA861" s="5" t="n"/>
       <c r="AB861" s="5" t="n"/>
     </row>
-    <row r="862" ht="17.4" customHeight="1" s="17">
+    <row r="862" ht="17.4" customHeight="1" s="18">
       <c r="A862" s="5" t="n"/>
       <c r="B862" s="5" t="n"/>
       <c r="C862" s="5" t="n"/>
@@ -26580,7 +26602,7 @@
       <c r="AA862" s="5" t="n"/>
       <c r="AB862" s="5" t="n"/>
     </row>
-    <row r="863" ht="17.4" customHeight="1" s="17">
+    <row r="863" ht="17.4" customHeight="1" s="18">
       <c r="A863" s="5" t="n"/>
       <c r="B863" s="5" t="n"/>
       <c r="C863" s="5" t="n"/>
@@ -26610,7 +26632,7 @@
       <c r="AA863" s="5" t="n"/>
       <c r="AB863" s="5" t="n"/>
     </row>
-    <row r="864" ht="17.4" customHeight="1" s="17">
+    <row r="864" ht="17.4" customHeight="1" s="18">
       <c r="A864" s="5" t="n"/>
       <c r="B864" s="5" t="n"/>
       <c r="C864" s="5" t="n"/>
@@ -26640,7 +26662,7 @@
       <c r="AA864" s="5" t="n"/>
       <c r="AB864" s="5" t="n"/>
     </row>
-    <row r="865" ht="17.4" customHeight="1" s="17">
+    <row r="865" ht="17.4" customHeight="1" s="18">
       <c r="A865" s="5" t="n"/>
       <c r="B865" s="5" t="n"/>
       <c r="C865" s="5" t="n"/>
@@ -26670,7 +26692,7 @@
       <c r="AA865" s="5" t="n"/>
       <c r="AB865" s="5" t="n"/>
     </row>
-    <row r="866" ht="17.4" customHeight="1" s="17">
+    <row r="866" ht="17.4" customHeight="1" s="18">
       <c r="A866" s="5" t="n"/>
       <c r="B866" s="5" t="n"/>
       <c r="C866" s="5" t="n"/>
@@ -26700,7 +26722,7 @@
       <c r="AA866" s="5" t="n"/>
       <c r="AB866" s="5" t="n"/>
     </row>
-    <row r="867" ht="17.4" customHeight="1" s="17">
+    <row r="867" ht="17.4" customHeight="1" s="18">
       <c r="A867" s="5" t="n"/>
       <c r="B867" s="5" t="n"/>
       <c r="C867" s="5" t="n"/>
@@ -26730,7 +26752,7 @@
       <c r="AA867" s="5" t="n"/>
       <c r="AB867" s="5" t="n"/>
     </row>
-    <row r="868" ht="17.4" customHeight="1" s="17">
+    <row r="868" ht="17.4" customHeight="1" s="18">
       <c r="A868" s="5" t="n"/>
       <c r="B868" s="5" t="n"/>
       <c r="C868" s="5" t="n"/>
@@ -26760,7 +26782,7 @@
       <c r="AA868" s="5" t="n"/>
       <c r="AB868" s="5" t="n"/>
     </row>
-    <row r="869" ht="17.4" customHeight="1" s="17">
+    <row r="869" ht="17.4" customHeight="1" s="18">
       <c r="A869" s="5" t="n"/>
       <c r="B869" s="5" t="n"/>
       <c r="C869" s="5" t="n"/>
@@ -26790,7 +26812,7 @@
       <c r="AA869" s="5" t="n"/>
       <c r="AB869" s="5" t="n"/>
     </row>
-    <row r="870" ht="17.4" customHeight="1" s="17">
+    <row r="870" ht="17.4" customHeight="1" s="18">
       <c r="A870" s="5" t="n"/>
       <c r="B870" s="5" t="n"/>
       <c r="C870" s="5" t="n"/>
@@ -26820,7 +26842,7 @@
       <c r="AA870" s="5" t="n"/>
       <c r="AB870" s="5" t="n"/>
     </row>
-    <row r="871" ht="17.4" customHeight="1" s="17">
+    <row r="871" ht="17.4" customHeight="1" s="18">
       <c r="A871" s="5" t="n"/>
       <c r="B871" s="5" t="n"/>
       <c r="C871" s="5" t="n"/>
@@ -26850,7 +26872,7 @@
       <c r="AA871" s="5" t="n"/>
       <c r="AB871" s="5" t="n"/>
     </row>
-    <row r="872" ht="17.4" customHeight="1" s="17">
+    <row r="872" ht="17.4" customHeight="1" s="18">
       <c r="A872" s="5" t="n"/>
       <c r="B872" s="5" t="n"/>
       <c r="C872" s="5" t="n"/>
@@ -26880,7 +26902,7 @@
       <c r="AA872" s="5" t="n"/>
       <c r="AB872" s="5" t="n"/>
     </row>
-    <row r="873" ht="17.4" customHeight="1" s="17">
+    <row r="873" ht="17.4" customHeight="1" s="18">
       <c r="A873" s="5" t="n"/>
       <c r="B873" s="5" t="n"/>
       <c r="C873" s="5" t="n"/>
@@ -26910,7 +26932,7 @@
       <c r="AA873" s="5" t="n"/>
       <c r="AB873" s="5" t="n"/>
     </row>
-    <row r="874" ht="17.4" customHeight="1" s="17">
+    <row r="874" ht="17.4" customHeight="1" s="18">
       <c r="A874" s="5" t="n"/>
       <c r="B874" s="5" t="n"/>
       <c r="C874" s="5" t="n"/>
@@ -26940,7 +26962,7 @@
       <c r="AA874" s="5" t="n"/>
       <c r="AB874" s="5" t="n"/>
     </row>
-    <row r="875" ht="17.4" customHeight="1" s="17">
+    <row r="875" ht="17.4" customHeight="1" s="18">
       <c r="A875" s="5" t="n"/>
       <c r="B875" s="5" t="n"/>
       <c r="C875" s="5" t="n"/>
@@ -26970,7 +26992,7 @@
       <c r="AA875" s="5" t="n"/>
       <c r="AB875" s="5" t="n"/>
     </row>
-    <row r="876" ht="17.4" customHeight="1" s="17">
+    <row r="876" ht="17.4" customHeight="1" s="18">
       <c r="A876" s="5" t="n"/>
       <c r="B876" s="5" t="n"/>
       <c r="C876" s="5" t="n"/>
@@ -27000,7 +27022,7 @@
       <c r="AA876" s="5" t="n"/>
       <c r="AB876" s="5" t="n"/>
     </row>
-    <row r="877" ht="17.4" customHeight="1" s="17">
+    <row r="877" ht="17.4" customHeight="1" s="18">
       <c r="A877" s="5" t="n"/>
       <c r="B877" s="5" t="n"/>
       <c r="C877" s="5" t="n"/>
@@ -27030,7 +27052,7 @@
       <c r="AA877" s="5" t="n"/>
       <c r="AB877" s="5" t="n"/>
     </row>
-    <row r="878" ht="17.4" customHeight="1" s="17">
+    <row r="878" ht="17.4" customHeight="1" s="18">
       <c r="A878" s="5" t="n"/>
       <c r="B878" s="5" t="n"/>
       <c r="C878" s="5" t="n"/>
@@ -27060,7 +27082,7 @@
       <c r="AA878" s="5" t="n"/>
       <c r="AB878" s="5" t="n"/>
     </row>
-    <row r="879" ht="17.4" customHeight="1" s="17">
+    <row r="879" ht="17.4" customHeight="1" s="18">
       <c r="A879" s="5" t="n"/>
       <c r="B879" s="5" t="n"/>
       <c r="C879" s="5" t="n"/>
@@ -27090,7 +27112,7 @@
       <c r="AA879" s="5" t="n"/>
       <c r="AB879" s="5" t="n"/>
     </row>
-    <row r="880" ht="17.4" customHeight="1" s="17">
+    <row r="880" ht="17.4" customHeight="1" s="18">
       <c r="A880" s="5" t="n"/>
       <c r="B880" s="5" t="n"/>
       <c r="C880" s="5" t="n"/>
@@ -27120,7 +27142,7 @@
       <c r="AA880" s="5" t="n"/>
       <c r="AB880" s="5" t="n"/>
     </row>
-    <row r="881" ht="17.4" customHeight="1" s="17">
+    <row r="881" ht="17.4" customHeight="1" s="18">
       <c r="A881" s="5" t="n"/>
       <c r="B881" s="5" t="n"/>
       <c r="C881" s="5" t="n"/>
@@ -27150,7 +27172,7 @@
       <c r="AA881" s="5" t="n"/>
       <c r="AB881" s="5" t="n"/>
     </row>
-    <row r="882" ht="17.4" customHeight="1" s="17">
+    <row r="882" ht="17.4" customHeight="1" s="18">
       <c r="A882" s="5" t="n"/>
       <c r="B882" s="5" t="n"/>
       <c r="C882" s="5" t="n"/>
@@ -27180,7 +27202,7 @@
       <c r="AA882" s="5" t="n"/>
       <c r="AB882" s="5" t="n"/>
     </row>
-    <row r="883" ht="17.4" customHeight="1" s="17">
+    <row r="883" ht="17.4" customHeight="1" s="18">
       <c r="A883" s="5" t="n"/>
       <c r="B883" s="5" t="n"/>
       <c r="C883" s="5" t="n"/>
@@ -27210,7 +27232,7 @@
       <c r="AA883" s="5" t="n"/>
       <c r="AB883" s="5" t="n"/>
     </row>
-    <row r="884" ht="17.4" customHeight="1" s="17">
+    <row r="884" ht="17.4" customHeight="1" s="18">
       <c r="A884" s="5" t="n"/>
       <c r="B884" s="5" t="n"/>
       <c r="C884" s="5" t="n"/>
@@ -27240,7 +27262,7 @@
       <c r="AA884" s="5" t="n"/>
       <c r="AB884" s="5" t="n"/>
     </row>
-    <row r="885" ht="17.4" customHeight="1" s="17">
+    <row r="885" ht="17.4" customHeight="1" s="18">
       <c r="A885" s="5" t="n"/>
       <c r="B885" s="5" t="n"/>
       <c r="C885" s="5" t="n"/>
@@ -27270,7 +27292,7 @@
       <c r="AA885" s="5" t="n"/>
       <c r="AB885" s="5" t="n"/>
     </row>
-    <row r="886" ht="17.4" customHeight="1" s="17">
+    <row r="886" ht="17.4" customHeight="1" s="18">
       <c r="A886" s="5" t="n"/>
       <c r="B886" s="5" t="n"/>
       <c r="C886" s="5" t="n"/>
@@ -27300,7 +27322,7 @@
       <c r="AA886" s="5" t="n"/>
       <c r="AB886" s="5" t="n"/>
     </row>
-    <row r="887" ht="17.4" customHeight="1" s="17">
+    <row r="887" ht="17.4" customHeight="1" s="18">
       <c r="A887" s="5" t="n"/>
       <c r="B887" s="5" t="n"/>
       <c r="C887" s="5" t="n"/>
@@ -27330,7 +27352,7 @@
       <c r="AA887" s="5" t="n"/>
       <c r="AB887" s="5" t="n"/>
     </row>
-    <row r="888" ht="17.4" customHeight="1" s="17">
+    <row r="888" ht="17.4" customHeight="1" s="18">
       <c r="A888" s="5" t="n"/>
       <c r="B888" s="5" t="n"/>
       <c r="C888" s="5" t="n"/>
@@ -27360,7 +27382,7 @@
       <c r="AA888" s="5" t="n"/>
       <c r="AB888" s="5" t="n"/>
     </row>
-    <row r="889" ht="17.4" customHeight="1" s="17">
+    <row r="889" ht="17.4" customHeight="1" s="18">
       <c r="A889" s="5" t="n"/>
       <c r="B889" s="5" t="n"/>
       <c r="C889" s="5" t="n"/>
@@ -27390,7 +27412,7 @@
       <c r="AA889" s="5" t="n"/>
       <c r="AB889" s="5" t="n"/>
     </row>
-    <row r="890" ht="17.4" customHeight="1" s="17">
+    <row r="890" ht="17.4" customHeight="1" s="18">
       <c r="A890" s="5" t="n"/>
       <c r="B890" s="5" t="n"/>
       <c r="C890" s="5" t="n"/>
@@ -27420,7 +27442,7 @@
       <c r="AA890" s="5" t="n"/>
       <c r="AB890" s="5" t="n"/>
     </row>
-    <row r="891" ht="17.4" customHeight="1" s="17">
+    <row r="891" ht="17.4" customHeight="1" s="18">
       <c r="A891" s="5" t="n"/>
       <c r="B891" s="5" t="n"/>
       <c r="C891" s="5" t="n"/>
@@ -27450,7 +27472,7 @@
       <c r="AA891" s="5" t="n"/>
       <c r="AB891" s="5" t="n"/>
     </row>
-    <row r="892" ht="17.4" customHeight="1" s="17">
+    <row r="892" ht="17.4" customHeight="1" s="18">
       <c r="A892" s="5" t="n"/>
       <c r="B892" s="5" t="n"/>
       <c r="C892" s="5" t="n"/>
@@ -27480,7 +27502,7 @@
       <c r="AA892" s="5" t="n"/>
       <c r="AB892" s="5" t="n"/>
     </row>
-    <row r="893" ht="17.4" customHeight="1" s="17">
+    <row r="893" ht="17.4" customHeight="1" s="18">
       <c r="A893" s="5" t="n"/>
       <c r="B893" s="5" t="n"/>
       <c r="C893" s="5" t="n"/>
@@ -27510,7 +27532,7 @@
       <c r="AA893" s="5" t="n"/>
       <c r="AB893" s="5" t="n"/>
     </row>
-    <row r="894" ht="17.4" customHeight="1" s="17">
+    <row r="894" ht="17.4" customHeight="1" s="18">
       <c r="A894" s="5" t="n"/>
       <c r="B894" s="5" t="n"/>
       <c r="C894" s="5" t="n"/>
@@ -27540,7 +27562,7 @@
       <c r="AA894" s="5" t="n"/>
       <c r="AB894" s="5" t="n"/>
     </row>
-    <row r="895" ht="17.4" customHeight="1" s="17">
+    <row r="895" ht="17.4" customHeight="1" s="18">
       <c r="A895" s="5" t="n"/>
       <c r="B895" s="5" t="n"/>
       <c r="C895" s="5" t="n"/>
@@ -27570,7 +27592,7 @@
       <c r="AA895" s="5" t="n"/>
       <c r="AB895" s="5" t="n"/>
     </row>
-    <row r="896" ht="17.4" customHeight="1" s="17">
+    <row r="896" ht="17.4" customHeight="1" s="18">
       <c r="A896" s="5" t="n"/>
       <c r="B896" s="5" t="n"/>
       <c r="C896" s="5" t="n"/>
@@ -27600,7 +27622,7 @@
       <c r="AA896" s="5" t="n"/>
       <c r="AB896" s="5" t="n"/>
     </row>
-    <row r="897" ht="17.4" customHeight="1" s="17">
+    <row r="897" ht="17.4" customHeight="1" s="18">
       <c r="A897" s="5" t="n"/>
       <c r="B897" s="5" t="n"/>
       <c r="C897" s="5" t="n"/>
@@ -27630,7 +27652,7 @@
       <c r="AA897" s="5" t="n"/>
       <c r="AB897" s="5" t="n"/>
     </row>
-    <row r="898" ht="17.4" customHeight="1" s="17">
+    <row r="898" ht="17.4" customHeight="1" s="18">
       <c r="A898" s="5" t="n"/>
       <c r="B898" s="5" t="n"/>
       <c r="C898" s="5" t="n"/>
@@ -27660,7 +27682,7 @@
       <c r="AA898" s="5" t="n"/>
       <c r="AB898" s="5" t="n"/>
     </row>
-    <row r="899" ht="17.4" customHeight="1" s="17">
+    <row r="899" ht="17.4" customHeight="1" s="18">
       <c r="A899" s="5" t="n"/>
       <c r="B899" s="5" t="n"/>
       <c r="C899" s="5" t="n"/>
@@ -27690,7 +27712,7 @@
       <c r="AA899" s="5" t="n"/>
       <c r="AB899" s="5" t="n"/>
     </row>
-    <row r="900" ht="17.4" customHeight="1" s="17">
+    <row r="900" ht="17.4" customHeight="1" s="18">
       <c r="A900" s="5" t="n"/>
       <c r="B900" s="5" t="n"/>
       <c r="C900" s="5" t="n"/>
@@ -27720,7 +27742,7 @@
       <c r="AA900" s="5" t="n"/>
       <c r="AB900" s="5" t="n"/>
     </row>
-    <row r="901" ht="17.4" customHeight="1" s="17">
+    <row r="901" ht="17.4" customHeight="1" s="18">
       <c r="A901" s="5" t="n"/>
       <c r="B901" s="5" t="n"/>
       <c r="C901" s="5" t="n"/>
@@ -27750,7 +27772,7 @@
       <c r="AA901" s="5" t="n"/>
       <c r="AB901" s="5" t="n"/>
     </row>
-    <row r="902" ht="17.4" customHeight="1" s="17">
+    <row r="902" ht="17.4" customHeight="1" s="18">
       <c r="A902" s="5" t="n"/>
       <c r="B902" s="5" t="n"/>
       <c r="C902" s="5" t="n"/>
@@ -27780,7 +27802,7 @@
       <c r="AA902" s="5" t="n"/>
       <c r="AB902" s="5" t="n"/>
     </row>
-    <row r="903" ht="17.4" customHeight="1" s="17">
+    <row r="903" ht="17.4" customHeight="1" s="18">
       <c r="A903" s="5" t="n"/>
       <c r="B903" s="5" t="n"/>
       <c r="C903" s="5" t="n"/>
@@ -27810,7 +27832,7 @@
       <c r="AA903" s="5" t="n"/>
       <c r="AB903" s="5" t="n"/>
     </row>
-    <row r="904" ht="17.4" customHeight="1" s="17">
+    <row r="904" ht="17.4" customHeight="1" s="18">
       <c r="A904" s="5" t="n"/>
       <c r="B904" s="5" t="n"/>
       <c r="C904" s="5" t="n"/>
@@ -27840,7 +27862,7 @@
       <c r="AA904" s="5" t="n"/>
       <c r="AB904" s="5" t="n"/>
     </row>
-    <row r="905" ht="17.4" customHeight="1" s="17">
+    <row r="905" ht="17.4" customHeight="1" s="18">
       <c r="A905" s="5" t="n"/>
       <c r="B905" s="5" t="n"/>
       <c r="C905" s="5" t="n"/>
@@ -27870,7 +27892,7 @@
       <c r="AA905" s="5" t="n"/>
       <c r="AB905" s="5" t="n"/>
     </row>
-    <row r="906" ht="17.4" customHeight="1" s="17">
+    <row r="906" ht="17.4" customHeight="1" s="18">
       <c r="A906" s="5" t="n"/>
       <c r="B906" s="5" t="n"/>
       <c r="C906" s="5" t="n"/>
@@ -27900,7 +27922,7 @@
       <c r="AA906" s="5" t="n"/>
       <c r="AB906" s="5" t="n"/>
     </row>
-    <row r="907" ht="17.4" customHeight="1" s="17">
+    <row r="907" ht="17.4" customHeight="1" s="18">
       <c r="A907" s="5" t="n"/>
       <c r="B907" s="5" t="n"/>
       <c r="C907" s="5" t="n"/>
@@ -27930,7 +27952,7 @@
       <c r="AA907" s="5" t="n"/>
       <c r="AB907" s="5" t="n"/>
     </row>
-    <row r="908" ht="17.4" customHeight="1" s="17">
+    <row r="908" ht="17.4" customHeight="1" s="18">
       <c r="A908" s="5" t="n"/>
       <c r="B908" s="5" t="n"/>
       <c r="C908" s="5" t="n"/>
@@ -27960,7 +27982,7 @@
       <c r="AA908" s="5" t="n"/>
       <c r="AB908" s="5" t="n"/>
     </row>
-    <row r="909" ht="17.4" customHeight="1" s="17">
+    <row r="909" ht="17.4" customHeight="1" s="18">
       <c r="A909" s="5" t="n"/>
       <c r="B909" s="5" t="n"/>
       <c r="C909" s="5" t="n"/>
@@ -27990,7 +28012,7 @@
       <c r="AA909" s="5" t="n"/>
       <c r="AB909" s="5" t="n"/>
     </row>
-    <row r="910" ht="17.4" customHeight="1" s="17">
+    <row r="910" ht="17.4" customHeight="1" s="18">
       <c r="A910" s="5" t="n"/>
       <c r="B910" s="5" t="n"/>
       <c r="C910" s="5" t="n"/>
@@ -28020,7 +28042,7 @@
       <c r="AA910" s="5" t="n"/>
       <c r="AB910" s="5" t="n"/>
     </row>
-    <row r="911" ht="17.4" customHeight="1" s="17">
+    <row r="911" ht="17.4" customHeight="1" s="18">
       <c r="A911" s="5" t="n"/>
       <c r="B911" s="5" t="n"/>
       <c r="C911" s="5" t="n"/>
@@ -28050,7 +28072,7 @@
       <c r="AA911" s="5" t="n"/>
       <c r="AB911" s="5" t="n"/>
     </row>
-    <row r="912" ht="17.4" customHeight="1" s="17">
+    <row r="912" ht="17.4" customHeight="1" s="18">
       <c r="A912" s="5" t="n"/>
       <c r="B912" s="5" t="n"/>
       <c r="C912" s="5" t="n"/>
@@ -28080,7 +28102,7 @@
       <c r="AA912" s="5" t="n"/>
       <c r="AB912" s="5" t="n"/>
     </row>
-    <row r="913" ht="17.4" customHeight="1" s="17">
+    <row r="913" ht="17.4" customHeight="1" s="18">
       <c r="A913" s="5" t="n"/>
       <c r="B913" s="5" t="n"/>
       <c r="C913" s="5" t="n"/>
@@ -28110,7 +28132,7 @@
       <c r="AA913" s="5" t="n"/>
       <c r="AB913" s="5" t="n"/>
     </row>
-    <row r="914" ht="17.4" customHeight="1" s="17">
+    <row r="914" ht="17.4" customHeight="1" s="18">
       <c r="A914" s="5" t="n"/>
       <c r="B914" s="5" t="n"/>
       <c r="C914" s="5" t="n"/>
@@ -28140,7 +28162,7 @@
       <c r="AA914" s="5" t="n"/>
       <c r="AB914" s="5" t="n"/>
     </row>
-    <row r="915" ht="17.4" customHeight="1" s="17">
+    <row r="915" ht="17.4" customHeight="1" s="18">
       <c r="A915" s="5" t="n"/>
       <c r="B915" s="5" t="n"/>
       <c r="C915" s="5" t="n"/>
@@ -28170,7 +28192,7 @@
       <c r="AA915" s="5" t="n"/>
       <c r="AB915" s="5" t="n"/>
     </row>
-    <row r="916" ht="17.4" customHeight="1" s="17">
+    <row r="916" ht="17.4" customHeight="1" s="18">
       <c r="A916" s="5" t="n"/>
       <c r="B916" s="5" t="n"/>
       <c r="C916" s="5" t="n"/>
@@ -28200,7 +28222,7 @@
       <c r="AA916" s="5" t="n"/>
       <c r="AB916" s="5" t="n"/>
     </row>
-    <row r="917" ht="17.4" customHeight="1" s="17">
+    <row r="917" ht="17.4" customHeight="1" s="18">
       <c r="A917" s="5" t="n"/>
       <c r="B917" s="5" t="n"/>
       <c r="C917" s="5" t="n"/>
@@ -28230,7 +28252,7 @@
       <c r="AA917" s="5" t="n"/>
       <c r="AB917" s="5" t="n"/>
     </row>
-    <row r="918" ht="17.4" customHeight="1" s="17">
+    <row r="918" ht="17.4" customHeight="1" s="18">
       <c r="A918" s="5" t="n"/>
       <c r="B918" s="5" t="n"/>
       <c r="C918" s="5" t="n"/>
@@ -28260,7 +28282,7 @@
       <c r="AA918" s="5" t="n"/>
       <c r="AB918" s="5" t="n"/>
     </row>
-    <row r="919" ht="17.4" customHeight="1" s="17">
+    <row r="919" ht="17.4" customHeight="1" s="18">
       <c r="A919" s="5" t="n"/>
       <c r="B919" s="5" t="n"/>
       <c r="C919" s="5" t="n"/>
@@ -28290,7 +28312,7 @@
       <c r="AA919" s="5" t="n"/>
       <c r="AB919" s="5" t="n"/>
     </row>
-    <row r="920" ht="17.4" customHeight="1" s="17">
+    <row r="920" ht="17.4" customHeight="1" s="18">
       <c r="A920" s="5" t="n"/>
       <c r="B920" s="5" t="n"/>
       <c r="C920" s="5" t="n"/>
@@ -28320,7 +28342,7 @@
       <c r="AA920" s="5" t="n"/>
       <c r="AB920" s="5" t="n"/>
     </row>
-    <row r="921" ht="17.4" customHeight="1" s="17">
+    <row r="921" ht="17.4" customHeight="1" s="18">
       <c r="A921" s="5" t="n"/>
       <c r="B921" s="5" t="n"/>
       <c r="C921" s="5" t="n"/>
@@ -28350,7 +28372,7 @@
       <c r="AA921" s="5" t="n"/>
       <c r="AB921" s="5" t="n"/>
     </row>
-    <row r="922" ht="17.4" customHeight="1" s="17">
+    <row r="922" ht="17.4" customHeight="1" s="18">
       <c r="A922" s="5" t="n"/>
       <c r="B922" s="5" t="n"/>
       <c r="C922" s="5" t="n"/>
@@ -28380,7 +28402,7 @@
       <c r="AA922" s="5" t="n"/>
       <c r="AB922" s="5" t="n"/>
     </row>
-    <row r="923" ht="17.4" customHeight="1" s="17">
+    <row r="923" ht="17.4" customHeight="1" s="18">
       <c r="A923" s="5" t="n"/>
       <c r="B923" s="5" t="n"/>
       <c r="C923" s="5" t="n"/>
@@ -28410,7 +28432,7 @@
       <c r="AA923" s="5" t="n"/>
       <c r="AB923" s="5" t="n"/>
     </row>
-    <row r="924" ht="17.4" customHeight="1" s="17">
+    <row r="924" ht="17.4" customHeight="1" s="18">
       <c r="A924" s="5" t="n"/>
       <c r="B924" s="5" t="n"/>
       <c r="C924" s="5" t="n"/>
@@ -28440,7 +28462,7 @@
       <c r="AA924" s="5" t="n"/>
       <c r="AB924" s="5" t="n"/>
     </row>
-    <row r="925" ht="17.4" customHeight="1" s="17">
+    <row r="925" ht="17.4" customHeight="1" s="18">
       <c r="A925" s="5" t="n"/>
       <c r="B925" s="5" t="n"/>
       <c r="C925" s="5" t="n"/>
@@ -28470,7 +28492,7 @@
       <c r="AA925" s="5" t="n"/>
       <c r="AB925" s="5" t="n"/>
     </row>
-    <row r="926" ht="17.4" customHeight="1" s="17">
+    <row r="926" ht="17.4" customHeight="1" s="18">
       <c r="A926" s="5" t="n"/>
       <c r="B926" s="5" t="n"/>
       <c r="C926" s="5" t="n"/>
@@ -28500,7 +28522,7 @@
       <c r="AA926" s="5" t="n"/>
       <c r="AB926" s="5" t="n"/>
     </row>
-    <row r="927" ht="17.4" customHeight="1" s="17">
+    <row r="927" ht="17.4" customHeight="1" s="18">
       <c r="A927" s="5" t="n"/>
       <c r="B927" s="5" t="n"/>
       <c r="C927" s="5" t="n"/>
@@ -28530,7 +28552,7 @@
       <c r="AA927" s="5" t="n"/>
       <c r="AB927" s="5" t="n"/>
     </row>
-    <row r="928" ht="17.4" customHeight="1" s="17">
+    <row r="928" ht="17.4" customHeight="1" s="18">
       <c r="A928" s="5" t="n"/>
       <c r="B928" s="5" t="n"/>
       <c r="C928" s="5" t="n"/>
@@ -28560,7 +28582,7 @@
       <c r="AA928" s="5" t="n"/>
       <c r="AB928" s="5" t="n"/>
     </row>
-    <row r="929" ht="17.4" customHeight="1" s="17">
+    <row r="929" ht="17.4" customHeight="1" s="18">
       <c r="A929" s="5" t="n"/>
       <c r="B929" s="5" t="n"/>
       <c r="C929" s="5" t="n"/>
@@ -28590,7 +28612,7 @@
       <c r="AA929" s="5" t="n"/>
       <c r="AB929" s="5" t="n"/>
     </row>
-    <row r="930" ht="17.4" customHeight="1" s="17">
+    <row r="930" ht="17.4" customHeight="1" s="18">
       <c r="A930" s="5" t="n"/>
       <c r="B930" s="5" t="n"/>
       <c r="C930" s="5" t="n"/>
@@ -28620,7 +28642,7 @@
       <c r="AA930" s="5" t="n"/>
       <c r="AB930" s="5" t="n"/>
     </row>
-    <row r="931" ht="17.4" customHeight="1" s="17">
+    <row r="931" ht="17.4" customHeight="1" s="18">
       <c r="A931" s="5" t="n"/>
       <c r="B931" s="5" t="n"/>
       <c r="C931" s="5" t="n"/>
@@ -28650,7 +28672,7 @@
       <c r="AA931" s="5" t="n"/>
       <c r="AB931" s="5" t="n"/>
     </row>
-    <row r="932" ht="17.4" customHeight="1" s="17">
+    <row r="932" ht="17.4" customHeight="1" s="18">
       <c r="A932" s="5" t="n"/>
       <c r="B932" s="5" t="n"/>
       <c r="C932" s="5" t="n"/>
@@ -28680,7 +28702,7 @@
       <c r="AA932" s="5" t="n"/>
       <c r="AB932" s="5" t="n"/>
     </row>
-    <row r="933" ht="17.4" customHeight="1" s="17">
+    <row r="933" ht="17.4" customHeight="1" s="18">
       <c r="A933" s="5" t="n"/>
       <c r="B933" s="5" t="n"/>
       <c r="C933" s="5" t="n"/>
@@ -28710,7 +28732,7 @@
       <c r="AA933" s="5" t="n"/>
       <c r="AB933" s="5" t="n"/>
     </row>
-    <row r="934" ht="17.4" customHeight="1" s="17">
+    <row r="934" ht="17.4" customHeight="1" s="18">
       <c r="A934" s="5" t="n"/>
       <c r="B934" s="5" t="n"/>
       <c r="C934" s="5" t="n"/>
@@ -28740,7 +28762,7 @@
       <c r="AA934" s="5" t="n"/>
       <c r="AB934" s="5" t="n"/>
     </row>
-    <row r="935" ht="17.4" customHeight="1" s="17">
+    <row r="935" ht="17.4" customHeight="1" s="18">
       <c r="A935" s="5" t="n"/>
       <c r="B935" s="5" t="n"/>
       <c r="C935" s="5" t="n"/>
@@ -28770,7 +28792,7 @@
       <c r="AA935" s="5" t="n"/>
       <c r="AB935" s="5" t="n"/>
     </row>
-    <row r="936" ht="17.4" customHeight="1" s="17">
+    <row r="936" ht="17.4" customHeight="1" s="18">
       <c r="A936" s="5" t="n"/>
       <c r="B936" s="5" t="n"/>
       <c r="C936" s="5" t="n"/>
@@ -28800,7 +28822,7 @@
       <c r="AA936" s="5" t="n"/>
       <c r="AB936" s="5" t="n"/>
     </row>
-    <row r="937" ht="17.4" customHeight="1" s="17">
+    <row r="937" ht="17.4" customHeight="1" s="18">
       <c r="A937" s="5" t="n"/>
       <c r="B937" s="5" t="n"/>
       <c r="C937" s="5" t="n"/>
@@ -28830,7 +28852,7 @@
       <c r="AA937" s="5" t="n"/>
       <c r="AB937" s="5" t="n"/>
     </row>
-    <row r="938" ht="17.4" customHeight="1" s="17">
+    <row r="938" ht="17.4" customHeight="1" s="18">
       <c r="A938" s="5" t="n"/>
       <c r="B938" s="5" t="n"/>
       <c r="C938" s="5" t="n"/>
@@ -28860,7 +28882,7 @@
       <c r="AA938" s="5" t="n"/>
       <c r="AB938" s="5" t="n"/>
     </row>
-    <row r="939" ht="17.4" customHeight="1" s="17">
+    <row r="939" ht="17.4" customHeight="1" s="18">
       <c r="A939" s="5" t="n"/>
       <c r="B939" s="5" t="n"/>
       <c r="C939" s="5" t="n"/>
@@ -28890,7 +28912,7 @@
       <c r="AA939" s="5" t="n"/>
       <c r="AB939" s="5" t="n"/>
     </row>
-    <row r="940" ht="17.4" customHeight="1" s="17">
+    <row r="940" ht="17.4" customHeight="1" s="18">
       <c r="A940" s="5" t="n"/>
       <c r="B940" s="5" t="n"/>
       <c r="C940" s="5" t="n"/>
@@ -28920,7 +28942,7 @@
       <c r="AA940" s="5" t="n"/>
       <c r="AB940" s="5" t="n"/>
     </row>
-    <row r="941" ht="17.4" customHeight="1" s="17">
+    <row r="941" ht="17.4" customHeight="1" s="18">
       <c r="A941" s="5" t="n"/>
       <c r="B941" s="5" t="n"/>
       <c r="C941" s="5" t="n"/>
@@ -28950,7 +28972,7 @@
       <c r="AA941" s="5" t="n"/>
       <c r="AB941" s="5" t="n"/>
     </row>
-    <row r="942" ht="17.4" customHeight="1" s="17">
+    <row r="942" ht="17.4" customHeight="1" s="18">
       <c r="A942" s="5" t="n"/>
       <c r="B942" s="5" t="n"/>
       <c r="C942" s="5" t="n"/>
@@ -28980,7 +29002,7 @@
       <c r="AA942" s="5" t="n"/>
       <c r="AB942" s="5" t="n"/>
     </row>
-    <row r="943" ht="17.4" customHeight="1" s="17">
+    <row r="943" ht="17.4" customHeight="1" s="18">
       <c r="A943" s="5" t="n"/>
       <c r="B943" s="5" t="n"/>
       <c r="C943" s="5" t="n"/>
@@ -29010,7 +29032,7 @@
       <c r="AA943" s="5" t="n"/>
       <c r="AB943" s="5" t="n"/>
     </row>
-    <row r="944" ht="17.4" customHeight="1" s="17">
+    <row r="944" ht="17.4" customHeight="1" s="18">
       <c r="A944" s="5" t="n"/>
       <c r="B944" s="5" t="n"/>
       <c r="C944" s="5" t="n"/>
@@ -29040,7 +29062,7 @@
       <c r="AA944" s="5" t="n"/>
       <c r="AB944" s="5" t="n"/>
     </row>
-    <row r="945" ht="17.4" customHeight="1" s="17">
+    <row r="945" ht="17.4" customHeight="1" s="18">
       <c r="A945" s="5" t="n"/>
       <c r="B945" s="5" t="n"/>
       <c r="C945" s="5" t="n"/>
@@ -29070,7 +29092,7 @@
       <c r="AA945" s="5" t="n"/>
       <c r="AB945" s="5" t="n"/>
     </row>
-    <row r="946" ht="17.4" customHeight="1" s="17">
+    <row r="946" ht="17.4" customHeight="1" s="18">
       <c r="A946" s="5" t="n"/>
       <c r="B946" s="5" t="n"/>
       <c r="C946" s="5" t="n"/>
@@ -29100,7 +29122,7 @@
       <c r="AA946" s="5" t="n"/>
       <c r="AB946" s="5" t="n"/>
     </row>
-    <row r="947" ht="17.4" customHeight="1" s="17">
+    <row r="947" ht="17.4" customHeight="1" s="18">
       <c r="A947" s="5" t="n"/>
       <c r="B947" s="5" t="n"/>
       <c r="C947" s="5" t="n"/>
@@ -29130,7 +29152,7 @@
       <c r="AA947" s="5" t="n"/>
       <c r="AB947" s="5" t="n"/>
     </row>
-    <row r="948" ht="17.4" customHeight="1" s="17">
+    <row r="948" ht="17.4" customHeight="1" s="18">
       <c r="A948" s="5" t="n"/>
       <c r="B948" s="5" t="n"/>
       <c r="C948" s="5" t="n"/>
@@ -29160,7 +29182,7 @@
       <c r="AA948" s="5" t="n"/>
       <c r="AB948" s="5" t="n"/>
     </row>
-    <row r="949" ht="17.4" customHeight="1" s="17">
+    <row r="949" ht="17.4" customHeight="1" s="18">
       <c r="A949" s="5" t="n"/>
       <c r="B949" s="5" t="n"/>
       <c r="C949" s="5" t="n"/>
@@ -29190,7 +29212,7 @@
       <c r="AA949" s="5" t="n"/>
       <c r="AB949" s="5" t="n"/>
     </row>
-    <row r="950" ht="17.4" customHeight="1" s="17">
+    <row r="950" ht="17.4" customHeight="1" s="18">
       <c r="A950" s="5" t="n"/>
       <c r="B950" s="5" t="n"/>
       <c r="C950" s="5" t="n"/>
@@ -29220,7 +29242,7 @@
       <c r="AA950" s="5" t="n"/>
       <c r="AB950" s="5" t="n"/>
     </row>
-    <row r="951" ht="17.4" customHeight="1" s="17">
+    <row r="951" ht="17.4" customHeight="1" s="18">
       <c r="A951" s="5" t="n"/>
       <c r="B951" s="5" t="n"/>
       <c r="C951" s="5" t="n"/>
@@ -29250,7 +29272,7 @@
       <c r="AA951" s="5" t="n"/>
       <c r="AB951" s="5" t="n"/>
     </row>
-    <row r="952" ht="17.4" customHeight="1" s="17">
+    <row r="952" ht="17.4" customHeight="1" s="18">
       <c r="A952" s="5" t="n"/>
       <c r="B952" s="5" t="n"/>
       <c r="C952" s="5" t="n"/>
@@ -29280,7 +29302,7 @@
       <c r="AA952" s="5" t="n"/>
       <c r="AB952" s="5" t="n"/>
     </row>
-    <row r="953" ht="17.4" customHeight="1" s="17">
+    <row r="953" ht="17.4" customHeight="1" s="18">
       <c r="A953" s="5" t="n"/>
       <c r="B953" s="5" t="n"/>
       <c r="C953" s="5" t="n"/>
@@ -29310,7 +29332,7 @@
       <c r="AA953" s="5" t="n"/>
       <c r="AB953" s="5" t="n"/>
     </row>
-    <row r="954" ht="17.4" customHeight="1" s="17">
+    <row r="954" ht="17.4" customHeight="1" s="18">
       <c r="A954" s="5" t="n"/>
       <c r="B954" s="5" t="n"/>
       <c r="C954" s="5" t="n"/>
@@ -29340,7 +29362,7 @@
       <c r="AA954" s="5" t="n"/>
       <c r="AB954" s="5" t="n"/>
     </row>
-    <row r="955" ht="17.4" customHeight="1" s="17">
+    <row r="955" ht="17.4" customHeight="1" s="18">
       <c r="A955" s="5" t="n"/>
       <c r="B955" s="5" t="n"/>
       <c r="C955" s="5" t="n"/>
@@ -29370,7 +29392,7 @@
       <c r="AA955" s="5" t="n"/>
       <c r="AB955" s="5" t="n"/>
     </row>
-    <row r="956" ht="17.4" customHeight="1" s="17">
+    <row r="956" ht="17.4" customHeight="1" s="18">
       <c r="A956" s="5" t="n"/>
       <c r="B956" s="5" t="n"/>
       <c r="C956" s="5" t="n"/>
@@ -29400,7 +29422,7 @@
       <c r="AA956" s="5" t="n"/>
       <c r="AB956" s="5" t="n"/>
     </row>
-    <row r="957" ht="17.4" customHeight="1" s="17">
+    <row r="957" ht="17.4" customHeight="1" s="18">
       <c r="A957" s="5" t="n"/>
       <c r="B957" s="5" t="n"/>
       <c r="C957" s="5" t="n"/>
@@ -29430,7 +29452,7 @@
       <c r="AA957" s="5" t="n"/>
       <c r="AB957" s="5" t="n"/>
     </row>
-    <row r="958" ht="17.4" customHeight="1" s="17">
+    <row r="958" ht="17.4" customHeight="1" s="18">
       <c r="A958" s="5" t="n"/>
       <c r="B958" s="5" t="n"/>
       <c r="C958" s="5" t="n"/>
@@ -29460,7 +29482,7 @@
       <c r="AA958" s="5" t="n"/>
       <c r="AB958" s="5" t="n"/>
     </row>
-    <row r="959" ht="17.4" customHeight="1" s="17">
+    <row r="959" ht="17.4" customHeight="1" s="18">
       <c r="A959" s="5" t="n"/>
       <c r="B959" s="5" t="n"/>
       <c r="C959" s="5" t="n"/>
@@ -29490,7 +29512,7 @@
       <c r="AA959" s="5" t="n"/>
       <c r="AB959" s="5" t="n"/>
     </row>
-    <row r="960" ht="17.4" customHeight="1" s="17">
+    <row r="960" ht="17.4" customHeight="1" s="18">
       <c r="A960" s="5" t="n"/>
       <c r="B960" s="5" t="n"/>
       <c r="C960" s="5" t="n"/>
@@ -29520,7 +29542,7 @@
       <c r="AA960" s="5" t="n"/>
       <c r="AB960" s="5" t="n"/>
     </row>
-    <row r="961" ht="17.4" customHeight="1" s="17">
+    <row r="961" ht="17.4" customHeight="1" s="18">
       <c r="A961" s="5" t="n"/>
       <c r="B961" s="5" t="n"/>
       <c r="C961" s="5" t="n"/>
@@ -29550,7 +29572,7 @@
       <c r="AA961" s="5" t="n"/>
       <c r="AB961" s="5" t="n"/>
     </row>
-    <row r="962" ht="17.4" customHeight="1" s="17">
+    <row r="962" ht="17.4" customHeight="1" s="18">
       <c r="A962" s="5" t="n"/>
       <c r="B962" s="5" t="n"/>
       <c r="C962" s="5" t="n"/>
@@ -29580,7 +29602,7 @@
       <c r="AA962" s="5" t="n"/>
       <c r="AB962" s="5" t="n"/>
     </row>
-    <row r="963" ht="17.4" customHeight="1" s="17">
+    <row r="963" ht="17.4" customHeight="1" s="18">
       <c r="A963" s="5" t="n"/>
       <c r="B963" s="5" t="n"/>
       <c r="C963" s="5" t="n"/>
@@ -29610,7 +29632,7 @@
       <c r="AA963" s="5" t="n"/>
       <c r="AB963" s="5" t="n"/>
     </row>
-    <row r="964" ht="17.4" customHeight="1" s="17">
+    <row r="964" ht="17.4" customHeight="1" s="18">
       <c r="A964" s="5" t="n"/>
       <c r="B964" s="5" t="n"/>
       <c r="C964" s="5" t="n"/>
@@ -29640,7 +29662,7 @@
       <c r="AA964" s="5" t="n"/>
       <c r="AB964" s="5" t="n"/>
     </row>
-    <row r="965" ht="17.4" customHeight="1" s="17">
+    <row r="965" ht="17.4" customHeight="1" s="18">
       <c r="A965" s="5" t="n"/>
       <c r="B965" s="5" t="n"/>
       <c r="C965" s="5" t="n"/>
@@ -29670,7 +29692,7 @@
       <c r="AA965" s="5" t="n"/>
       <c r="AB965" s="5" t="n"/>
     </row>
-    <row r="966" ht="17.4" customHeight="1" s="17">
+    <row r="966" ht="17.4" customHeight="1" s="18">
       <c r="A966" s="5" t="n"/>
       <c r="B966" s="5" t="n"/>
       <c r="C966" s="5" t="n"/>
@@ -29700,7 +29722,7 @@
       <c r="AA966" s="5" t="n"/>
       <c r="AB966" s="5" t="n"/>
     </row>
-    <row r="967" ht="17.4" customHeight="1" s="17">
+    <row r="967" ht="17.4" customHeight="1" s="18">
       <c r="A967" s="5" t="n"/>
       <c r="B967" s="5" t="n"/>
       <c r="C967" s="5" t="n"/>
@@ -29730,7 +29752,7 @@
       <c r="AA967" s="5" t="n"/>
       <c r="AB967" s="5" t="n"/>
     </row>
-    <row r="968" ht="17.4" customHeight="1" s="17">
+    <row r="968" ht="17.4" customHeight="1" s="18">
       <c r="A968" s="5" t="n"/>
       <c r="B968" s="5" t="n"/>
       <c r="C968" s="5" t="n"/>
@@ -29760,7 +29782,7 @@
       <c r="AA968" s="5" t="n"/>
       <c r="AB968" s="5" t="n"/>
     </row>
-    <row r="969" ht="17.4" customHeight="1" s="17">
+    <row r="969" ht="17.4" customHeight="1" s="18">
       <c r="A969" s="5" t="n"/>
       <c r="B969" s="5" t="n"/>
       <c r="C969" s="5" t="n"/>
@@ -29790,7 +29812,7 @@
       <c r="AA969" s="5" t="n"/>
       <c r="AB969" s="5" t="n"/>
     </row>
-    <row r="970" ht="17.4" customHeight="1" s="17">
+    <row r="970" ht="17.4" customHeight="1" s="18">
       <c r="A970" s="5" t="n"/>
       <c r="B970" s="5" t="n"/>
       <c r="C970" s="5" t="n"/>
@@ -29820,7 +29842,7 @@
       <c r="AA970" s="5" t="n"/>
       <c r="AB970" s="5" t="n"/>
     </row>
-    <row r="971" ht="17.4" customHeight="1" s="17">
+    <row r="971" ht="17.4" customHeight="1" s="18">
       <c r="A971" s="5" t="n"/>
       <c r="B971" s="5" t="n"/>
       <c r="C971" s="5" t="n"/>
@@ -29850,7 +29872,7 @@
       <c r="AA971" s="5" t="n"/>
       <c r="AB971" s="5" t="n"/>
     </row>
-    <row r="972" ht="17.4" customHeight="1" s="17">
+    <row r="972" ht="17.4" customHeight="1" s="18">
       <c r="A972" s="5" t="n"/>
       <c r="B972" s="5" t="n"/>
       <c r="C972" s="5" t="n"/>
@@ -29880,7 +29902,7 @@
       <c r="AA972" s="5" t="n"/>
       <c r="AB972" s="5" t="n"/>
     </row>
-    <row r="973" ht="17.4" customHeight="1" s="17">
+    <row r="973" ht="17.4" customHeight="1" s="18">
       <c r="A973" s="5" t="n"/>
       <c r="B973" s="5" t="n"/>
       <c r="C973" s="5" t="n"/>
@@ -29910,7 +29932,7 @@
       <c r="AA973" s="5" t="n"/>
       <c r="AB973" s="5" t="n"/>
     </row>
-    <row r="974" ht="17.4" customHeight="1" s="17">
+    <row r="974" ht="17.4" customHeight="1" s="18">
       <c r="A974" s="5" t="n"/>
       <c r="B974" s="5" t="n"/>
       <c r="C974" s="5" t="n"/>
@@ -29940,7 +29962,7 @@
       <c r="AA974" s="5" t="n"/>
       <c r="AB974" s="5" t="n"/>
     </row>
-    <row r="975" ht="17.4" customHeight="1" s="17">
+    <row r="975" ht="17.4" customHeight="1" s="18">
       <c r="A975" s="5" t="n"/>
       <c r="B975" s="5" t="n"/>
       <c r="C975" s="5" t="n"/>
@@ -29970,7 +29992,7 @@
       <c r="AA975" s="5" t="n"/>
       <c r="AB975" s="5" t="n"/>
     </row>
-    <row r="976" ht="17.4" customHeight="1" s="17">
+    <row r="976" ht="17.4" customHeight="1" s="18">
       <c r="A976" s="5" t="n"/>
       <c r="B976" s="5" t="n"/>
       <c r="C976" s="5" t="n"/>
@@ -30000,7 +30022,7 @@
       <c r="AA976" s="5" t="n"/>
       <c r="AB976" s="5" t="n"/>
     </row>
-    <row r="977" ht="17.4" customHeight="1" s="17">
+    <row r="977" ht="17.4" customHeight="1" s="18">
       <c r="A977" s="5" t="n"/>
       <c r="B977" s="5" t="n"/>
       <c r="C977" s="5" t="n"/>
@@ -30030,7 +30052,7 @@
       <c r="AA977" s="5" t="n"/>
       <c r="AB977" s="5" t="n"/>
     </row>
-    <row r="978" ht="17.4" customHeight="1" s="17">
+    <row r="978" ht="17.4" customHeight="1" s="18">
       <c r="A978" s="5" t="n"/>
       <c r="B978" s="5" t="n"/>
       <c r="C978" s="5" t="n"/>
@@ -30060,7 +30082,7 @@
       <c r="AA978" s="5" t="n"/>
       <c r="AB978" s="5" t="n"/>
     </row>
-    <row r="979" ht="17.4" customHeight="1" s="17">
+    <row r="979" ht="17.4" customHeight="1" s="18">
       <c r="A979" s="5" t="n"/>
       <c r="B979" s="5" t="n"/>
       <c r="C979" s="5" t="n"/>
@@ -30090,7 +30112,7 @@
       <c r="AA979" s="5" t="n"/>
       <c r="AB979" s="5" t="n"/>
     </row>
-    <row r="980" ht="17.4" customHeight="1" s="17">
+    <row r="980" ht="17.4" customHeight="1" s="18">
       <c r="A980" s="5" t="n"/>
       <c r="B980" s="5" t="n"/>
       <c r="C980" s="5" t="n"/>
@@ -30120,7 +30142,7 @@
       <c r="AA980" s="5" t="n"/>
       <c r="AB980" s="5" t="n"/>
     </row>
-    <row r="981" ht="17.4" customHeight="1" s="17">
+    <row r="981" ht="17.4" customHeight="1" s="18">
       <c r="A981" s="5" t="n"/>
       <c r="B981" s="5" t="n"/>
       <c r="C981" s="5" t="n"/>
@@ -30150,7 +30172,7 @@
       <c r="AA981" s="5" t="n"/>
       <c r="AB981" s="5" t="n"/>
     </row>
-    <row r="982" ht="17.4" customHeight="1" s="17">
+    <row r="982" ht="17.4" customHeight="1" s="18">
       <c r="A982" s="5" t="n"/>
       <c r="B982" s="5" t="n"/>
       <c r="C982" s="5" t="n"/>
@@ -30180,7 +30202,7 @@
       <c r="AA982" s="5" t="n"/>
       <c r="AB982" s="5" t="n"/>
     </row>
-    <row r="983" ht="17.4" customHeight="1" s="17">
+    <row r="983" ht="17.4" customHeight="1" s="18">
       <c r="A983" s="5" t="n"/>
       <c r="B983" s="5" t="n"/>
       <c r="C983" s="5" t="n"/>
@@ -30210,7 +30232,7 @@
       <c r="AA983" s="5" t="n"/>
       <c r="AB983" s="5" t="n"/>
     </row>
-    <row r="984" ht="17.4" customHeight="1" s="17">
+    <row r="984" ht="17.4" customHeight="1" s="18">
       <c r="A984" s="5" t="n"/>
       <c r="B984" s="5" t="n"/>
       <c r="C984" s="5" t="n"/>
@@ -30240,7 +30262,7 @@
       <c r="AA984" s="5" t="n"/>
       <c r="AB984" s="5" t="n"/>
     </row>
-    <row r="985" ht="17.4" customHeight="1" s="17">
+    <row r="985" ht="17.4" customHeight="1" s="18">
       <c r="A985" s="5" t="n"/>
       <c r="B985" s="5" t="n"/>
       <c r="C985" s="5" t="n"/>
@@ -30270,13 +30292,130 @@
       <c r="AA985" s="5" t="n"/>
       <c r="AB985" s="5" t="n"/>
     </row>
-    <row r="986" ht="17.4" customHeight="1" s="17"/>
-    <row r="987" ht="17.4" customHeight="1" s="17"/>
-    <row r="988" ht="17.4" customHeight="1" s="17"/>
-    <row r="989" ht="17.4" customHeight="1" s="17"/>
-    <row r="990" ht="17.4" customHeight="1" s="17"/>
-    <row r="991" ht="17.4" customHeight="1" s="17"/>
-    <row r="992" ht="17.4" customHeight="1" s="17"/>
+    <row r="986" ht="17.4" customHeight="1" s="18">
+      <c r="A986" s="5" t="n"/>
+      <c r="B986" s="5" t="n"/>
+      <c r="C986" s="5" t="n"/>
+      <c r="D986" s="5" t="n"/>
+      <c r="E986" s="5" t="n"/>
+      <c r="F986" s="5" t="n"/>
+      <c r="G986" s="5" t="n"/>
+      <c r="H986" s="5" t="n"/>
+      <c r="I986" s="5" t="n"/>
+      <c r="J986" s="5" t="n"/>
+      <c r="K986" s="5" t="n"/>
+      <c r="L986" s="5" t="n"/>
+      <c r="M986" s="5" t="n"/>
+      <c r="N986" s="5" t="n"/>
+      <c r="O986" s="5" t="n"/>
+      <c r="P986" s="5" t="n"/>
+      <c r="Q986" s="5" t="n"/>
+      <c r="R986" s="5" t="n"/>
+      <c r="S986" s="5" t="n"/>
+      <c r="T986" s="5" t="n"/>
+      <c r="U986" s="5" t="n"/>
+      <c r="V986" s="5" t="n"/>
+      <c r="W986" s="5" t="n"/>
+      <c r="X986" s="5" t="n"/>
+      <c r="Y986" s="5" t="n"/>
+      <c r="Z986" s="5" t="n"/>
+      <c r="AA986" s="5" t="n"/>
+      <c r="AB986" s="5" t="n"/>
+    </row>
+    <row r="987" ht="17.4" customHeight="1" s="18">
+      <c r="A987" s="5" t="n"/>
+      <c r="B987" s="5" t="n"/>
+      <c r="C987" s="5" t="n"/>
+      <c r="D987" s="5" t="n"/>
+      <c r="E987" s="5" t="n"/>
+      <c r="F987" s="5" t="n"/>
+      <c r="G987" s="5" t="n"/>
+      <c r="H987" s="5" t="n"/>
+      <c r="I987" s="5" t="n"/>
+      <c r="J987" s="5" t="n"/>
+      <c r="K987" s="5" t="n"/>
+      <c r="L987" s="5" t="n"/>
+      <c r="M987" s="5" t="n"/>
+      <c r="N987" s="5" t="n"/>
+      <c r="O987" s="5" t="n"/>
+      <c r="P987" s="5" t="n"/>
+      <c r="Q987" s="5" t="n"/>
+      <c r="R987" s="5" t="n"/>
+      <c r="S987" s="5" t="n"/>
+      <c r="T987" s="5" t="n"/>
+      <c r="U987" s="5" t="n"/>
+      <c r="V987" s="5" t="n"/>
+      <c r="W987" s="5" t="n"/>
+      <c r="X987" s="5" t="n"/>
+      <c r="Y987" s="5" t="n"/>
+      <c r="Z987" s="5" t="n"/>
+      <c r="AA987" s="5" t="n"/>
+      <c r="AB987" s="5" t="n"/>
+    </row>
+    <row r="988" ht="17.4" customHeight="1" s="18">
+      <c r="A988" s="5" t="n"/>
+      <c r="B988" s="5" t="n"/>
+      <c r="C988" s="5" t="n"/>
+      <c r="D988" s="5" t="n"/>
+      <c r="E988" s="5" t="n"/>
+      <c r="F988" s="5" t="n"/>
+      <c r="G988" s="5" t="n"/>
+      <c r="H988" s="5" t="n"/>
+      <c r="I988" s="5" t="n"/>
+      <c r="J988" s="5" t="n"/>
+      <c r="K988" s="5" t="n"/>
+      <c r="L988" s="5" t="n"/>
+      <c r="M988" s="5" t="n"/>
+      <c r="N988" s="5" t="n"/>
+      <c r="O988" s="5" t="n"/>
+      <c r="P988" s="5" t="n"/>
+      <c r="Q988" s="5" t="n"/>
+      <c r="R988" s="5" t="n"/>
+      <c r="S988" s="5" t="n"/>
+      <c r="T988" s="5" t="n"/>
+      <c r="U988" s="5" t="n"/>
+      <c r="V988" s="5" t="n"/>
+      <c r="W988" s="5" t="n"/>
+      <c r="X988" s="5" t="n"/>
+      <c r="Y988" s="5" t="n"/>
+      <c r="Z988" s="5" t="n"/>
+      <c r="AA988" s="5" t="n"/>
+      <c r="AB988" s="5" t="n"/>
+    </row>
+    <row r="989" ht="17.4" customHeight="1" s="18">
+      <c r="A989" s="5" t="n"/>
+      <c r="B989" s="5" t="n"/>
+      <c r="C989" s="5" t="n"/>
+      <c r="D989" s="5" t="n"/>
+      <c r="E989" s="5" t="n"/>
+      <c r="F989" s="5" t="n"/>
+      <c r="G989" s="5" t="n"/>
+      <c r="H989" s="5" t="n"/>
+      <c r="I989" s="5" t="n"/>
+      <c r="J989" s="5" t="n"/>
+      <c r="K989" s="5" t="n"/>
+      <c r="L989" s="5" t="n"/>
+      <c r="M989" s="5" t="n"/>
+      <c r="N989" s="5" t="n"/>
+      <c r="O989" s="5" t="n"/>
+      <c r="P989" s="5" t="n"/>
+      <c r="Q989" s="5" t="n"/>
+      <c r="R989" s="5" t="n"/>
+      <c r="S989" s="5" t="n"/>
+      <c r="T989" s="5" t="n"/>
+      <c r="U989" s="5" t="n"/>
+      <c r="V989" s="5" t="n"/>
+      <c r="W989" s="5" t="n"/>
+      <c r="X989" s="5" t="n"/>
+      <c r="Y989" s="5" t="n"/>
+      <c r="Z989" s="5" t="n"/>
+      <c r="AA989" s="5" t="n"/>
+      <c r="AB989" s="5" t="n"/>
+    </row>
+    <row r="990" ht="17.4" customHeight="1" s="18"/>
+    <row r="991" ht="17.4" customHeight="1" s="18"/>
+    <row r="992" ht="17.4" customHeight="1" s="18"/>
+    <row r="993" ht="17.4" customHeight="1" s="18"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C2:E2"/>
